--- a/fcst_results/orig_series_HOU-Dom_results.xlsx
+++ b/fcst_results/orig_series_HOU-Dom_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>413059.3170362115</v>
+        <v>452861.0715957284</v>
       </c>
       <c r="C2" t="n">
-        <v>484997.5861146463</v>
+        <v>431396.2156579494</v>
       </c>
       <c r="D2" t="n">
+        <v>484997.7058758903</v>
+      </c>
+      <c r="E2" t="n">
         <v>448622.8529024446</v>
       </c>
-      <c r="E2" t="n">
-        <v>455774.761890534</v>
+      <c r="F2" t="n">
+        <v>461631.6306903377</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>400622.6910200119</v>
+        <v>459322.3284296989</v>
       </c>
       <c r="C3" t="n">
-        <v>481278.4583109817</v>
+        <v>432438.4651162624</v>
       </c>
       <c r="D3" t="n">
+        <v>481278.5842271234</v>
+      </c>
+      <c r="E3" t="n">
         <v>437166.8745786949</v>
       </c>
-      <c r="E3" t="n">
-        <v>448342.4366921858</v>
+      <c r="F3" t="n">
+        <v>462104.78596527</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>401352.927002728</v>
+        <v>464335.7360656261</v>
       </c>
       <c r="C4" t="n">
-        <v>498553.1854037594</v>
+        <v>431860.271255672</v>
       </c>
       <c r="D4" t="n">
+        <v>498553.3469020093</v>
+      </c>
+      <c r="E4" t="n">
         <v>448823.5974462835</v>
       </c>
-      <c r="E4" t="n">
-        <v>459038.3789673127</v>
+      <c r="F4" t="n">
+        <v>471303.639486758</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>410879.2406583428</v>
+        <v>459693.9000331163</v>
       </c>
       <c r="C5" t="n">
-        <v>450174.0992992357</v>
+        <v>425724.2195781469</v>
       </c>
       <c r="D5" t="n">
+        <v>450174.2054580956</v>
+      </c>
+      <c r="E5" t="n">
         <v>400453.0554511767</v>
       </c>
-      <c r="E5" t="n">
-        <v>432669.601941541</v>
+      <c r="F5" t="n">
+        <v>446617.5924589942</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>413964.3161223531</v>
+        <v>463406.8070570827</v>
       </c>
       <c r="C6" t="n">
-        <v>429466.1266237666</v>
+        <v>421353.1507954001</v>
       </c>
       <c r="D6" t="n">
+        <v>429466.2174350689</v>
+      </c>
+      <c r="E6" t="n">
         <v>382623.6229867304</v>
       </c>
-      <c r="E6" t="n">
-        <v>421154.0777264762</v>
+      <c r="F6" t="n">
+        <v>437772.2199945255</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>424930.9408726692</v>
+        <v>454949.6595778465</v>
       </c>
       <c r="C7" t="n">
-        <v>480709.0600438222</v>
+        <v>424683.179060936</v>
       </c>
       <c r="D7" t="n">
+        <v>480709.275685577</v>
+      </c>
+      <c r="E7" t="n">
         <v>453190.8828687236</v>
       </c>
-      <c r="E7" t="n">
-        <v>458086.2304498591</v>
+      <c r="F7" t="n">
+        <v>459384.819399558</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>420501.7362457514</v>
+        <v>467166.400541842</v>
       </c>
       <c r="C8" t="n">
-        <v>443179.5875215636</v>
+        <v>423428.1915257573</v>
       </c>
       <c r="D8" t="n">
+        <v>443179.7656568821</v>
+      </c>
+      <c r="E8" t="n">
         <v>423028.2202574082</v>
       </c>
-      <c r="E8" t="n">
-        <v>433518.7410457229</v>
+      <c r="F8" t="n">
+        <v>446685.7424093431</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>417372.3210889697</v>
+        <v>455793.9271521568</v>
       </c>
       <c r="C9" t="n">
-        <v>469632.2251447989</v>
+        <v>431547.0843960643</v>
       </c>
       <c r="D9" t="n">
+        <v>469632.4549534565</v>
+      </c>
+      <c r="E9" t="n">
         <v>449130.3793805084</v>
       </c>
-      <c r="E9" t="n">
-        <v>448709.1223824394</v>
+      <c r="F9" t="n">
+        <v>456336.8745919958</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>407046.7551365495</v>
+        <v>459762.9163472056</v>
       </c>
       <c r="C10" t="n">
-        <v>505506.0651705859</v>
+        <v>433244.7577171326</v>
       </c>
       <c r="D10" t="n">
+        <v>505506.354734558</v>
+      </c>
+      <c r="E10" t="n">
         <v>477175.0438679613</v>
       </c>
-      <c r="E10" t="n">
-        <v>466618.1061706438</v>
+      <c r="F10" t="n">
+        <v>473949.514651445</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>408038.2290685773</v>
+        <v>466774.9880815148</v>
       </c>
       <c r="C11" t="n">
-        <v>513475.5858133886</v>
+        <v>441710.5811266303</v>
       </c>
       <c r="D11" t="n">
+        <v>513475.8912195447</v>
+      </c>
+      <c r="E11" t="n">
         <v>482983.8480840219</v>
       </c>
-      <c r="E11" t="n">
-        <v>471823.6492842874</v>
+      <c r="F11" t="n">
+        <v>481608.1606666592</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>419749.4904235601</v>
+        <v>470191.9178780317</v>
       </c>
       <c r="C12" t="n">
-        <v>470612.3468794461</v>
+        <v>431650.0221751928</v>
       </c>
       <c r="D12" t="n">
+        <v>470612.5799763676</v>
+      </c>
+      <c r="E12" t="n">
         <v>436656.1487096669</v>
       </c>
-      <c r="E12" t="n">
-        <v>449525.233586825</v>
+      <c r="F12" t="n">
+        <v>461265.0813598318</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>426425.689874053</v>
+        <v>474471.9249501228</v>
       </c>
       <c r="C13" t="n">
-        <v>441618.4522888935</v>
+        <v>438974.4985131025</v>
       </c>
       <c r="D13" t="n">
+        <v>441618.6175856119</v>
+      </c>
+      <c r="E13" t="n">
         <v>384382.7385923929</v>
       </c>
-      <c r="E13" t="n">
-        <v>432886.9771722025</v>
+      <c r="F13" t="n">
+        <v>450270.7195153263</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>429060.1147637367</v>
+        <v>461161.981216073</v>
       </c>
       <c r="C14" t="n">
-        <v>487585.86625049</v>
+        <v>436044.4164097905</v>
       </c>
       <c r="D14" t="n">
+        <v>487586.1452833026</v>
+      </c>
+      <c r="E14" t="n">
         <v>439071.3945341054</v>
       </c>
-      <c r="E14" t="n">
-        <v>462834.0275959306</v>
+      <c r="F14" t="n">
+        <v>466154.6685956455</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>424501.411210537</v>
+        <v>474179.5745459795</v>
       </c>
       <c r="C15" t="n">
-        <v>484075.099318068</v>
+        <v>448291.132001698</v>
       </c>
       <c r="D15" t="n">
+        <v>484075.3707996707</v>
+      </c>
+      <c r="E15" t="n">
         <v>427232.6438331051</v>
       </c>
-      <c r="E15" t="n">
-        <v>458494.7300380672</v>
+      <c r="F15" t="n">
+        <v>471242.2374153287</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>416407.8705462813</v>
+        <v>486768.7760406733</v>
       </c>
       <c r="C16" t="n">
-        <v>500776.8286870691</v>
+        <v>453935.8557925224</v>
       </c>
       <c r="D16" t="n">
+        <v>500777.1295877778</v>
+      </c>
+      <c r="E16" t="n">
         <v>438701.0358348383</v>
       </c>
-      <c r="E16" t="n">
-        <v>465501.4211568726</v>
+      <c r="F16" t="n">
+        <v>484078.2566075087</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>439203.5928519368</v>
+        <v>471513.7527447343</v>
       </c>
       <c r="C17" t="n">
-        <v>454234.5955684311</v>
+        <v>453874.5553672314</v>
       </c>
       <c r="D17" t="n">
+        <v>454234.8171247311</v>
+      </c>
+      <c r="E17" t="n">
         <v>389365.2311649311</v>
       </c>
-      <c r="E17" t="n">
-        <v>445170.2639883166</v>
+      <c r="F17" t="n">
+        <v>457687.2533591205</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>435992.4319424033</v>
+        <v>483317.8892220259</v>
       </c>
       <c r="C18" t="n">
-        <v>434338.1314260365</v>
+        <v>447907.3998730779</v>
       </c>
       <c r="D18" t="n">
+        <v>434338.3227471138</v>
+      </c>
+      <c r="E18" t="n">
         <v>371642.7573115207</v>
       </c>
-      <c r="E18" t="n">
-        <v>431728.1955181212</v>
+      <c r="F18" t="n">
+        <v>451650.5131928119</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>430139.6991678476</v>
+        <v>481967.6442394257</v>
       </c>
       <c r="C19" t="n">
-        <v>483737.6906074809</v>
+        <v>451463.1445537806</v>
       </c>
       <c r="D19" t="n">
+        <v>483738.0123170394</v>
+      </c>
+      <c r="E19" t="n">
         <v>441334.4561095333</v>
       </c>
-      <c r="E19" t="n">
-        <v>461174.5918032916</v>
+      <c r="F19" t="n">
+        <v>474967.1053436971</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>428927.0245712399</v>
+        <v>464951.0159723759</v>
       </c>
       <c r="C20" t="n">
-        <v>447628.2018755316</v>
+        <v>448409.0037591457</v>
       </c>
       <c r="D20" t="n">
+        <v>447628.4681139401</v>
+      </c>
+      <c r="E20" t="n">
         <v>414458.0070360376</v>
       </c>
-      <c r="E20" t="n">
-        <v>438806.3604494061</v>
+      <c r="F20" t="n">
+        <v>452520.2726220423</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>426476.1809436083</v>
+        <v>480326.7200359702</v>
       </c>
       <c r="C21" t="n">
-        <v>473140.6158192882</v>
+        <v>446532.0871411562</v>
       </c>
       <c r="D21" t="n">
+        <v>473140.9351429828</v>
+      </c>
+      <c r="E21" t="n">
         <v>440104.6986493482</v>
       </c>
-      <c r="E21" t="n">
-        <v>453696.8645496709</v>
+      <c r="F21" t="n">
+        <v>468966.9698242272</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>429855.740237236</v>
+        <v>479370.5542955399</v>
       </c>
       <c r="C22" t="n">
-        <v>507723.3940432699</v>
+        <v>453538.9319830537</v>
       </c>
       <c r="D22" t="n">
+        <v>507723.778138442</v>
+      </c>
+      <c r="E22" t="n">
         <v>465650.7135399835</v>
       </c>
-      <c r="E22" t="n">
-        <v>475952.4618446818</v>
+      <c r="F22" t="n">
+        <v>485330.9567072619</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>436829.6947697401</v>
+        <v>491194.6383010149</v>
       </c>
       <c r="C23" t="n">
-        <v>515425.7440322334</v>
+        <v>455242.8633521795</v>
       </c>
       <c r="D23" t="n">
+        <v>515426.1416536451</v>
+      </c>
+      <c r="E23" t="n">
         <v>471677.2423470335</v>
       </c>
-      <c r="E23" t="n">
-        <v>483291.3783346387</v>
+      <c r="F23" t="n">
+        <v>493173.224725248</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>430110.5779101253</v>
+        <v>486088.8888991475</v>
       </c>
       <c r="C24" t="n">
-        <v>474163.8236882363</v>
+        <v>458204.0579103231</v>
       </c>
       <c r="D24" t="n">
+        <v>474164.1330657103</v>
+      </c>
+      <c r="E24" t="n">
         <v>425373.3255308414</v>
       </c>
-      <c r="E24" t="n">
-        <v>454898.7317099347</v>
+      <c r="F24" t="n">
+        <v>473199.7367229689</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>444837.6139582992</v>
+        <v>473763.4854643345</v>
       </c>
       <c r="C25" t="n">
-        <v>446257.8773632196</v>
+        <v>460158.4889872074</v>
       </c>
       <c r="D25" t="n">
+        <v>446258.108050049</v>
+      </c>
+      <c r="E25" t="n">
         <v>374720.4685252238</v>
       </c>
-      <c r="E25" t="n">
-        <v>442022.5339121188</v>
+      <c r="F25" t="n">
+        <v>455891.1027727953</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>435111.8961350322</v>
+        <v>492608.8504907489</v>
       </c>
       <c r="C26" t="n">
-        <v>490550.8862705639</v>
+        <v>453159.9645046592</v>
       </c>
       <c r="D26" t="n">
+        <v>490551.2391763288</v>
+      </c>
+      <c r="E26" t="n">
         <v>429511.1333435799</v>
       </c>
-      <c r="E26" t="n">
-        <v>466325.2922552901</v>
+      <c r="F26" t="n">
+        <v>481360.3006822725</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>432907.8898347616</v>
+        <v>488814.4821707606</v>
       </c>
       <c r="C27" t="n">
-        <v>487185.296419327</v>
+        <v>454293.6668016315</v>
       </c>
       <c r="D27" t="n">
+        <v>487185.6381555236</v>
+      </c>
+      <c r="E27" t="n">
         <v>417282.9820707724</v>
       </c>
-      <c r="E27" t="n">
-        <v>462943.395988426</v>
+      <c r="F27" t="n">
+        <v>478428.4986497134</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>425512.8326707482</v>
+        <v>501379.0426012278</v>
       </c>
       <c r="C28" t="n">
-        <v>503286.140930686</v>
+        <v>458218.0674042702</v>
       </c>
       <c r="D28" t="n">
+        <v>503286.5143406903</v>
+      </c>
+      <c r="E28" t="n">
         <v>428537.6857905939</v>
       </c>
-      <c r="E28" t="n">
-        <v>469863.0946448498</v>
+      <c r="F28" t="n">
+        <v>490649.4498668301</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>439913.7746351957</v>
+        <v>480643.3559334278</v>
       </c>
       <c r="C29" t="n">
-        <v>458469.9076146295</v>
+        <v>460239.3813697696</v>
       </c>
       <c r="D29" t="n">
+        <v>458470.186582376</v>
+      </c>
+      <c r="E29" t="n">
         <v>378264.880861424</v>
       </c>
-      <c r="E29" t="n">
-        <v>447273.4582839119</v>
+      <c r="F29" t="n">
+        <v>463468.6979309929</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>451214.1026867628</v>
+        <v>489028.4647458196</v>
       </c>
       <c r="C30" t="n">
-        <v>439316.9334245569</v>
+        <v>459645.8268457651</v>
       </c>
       <c r="D30" t="n">
+        <v>439317.1746154704</v>
+      </c>
+      <c r="E30" t="n">
         <v>360676.7430742009</v>
       </c>
-      <c r="E30" t="n">
-        <v>439776.6343419083</v>
+      <c r="F30" t="n">
+        <v>457657.1913243477</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>451405.9687510729</v>
+        <v>482094.6897264123</v>
       </c>
       <c r="C31" t="n">
-        <v>486907.3334628313</v>
+        <v>464808.9298357964</v>
       </c>
       <c r="D31" t="n">
+        <v>486907.7155140258</v>
+      </c>
+      <c r="E31" t="n">
         <v>435347.2692835885</v>
       </c>
-      <c r="E31" t="n">
-        <v>470749.7441437218</v>
+      <c r="F31" t="n">
+        <v>478811.7574381991</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>453917.1527625322</v>
+        <v>477509.6739256978</v>
       </c>
       <c r="C32" t="n">
-        <v>452135.850132654</v>
+        <v>471440.3984655142</v>
       </c>
       <c r="D32" t="n">
+        <v>452136.1649643568</v>
+      </c>
+      <c r="E32" t="n">
         <v>398687.2500553382</v>
       </c>
-      <c r="E32" t="n">
-        <v>450051.8603828626</v>
+      <c r="F32" t="n">
+        <v>462812.6399777362</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>434872.9169248343</v>
+        <v>497507.0531510711</v>
       </c>
       <c r="C33" t="n">
-        <v>476716.4532965361</v>
+        <v>470689.823826611</v>
       </c>
       <c r="D33" t="n">
+        <v>476716.8267213682</v>
+      </c>
+      <c r="E33" t="n">
         <v>425420.4798361226</v>
       </c>
-      <c r="E33" t="n">
-        <v>458161.8442400913</v>
+      <c r="F33" t="n">
+        <v>480739.4312452644</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>446017.327131331</v>
+        <v>487250.5390698314</v>
       </c>
       <c r="C34" t="n">
-        <v>510032.5815913674</v>
+        <v>472052.2648915052</v>
       </c>
       <c r="D34" t="n">
+        <v>510033.0281183593</v>
+      </c>
+      <c r="E34" t="n">
         <v>458424.9555405931</v>
       </c>
-      <c r="E34" t="n">
-        <v>483034.3933771515</v>
+      <c r="F34" t="n">
+        <v>492500.8402464762</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>450255.1279361248</v>
+        <v>487541.6094186902</v>
       </c>
       <c r="C35" t="n">
-        <v>517457.1941383206</v>
+        <v>465809.4708260894</v>
       </c>
       <c r="D35" t="n">
+        <v>517457.6553442726</v>
+      </c>
+      <c r="E35" t="n">
         <v>463919.1844587934</v>
       </c>
-      <c r="E35" t="n">
-        <v>489147.9770601703</v>
+      <c r="F35" t="n">
+        <v>494609.9922093107</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>441053.4149664044</v>
+        <v>490880.7047424912</v>
       </c>
       <c r="C36" t="n">
-        <v>477719.6304602945</v>
+        <v>465297.697611928</v>
       </c>
       <c r="D36" t="n">
+        <v>477719.9916859749</v>
+      </c>
+      <c r="E36" t="n">
         <v>417689.7864063014</v>
       </c>
-      <c r="E36" t="n">
-        <v>460681.7464466559</v>
+      <c r="F36" t="n">
+        <v>477479.1700103752</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>456722.4650326967</v>
+        <v>488275.4722247124</v>
       </c>
       <c r="C37" t="n">
-        <v>450845.6892198427</v>
+        <v>477884.2678818703</v>
       </c>
       <c r="D37" t="n">
+        <v>450845.9643390631</v>
+      </c>
+      <c r="E37" t="n">
         <v>362256.818111221</v>
       </c>
-      <c r="E37" t="n">
-        <v>448503.1040560259</v>
+      <c r="F37" t="n">
+        <v>465936.2363008126</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>450326.0287760496</v>
+        <v>494584.3669227362</v>
       </c>
       <c r="C38" t="n">
-        <v>493511.9234072923</v>
+        <v>473973.6278735399</v>
       </c>
       <c r="D38" t="n">
+        <v>493512.3307250073</v>
+      </c>
+      <c r="E38" t="n">
         <v>416534.2175314415</v>
       </c>
-      <c r="E38" t="n">
-        <v>473120.4088306611</v>
+      <c r="F38" t="n">
+        <v>487012.9212701161</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>461026.4020271897</v>
+        <v>504049.8068381548</v>
       </c>
       <c r="C39" t="n">
-        <v>490273.7956117464</v>
+        <v>474938.0428591371</v>
       </c>
       <c r="D39" t="n">
+        <v>490274.1904246107</v>
+      </c>
+      <c r="E39" t="n">
         <v>405453.6658581941</v>
       </c>
-      <c r="E39" t="n">
-        <v>474775.1851005477</v>
+      <c r="F39" t="n">
+        <v>488720.5645072295</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,19 +1387,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>155643.0345118228</v>
+        <v>155644.7420312889</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5744270787698624</v>
+        <v>0.5744324364176883</v>
       </c>
       <c r="M2" t="n">
-        <v>86988.98687859741</v>
+        <v>86989.95122707258</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4346520512805068</v>
+        <v>-0.434683529846184</v>
       </c>
       <c r="O2" t="n">
-        <v>568897.7504331857</v>
+        <v>568901.9433142123</v>
       </c>
       <c r="P2" t="n">
         <v>438059</v>
@@ -1356,19 +1408,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>59350.57655137285</v>
+        <v>91311.31890305088</v>
       </c>
       <c r="S2" t="n">
-        <v>45176.65628268386</v>
+        <v>45176.65603657423</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09586268789387317</v>
+        <v>0.09586269772498809</v>
       </c>
       <c r="U2" t="n">
-        <v>25398.09442944677</v>
+        <v>25398.08682029735</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7931423062163692</v>
+        <v>0.7931423084701734</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1379,16 +1431,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>155643.0345118228</v>
+        <v>155644.7420312889</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5744270787698624</v>
+        <v>0.5744324364176883</v>
       </c>
       <c r="AE2" t="n">
-        <v>86988.98687859741</v>
+        <v>86989.95122707258</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4346520512805068</v>
+        <v>-0.434683529846184</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1426,19 +1478,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>157515.7206875519</v>
+        <v>156243.8480563299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.584935656524909</v>
+        <v>0.5870943854917088</v>
       </c>
       <c r="M3" t="n">
-        <v>94016.11428805723</v>
+        <v>101689.216286469</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.469383009634982</v>
+        <v>-0.4457495225356529</v>
       </c>
       <c r="O3" t="n">
-        <v>585229.1917329929</v>
+        <v>585390.7036467666</v>
       </c>
       <c r="P3" t="n">
         <v>438059</v>
@@ -1447,19 +1499,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>91105.89224042946</v>
+        <v>149026.5078951009</v>
       </c>
       <c r="S3" t="n">
-        <v>51942.11186044129</v>
+        <v>63634.48229220051</v>
       </c>
       <c r="T3" t="n">
-        <v>0.14571481822143</v>
+        <v>0.1779352160022627</v>
       </c>
       <c r="U3" t="n">
-        <v>30144.73248589182</v>
+        <v>36801.86963070844</v>
       </c>
       <c r="V3" t="n">
-        <v>0.733115303174214</v>
+        <v>0.5994382312751839</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1467,25 +1519,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['arima', 'lstm', 'prophet']</t>
+          <t>['arima', 'lstm_reg', 'lstm', 'prophet']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5682412668570952, 0.38010043615589617, 0.051658296987008655)</t>
+          <t>(0.41373276406985954, 0.34525239168250094, 0.20340277478674307, 0.037612069460896326)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>157515.7206875519</v>
+        <v>156243.8480563299</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.584935656524909</v>
+        <v>0.5870943854917088</v>
       </c>
       <c r="AE3" t="n">
-        <v>94016.11428805723</v>
+        <v>101689.216286469</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.469383009634982</v>
+        <v>-0.4457495225356529</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1494,7 +1546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1505,7 +1557,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1529,19 +1581,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>165743.4268372475</v>
+        <v>161499.0763414059</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6224078086222388</v>
+        <v>0.598417733337934</v>
       </c>
       <c r="M4" t="n">
-        <v>120608.4338635963</v>
+        <v>128647.9810030452</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6268961537587994</v>
+        <v>-0.5446400468099766</v>
       </c>
       <c r="O4" t="n">
-        <v>604118.2510547638</v>
+        <v>591639.2190847397</v>
       </c>
       <c r="P4" t="n">
         <v>438059</v>
@@ -1550,19 +1602,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>269352.1429546422</v>
+        <v>267111.1289404412</v>
       </c>
       <c r="S4" t="n">
-        <v>97069.66249001733</v>
+        <v>98030.79830714762</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2595919293212235</v>
+        <v>0.2721878450263005</v>
       </c>
       <c r="U4" t="n">
-        <v>53781.17798879996</v>
+        <v>58947.10836740007</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06792361500973298</v>
+        <v>0.04937431512228208</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1573,16 +1625,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>165743.4268372475</v>
+        <v>161499.0763414059</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6224078086222388</v>
+        <v>0.598417733337934</v>
       </c>
       <c r="AE4" t="n">
-        <v>120608.4338635963</v>
+        <v>128647.9810030452</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.6268961537587994</v>
+        <v>-0.5446400468099766</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1591,21 +1643,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>249</v>
       </c>
@@ -1622,19 +1678,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>194861.4873539636</v>
+        <v>173949.9987023424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7061689650541826</v>
+        <v>0.6481006579578931</v>
       </c>
       <c r="M5" t="n">
-        <v>120519.0311274362</v>
+        <v>120883.6062186683</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.2487399268024</v>
+        <v>-0.7919919910714563</v>
       </c>
       <c r="O5" t="n">
-        <v>625889.8276721379</v>
+        <v>600834.7880570889</v>
       </c>
       <c r="P5" t="n">
         <v>438059</v>
@@ -1643,19 +1699,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>148689.0691233737</v>
+        <v>234344.7825684335</v>
       </c>
       <c r="S5" t="n">
-        <v>70443.24900339045</v>
+        <v>101513.9766034971</v>
       </c>
       <c r="T5" t="n">
-        <v>0.179171993878146</v>
+        <v>0.2674317980221051</v>
       </c>
       <c r="U5" t="n">
-        <v>42088.48965800526</v>
+        <v>55508.43971986197</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4970529469975647</v>
+        <v>-0.01938009043336364</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1722,111 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
+        <v>173949.9987023424</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.6481006579578931</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>120883.6062186683</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.7919919910714563</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>249</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>74</v>
+      </c>
+      <c r="K6" t="n">
         <v>194861.4873539636</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="L6" t="n">
         <v>0.7061689650541826</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="M6" t="n">
         <v>120519.0311274362</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="N6" t="n">
         <v>-1.2487399268024</v>
       </c>
-      <c r="AG5" t="b">
+      <c r="O6" t="n">
+        <v>625889.8276721379</v>
+      </c>
+      <c r="P6" t="n">
+        <v>438059</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>140885.8094799508</v>
+      </c>
+      <c r="S6" t="n">
+        <v>70443.24900339045</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.179171993878146</v>
+      </c>
+      <c r="U6" t="n">
+        <v>42088.48965800526</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.4970529469975647</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>194861.4873539636</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.7061689650541826</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>120519.0311274362</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-1.2487399268024</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4959,7 +5108,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>484997.5861146463</v>
+        <v>484997.7058758903</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4972,7 +5121,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>481278.4583109817</v>
+        <v>481278.5842271234</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4985,7 +5134,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>498553.1854037594</v>
+        <v>498553.3469020093</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4998,7 +5147,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>450174.0992992357</v>
+        <v>450174.2054580956</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5011,7 +5160,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>429466.1266237666</v>
+        <v>429466.2174350689</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5024,7 +5173,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>480709.0600438222</v>
+        <v>480709.275685577</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5037,7 +5186,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>443179.5875215636</v>
+        <v>443179.7656568821</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5050,7 +5199,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>469632.2251447989</v>
+        <v>469632.4549534565</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5063,7 +5212,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>505506.0651705859</v>
+        <v>505506.354734558</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5076,7 +5225,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>513475.5858133886</v>
+        <v>513475.8912195447</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5089,7 +5238,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>470612.3468794461</v>
+        <v>470612.5799763676</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5102,7 +5251,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>441618.4522888935</v>
+        <v>441618.6175856119</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5115,7 +5264,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>487585.86625049</v>
+        <v>487586.1452833026</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5128,7 +5277,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>484075.099318068</v>
+        <v>484075.3707996707</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5141,7 +5290,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>500776.8286870691</v>
+        <v>500777.1295877778</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5154,7 +5303,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>454234.5955684311</v>
+        <v>454234.8171247311</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5167,7 +5316,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>434338.1314260365</v>
+        <v>434338.3227471138</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5180,7 +5329,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>483737.6906074809</v>
+        <v>483738.0123170394</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5193,7 +5342,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>447628.2018755316</v>
+        <v>447628.4681139401</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5206,7 +5355,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>473140.6158192882</v>
+        <v>473140.9351429828</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5219,7 +5368,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>507723.3940432699</v>
+        <v>507723.778138442</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5232,7 +5381,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>515425.7440322334</v>
+        <v>515426.1416536451</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5245,7 +5394,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>474163.8236882363</v>
+        <v>474164.1330657103</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5258,7 +5407,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>446257.8773632196</v>
+        <v>446258.108050049</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5271,7 +5420,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>490550.8862705639</v>
+        <v>490551.2391763288</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5284,7 +5433,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>487185.296419327</v>
+        <v>487185.6381555236</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5297,7 +5446,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>503286.140930686</v>
+        <v>503286.5143406903</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5310,7 +5459,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>458469.9076146295</v>
+        <v>458470.186582376</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5323,7 +5472,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>439316.9334245569</v>
+        <v>439317.1746154704</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5336,7 +5485,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>486907.3334628313</v>
+        <v>486907.7155140258</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5349,7 +5498,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>452135.850132654</v>
+        <v>452136.1649643568</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5362,7 +5511,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>476716.4532965361</v>
+        <v>476716.8267213682</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5375,7 +5524,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>510032.5815913674</v>
+        <v>510033.0281183593</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5388,7 +5537,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>517457.1941383206</v>
+        <v>517457.6553442726</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5401,7 +5550,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>477719.6304602945</v>
+        <v>477719.9916859749</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5414,7 +5563,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>450845.6892198427</v>
+        <v>450845.9643390631</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5427,7 +5576,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>493511.9234072923</v>
+        <v>493512.3307250073</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5440,7 +5589,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>490273.7956117464</v>
+        <v>490274.1904246107</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5459,7 +5608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5490,10 +5639,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -5507,15 +5661,18 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>542861.4957036758</v>
+        <v>542861.7215044864</v>
       </c>
       <c r="D2" t="n">
-        <v>510750.5627444747</v>
+        <v>481761.9010880138</v>
       </c>
       <c r="E2" t="n">
-        <v>460032.8579815626</v>
+        <v>409809.6999910474</v>
       </c>
       <c r="F2" t="n">
+        <v>470560.6627801657</v>
+      </c>
+      <c r="G2" t="n">
         <v>530709.8826726653</v>
       </c>
     </row>
@@ -5527,15 +5684,18 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>500376.0407526458</v>
+        <v>500376.5200095911</v>
       </c>
       <c r="D3" t="n">
-        <v>475373.2767547093</v>
+        <v>459114.1138436477</v>
       </c>
       <c r="E3" t="n">
-        <v>436418.4525988102</v>
+        <v>420842.1960018873</v>
       </c>
       <c r="F3" t="n">
+        <v>434994.9181499481</v>
+      </c>
+      <c r="G3" t="n">
         <v>486971.4787447553</v>
       </c>
     </row>
@@ -5547,15 +5707,18 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>534233.640777497</v>
+        <v>534234.3550797545</v>
       </c>
       <c r="D4" t="n">
-        <v>498116.5125619482</v>
+        <v>483663.5634024219</v>
       </c>
       <c r="E4" t="n">
-        <v>440881.8067293167</v>
+        <v>397855.0421177149</v>
       </c>
       <c r="F4" t="n">
+        <v>519368.1407498121</v>
+      </c>
+      <c r="G4" t="n">
         <v>521959.6128891574</v>
       </c>
     </row>
@@ -5567,16 +5730,19 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>516566.9652706793</v>
+        <v>516567.8241890836</v>
       </c>
       <c r="D5" t="n">
-        <v>489685.3168139019</v>
+        <v>462282.9588008477</v>
       </c>
       <c r="E5" t="n">
-        <v>446620.5535144806</v>
+        <v>388975.3980053663</v>
       </c>
       <c r="F5" t="n">
-        <v>510856.6175063986</v>
+        <v>467313.5070059299</v>
+      </c>
+      <c r="G5" t="n">
+        <v>510856.6175063987</v>
       </c>
     </row>
     <row r="6">
@@ -5587,15 +5753,18 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>528273.7836217022</v>
+        <v>528274.9796268891</v>
       </c>
       <c r="D6" t="n">
-        <v>492246.2870678899</v>
+        <v>472056.0906903706</v>
       </c>
       <c r="E6" t="n">
-        <v>434168.2786157131</v>
+        <v>422674.3063514233</v>
       </c>
       <c r="F6" t="n">
+        <v>432051.3906345367</v>
+      </c>
+      <c r="G6" t="n">
         <v>523280.3349133584</v>
       </c>
     </row>
@@ -5607,15 +5776,18 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>483792.1576879389</v>
+        <v>483793.2212732398</v>
       </c>
       <c r="D7" t="n">
-        <v>467449.8238365949</v>
+        <v>457577.9011329961</v>
       </c>
       <c r="E7" t="n">
-        <v>440680.7957919836</v>
+        <v>408389.276103735</v>
       </c>
       <c r="F7" t="n">
+        <v>482740.3734227419</v>
+      </c>
+      <c r="G7" t="n">
         <v>484649.9793965104</v>
       </c>
     </row>
@@ -5627,15 +5799,18 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>468988.3471413137</v>
+        <v>468989.4995939414</v>
       </c>
       <c r="D8" t="n">
-        <v>458944.9608056188</v>
+        <v>447134.8844603015</v>
       </c>
       <c r="E8" t="n">
-        <v>440537.3146384954</v>
+        <v>420744.2185146809</v>
       </c>
       <c r="F8" t="n">
+        <v>440676.05192554</v>
+      </c>
+      <c r="G8" t="n">
         <v>483910.7037165954</v>
       </c>
     </row>
@@ -5647,15 +5822,18 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>534323.6092148456</v>
+        <v>534325.0745417667</v>
       </c>
       <c r="D9" t="n">
-        <v>492548.6326499503</v>
+        <v>472744.6707567801</v>
       </c>
       <c r="E9" t="n">
-        <v>420981.4950625896</v>
+        <v>412187.0740947723</v>
       </c>
       <c r="F9" t="n">
+        <v>434212.8667989969</v>
+      </c>
+      <c r="G9" t="n">
         <v>559613.0696772594</v>
       </c>
     </row>
@@ -5667,15 +5845,18 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>519322.9541464823</v>
+        <v>519324.5291662772</v>
       </c>
       <c r="D10" t="n">
-        <v>482670.3392800877</v>
+        <v>475624.3185416613</v>
       </c>
       <c r="E10" t="n">
-        <v>420677.0553529263</v>
+        <v>420483.4931181669</v>
       </c>
       <c r="F10" t="n">
+        <v>469233.5869489908</v>
+      </c>
+      <c r="G10" t="n">
         <v>535636.5831118036</v>
       </c>
     </row>
@@ -5687,15 +5868,18 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>537355.1330684662</v>
+        <v>537356.8041551439</v>
       </c>
       <c r="D11" t="n">
-        <v>499916.6481376297</v>
+        <v>473461.6667662636</v>
       </c>
       <c r="E11" t="n">
-        <v>435612.6611092091</v>
+        <v>400307.0072793365</v>
       </c>
       <c r="F11" t="n">
+        <v>451435.2658582926</v>
+      </c>
+      <c r="G11" t="n">
         <v>561240.4159450283</v>
       </c>
     </row>
@@ -5707,15 +5891,18 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>561328.8247241192</v>
+        <v>561330.6608657151</v>
       </c>
       <c r="D12" t="n">
-        <v>521207.1651920727</v>
+        <v>485822.5868387213</v>
       </c>
       <c r="E12" t="n">
-        <v>452114.6374684572</v>
+        <v>406283.311499238</v>
       </c>
       <c r="F12" t="n">
+        <v>448303.2112646103</v>
+      </c>
+      <c r="G12" t="n">
         <v>588249.9731040626</v>
       </c>
     </row>
@@ -5727,15 +5914,18 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>570900.7570420632</v>
+        <v>570902.7745995891</v>
       </c>
       <c r="D13" t="n">
-        <v>530293.395845951</v>
+        <v>487825.3932783078</v>
       </c>
       <c r="E13" t="n">
-        <v>460862.7849320173</v>
+        <v>417214.4489777088</v>
       </c>
       <c r="F13" t="n">
+        <v>418972.9461716413</v>
+      </c>
+      <c r="G13" t="n">
         <v>594481.0929740228</v>
       </c>
     </row>
@@ -5747,15 +5937,18 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>539232.4174978707</v>
+        <v>539234.4578740627</v>
       </c>
       <c r="D14" t="n">
-        <v>503997.3260989811</v>
+        <v>484915.6220470729</v>
       </c>
       <c r="E14" t="n">
-        <v>443327.7900418043</v>
+        <v>436001.3460611105</v>
       </c>
       <c r="F14" t="n">
+        <v>443049.3583718538</v>
+      </c>
+      <c r="G14" t="n">
         <v>562816.2248935394</v>
       </c>
     </row>
@@ -5767,15 +5960,18 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>503583.6788724237</v>
+        <v>503585.8553554489</v>
       </c>
       <c r="D15" t="n">
-        <v>470935.8995373885</v>
+        <v>461796.49528641</v>
       </c>
       <c r="E15" t="n">
-        <v>420133.6329679489</v>
+        <v>413842.4129999876</v>
       </c>
       <c r="F15" t="n">
+        <v>453787.1624863148</v>
+      </c>
+      <c r="G15" t="n">
         <v>485612.1129544015</v>
       </c>
     </row>
@@ -5787,15 +5983,18 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>537669.6602359915</v>
+        <v>537671.8801323503</v>
       </c>
       <c r="D16" t="n">
-        <v>507656.2646847814</v>
+        <v>473245.6977401049</v>
       </c>
       <c r="E16" t="n">
-        <v>455344.2534207106</v>
+        <v>415824.5377225876</v>
       </c>
       <c r="F16" t="n">
+        <v>423175.4084541798</v>
+      </c>
+      <c r="G16" t="n">
         <v>562419.3628115796</v>
       </c>
     </row>
@@ -5807,15 +6006,18 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>523504.8003115177</v>
+        <v>523507.0390045036</v>
       </c>
       <c r="D17" t="n">
-        <v>499275.9698662065</v>
+        <v>465129.5572159028</v>
       </c>
       <c r="E17" t="n">
-        <v>457135.2294546366</v>
+        <v>404610.2975302339</v>
       </c>
       <c r="F17" t="n">
+        <v>434743.0146805048</v>
+      </c>
+      <c r="G17" t="n">
         <v>542829.3317632616</v>
       </c>
     </row>
@@ -5827,16 +6029,19 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>535996.0453644805</v>
+        <v>535998.4627034897</v>
       </c>
       <c r="D18" t="n">
-        <v>502379.9537490085</v>
+        <v>489333.6996347764</v>
       </c>
       <c r="E18" t="n">
-        <v>445043.0098576546</v>
+        <v>431366.0059655905</v>
       </c>
       <c r="F18" t="n">
-        <v>554486.7217144087</v>
+        <v>480760.5790205002</v>
+      </c>
+      <c r="G18" t="n">
+        <v>554486.7217144086</v>
       </c>
     </row>
     <row r="19">
@@ -5847,15 +6052,18 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>496180.6131691696</v>
+        <v>496182.8443308</v>
       </c>
       <c r="D19" t="n">
-        <v>478240.3393754264</v>
+        <v>460738.6259100834</v>
       </c>
       <c r="E19" t="n">
-        <v>446873.5181119442</v>
+        <v>409810.4282161593</v>
       </c>
       <c r="F19" t="n">
+        <v>465665.4295454025</v>
+      </c>
+      <c r="G19" t="n">
         <v>511693.6012045653</v>
       </c>
     </row>
@@ -5867,15 +6075,18 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>483499.4705898375</v>
+        <v>483501.7037745333</v>
       </c>
       <c r="D20" t="n">
-        <v>467099.7558898871</v>
+        <v>462505.6474515582</v>
       </c>
       <c r="E20" t="n">
-        <v>438966.5746848583</v>
+        <v>430741.6257545948</v>
       </c>
       <c r="F20" t="n">
+        <v>467944.7741458416</v>
+      </c>
+      <c r="G20" t="n">
         <v>493706.126394808</v>
       </c>
     </row>
@@ -5887,15 +6098,18 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>544653.8541124881</v>
+        <v>544656.2291738451</v>
       </c>
       <c r="D21" t="n">
-        <v>511939.7791348113</v>
+        <v>485835.5594800424</v>
       </c>
       <c r="E21" t="n">
-        <v>453349.7488712072</v>
+        <v>411388.7000980973</v>
       </c>
       <c r="F21" t="n">
+        <v>474553.7915526628</v>
+      </c>
+      <c r="G21" t="n">
         <v>583188.9077914443</v>
       </c>
     </row>
@@ -5907,15 +6121,18 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>531388.8479713337</v>
+        <v>531391.269235666</v>
       </c>
       <c r="D22" t="n">
-        <v>506624.6747398865</v>
+        <v>485877.1574369692</v>
       </c>
       <c r="E22" t="n">
-        <v>462195.3536611795</v>
+        <v>419347.5451692343</v>
       </c>
       <c r="F22" t="n">
+        <v>492310.0420383215</v>
+      </c>
+      <c r="G22" t="n">
         <v>561128.5843660365</v>
       </c>
     </row>
@@ -5927,15 +6144,18 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>548516.2564868571</v>
+        <v>548518.6890995279</v>
       </c>
       <c r="D23" t="n">
-        <v>502612.8227241375</v>
+        <v>484625.2059051195</v>
       </c>
       <c r="E23" t="n">
-        <v>422502.6116764545</v>
+        <v>409502.9195578098</v>
       </c>
       <c r="F23" t="n">
+        <v>463220.0496194363</v>
+      </c>
+      <c r="G23" t="n">
         <v>587123.9479446317</v>
       </c>
     </row>
@@ -5947,15 +6167,18 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>571029.7972805207</v>
+        <v>571032.3085288655</v>
       </c>
       <c r="D24" t="n">
-        <v>535349.7940142429</v>
+        <v>501120.231508537</v>
       </c>
       <c r="E24" t="n">
-        <v>471455.7762813568</v>
+        <v>419810.5506954193</v>
       </c>
       <c r="F24" t="n">
+        <v>476240.5481698513</v>
+      </c>
+      <c r="G24" t="n">
         <v>613000.3164760353</v>
       </c>
     </row>
@@ -5967,16 +6190,19 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>580152.5744826716</v>
+        <v>580155.2020914829</v>
       </c>
       <c r="D25" t="n">
-        <v>542576.9384309873</v>
+        <v>511908.2751934659</v>
       </c>
       <c r="E25" t="n">
-        <v>475748.0807362795</v>
+        <v>435481.5389761925</v>
       </c>
       <c r="F25" t="n">
-        <v>620969.9780932692</v>
+        <v>482648.5338329077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>620969.978093269</v>
       </c>
     </row>
     <row r="26">
@@ -5987,16 +6213,19 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>551099.5964824751</v>
+        <v>551102.2421183037</v>
       </c>
       <c r="D26" t="n">
-        <v>517111.7800529805</v>
+        <v>492789.4784030566</v>
       </c>
       <c r="E26" t="n">
-        <v>456808.4020243883</v>
+        <v>422130.1765477657</v>
       </c>
       <c r="F26" t="n">
-        <v>586956.5220437354</v>
+        <v>476701.0777306557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>586956.5220437353</v>
       </c>
     </row>
     <row r="27">
@@ -6007,15 +6236,18 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>518319.5568439353</v>
+        <v>518322.3351843405</v>
       </c>
       <c r="D27" t="n">
-        <v>495293.3193156903</v>
+        <v>471394.446185052</v>
       </c>
       <c r="E27" t="n">
-        <v>457371.3824552298</v>
+        <v>417677.5585360527</v>
       </c>
       <c r="F27" t="n">
+        <v>457939.6477197409</v>
+      </c>
+      <c r="G27" t="n">
         <v>521033.3540069112</v>
       </c>
     </row>
@@ -6027,15 +6259,18 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>549948.7989697212</v>
+        <v>549951.5597935497</v>
       </c>
       <c r="D28" t="n">
-        <v>519048.8020790299</v>
+        <v>495727.5627965066</v>
       </c>
       <c r="E28" t="n">
-        <v>464019.4119216204</v>
+        <v>431667.5535812378</v>
       </c>
       <c r="F28" t="n">
+        <v>477834.4872949123</v>
+      </c>
+      <c r="G28" t="n">
         <v>584053.6902971244</v>
       </c>
     </row>
@@ -6047,15 +6282,18 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>536957.0235596384</v>
+        <v>536959.7965312758</v>
       </c>
       <c r="D29" t="n">
-        <v>509779.6340399018</v>
+        <v>489576.4463879004</v>
       </c>
       <c r="E29" t="n">
-        <v>461357.2705894709</v>
+        <v>425285.6383771896</v>
       </c>
       <c r="F29" t="n">
+        <v>487983.4485838413</v>
+      </c>
+      <c r="G29" t="n">
         <v>567118.8687690131</v>
       </c>
     </row>
@@ -6067,15 +6305,18 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>548577.6087901777</v>
+        <v>548580.5185564432</v>
       </c>
       <c r="D30" t="n">
-        <v>517975.4257687029</v>
+        <v>494435.3736933372</v>
       </c>
       <c r="E30" t="n">
-        <v>463934.3136156797</v>
+        <v>437846.0026890039</v>
       </c>
       <c r="F30" t="n">
+        <v>464720.5678658485</v>
+      </c>
+      <c r="G30" t="n">
         <v>578984.542112411</v>
       </c>
     </row>
@@ -6087,15 +6328,18 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>511840.5484335448</v>
+        <v>511843.3129830634</v>
       </c>
       <c r="D31" t="n">
-        <v>494509.3885372744</v>
+        <v>479336.7967865546</v>
       </c>
       <c r="E31" t="n">
-        <v>462756.1078038216</v>
+        <v>431581.2068893909</v>
       </c>
       <c r="F31" t="n">
+        <v>483519.8239697218</v>
+      </c>
+      <c r="G31" t="n">
         <v>537506.4621954538</v>
       </c>
     </row>
@@ -6107,15 +6351,18 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>500166.7878641687</v>
+        <v>500169.5564485946</v>
       </c>
       <c r="D32" t="n">
-        <v>496130.6134363115</v>
+        <v>474876.4461086985</v>
       </c>
       <c r="E32" t="n">
-        <v>486122.2092298269</v>
+        <v>436001.7413833141</v>
       </c>
       <c r="F32" t="n">
+        <v>480076.3178988695</v>
+      </c>
+      <c r="G32" t="n">
         <v>525374.278482943</v>
       </c>
     </row>
@@ -6127,15 +6374,18 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>556719.2819252196</v>
+        <v>556722.1120594315</v>
       </c>
       <c r="D33" t="n">
-        <v>530704.1213750209</v>
+        <v>511920.2127550949</v>
       </c>
       <c r="E33" t="n">
-        <v>481489.3242932558</v>
+        <v>449417.3124601841</v>
       </c>
       <c r="F33" t="n">
+        <v>509363.4928716421</v>
+      </c>
+      <c r="G33" t="n">
         <v>606658.581285962</v>
       </c>
     </row>
@@ -6147,15 +6397,18 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>544487.532689361</v>
+        <v>544490.4118760367</v>
       </c>
       <c r="D34" t="n">
-        <v>519154.2677048988</v>
+        <v>498439.8169225717</v>
       </c>
       <c r="E34" t="n">
-        <v>472112.0527522564</v>
+        <v>469041.6892287731</v>
       </c>
       <c r="F34" t="n">
+        <v>438363.7083243132</v>
+      </c>
+      <c r="G34" t="n">
         <v>586623.7747565547</v>
       </c>
     </row>
@@ -6167,15 +6420,18 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>560337.3572000172</v>
+        <v>560340.2242089449</v>
       </c>
       <c r="D35" t="n">
-        <v>537908.9006454535</v>
+        <v>502841.7583486104</v>
       </c>
       <c r="E35" t="n">
-        <v>494173.2371969223</v>
+        <v>442260.8986399174</v>
       </c>
       <c r="F35" t="n">
+        <v>468345.3811831474</v>
+      </c>
+      <c r="G35" t="n">
         <v>613001.7785061987</v>
       </c>
     </row>
@@ -6187,15 +6443,18 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>581160.0883090474</v>
+        <v>581163.001025803</v>
       </c>
       <c r="D36" t="n">
-        <v>541937.8394714509</v>
+        <v>518531.6930092192</v>
       </c>
       <c r="E36" t="n">
-        <v>470278.3611139059</v>
+        <v>446125.4020512104</v>
       </c>
       <c r="F36" t="n">
+        <v>491989.935085535</v>
+      </c>
+      <c r="G36" t="n">
         <v>637761.7225389021</v>
       </c>
     </row>
@@ -6207,15 +6466,18 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>589603.7566355182</v>
+        <v>589606.7641685351</v>
       </c>
       <c r="D37" t="n">
-        <v>548271.0210623392</v>
+        <v>536899.176601027</v>
       </c>
       <c r="E37" t="n">
-        <v>472995.9931995869</v>
+        <v>461679.4581854343</v>
       </c>
       <c r="F37" t="n">
+        <v>536917.1591750383</v>
+      </c>
+      <c r="G37" t="n">
         <v>647482.6713959862</v>
       </c>
     </row>
@@ -6227,15 +6489,18 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>562763.6402607975</v>
+        <v>562766.6905561481</v>
       </c>
       <c r="D38" t="n">
-        <v>530069.3686607635</v>
+        <v>503084.2786986413</v>
       </c>
       <c r="E38" t="n">
-        <v>470165.0908993483</v>
+        <v>433919.7874010801</v>
       </c>
       <c r="F38" t="n">
+        <v>479092.1528697014</v>
+      </c>
+      <c r="G38" t="n">
         <v>611206.5341542105</v>
       </c>
     </row>
@@ -6247,15 +6512,18 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>532476.862934585</v>
+        <v>532480.0662680281</v>
       </c>
       <c r="D39" t="n">
-        <v>512972.7766286127</v>
+        <v>500980.4150460187</v>
       </c>
       <c r="E39" t="n">
-        <v>477906.8936774731</v>
+        <v>450733.5481404066</v>
       </c>
       <c r="F39" t="n">
+        <v>511940.9312200546</v>
+      </c>
+      <c r="G39" t="n">
         <v>556441.7026965519</v>
       </c>
     </row>
@@ -6267,15 +6535,18 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>561713.5399166656</v>
+        <v>561716.6936161297</v>
       </c>
       <c r="D40" t="n">
-        <v>522386.8421897648</v>
+        <v>508575.4926913995</v>
       </c>
       <c r="E40" t="n">
-        <v>452296.2360049486</v>
+        <v>459985.6481878757</v>
       </c>
       <c r="F40" t="n">
+        <v>465032.789180994</v>
+      </c>
+      <c r="G40" t="n">
         <v>605518.0659062505</v>
       </c>
     </row>
@@ -6287,16 +6558,19 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>549711.4522367143</v>
+        <v>549714.6286383088</v>
       </c>
       <c r="D41" t="n">
-        <v>525844.5180611188</v>
+        <v>503841.4536138764</v>
       </c>
       <c r="E41" t="n">
-        <v>481252.9216154814</v>
+        <v>471956.3166104555</v>
       </c>
       <c r="F41" t="n">
-        <v>591412.0753267221</v>
+        <v>448461.04885602</v>
+      </c>
+      <c r="G41" t="n">
+        <v>591412.075326722</v>
       </c>
     </row>
     <row r="42">
@@ -6307,15 +6581,18 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>560454.3603611912</v>
+        <v>560457.65038694</v>
       </c>
       <c r="D42" t="n">
-        <v>534423.4526445772</v>
+        <v>520200.4543571983</v>
       </c>
       <c r="E42" t="n">
-        <v>486115.3014944792</v>
+        <v>463634.7426110506</v>
       </c>
       <c r="F42" t="n">
+        <v>518919.2211779356</v>
+      </c>
+      <c r="G42" t="n">
         <v>603533.6160052898</v>
       </c>
     </row>
@@ -6327,15 +6604,18 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>526505.7552475918</v>
+        <v>526508.9467909186</v>
       </c>
       <c r="D43" t="n">
-        <v>515581.7728735732</v>
+        <v>515263.2927326547</v>
       </c>
       <c r="E43" t="n">
-        <v>492745.8327517509</v>
+        <v>492237.6356557608</v>
       </c>
       <c r="F43" t="n">
+        <v>522563.009961009</v>
+      </c>
+      <c r="G43" t="n">
         <v>563444.2337212379</v>
       </c>
     </row>
@@ -6347,15 +6627,18 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>515719.303343167</v>
+        <v>515722.5095082598</v>
       </c>
       <c r="D44" t="n">
-        <v>507279.3684838556</v>
+        <v>497675.0059027342</v>
       </c>
       <c r="E44" t="n">
-        <v>487895.8535060883</v>
+        <v>468105.441411972</v>
       </c>
       <c r="F44" t="n">
+        <v>500174.4571188688</v>
+      </c>
+      <c r="G44" t="n">
         <v>557063.4955386829</v>
       </c>
     </row>
@@ -6367,15 +6650,18 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>567985.0820181142</v>
+        <v>567988.2879974848</v>
       </c>
       <c r="D45" t="n">
-        <v>530063.1861190636</v>
+        <v>516382.6644455218</v>
       </c>
       <c r="E45" t="n">
-        <v>459785.4903142452</v>
+        <v>459450.8188592196</v>
       </c>
       <c r="F45" t="n">
+        <v>487035.174649477</v>
+      </c>
+      <c r="G45" t="n">
         <v>630023.8306103472</v>
       </c>
     </row>
@@ -6387,15 +6673,18 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>556682.1111193236</v>
+        <v>556685.3741595865</v>
       </c>
       <c r="D46" t="n">
-        <v>535224.1067563058</v>
+        <v>519998.0074233785</v>
       </c>
       <c r="E46" t="n">
-        <v>492693.6918337345</v>
+        <v>464331.7580753565</v>
       </c>
       <c r="F46" t="n">
+        <v>522825.3998720646</v>
+      </c>
+      <c r="G46" t="n">
         <v>612123.7707056084</v>
       </c>
     </row>
@@ -6407,15 +6696,18 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>571331.023837436</v>
+        <v>571334.2594142738</v>
       </c>
       <c r="D47" t="n">
-        <v>550929.5349438092</v>
+        <v>528120.8849269417</v>
       </c>
       <c r="E47" t="n">
-        <v>508477.4093618393</v>
+        <v>472873.235252142</v>
       </c>
       <c r="F47" t="n">
+        <v>513518.8701990843</v>
+      </c>
+      <c r="G47" t="n">
         <v>638874.8180782608</v>
       </c>
     </row>
@@ -6427,15 +6719,18 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>590575.5314518133</v>
+        <v>590578.7881753487</v>
       </c>
       <c r="D48" t="n">
-        <v>562062.94241251</v>
+        <v>540224.4671345949</v>
       </c>
       <c r="E48" t="n">
-        <v>505782.3106417656</v>
+        <v>484417.101339817</v>
       </c>
       <c r="F48" t="n">
+        <v>509910.2650921345</v>
+      </c>
+      <c r="G48" t="n">
         <v>662535.9209821537</v>
       </c>
     </row>
@@ -6447,15 +6742,18 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>598379.5020578624</v>
+        <v>598382.8377344901</v>
       </c>
       <c r="D49" t="n">
-        <v>571701.7664319202</v>
+        <v>537761.6944938642</v>
       </c>
       <c r="E49" t="n">
-        <v>517913.4590725899</v>
+        <v>465661.4555169344</v>
       </c>
       <c r="F49" t="n">
+        <v>511640.5279581547</v>
+      </c>
+      <c r="G49" t="n">
         <v>674019.6728804054</v>
       </c>
     </row>
@@ -6467,15 +6765,18 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>573575.1012677845</v>
+        <v>573578.5030674819</v>
       </c>
       <c r="D50" t="n">
-        <v>553563.0285745119</v>
+        <v>536629.7454704554</v>
       </c>
       <c r="E50" t="n">
-        <v>512500.6242346764</v>
+        <v>493089.2221016884</v>
       </c>
       <c r="F50" t="n">
+        <v>517084.0314764977</v>
+      </c>
+      <c r="G50" t="n">
         <v>635566.3563378147</v>
       </c>
     </row>
@@ -6487,15 +6788,18 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>545585.2958024074</v>
+        <v>545588.8691196492</v>
       </c>
       <c r="D51" t="n">
-        <v>536300.5591511705</v>
+        <v>525043.8129768644</v>
       </c>
       <c r="E51" t="n">
-        <v>514873.5353587866</v>
+        <v>494366.404109478</v>
       </c>
       <c r="F51" t="n">
+        <v>522975.9760187864</v>
+      </c>
+      <c r="G51" t="n">
         <v>591827.9524099133</v>
       </c>
     </row>
@@ -6507,15 +6811,18 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>572605.2441934232</v>
+        <v>572608.7423296863</v>
       </c>
       <c r="D52" t="n">
-        <v>554637.9696997068</v>
+        <v>534946.0955848696</v>
       </c>
       <c r="E52" t="n">
-        <v>517967.805472374</v>
+        <v>465196.5149925947</v>
       </c>
       <c r="F52" t="n">
+        <v>559741.8148270845</v>
+      </c>
+      <c r="G52" t="n">
         <v>626816.0865543261</v>
       </c>
     </row>
@@ -6527,15 +6834,18 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>561513.473803455</v>
+        <v>561517.0048066465</v>
       </c>
       <c r="D53" t="n">
-        <v>550377.4961135923</v>
+        <v>542336.0246518722</v>
       </c>
       <c r="E53" t="n">
-        <v>524849.9072961807</v>
+        <v>505576.1605157852</v>
       </c>
       <c r="F53" t="n">
+        <v>552147.924972415</v>
+      </c>
+      <c r="G53" t="n">
         <v>615713.0911715446</v>
       </c>
     </row>
@@ -6547,15 +6857,18 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>571441.9151093024</v>
+        <v>571445.5403187446</v>
       </c>
       <c r="D54" t="n">
-        <v>560534.7764669525</v>
+        <v>547260.1982759328</v>
       </c>
       <c r="E54" t="n">
-        <v>535041.2720930576</v>
+        <v>509742.0034784079</v>
       </c>
       <c r="F54" t="n">
+        <v>546793.3481434584</v>
+      </c>
+      <c r="G54" t="n">
         <v>628136.8085785229</v>
       </c>
     </row>
@@ -6567,15 +6880,18 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>540067.7329903786</v>
+        <v>540071.3010184903</v>
       </c>
       <c r="D55" t="n">
-        <v>533589.6165871944</v>
+        <v>531513.085877416</v>
       </c>
       <c r="E55" t="n">
-        <v>516305.4964125156</v>
+        <v>509667.7661298513</v>
       </c>
       <c r="F55" t="n">
+        <v>540461.2643435001</v>
+      </c>
+      <c r="G55" t="n">
         <v>589506.453061684</v>
       </c>
     </row>
@@ -6587,15 +6903,18 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>530099.3061074807</v>
+        <v>530102.8983697671</v>
       </c>
       <c r="D56" t="n">
-        <v>534763.9790724753</v>
+        <v>532581.118548951</v>
       </c>
       <c r="E56" t="n">
-        <v>534398.1452870369</v>
+        <v>504767.1648356915</v>
       </c>
       <c r="F56" t="n">
+        <v>574443.2858066559</v>
+      </c>
+      <c r="G56" t="n">
         <v>588767.1773817409</v>
       </c>
     </row>
@@ -6607,15 +6926,18 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>578401.8815605683</v>
+        <v>578405.4214324768</v>
       </c>
       <c r="D57" t="n">
-        <v>572049.7394735891</v>
+        <v>556311.0707558828</v>
       </c>
       <c r="E57" t="n">
-        <v>549992.9404146671</v>
+        <v>513833.6923182011</v>
       </c>
       <c r="F57" t="n">
+        <v>563470.2441745996</v>
+      </c>
+      <c r="G57" t="n">
         <v>664469.5433424336</v>
       </c>
     </row>
@@ -6627,15 +6949,18 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>567956.0644045062</v>
+        <v>567959.6682651383</v>
       </c>
       <c r="D58" t="n">
-        <v>565771.0599961029</v>
+        <v>554144.2978585906</v>
       </c>
       <c r="E58" t="n">
-        <v>552349.2896190882</v>
+        <v>504165.6092803478</v>
       </c>
       <c r="F58" t="n">
+        <v>594908.9082245827</v>
+      </c>
+      <c r="G58" t="n">
         <v>640493.0567769657</v>
       </c>
     </row>
@@ -6647,15 +6972,18 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>581494.2046964326</v>
+        <v>581497.7685274726</v>
       </c>
       <c r="D59" t="n">
-        <v>584887.4988298605</v>
+        <v>568820.1730358222</v>
       </c>
       <c r="E59" t="n">
-        <v>578923.4723404646</v>
+        <v>538004.0663642883</v>
       </c>
       <c r="F59" t="n">
+        <v>577352.1081938744</v>
+      </c>
+      <c r="G59" t="n">
         <v>666096.8896101541</v>
       </c>
     </row>
@@ -6667,15 +6995,18 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>599279.4490852128</v>
+        <v>599283.0132274868</v>
       </c>
       <c r="D60" t="n">
-        <v>584430.6298641273</v>
+        <v>566970.6310447507</v>
       </c>
       <c r="E60" t="n">
-        <v>547462.1916991472</v>
+        <v>511191.3170962334</v>
       </c>
       <c r="F60" t="n">
+        <v>572599.9607903957</v>
+      </c>
+      <c r="G60" t="n">
         <v>693106.4467692302</v>
       </c>
     </row>
@@ -6687,15 +7018,18 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>606491.6766010581</v>
+        <v>606495.3059033806</v>
       </c>
       <c r="D61" t="n">
-        <v>588822.1357704055</v>
+        <v>574312.1714057053</v>
       </c>
       <c r="E61" t="n">
-        <v>547386.7683839798</v>
+        <v>522953.1305567026</v>
       </c>
       <c r="F61" t="n">
+        <v>572906.8348525763</v>
+      </c>
+      <c r="G61" t="n">
         <v>699337.5666391928</v>
       </c>
     </row>
@@ -6707,15 +7041,18 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>583568.1966812228</v>
+        <v>583571.9118450353</v>
       </c>
       <c r="D62" t="n">
-        <v>585610.9232455769</v>
+        <v>569888.4479468648</v>
       </c>
       <c r="E62" t="n">
-        <v>577511.9848155975</v>
+        <v>530186.0912394524</v>
       </c>
       <c r="F62" t="n">
+        <v>591363.9083795547</v>
+      </c>
+      <c r="G62" t="n">
         <v>667672.6985586925</v>
       </c>
     </row>
@@ -6727,15 +7064,18 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>557700.8544413606</v>
+        <v>557704.7560517298</v>
       </c>
       <c r="D63" t="n">
-        <v>563541.168813359</v>
+        <v>561127.0292510032</v>
       </c>
       <c r="E63" t="n">
-        <v>568612.678625226</v>
+        <v>545577.024948597</v>
       </c>
       <c r="F63" t="n">
+        <v>589056.7663862705</v>
+      </c>
+      <c r="G63" t="n">
         <v>590468.5866196097</v>
       </c>
     </row>
@@ -6747,15 +7087,18 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>582671.9113367092</v>
+        <v>582675.7164837809</v>
       </c>
       <c r="D64" t="n">
-        <v>572996.7179037136</v>
+        <v>568956.2488741322</v>
       </c>
       <c r="E64" t="n">
-        <v>545719.340941906</v>
+        <v>529063.8339226246</v>
       </c>
       <c r="F64" t="n">
+        <v>590582.085899353</v>
+      </c>
+      <c r="G64" t="n">
         <v>667275.8364767432</v>
       </c>
     </row>
@@ -6767,15 +7110,18 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>572421.2316233461</v>
+        <v>572425.0782131255</v>
       </c>
       <c r="D65" t="n">
-        <v>580044.7493667104</v>
+        <v>566204.9145934695</v>
       </c>
       <c r="E65" t="n">
-        <v>582248.839491725</v>
+        <v>536818.5158820152</v>
       </c>
       <c r="F65" t="n">
+        <v>588365.7431743145</v>
+      </c>
+      <c r="G65" t="n">
         <v>647685.8054284464</v>
       </c>
     </row>
@@ -6787,15 +7133,18 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>581596.8135171725</v>
+        <v>581600.7372527063</v>
       </c>
       <c r="D66" t="n">
-        <v>582728.3638665535</v>
+        <v>584240.226637032</v>
       </c>
       <c r="E66" t="n">
-        <v>574007.5158996582</v>
+        <v>535396.0425611734</v>
       </c>
       <c r="F66" t="n">
+        <v>658628.7719726562</v>
+      </c>
+      <c r="G66" t="n">
         <v>659343.1953796106</v>
       </c>
     </row>
@@ -6807,15 +7156,18 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>552601.7193418219</v>
+        <v>552605.6215518473</v>
       </c>
       <c r="D67" t="n">
-        <v>562615.2547478515</v>
+        <v>563287.6798812544</v>
       </c>
       <c r="E67" t="n">
-        <v>570255.1383491755</v>
+        <v>541570.6008661985</v>
       </c>
       <c r="F67" t="n">
+        <v>612028.8148009777</v>
+      </c>
+      <c r="G67" t="n">
         <v>616550.0748697331</v>
       </c>
     </row>
@@ -6827,15 +7179,18 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>543389.1956817894</v>
+        <v>543393.1302377796</v>
       </c>
       <c r="D68" t="n">
-        <v>574081.0017391689</v>
+        <v>558180.6896956346</v>
       </c>
       <c r="E68" t="n">
-        <v>616637.314599514</v>
+        <v>548212.2011451721</v>
       </c>
       <c r="F68" t="n">
+        <v>597712.5749056339</v>
+      </c>
+      <c r="G68" t="n">
         <v>598562.6000599889</v>
       </c>
     </row>
@@ -6847,15 +7202,18 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>588029.0240494441</v>
+        <v>588032.8619614544</v>
       </c>
       <c r="D69" t="n">
-        <v>588784.2586110828</v>
+        <v>589567.3006404425</v>
       </c>
       <c r="E69" t="n">
-        <v>576423.038596034</v>
+        <v>559133.455568552</v>
       </c>
       <c r="F69" t="n">
+        <v>626136.3245728016</v>
+      </c>
+      <c r="G69" t="n">
         <v>688045.3814566222</v>
       </c>
     </row>
@@ -6867,15 +7225,18 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>578375.30852171</v>
+        <v>578379.2159973071</v>
       </c>
       <c r="D70" t="n">
-        <v>588323.0976463052</v>
+        <v>575609.7828903619</v>
       </c>
       <c r="E70" t="n">
-        <v>592640.0084528923</v>
+        <v>522345.9364583492</v>
       </c>
       <c r="F70" t="n">
+        <v>643674.0659120083</v>
+      </c>
+      <c r="G70" t="n">
         <v>665985.0580312232</v>
       </c>
     </row>
@@ -6887,15 +7248,18 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>590886.8631440247</v>
+        <v>590890.7201079614</v>
       </c>
       <c r="D71" t="n">
-        <v>593686.2291355208</v>
+        <v>573871.4057688338</v>
       </c>
       <c r="E71" t="n">
-        <v>584512.3503975868</v>
+        <v>530245.4727957249</v>
       </c>
       <c r="F71" t="n">
+        <v>591463.0302205086</v>
+      </c>
+      <c r="G71" t="n">
         <v>691980.4216097981</v>
       </c>
     </row>
@@ -6907,15 +7271,18 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>607323.4664725144</v>
+        <v>607327.3059666363</v>
       </c>
       <c r="D72" t="n">
-        <v>614667.5759229404</v>
+        <v>593398.6245373221</v>
       </c>
       <c r="E72" t="n">
-        <v>611622.7148656845</v>
+        <v>543415.798461318</v>
       </c>
       <c r="F72" t="n">
+        <v>626892.8048191071</v>
+      </c>
+      <c r="G72" t="n">
         <v>717856.7901412257</v>
       </c>
     </row>
@@ -6927,15 +7294,18 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>613988.7970396762</v>
+        <v>613992.6895513805</v>
       </c>
       <c r="D73" t="n">
-        <v>619393.2462325393</v>
+        <v>610573.20232948</v>
       </c>
       <c r="E73" t="n">
-        <v>613007.7574157715</v>
+        <v>562180.3286305666</v>
       </c>
       <c r="F73" t="n">
+        <v>664447.0409400463</v>
+      </c>
+      <c r="G73" t="n">
         <v>725826.4517584977</v>
       </c>
     </row>
@@ -6947,15 +7317,18 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>592803.5894934956</v>
+        <v>592807.5842414125</v>
       </c>
       <c r="D74" t="n">
-        <v>591678.2393234172</v>
+        <v>599818.7778372868</v>
       </c>
       <c r="E74" t="n">
-        <v>576386.8562111855</v>
+        <v>568796.2121598721</v>
       </c>
       <c r="F74" t="n">
+        <v>649726.0743339062</v>
+      </c>
+      <c r="G74" t="n">
         <v>691812.9957088986</v>
       </c>
     </row>
@@ -6967,15 +7340,18 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>568897.7504331857</v>
+        <v>568901.9433142123</v>
       </c>
       <c r="D75" t="n">
-        <v>585229.1917329929</v>
+        <v>585390.7036467666</v>
       </c>
       <c r="E75" t="n">
-        <v>604118.2510547638</v>
+        <v>591639.2190847397</v>
       </c>
       <c r="F75" t="n">
+        <v>600834.7880570889</v>
+      </c>
+      <c r="G75" t="n">
         <v>625889.8276721379</v>
       </c>
     </row>
@@ -6990,7 +7366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7021,10 +7397,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -7038,15 +7419,18 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>542861.4957036758</v>
+        <v>542861.7215044864</v>
       </c>
       <c r="D2" t="n">
-        <v>510750.5627444747</v>
+        <v>481761.9010880138</v>
       </c>
       <c r="E2" t="n">
-        <v>460032.8579815626</v>
+        <v>409809.6999910474</v>
       </c>
       <c r="F2" t="n">
+        <v>470560.6627801657</v>
+      </c>
+      <c r="G2" t="n">
         <v>530709.8826726653</v>
       </c>
     </row>
@@ -7058,15 +7442,18 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>500376.0407526458</v>
+        <v>500376.5200095911</v>
       </c>
       <c r="D3" t="n">
-        <v>475373.2767547093</v>
+        <v>459114.1138436477</v>
       </c>
       <c r="E3" t="n">
-        <v>436418.4525988102</v>
+        <v>420842.1960018873</v>
       </c>
       <c r="F3" t="n">
+        <v>434994.9181499481</v>
+      </c>
+      <c r="G3" t="n">
         <v>486971.4787447553</v>
       </c>
     </row>
@@ -7078,15 +7465,18 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>534233.640777497</v>
+        <v>534234.3550797545</v>
       </c>
       <c r="D4" t="n">
-        <v>498116.5125619482</v>
+        <v>483663.5634024219</v>
       </c>
       <c r="E4" t="n">
-        <v>440881.8067293167</v>
+        <v>397855.0421177149</v>
       </c>
       <c r="F4" t="n">
+        <v>519368.1407498121</v>
+      </c>
+      <c r="G4" t="n">
         <v>521959.6128891574</v>
       </c>
     </row>
@@ -7098,16 +7488,19 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>516566.9652706793</v>
+        <v>516567.8241890836</v>
       </c>
       <c r="D5" t="n">
-        <v>489685.3168139019</v>
+        <v>462282.9588008477</v>
       </c>
       <c r="E5" t="n">
-        <v>446620.5535144806</v>
+        <v>388975.3980053663</v>
       </c>
       <c r="F5" t="n">
-        <v>510856.6175063986</v>
+        <v>467313.5070059299</v>
+      </c>
+      <c r="G5" t="n">
+        <v>510856.6175063987</v>
       </c>
     </row>
     <row r="6">
@@ -7118,15 +7511,18 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>528273.7836217022</v>
+        <v>528274.9796268891</v>
       </c>
       <c r="D6" t="n">
-        <v>492246.2870678899</v>
+        <v>472056.0906903706</v>
       </c>
       <c r="E6" t="n">
-        <v>434168.2786157131</v>
+        <v>422674.3063514233</v>
       </c>
       <c r="F6" t="n">
+        <v>432051.3906345367</v>
+      </c>
+      <c r="G6" t="n">
         <v>523280.3349133584</v>
       </c>
     </row>
@@ -7138,15 +7534,18 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>483792.1576879389</v>
+        <v>483793.2212732398</v>
       </c>
       <c r="D7" t="n">
-        <v>467449.8238365949</v>
+        <v>457577.9011329961</v>
       </c>
       <c r="E7" t="n">
-        <v>440680.7957919836</v>
+        <v>408389.276103735</v>
       </c>
       <c r="F7" t="n">
+        <v>482740.3734227419</v>
+      </c>
+      <c r="G7" t="n">
         <v>484649.9793965104</v>
       </c>
     </row>
@@ -7158,15 +7557,18 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>468988.3471413137</v>
+        <v>468989.4995939414</v>
       </c>
       <c r="D8" t="n">
-        <v>458944.9608056188</v>
+        <v>447134.8844603015</v>
       </c>
       <c r="E8" t="n">
-        <v>440537.3146384954</v>
+        <v>420744.2185146809</v>
       </c>
       <c r="F8" t="n">
+        <v>440676.05192554</v>
+      </c>
+      <c r="G8" t="n">
         <v>483910.7037165954</v>
       </c>
     </row>
@@ -7178,15 +7580,18 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>534323.6092148456</v>
+        <v>534325.0745417667</v>
       </c>
       <c r="D9" t="n">
-        <v>492548.6326499503</v>
+        <v>472744.6707567801</v>
       </c>
       <c r="E9" t="n">
-        <v>420981.4950625896</v>
+        <v>412187.0740947723</v>
       </c>
       <c r="F9" t="n">
+        <v>434212.8667989969</v>
+      </c>
+      <c r="G9" t="n">
         <v>559613.0696772594</v>
       </c>
     </row>
@@ -7198,15 +7603,18 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>519322.9541464823</v>
+        <v>519324.5291662772</v>
       </c>
       <c r="D10" t="n">
-        <v>482670.3392800877</v>
+        <v>475624.3185416613</v>
       </c>
       <c r="E10" t="n">
-        <v>420677.0553529263</v>
+        <v>420483.4931181669</v>
       </c>
       <c r="F10" t="n">
+        <v>469233.5869489908</v>
+      </c>
+      <c r="G10" t="n">
         <v>535636.5831118036</v>
       </c>
     </row>
@@ -7218,15 +7626,18 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>537355.1330684662</v>
+        <v>537356.8041551439</v>
       </c>
       <c r="D11" t="n">
-        <v>499916.6481376297</v>
+        <v>473461.6667662636</v>
       </c>
       <c r="E11" t="n">
-        <v>435612.6611092091</v>
+        <v>400307.0072793365</v>
       </c>
       <c r="F11" t="n">
+        <v>451435.2658582926</v>
+      </c>
+      <c r="G11" t="n">
         <v>561240.4159450283</v>
       </c>
     </row>
@@ -7238,15 +7649,18 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>561328.8247241192</v>
+        <v>561330.6608657151</v>
       </c>
       <c r="D12" t="n">
-        <v>521207.1651920727</v>
+        <v>485822.5868387213</v>
       </c>
       <c r="E12" t="n">
-        <v>452114.6374684572</v>
+        <v>406283.311499238</v>
       </c>
       <c r="F12" t="n">
+        <v>448303.2112646103</v>
+      </c>
+      <c r="G12" t="n">
         <v>588249.9731040626</v>
       </c>
     </row>
@@ -7258,15 +7672,18 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>570900.7570420632</v>
+        <v>570902.7745995891</v>
       </c>
       <c r="D13" t="n">
-        <v>530293.395845951</v>
+        <v>487825.3932783078</v>
       </c>
       <c r="E13" t="n">
-        <v>460862.7849320173</v>
+        <v>417214.4489777088</v>
       </c>
       <c r="F13" t="n">
+        <v>418972.9461716413</v>
+      </c>
+      <c r="G13" t="n">
         <v>594481.0929740228</v>
       </c>
     </row>
@@ -7278,15 +7695,18 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>539232.4174978707</v>
+        <v>539234.4578740627</v>
       </c>
       <c r="D14" t="n">
-        <v>503997.3260989811</v>
+        <v>484915.6220470729</v>
       </c>
       <c r="E14" t="n">
-        <v>443327.7900418043</v>
+        <v>436001.3460611105</v>
       </c>
       <c r="F14" t="n">
+        <v>443049.3583718538</v>
+      </c>
+      <c r="G14" t="n">
         <v>562816.2248935394</v>
       </c>
     </row>
@@ -7298,15 +7718,18 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>503583.6788724237</v>
+        <v>503585.8553554489</v>
       </c>
       <c r="D15" t="n">
-        <v>470935.8995373885</v>
+        <v>461796.49528641</v>
       </c>
       <c r="E15" t="n">
-        <v>420133.6329679489</v>
+        <v>413842.4129999876</v>
       </c>
       <c r="F15" t="n">
+        <v>453787.1624863148</v>
+      </c>
+      <c r="G15" t="n">
         <v>485612.1129544015</v>
       </c>
     </row>
@@ -7318,15 +7741,18 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>537669.6602359915</v>
+        <v>537671.8801323503</v>
       </c>
       <c r="D16" t="n">
-        <v>507656.2646847814</v>
+        <v>473245.6977401049</v>
       </c>
       <c r="E16" t="n">
-        <v>455344.2534207106</v>
+        <v>415824.5377225876</v>
       </c>
       <c r="F16" t="n">
+        <v>423175.4084541798</v>
+      </c>
+      <c r="G16" t="n">
         <v>562419.3628115796</v>
       </c>
     </row>
@@ -7338,15 +7764,18 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>523504.8003115177</v>
+        <v>523507.0390045036</v>
       </c>
       <c r="D17" t="n">
-        <v>499275.9698662065</v>
+        <v>465129.5572159028</v>
       </c>
       <c r="E17" t="n">
-        <v>457135.2294546366</v>
+        <v>404610.2975302339</v>
       </c>
       <c r="F17" t="n">
+        <v>434743.0146805048</v>
+      </c>
+      <c r="G17" t="n">
         <v>542829.3317632616</v>
       </c>
     </row>
@@ -7358,16 +7787,19 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>535996.0453644805</v>
+        <v>535998.4627034897</v>
       </c>
       <c r="D18" t="n">
-        <v>502379.9537490085</v>
+        <v>489333.6996347764</v>
       </c>
       <c r="E18" t="n">
-        <v>445043.0098576546</v>
+        <v>431366.0059655905</v>
       </c>
       <c r="F18" t="n">
-        <v>554486.7217144087</v>
+        <v>480760.5790205002</v>
+      </c>
+      <c r="G18" t="n">
+        <v>554486.7217144086</v>
       </c>
     </row>
     <row r="19">
@@ -7378,15 +7810,18 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>496180.6131691696</v>
+        <v>496182.8443308</v>
       </c>
       <c r="D19" t="n">
-        <v>478240.3393754264</v>
+        <v>460738.6259100834</v>
       </c>
       <c r="E19" t="n">
-        <v>446873.5181119442</v>
+        <v>409810.4282161593</v>
       </c>
       <c r="F19" t="n">
+        <v>465665.4295454025</v>
+      </c>
+      <c r="G19" t="n">
         <v>511693.6012045653</v>
       </c>
     </row>
@@ -7398,15 +7833,18 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>483499.4705898375</v>
+        <v>483501.7037745333</v>
       </c>
       <c r="D20" t="n">
-        <v>467099.7558898871</v>
+        <v>462505.6474515582</v>
       </c>
       <c r="E20" t="n">
-        <v>438966.5746848583</v>
+        <v>430741.6257545948</v>
       </c>
       <c r="F20" t="n">
+        <v>467944.7741458416</v>
+      </c>
+      <c r="G20" t="n">
         <v>493706.126394808</v>
       </c>
     </row>
@@ -7418,15 +7856,18 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>544653.8541124881</v>
+        <v>544656.2291738451</v>
       </c>
       <c r="D21" t="n">
-        <v>511939.7791348113</v>
+        <v>485835.5594800424</v>
       </c>
       <c r="E21" t="n">
-        <v>453349.7488712072</v>
+        <v>411388.7000980973</v>
       </c>
       <c r="F21" t="n">
+        <v>474553.7915526628</v>
+      </c>
+      <c r="G21" t="n">
         <v>583188.9077914443</v>
       </c>
     </row>
@@ -7438,15 +7879,18 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>531388.8479713337</v>
+        <v>531391.269235666</v>
       </c>
       <c r="D22" t="n">
-        <v>506624.6747398865</v>
+        <v>485877.1574369692</v>
       </c>
       <c r="E22" t="n">
-        <v>462195.3536611795</v>
+        <v>419347.5451692343</v>
       </c>
       <c r="F22" t="n">
+        <v>492310.0420383215</v>
+      </c>
+      <c r="G22" t="n">
         <v>561128.5843660365</v>
       </c>
     </row>
@@ -7458,15 +7902,18 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>548516.2564868571</v>
+        <v>548518.6890995279</v>
       </c>
       <c r="D23" t="n">
-        <v>502612.8227241375</v>
+        <v>484625.2059051195</v>
       </c>
       <c r="E23" t="n">
-        <v>422502.6116764545</v>
+        <v>409502.9195578098</v>
       </c>
       <c r="F23" t="n">
+        <v>463220.0496194363</v>
+      </c>
+      <c r="G23" t="n">
         <v>587123.9479446317</v>
       </c>
     </row>
@@ -7478,15 +7925,18 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>571029.7972805207</v>
+        <v>571032.3085288655</v>
       </c>
       <c r="D24" t="n">
-        <v>535349.7940142429</v>
+        <v>501120.231508537</v>
       </c>
       <c r="E24" t="n">
-        <v>471455.7762813568</v>
+        <v>419810.5506954193</v>
       </c>
       <c r="F24" t="n">
+        <v>476240.5481698513</v>
+      </c>
+      <c r="G24" t="n">
         <v>613000.3164760353</v>
       </c>
     </row>
@@ -7498,16 +7948,19 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>580152.5744826716</v>
+        <v>580155.2020914829</v>
       </c>
       <c r="D25" t="n">
-        <v>542576.9384309873</v>
+        <v>511908.2751934659</v>
       </c>
       <c r="E25" t="n">
-        <v>475748.0807362795</v>
+        <v>435481.5389761925</v>
       </c>
       <c r="F25" t="n">
-        <v>620969.9780932692</v>
+        <v>482648.5338329077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>620969.978093269</v>
       </c>
     </row>
     <row r="26">
@@ -7518,16 +7971,19 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>551099.5964824751</v>
+        <v>551102.2421183037</v>
       </c>
       <c r="D26" t="n">
-        <v>517111.7800529805</v>
+        <v>492789.4784030566</v>
       </c>
       <c r="E26" t="n">
-        <v>456808.4020243883</v>
+        <v>422130.1765477657</v>
       </c>
       <c r="F26" t="n">
-        <v>586956.5220437354</v>
+        <v>476701.0777306557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>586956.5220437353</v>
       </c>
     </row>
     <row r="27">
@@ -7538,15 +7994,18 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>518319.5568439353</v>
+        <v>518322.3351843405</v>
       </c>
       <c r="D27" t="n">
-        <v>495293.3193156903</v>
+        <v>471394.446185052</v>
       </c>
       <c r="E27" t="n">
-        <v>457371.3824552298</v>
+        <v>417677.5585360527</v>
       </c>
       <c r="F27" t="n">
+        <v>457939.6477197409</v>
+      </c>
+      <c r="G27" t="n">
         <v>521033.3540069112</v>
       </c>
     </row>
@@ -7558,15 +8017,18 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>549948.7989697212</v>
+        <v>549951.5597935497</v>
       </c>
       <c r="D28" t="n">
-        <v>519048.8020790299</v>
+        <v>495727.5627965066</v>
       </c>
       <c r="E28" t="n">
-        <v>464019.4119216204</v>
+        <v>431667.5535812378</v>
       </c>
       <c r="F28" t="n">
+        <v>477834.4872949123</v>
+      </c>
+      <c r="G28" t="n">
         <v>584053.6902971244</v>
       </c>
     </row>
@@ -7578,15 +8040,18 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>536957.0235596384</v>
+        <v>536959.7965312758</v>
       </c>
       <c r="D29" t="n">
-        <v>509779.6340399018</v>
+        <v>489576.4463879004</v>
       </c>
       <c r="E29" t="n">
-        <v>461357.2705894709</v>
+        <v>425285.6383771896</v>
       </c>
       <c r="F29" t="n">
+        <v>487983.4485838413</v>
+      </c>
+      <c r="G29" t="n">
         <v>567118.8687690131</v>
       </c>
     </row>
@@ -7598,15 +8063,18 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>548577.6087901777</v>
+        <v>548580.5185564432</v>
       </c>
       <c r="D30" t="n">
-        <v>517975.4257687029</v>
+        <v>494435.3736933372</v>
       </c>
       <c r="E30" t="n">
-        <v>463934.3136156797</v>
+        <v>437846.0026890039</v>
       </c>
       <c r="F30" t="n">
+        <v>464720.5678658485</v>
+      </c>
+      <c r="G30" t="n">
         <v>578984.542112411</v>
       </c>
     </row>
@@ -7618,15 +8086,18 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>511840.5484335448</v>
+        <v>511843.3129830634</v>
       </c>
       <c r="D31" t="n">
-        <v>494509.3885372744</v>
+        <v>479336.7967865546</v>
       </c>
       <c r="E31" t="n">
-        <v>462756.1078038216</v>
+        <v>431581.2068893909</v>
       </c>
       <c r="F31" t="n">
+        <v>483519.8239697218</v>
+      </c>
+      <c r="G31" t="n">
         <v>537506.4621954538</v>
       </c>
     </row>
@@ -7638,15 +8109,18 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>500166.7878641687</v>
+        <v>500169.5564485946</v>
       </c>
       <c r="D32" t="n">
-        <v>496130.6134363115</v>
+        <v>474876.4461086985</v>
       </c>
       <c r="E32" t="n">
-        <v>486122.2092298269</v>
+        <v>436001.7413833141</v>
       </c>
       <c r="F32" t="n">
+        <v>480076.3178988695</v>
+      </c>
+      <c r="G32" t="n">
         <v>525374.278482943</v>
       </c>
     </row>
@@ -7658,15 +8132,18 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>556719.2819252196</v>
+        <v>556722.1120594315</v>
       </c>
       <c r="D33" t="n">
-        <v>530704.1213750209</v>
+        <v>511920.2127550949</v>
       </c>
       <c r="E33" t="n">
-        <v>481489.3242932558</v>
+        <v>449417.3124601841</v>
       </c>
       <c r="F33" t="n">
+        <v>509363.4928716421</v>
+      </c>
+      <c r="G33" t="n">
         <v>606658.581285962</v>
       </c>
     </row>
@@ -7678,15 +8155,18 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>544487.532689361</v>
+        <v>544490.4118760367</v>
       </c>
       <c r="D34" t="n">
-        <v>519154.2677048988</v>
+        <v>498439.8169225717</v>
       </c>
       <c r="E34" t="n">
-        <v>472112.0527522564</v>
+        <v>469041.6892287731</v>
       </c>
       <c r="F34" t="n">
+        <v>438363.7083243132</v>
+      </c>
+      <c r="G34" t="n">
         <v>586623.7747565547</v>
       </c>
     </row>
@@ -7698,15 +8178,18 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>560337.3572000172</v>
+        <v>560340.2242089449</v>
       </c>
       <c r="D35" t="n">
-        <v>537908.9006454535</v>
+        <v>502841.7583486104</v>
       </c>
       <c r="E35" t="n">
-        <v>494173.2371969223</v>
+        <v>442260.8986399174</v>
       </c>
       <c r="F35" t="n">
+        <v>468345.3811831474</v>
+      </c>
+      <c r="G35" t="n">
         <v>613001.7785061987</v>
       </c>
     </row>
@@ -7718,15 +8201,18 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>581160.0883090474</v>
+        <v>581163.001025803</v>
       </c>
       <c r="D36" t="n">
-        <v>541937.8394714509</v>
+        <v>518531.6930092192</v>
       </c>
       <c r="E36" t="n">
-        <v>470278.3611139059</v>
+        <v>446125.4020512104</v>
       </c>
       <c r="F36" t="n">
+        <v>491989.935085535</v>
+      </c>
+      <c r="G36" t="n">
         <v>637761.7225389021</v>
       </c>
     </row>
@@ -7738,15 +8224,18 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>589603.7566355182</v>
+        <v>589606.7641685351</v>
       </c>
       <c r="D37" t="n">
-        <v>548271.0210623392</v>
+        <v>536899.176601027</v>
       </c>
       <c r="E37" t="n">
-        <v>472995.9931995869</v>
+        <v>461679.4581854343</v>
       </c>
       <c r="F37" t="n">
+        <v>536917.1591750383</v>
+      </c>
+      <c r="G37" t="n">
         <v>647482.6713959862</v>
       </c>
     </row>
@@ -7758,15 +8247,18 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>562763.6402607975</v>
+        <v>562766.6905561481</v>
       </c>
       <c r="D38" t="n">
-        <v>530069.3686607635</v>
+        <v>503084.2786986413</v>
       </c>
       <c r="E38" t="n">
-        <v>470165.0908993483</v>
+        <v>433919.7874010801</v>
       </c>
       <c r="F38" t="n">
+        <v>479092.1528697014</v>
+      </c>
+      <c r="G38" t="n">
         <v>611206.5341542105</v>
       </c>
     </row>
@@ -7778,15 +8270,18 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>532476.862934585</v>
+        <v>532480.0662680281</v>
       </c>
       <c r="D39" t="n">
-        <v>512972.7766286127</v>
+        <v>500980.4150460187</v>
       </c>
       <c r="E39" t="n">
-        <v>477906.8936774731</v>
+        <v>450733.5481404066</v>
       </c>
       <c r="F39" t="n">
+        <v>511940.9312200546</v>
+      </c>
+      <c r="G39" t="n">
         <v>556441.7026965519</v>
       </c>
     </row>
@@ -7798,15 +8293,18 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>561713.5399166656</v>
+        <v>561716.6936161297</v>
       </c>
       <c r="D40" t="n">
-        <v>522386.8421897648</v>
+        <v>508575.4926913995</v>
       </c>
       <c r="E40" t="n">
-        <v>452296.2360049486</v>
+        <v>459985.6481878757</v>
       </c>
       <c r="F40" t="n">
+        <v>465032.789180994</v>
+      </c>
+      <c r="G40" t="n">
         <v>605518.0659062505</v>
       </c>
     </row>
@@ -7818,16 +8316,19 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>549711.4522367143</v>
+        <v>549714.6286383088</v>
       </c>
       <c r="D41" t="n">
-        <v>525844.5180611188</v>
+        <v>503841.4536138764</v>
       </c>
       <c r="E41" t="n">
-        <v>481252.9216154814</v>
+        <v>471956.3166104555</v>
       </c>
       <c r="F41" t="n">
-        <v>591412.0753267221</v>
+        <v>448461.04885602</v>
+      </c>
+      <c r="G41" t="n">
+        <v>591412.075326722</v>
       </c>
     </row>
     <row r="42">
@@ -7838,15 +8339,18 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>560454.3603611912</v>
+        <v>560457.65038694</v>
       </c>
       <c r="D42" t="n">
-        <v>534423.4526445772</v>
+        <v>520200.4543571983</v>
       </c>
       <c r="E42" t="n">
-        <v>486115.3014944792</v>
+        <v>463634.7426110506</v>
       </c>
       <c r="F42" t="n">
+        <v>518919.2211779356</v>
+      </c>
+      <c r="G42" t="n">
         <v>603533.6160052898</v>
       </c>
     </row>
@@ -7858,15 +8362,18 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>526505.7552475918</v>
+        <v>526508.9467909186</v>
       </c>
       <c r="D43" t="n">
-        <v>515581.7728735732</v>
+        <v>515263.2927326547</v>
       </c>
       <c r="E43" t="n">
-        <v>492745.8327517509</v>
+        <v>492237.6356557608</v>
       </c>
       <c r="F43" t="n">
+        <v>522563.009961009</v>
+      </c>
+      <c r="G43" t="n">
         <v>563444.2337212379</v>
       </c>
     </row>
@@ -7878,15 +8385,18 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>515719.303343167</v>
+        <v>515722.5095082598</v>
       </c>
       <c r="D44" t="n">
-        <v>507279.3684838556</v>
+        <v>497675.0059027342</v>
       </c>
       <c r="E44" t="n">
-        <v>487895.8535060883</v>
+        <v>468105.441411972</v>
       </c>
       <c r="F44" t="n">
+        <v>500174.4571188688</v>
+      </c>
+      <c r="G44" t="n">
         <v>557063.4955386829</v>
       </c>
     </row>
@@ -7898,15 +8408,18 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>567985.0820181142</v>
+        <v>567988.2879974848</v>
       </c>
       <c r="D45" t="n">
-        <v>530063.1861190636</v>
+        <v>516382.6644455218</v>
       </c>
       <c r="E45" t="n">
-        <v>459785.4903142452</v>
+        <v>459450.8188592196</v>
       </c>
       <c r="F45" t="n">
+        <v>487035.174649477</v>
+      </c>
+      <c r="G45" t="n">
         <v>630023.8306103472</v>
       </c>
     </row>
@@ -7918,15 +8431,18 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>556682.1111193236</v>
+        <v>556685.3741595865</v>
       </c>
       <c r="D46" t="n">
-        <v>535224.1067563058</v>
+        <v>519998.0074233785</v>
       </c>
       <c r="E46" t="n">
-        <v>492693.6918337345</v>
+        <v>464331.7580753565</v>
       </c>
       <c r="F46" t="n">
+        <v>522825.3998720646</v>
+      </c>
+      <c r="G46" t="n">
         <v>612123.7707056084</v>
       </c>
     </row>
@@ -7938,15 +8454,18 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>571331.023837436</v>
+        <v>571334.2594142738</v>
       </c>
       <c r="D47" t="n">
-        <v>550929.5349438092</v>
+        <v>528120.8849269417</v>
       </c>
       <c r="E47" t="n">
-        <v>508477.4093618393</v>
+        <v>472873.235252142</v>
       </c>
       <c r="F47" t="n">
+        <v>513518.8701990843</v>
+      </c>
+      <c r="G47" t="n">
         <v>638874.8180782608</v>
       </c>
     </row>
@@ -7958,15 +8477,18 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>590575.5314518133</v>
+        <v>590578.7881753487</v>
       </c>
       <c r="D48" t="n">
-        <v>562062.94241251</v>
+        <v>540224.4671345949</v>
       </c>
       <c r="E48" t="n">
-        <v>505782.3106417656</v>
+        <v>484417.101339817</v>
       </c>
       <c r="F48" t="n">
+        <v>509910.2650921345</v>
+      </c>
+      <c r="G48" t="n">
         <v>662535.9209821537</v>
       </c>
     </row>
@@ -7978,15 +8500,18 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>598379.5020578624</v>
+        <v>598382.8377344901</v>
       </c>
       <c r="D49" t="n">
-        <v>571701.7664319202</v>
+        <v>537761.6944938642</v>
       </c>
       <c r="E49" t="n">
-        <v>517913.4590725899</v>
+        <v>465661.4555169344</v>
       </c>
       <c r="F49" t="n">
+        <v>511640.5279581547</v>
+      </c>
+      <c r="G49" t="n">
         <v>674019.6728804054</v>
       </c>
     </row>
@@ -7998,15 +8523,18 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>573575.1012677845</v>
+        <v>573578.5030674819</v>
       </c>
       <c r="D50" t="n">
-        <v>553563.0285745119</v>
+        <v>536629.7454704554</v>
       </c>
       <c r="E50" t="n">
-        <v>512500.6242346764</v>
+        <v>493089.2221016884</v>
       </c>
       <c r="F50" t="n">
+        <v>517084.0314764977</v>
+      </c>
+      <c r="G50" t="n">
         <v>635566.3563378147</v>
       </c>
     </row>
@@ -8018,15 +8546,18 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>545585.2958024074</v>
+        <v>545588.8691196492</v>
       </c>
       <c r="D51" t="n">
-        <v>536300.5591511705</v>
+        <v>525043.8129768644</v>
       </c>
       <c r="E51" t="n">
-        <v>514873.5353587866</v>
+        <v>494366.404109478</v>
       </c>
       <c r="F51" t="n">
+        <v>522975.9760187864</v>
+      </c>
+      <c r="G51" t="n">
         <v>591827.9524099133</v>
       </c>
     </row>
@@ -8038,15 +8569,18 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>572605.2441934232</v>
+        <v>572608.7423296863</v>
       </c>
       <c r="D52" t="n">
-        <v>554637.9696997068</v>
+        <v>534946.0955848696</v>
       </c>
       <c r="E52" t="n">
-        <v>517967.805472374</v>
+        <v>465196.5149925947</v>
       </c>
       <c r="F52" t="n">
+        <v>559741.8148270845</v>
+      </c>
+      <c r="G52" t="n">
         <v>626816.0865543261</v>
       </c>
     </row>
@@ -8058,15 +8592,18 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>561513.473803455</v>
+        <v>561517.0048066465</v>
       </c>
       <c r="D53" t="n">
-        <v>550377.4961135923</v>
+        <v>542336.0246518722</v>
       </c>
       <c r="E53" t="n">
-        <v>524849.9072961807</v>
+        <v>505576.1605157852</v>
       </c>
       <c r="F53" t="n">
+        <v>552147.924972415</v>
+      </c>
+      <c r="G53" t="n">
         <v>615713.0911715446</v>
       </c>
     </row>
@@ -8078,15 +8615,18 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>571441.9151093024</v>
+        <v>571445.5403187446</v>
       </c>
       <c r="D54" t="n">
-        <v>560534.7764669525</v>
+        <v>547260.1982759328</v>
       </c>
       <c r="E54" t="n">
-        <v>535041.2720930576</v>
+        <v>509742.0034784079</v>
       </c>
       <c r="F54" t="n">
+        <v>546793.3481434584</v>
+      </c>
+      <c r="G54" t="n">
         <v>628136.8085785229</v>
       </c>
     </row>
@@ -8098,15 +8638,18 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>540067.7329903786</v>
+        <v>540071.3010184903</v>
       </c>
       <c r="D55" t="n">
-        <v>533589.6165871944</v>
+        <v>531513.085877416</v>
       </c>
       <c r="E55" t="n">
-        <v>516305.4964125156</v>
+        <v>509667.7661298513</v>
       </c>
       <c r="F55" t="n">
+        <v>540461.2643435001</v>
+      </c>
+      <c r="G55" t="n">
         <v>589506.453061684</v>
       </c>
     </row>
@@ -8118,15 +8661,18 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>530099.3061074807</v>
+        <v>530102.8983697671</v>
       </c>
       <c r="D56" t="n">
-        <v>534763.9790724753</v>
+        <v>532581.118548951</v>
       </c>
       <c r="E56" t="n">
-        <v>534398.1452870369</v>
+        <v>504767.1648356915</v>
       </c>
       <c r="F56" t="n">
+        <v>574443.2858066559</v>
+      </c>
+      <c r="G56" t="n">
         <v>588767.1773817409</v>
       </c>
     </row>
@@ -8138,15 +8684,18 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>578401.8815605683</v>
+        <v>578405.4214324768</v>
       </c>
       <c r="D57" t="n">
-        <v>572049.7394735891</v>
+        <v>556311.0707558828</v>
       </c>
       <c r="E57" t="n">
-        <v>549992.9404146671</v>
+        <v>513833.6923182011</v>
       </c>
       <c r="F57" t="n">
+        <v>563470.2441745996</v>
+      </c>
+      <c r="G57" t="n">
         <v>664469.5433424336</v>
       </c>
     </row>
@@ -8158,15 +8707,18 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>567956.0644045062</v>
+        <v>567959.6682651383</v>
       </c>
       <c r="D58" t="n">
-        <v>565771.0599961029</v>
+        <v>554144.2978585906</v>
       </c>
       <c r="E58" t="n">
-        <v>552349.2896190882</v>
+        <v>504165.6092803478</v>
       </c>
       <c r="F58" t="n">
+        <v>594908.9082245827</v>
+      </c>
+      <c r="G58" t="n">
         <v>640493.0567769657</v>
       </c>
     </row>
@@ -8178,15 +8730,18 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>581494.2046964326</v>
+        <v>581497.7685274726</v>
       </c>
       <c r="D59" t="n">
-        <v>584887.4988298605</v>
+        <v>568820.1730358222</v>
       </c>
       <c r="E59" t="n">
-        <v>578923.4723404646</v>
+        <v>538004.0663642883</v>
       </c>
       <c r="F59" t="n">
+        <v>577352.1081938744</v>
+      </c>
+      <c r="G59" t="n">
         <v>666096.8896101541</v>
       </c>
     </row>
@@ -8198,15 +8753,18 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>599279.4490852128</v>
+        <v>599283.0132274868</v>
       </c>
       <c r="D60" t="n">
-        <v>584430.6298641273</v>
+        <v>566970.6310447507</v>
       </c>
       <c r="E60" t="n">
-        <v>547462.1916991472</v>
+        <v>511191.3170962334</v>
       </c>
       <c r="F60" t="n">
+        <v>572599.9607903957</v>
+      </c>
+      <c r="G60" t="n">
         <v>693106.4467692302</v>
       </c>
     </row>
@@ -8218,15 +8776,18 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>606491.6766010581</v>
+        <v>606495.3059033806</v>
       </c>
       <c r="D61" t="n">
-        <v>588822.1357704055</v>
+        <v>574312.1714057053</v>
       </c>
       <c r="E61" t="n">
-        <v>547386.7683839798</v>
+        <v>522953.1305567026</v>
       </c>
       <c r="F61" t="n">
+        <v>572906.8348525763</v>
+      </c>
+      <c r="G61" t="n">
         <v>699337.5666391928</v>
       </c>
     </row>
@@ -8238,15 +8799,18 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>583568.1966812228</v>
+        <v>583571.9118450353</v>
       </c>
       <c r="D62" t="n">
-        <v>585610.9232455769</v>
+        <v>569888.4479468648</v>
       </c>
       <c r="E62" t="n">
-        <v>577511.9848155975</v>
+        <v>530186.0912394524</v>
       </c>
       <c r="F62" t="n">
+        <v>591363.9083795547</v>
+      </c>
+      <c r="G62" t="n">
         <v>667672.6985586925</v>
       </c>
     </row>
@@ -8258,15 +8822,18 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>557700.8544413606</v>
+        <v>557704.7560517298</v>
       </c>
       <c r="D63" t="n">
-        <v>563541.168813359</v>
+        <v>561127.0292510032</v>
       </c>
       <c r="E63" t="n">
-        <v>568612.678625226</v>
+        <v>545577.024948597</v>
       </c>
       <c r="F63" t="n">
+        <v>589056.7663862705</v>
+      </c>
+      <c r="G63" t="n">
         <v>590468.5866196097</v>
       </c>
     </row>
@@ -8278,15 +8845,18 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>582671.9113367092</v>
+        <v>582675.7164837809</v>
       </c>
       <c r="D64" t="n">
-        <v>572996.7179037136</v>
+        <v>568956.2488741322</v>
       </c>
       <c r="E64" t="n">
-        <v>545719.340941906</v>
+        <v>529063.8339226246</v>
       </c>
       <c r="F64" t="n">
+        <v>590582.085899353</v>
+      </c>
+      <c r="G64" t="n">
         <v>667275.8364767432</v>
       </c>
     </row>
@@ -8298,15 +8868,18 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>572421.2316233461</v>
+        <v>572425.0782131255</v>
       </c>
       <c r="D65" t="n">
-        <v>580044.7493667104</v>
+        <v>566204.9145934695</v>
       </c>
       <c r="E65" t="n">
-        <v>582248.839491725</v>
+        <v>536818.5158820152</v>
       </c>
       <c r="F65" t="n">
+        <v>588365.7431743145</v>
+      </c>
+      <c r="G65" t="n">
         <v>647685.8054284464</v>
       </c>
     </row>
@@ -8318,15 +8891,18 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>581596.8135171725</v>
+        <v>581600.7372527063</v>
       </c>
       <c r="D66" t="n">
-        <v>582728.3638665535</v>
+        <v>584240.226637032</v>
       </c>
       <c r="E66" t="n">
-        <v>574007.5158996582</v>
+        <v>535396.0425611734</v>
       </c>
       <c r="F66" t="n">
+        <v>658628.7719726562</v>
+      </c>
+      <c r="G66" t="n">
         <v>659343.1953796106</v>
       </c>
     </row>
@@ -8338,15 +8914,18 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>552601.7193418219</v>
+        <v>552605.6215518473</v>
       </c>
       <c r="D67" t="n">
-        <v>562615.2547478515</v>
+        <v>563287.6798812544</v>
       </c>
       <c r="E67" t="n">
-        <v>570255.1383491755</v>
+        <v>541570.6008661985</v>
       </c>
       <c r="F67" t="n">
+        <v>612028.8148009777</v>
+      </c>
+      <c r="G67" t="n">
         <v>616550.0748697331</v>
       </c>
     </row>
@@ -8358,15 +8937,18 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>543389.1956817894</v>
+        <v>543393.1302377796</v>
       </c>
       <c r="D68" t="n">
-        <v>574081.0017391689</v>
+        <v>558180.6896956346</v>
       </c>
       <c r="E68" t="n">
-        <v>616637.314599514</v>
+        <v>548212.2011451721</v>
       </c>
       <c r="F68" t="n">
+        <v>597712.5749056339</v>
+      </c>
+      <c r="G68" t="n">
         <v>598562.6000599889</v>
       </c>
     </row>
@@ -8378,15 +8960,18 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>588029.0240494441</v>
+        <v>588032.8619614544</v>
       </c>
       <c r="D69" t="n">
-        <v>588784.2586110828</v>
+        <v>589567.3006404425</v>
       </c>
       <c r="E69" t="n">
-        <v>576423.038596034</v>
+        <v>559133.455568552</v>
       </c>
       <c r="F69" t="n">
+        <v>626136.3245728016</v>
+      </c>
+      <c r="G69" t="n">
         <v>688045.3814566222</v>
       </c>
     </row>
@@ -8398,15 +8983,18 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>578375.30852171</v>
+        <v>578379.2159973071</v>
       </c>
       <c r="D70" t="n">
-        <v>588323.0976463052</v>
+        <v>575609.7828903619</v>
       </c>
       <c r="E70" t="n">
-        <v>592640.0084528923</v>
+        <v>522345.9364583492</v>
       </c>
       <c r="F70" t="n">
+        <v>643674.0659120083</v>
+      </c>
+      <c r="G70" t="n">
         <v>665985.0580312232</v>
       </c>
     </row>
@@ -8418,15 +9006,18 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>590886.8631440247</v>
+        <v>590890.7201079614</v>
       </c>
       <c r="D71" t="n">
-        <v>593686.2291355208</v>
+        <v>573871.4057688338</v>
       </c>
       <c r="E71" t="n">
-        <v>584512.3503975868</v>
+        <v>530245.4727957249</v>
       </c>
       <c r="F71" t="n">
+        <v>591463.0302205086</v>
+      </c>
+      <c r="G71" t="n">
         <v>691980.4216097981</v>
       </c>
     </row>
@@ -8438,15 +9029,18 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>607323.4664725144</v>
+        <v>607327.3059666363</v>
       </c>
       <c r="D72" t="n">
-        <v>614667.5759229404</v>
+        <v>593398.6245373221</v>
       </c>
       <c r="E72" t="n">
-        <v>611622.7148656845</v>
+        <v>543415.798461318</v>
       </c>
       <c r="F72" t="n">
+        <v>626892.8048191071</v>
+      </c>
+      <c r="G72" t="n">
         <v>717856.7901412257</v>
       </c>
     </row>
@@ -8458,15 +9052,18 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>613988.7970396762</v>
+        <v>613992.6895513805</v>
       </c>
       <c r="D73" t="n">
-        <v>619393.2462325393</v>
+        <v>610573.20232948</v>
       </c>
       <c r="E73" t="n">
-        <v>613007.7574157715</v>
+        <v>562180.3286305666</v>
       </c>
       <c r="F73" t="n">
+        <v>664447.0409400463</v>
+      </c>
+      <c r="G73" t="n">
         <v>725826.4517584977</v>
       </c>
     </row>
@@ -8478,15 +9075,18 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>592803.5894934956</v>
+        <v>592807.5842414125</v>
       </c>
       <c r="D74" t="n">
-        <v>591678.2393234172</v>
+        <v>599818.7778372868</v>
       </c>
       <c r="E74" t="n">
-        <v>576386.8562111855</v>
+        <v>568796.2121598721</v>
       </c>
       <c r="F74" t="n">
+        <v>649726.0743339062</v>
+      </c>
+      <c r="G74" t="n">
         <v>691812.9957088986</v>
       </c>
     </row>
@@ -8498,15 +9098,18 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>568897.7504331857</v>
+        <v>568901.9433142123</v>
       </c>
       <c r="D75" t="n">
-        <v>585229.1917329929</v>
+        <v>585390.7036467666</v>
       </c>
       <c r="E75" t="n">
-        <v>604118.2510547638</v>
+        <v>591639.2190847397</v>
       </c>
       <c r="F75" t="n">
+        <v>600834.7880570889</v>
+      </c>
+      <c r="G75" t="n">
         <v>625889.8276721379</v>
       </c>
     </row>
@@ -8521,7 +9124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8547,10 +9150,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -8561,15 +9169,18 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>484997.5861146463</v>
+        <v>484997.7058758903</v>
       </c>
       <c r="C2" t="n">
-        <v>455774.761890534</v>
+        <v>461631.6306903377</v>
       </c>
       <c r="D2" t="n">
-        <v>413059.3170362115</v>
+        <v>452861.0715957284</v>
       </c>
       <c r="E2" t="n">
+        <v>431396.2156579494</v>
+      </c>
+      <c r="F2" t="n">
         <v>448622.8529024446</v>
       </c>
     </row>
@@ -8578,15 +9189,18 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>481278.4583109817</v>
+        <v>481278.5842271234</v>
       </c>
       <c r="C3" t="n">
-        <v>448342.4366921858</v>
+        <v>462104.78596527</v>
       </c>
       <c r="D3" t="n">
-        <v>400622.6910200119</v>
+        <v>459322.3284296989</v>
       </c>
       <c r="E3" t="n">
+        <v>432438.4651162624</v>
+      </c>
+      <c r="F3" t="n">
         <v>437166.8745786949</v>
       </c>
     </row>
@@ -8595,15 +9209,18 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>498553.1854037594</v>
+        <v>498553.3469020093</v>
       </c>
       <c r="C4" t="n">
-        <v>459038.3789673127</v>
+        <v>471303.639486758</v>
       </c>
       <c r="D4" t="n">
-        <v>401352.927002728</v>
+        <v>464335.7360656261</v>
       </c>
       <c r="E4" t="n">
+        <v>431860.271255672</v>
+      </c>
+      <c r="F4" t="n">
         <v>448823.5974462835</v>
       </c>
     </row>
@@ -8612,15 +9229,18 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>450174.0992992357</v>
+        <v>450174.2054580956</v>
       </c>
       <c r="C5" t="n">
-        <v>432669.601941541</v>
+        <v>446617.5924589942</v>
       </c>
       <c r="D5" t="n">
-        <v>410879.2406583428</v>
+        <v>459693.9000331163</v>
       </c>
       <c r="E5" t="n">
+        <v>425724.2195781469</v>
+      </c>
+      <c r="F5" t="n">
         <v>400453.0554511767</v>
       </c>
     </row>
@@ -8629,15 +9249,18 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>429466.1266237666</v>
+        <v>429466.2174350689</v>
       </c>
       <c r="C6" t="n">
-        <v>421154.0777264762</v>
+        <v>437772.2199945255</v>
       </c>
       <c r="D6" t="n">
-        <v>413964.3161223531</v>
+        <v>463406.8070570827</v>
       </c>
       <c r="E6" t="n">
+        <v>421353.1507954001</v>
+      </c>
+      <c r="F6" t="n">
         <v>382623.6229867304</v>
       </c>
     </row>
@@ -8646,15 +9269,18 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>480709.0600438222</v>
+        <v>480709.275685577</v>
       </c>
       <c r="C7" t="n">
-        <v>458086.2304498591</v>
+        <v>459384.819399558</v>
       </c>
       <c r="D7" t="n">
-        <v>424930.9408726692</v>
+        <v>454949.6595778465</v>
       </c>
       <c r="E7" t="n">
+        <v>424683.179060936</v>
+      </c>
+      <c r="F7" t="n">
         <v>453190.8828687236</v>
       </c>
     </row>
@@ -8663,15 +9289,18 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>443179.5875215636</v>
+        <v>443179.7656568821</v>
       </c>
       <c r="C8" t="n">
-        <v>433518.7410457229</v>
+        <v>446685.7424093431</v>
       </c>
       <c r="D8" t="n">
-        <v>420501.7362457514</v>
+        <v>467166.400541842</v>
       </c>
       <c r="E8" t="n">
+        <v>423428.1915257573</v>
+      </c>
+      <c r="F8" t="n">
         <v>423028.2202574082</v>
       </c>
     </row>
@@ -8680,15 +9309,18 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>469632.2251447989</v>
+        <v>469632.4549534565</v>
       </c>
       <c r="C9" t="n">
-        <v>448709.1223824394</v>
+        <v>456336.8745919958</v>
       </c>
       <c r="D9" t="n">
-        <v>417372.3210889697</v>
+        <v>455793.9271521568</v>
       </c>
       <c r="E9" t="n">
+        <v>431547.0843960643</v>
+      </c>
+      <c r="F9" t="n">
         <v>449130.3793805084</v>
       </c>
     </row>
@@ -8697,15 +9329,18 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>505506.0651705859</v>
+        <v>505506.354734558</v>
       </c>
       <c r="C10" t="n">
-        <v>466618.1061706438</v>
+        <v>473949.514651445</v>
       </c>
       <c r="D10" t="n">
-        <v>407046.7551365495</v>
+        <v>459762.9163472056</v>
       </c>
       <c r="E10" t="n">
+        <v>433244.7577171326</v>
+      </c>
+      <c r="F10" t="n">
         <v>477175.0438679613</v>
       </c>
     </row>
@@ -8714,15 +9349,18 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>513475.5858133886</v>
+        <v>513475.8912195447</v>
       </c>
       <c r="C11" t="n">
-        <v>471823.6492842874</v>
+        <v>481608.1606666592</v>
       </c>
       <c r="D11" t="n">
-        <v>408038.2290685773</v>
+        <v>466774.9880815148</v>
       </c>
       <c r="E11" t="n">
+        <v>441710.5811266303</v>
+      </c>
+      <c r="F11" t="n">
         <v>482983.8480840219</v>
       </c>
     </row>
@@ -8731,15 +9369,18 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>470612.3468794461</v>
+        <v>470612.5799763676</v>
       </c>
       <c r="C12" t="n">
-        <v>449525.233586825</v>
+        <v>461265.0813598318</v>
       </c>
       <c r="D12" t="n">
-        <v>419749.4904235601</v>
+        <v>470191.9178780317</v>
       </c>
       <c r="E12" t="n">
+        <v>431650.0221751928</v>
+      </c>
+      <c r="F12" t="n">
         <v>436656.1487096669</v>
       </c>
     </row>
@@ -8748,15 +9389,18 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>441618.4522888935</v>
+        <v>441618.6175856119</v>
       </c>
       <c r="C13" t="n">
-        <v>432886.9771722025</v>
+        <v>450270.7195153263</v>
       </c>
       <c r="D13" t="n">
-        <v>426425.689874053</v>
+        <v>474471.9249501228</v>
       </c>
       <c r="E13" t="n">
+        <v>438974.4985131025</v>
+      </c>
+      <c r="F13" t="n">
         <v>384382.7385923929</v>
       </c>
     </row>
@@ -8765,15 +9409,18 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>487585.86625049</v>
+        <v>487586.1452833026</v>
       </c>
       <c r="C14" t="n">
-        <v>462834.0275959306</v>
+        <v>466154.6685956455</v>
       </c>
       <c r="D14" t="n">
-        <v>429060.1147637367</v>
+        <v>461161.981216073</v>
       </c>
       <c r="E14" t="n">
+        <v>436044.4164097905</v>
+      </c>
+      <c r="F14" t="n">
         <v>439071.3945341054</v>
       </c>
     </row>
@@ -8782,15 +9429,18 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>484075.099318068</v>
+        <v>484075.3707996707</v>
       </c>
       <c r="C15" t="n">
-        <v>458494.7300380672</v>
+        <v>471242.2374153287</v>
       </c>
       <c r="D15" t="n">
-        <v>424501.411210537</v>
+        <v>474179.5745459795</v>
       </c>
       <c r="E15" t="n">
+        <v>448291.132001698</v>
+      </c>
+      <c r="F15" t="n">
         <v>427232.6438331051</v>
       </c>
     </row>
@@ -8799,15 +9449,18 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>500776.8286870691</v>
+        <v>500777.1295877778</v>
       </c>
       <c r="C16" t="n">
-        <v>465501.4211568726</v>
+        <v>484078.2566075087</v>
       </c>
       <c r="D16" t="n">
-        <v>416407.8705462813</v>
+        <v>486768.7760406733</v>
       </c>
       <c r="E16" t="n">
+        <v>453935.8557925224</v>
+      </c>
+      <c r="F16" t="n">
         <v>438701.0358348383</v>
       </c>
     </row>
@@ -8816,15 +9469,18 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>454234.5955684311</v>
+        <v>454234.8171247311</v>
       </c>
       <c r="C17" t="n">
-        <v>445170.2639883166</v>
+        <v>457687.2533591205</v>
       </c>
       <c r="D17" t="n">
-        <v>439203.5928519368</v>
+        <v>471513.7527447343</v>
       </c>
       <c r="E17" t="n">
+        <v>453874.5553672314</v>
+      </c>
+      <c r="F17" t="n">
         <v>389365.2311649311</v>
       </c>
     </row>
@@ -8833,15 +9489,18 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>434338.1314260365</v>
+        <v>434338.3227471138</v>
       </c>
       <c r="C18" t="n">
-        <v>431728.1955181212</v>
+        <v>451650.5131928119</v>
       </c>
       <c r="D18" t="n">
-        <v>435992.4319424033</v>
+        <v>483317.8892220259</v>
       </c>
       <c r="E18" t="n">
+        <v>447907.3998730779</v>
+      </c>
+      <c r="F18" t="n">
         <v>371642.7573115207</v>
       </c>
     </row>
@@ -8850,15 +9509,18 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>483737.6906074809</v>
+        <v>483738.0123170394</v>
       </c>
       <c r="C19" t="n">
-        <v>461174.5918032916</v>
+        <v>474967.1053436971</v>
       </c>
       <c r="D19" t="n">
-        <v>430139.6991678476</v>
+        <v>481967.6442394257</v>
       </c>
       <c r="E19" t="n">
+        <v>451463.1445537806</v>
+      </c>
+      <c r="F19" t="n">
         <v>441334.4561095333</v>
       </c>
     </row>
@@ -8867,15 +9529,18 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>447628.2018755316</v>
+        <v>447628.4681139401</v>
       </c>
       <c r="C20" t="n">
-        <v>438806.3604494061</v>
+        <v>452520.2726220423</v>
       </c>
       <c r="D20" t="n">
-        <v>428927.0245712399</v>
+        <v>464951.0159723759</v>
       </c>
       <c r="E20" t="n">
+        <v>448409.0037591457</v>
+      </c>
+      <c r="F20" t="n">
         <v>414458.0070360376</v>
       </c>
     </row>
@@ -8884,15 +9549,18 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>473140.6158192882</v>
+        <v>473140.9351429828</v>
       </c>
       <c r="C21" t="n">
-        <v>453696.8645496709</v>
+        <v>468966.9698242272</v>
       </c>
       <c r="D21" t="n">
-        <v>426476.1809436083</v>
+        <v>480326.7200359702</v>
       </c>
       <c r="E21" t="n">
+        <v>446532.0871411562</v>
+      </c>
+      <c r="F21" t="n">
         <v>440104.6986493482</v>
       </c>
     </row>
@@ -8901,15 +9569,18 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>507723.3940432699</v>
+        <v>507723.778138442</v>
       </c>
       <c r="C22" t="n">
-        <v>475952.4618446818</v>
+        <v>485330.9567072619</v>
       </c>
       <c r="D22" t="n">
-        <v>429855.740237236</v>
+        <v>479370.5542955399</v>
       </c>
       <c r="E22" t="n">
+        <v>453538.9319830537</v>
+      </c>
+      <c r="F22" t="n">
         <v>465650.7135399835</v>
       </c>
     </row>
@@ -8918,15 +9589,18 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>515425.7440322334</v>
+        <v>515426.1416536451</v>
       </c>
       <c r="C23" t="n">
-        <v>483291.3783346387</v>
+        <v>493173.224725248</v>
       </c>
       <c r="D23" t="n">
-        <v>436829.6947697401</v>
+        <v>491194.6383010149</v>
       </c>
       <c r="E23" t="n">
+        <v>455242.8633521795</v>
+      </c>
+      <c r="F23" t="n">
         <v>471677.2423470335</v>
       </c>
     </row>
@@ -8935,15 +9609,18 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>474163.8236882363</v>
+        <v>474164.1330657103</v>
       </c>
       <c r="C24" t="n">
-        <v>454898.7317099347</v>
+        <v>473199.7367229689</v>
       </c>
       <c r="D24" t="n">
-        <v>430110.5779101253</v>
+        <v>486088.8888991475</v>
       </c>
       <c r="E24" t="n">
+        <v>458204.0579103231</v>
+      </c>
+      <c r="F24" t="n">
         <v>425373.3255308414</v>
       </c>
     </row>
@@ -8952,15 +9629,18 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>446257.8773632196</v>
+        <v>446258.108050049</v>
       </c>
       <c r="C25" t="n">
-        <v>442022.5339121188</v>
+        <v>455891.1027727953</v>
       </c>
       <c r="D25" t="n">
-        <v>444837.6139582992</v>
+        <v>473763.4854643345</v>
       </c>
       <c r="E25" t="n">
+        <v>460158.4889872074</v>
+      </c>
+      <c r="F25" t="n">
         <v>374720.4685252238</v>
       </c>
     </row>
@@ -8969,15 +9649,18 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>490550.8862705639</v>
+        <v>490551.2391763288</v>
       </c>
       <c r="C26" t="n">
-        <v>466325.2922552901</v>
+        <v>481360.3006822725</v>
       </c>
       <c r="D26" t="n">
-        <v>435111.8961350322</v>
+        <v>492608.8504907489</v>
       </c>
       <c r="E26" t="n">
+        <v>453159.9645046592</v>
+      </c>
+      <c r="F26" t="n">
         <v>429511.1333435799</v>
       </c>
     </row>
@@ -8986,15 +9669,18 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>487185.296419327</v>
+        <v>487185.6381555236</v>
       </c>
       <c r="C27" t="n">
-        <v>462943.395988426</v>
+        <v>478428.4986497134</v>
       </c>
       <c r="D27" t="n">
-        <v>432907.8898347616</v>
+        <v>488814.4821707606</v>
       </c>
       <c r="E27" t="n">
+        <v>454293.6668016315</v>
+      </c>
+      <c r="F27" t="n">
         <v>417282.9820707724</v>
       </c>
     </row>
@@ -9003,15 +9689,18 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>503286.140930686</v>
+        <v>503286.5143406903</v>
       </c>
       <c r="C28" t="n">
-        <v>469863.0946448498</v>
+        <v>490649.4498668301</v>
       </c>
       <c r="D28" t="n">
-        <v>425512.8326707482</v>
+        <v>501379.0426012278</v>
       </c>
       <c r="E28" t="n">
+        <v>458218.0674042702</v>
+      </c>
+      <c r="F28" t="n">
         <v>428537.6857905939</v>
       </c>
     </row>
@@ -9020,15 +9709,18 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>458469.9076146295</v>
+        <v>458470.186582376</v>
       </c>
       <c r="C29" t="n">
-        <v>447273.4582839119</v>
+        <v>463468.6979309929</v>
       </c>
       <c r="D29" t="n">
-        <v>439913.7746351957</v>
+        <v>480643.3559334278</v>
       </c>
       <c r="E29" t="n">
+        <v>460239.3813697696</v>
+      </c>
+      <c r="F29" t="n">
         <v>378264.880861424</v>
       </c>
     </row>
@@ -9037,15 +9729,18 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>439316.9334245569</v>
+        <v>439317.1746154704</v>
       </c>
       <c r="C30" t="n">
-        <v>439776.6343419083</v>
+        <v>457657.1913243477</v>
       </c>
       <c r="D30" t="n">
-        <v>451214.1026867628</v>
+        <v>489028.4647458196</v>
       </c>
       <c r="E30" t="n">
+        <v>459645.8268457651</v>
+      </c>
+      <c r="F30" t="n">
         <v>360676.7430742009</v>
       </c>
     </row>
@@ -9054,15 +9749,18 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>486907.3334628313</v>
+        <v>486907.7155140258</v>
       </c>
       <c r="C31" t="n">
-        <v>470749.7441437218</v>
+        <v>478811.7574381991</v>
       </c>
       <c r="D31" t="n">
-        <v>451405.9687510729</v>
+        <v>482094.6897264123</v>
       </c>
       <c r="E31" t="n">
+        <v>464808.9298357964</v>
+      </c>
+      <c r="F31" t="n">
         <v>435347.2692835885</v>
       </c>
     </row>
@@ -9071,15 +9769,18 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>452135.850132654</v>
+        <v>452136.1649643568</v>
       </c>
       <c r="C32" t="n">
-        <v>450051.8603828626</v>
+        <v>462812.6399777362</v>
       </c>
       <c r="D32" t="n">
-        <v>453917.1527625322</v>
+        <v>477509.6739256978</v>
       </c>
       <c r="E32" t="n">
+        <v>471440.3984655142</v>
+      </c>
+      <c r="F32" t="n">
         <v>398687.2500553382</v>
       </c>
     </row>
@@ -9088,15 +9789,18 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>476716.4532965361</v>
+        <v>476716.8267213682</v>
       </c>
       <c r="C33" t="n">
-        <v>458161.8442400913</v>
+        <v>480739.4312452644</v>
       </c>
       <c r="D33" t="n">
-        <v>434872.9169248343</v>
+        <v>497507.0531510711</v>
       </c>
       <c r="E33" t="n">
+        <v>470689.823826611</v>
+      </c>
+      <c r="F33" t="n">
         <v>425420.4798361226</v>
       </c>
     </row>
@@ -9105,15 +9809,18 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>510032.5815913674</v>
+        <v>510033.0281183593</v>
       </c>
       <c r="C34" t="n">
-        <v>483034.3933771515</v>
+        <v>492500.8402464762</v>
       </c>
       <c r="D34" t="n">
-        <v>446017.327131331</v>
+        <v>487250.5390698314</v>
       </c>
       <c r="E34" t="n">
+        <v>472052.2648915052</v>
+      </c>
+      <c r="F34" t="n">
         <v>458424.9555405931</v>
       </c>
     </row>
@@ -9122,15 +9829,18 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>517457.1941383206</v>
+        <v>517457.6553442726</v>
       </c>
       <c r="C35" t="n">
-        <v>489147.9770601703</v>
+        <v>494609.9922093107</v>
       </c>
       <c r="D35" t="n">
-        <v>450255.1279361248</v>
+        <v>487541.6094186902</v>
       </c>
       <c r="E35" t="n">
+        <v>465809.4708260894</v>
+      </c>
+      <c r="F35" t="n">
         <v>463919.1844587934</v>
       </c>
     </row>
@@ -9139,15 +9849,18 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>477719.6304602945</v>
+        <v>477719.9916859749</v>
       </c>
       <c r="C36" t="n">
-        <v>460681.7464466559</v>
+        <v>477479.1700103752</v>
       </c>
       <c r="D36" t="n">
-        <v>441053.4149664044</v>
+        <v>490880.7047424912</v>
       </c>
       <c r="E36" t="n">
+        <v>465297.697611928</v>
+      </c>
+      <c r="F36" t="n">
         <v>417689.7864063014</v>
       </c>
     </row>
@@ -9156,15 +9869,18 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>450845.6892198427</v>
+        <v>450845.9643390631</v>
       </c>
       <c r="C37" t="n">
-        <v>448503.1040560259</v>
+        <v>465936.2363008126</v>
       </c>
       <c r="D37" t="n">
-        <v>456722.4650326967</v>
+        <v>488275.4722247124</v>
       </c>
       <c r="E37" t="n">
+        <v>477884.2678818703</v>
+      </c>
+      <c r="F37" t="n">
         <v>362256.818111221</v>
       </c>
     </row>
@@ -9173,15 +9889,18 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>493511.9234072923</v>
+        <v>493512.3307250073</v>
       </c>
       <c r="C38" t="n">
-        <v>473120.4088306611</v>
+        <v>487012.9212701161</v>
       </c>
       <c r="D38" t="n">
-        <v>450326.0287760496</v>
+        <v>494584.3669227362</v>
       </c>
       <c r="E38" t="n">
+        <v>473973.6278735399</v>
+      </c>
+      <c r="F38" t="n">
         <v>416534.2175314415</v>
       </c>
     </row>
@@ -9190,15 +9909,18 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>490273.7956117464</v>
+        <v>490274.1904246107</v>
       </c>
       <c r="C39" t="n">
-        <v>474775.1851005477</v>
+        <v>488720.5645072295</v>
       </c>
       <c r="D39" t="n">
-        <v>461026.4020271897</v>
+        <v>504049.8068381548</v>
       </c>
       <c r="E39" t="n">
+        <v>474938.0428591371</v>
+      </c>
+      <c r="F39" t="n">
         <v>405453.6658581941</v>
       </c>
     </row>

--- a/fcst_results/orig_series_HOU-Dom_results.xlsx
+++ b/fcst_results/orig_series_HOU-Dom_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>452861.0715957284</v>
+        <v>392312.1454279423</v>
       </c>
       <c r="C2" t="n">
-        <v>431396.2156579494</v>
+        <v>440640.3126804233</v>
       </c>
       <c r="D2" t="n">
-        <v>484997.7058758903</v>
+        <v>484997.5861146463</v>
       </c>
       <c r="E2" t="n">
         <v>448622.8529024446</v>
       </c>
       <c r="F2" t="n">
-        <v>461631.6306903377</v>
+        <v>441255.728386006</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>459322.3284296989</v>
+        <v>404159.9104561806</v>
       </c>
       <c r="C3" t="n">
-        <v>432438.4651162624</v>
+        <v>430782.5358203053</v>
       </c>
       <c r="D3" t="n">
-        <v>481278.5842271234</v>
+        <v>481278.4583109817</v>
       </c>
       <c r="E3" t="n">
         <v>437166.8745786949</v>
       </c>
       <c r="F3" t="n">
-        <v>462104.78596527</v>
+        <v>442491.1864500008</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>464335.7360656261</v>
+        <v>406302.758559525</v>
       </c>
       <c r="C4" t="n">
-        <v>431860.271255672</v>
+        <v>440520.8764109612</v>
       </c>
       <c r="D4" t="n">
-        <v>498553.3469020093</v>
+        <v>498553.1854037594</v>
       </c>
       <c r="E4" t="n">
         <v>448823.5974462835</v>
       </c>
       <c r="F4" t="n">
-        <v>471303.639486758</v>
+        <v>452597.1842219308</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>459693.9000331163</v>
+        <v>407962.3146787882</v>
       </c>
       <c r="C5" t="n">
-        <v>425724.2195781469</v>
+        <v>438662.0227953196</v>
       </c>
       <c r="D5" t="n">
-        <v>450174.2054580956</v>
+        <v>450174.0992992357</v>
       </c>
       <c r="E5" t="n">
         <v>400453.0554511767</v>
       </c>
       <c r="F5" t="n">
-        <v>446617.5924589942</v>
+        <v>430127.6972118648</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>463406.8070570827</v>
+        <v>407450.5059075356</v>
       </c>
       <c r="C6" t="n">
-        <v>421353.1507954001</v>
+        <v>444448.4771518111</v>
       </c>
       <c r="D6" t="n">
-        <v>429466.2174350689</v>
+        <v>429466.1266237666</v>
       </c>
       <c r="E6" t="n">
         <v>382623.6229867304</v>
       </c>
       <c r="F6" t="n">
-        <v>437772.2199945255</v>
+        <v>421039.2791489892</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>454949.6595778465</v>
+        <v>407213.3045518994</v>
       </c>
       <c r="C7" t="n">
-        <v>424683.179060936</v>
+        <v>442205.535836637</v>
       </c>
       <c r="D7" t="n">
-        <v>480709.275685577</v>
+        <v>480709.0600438222</v>
       </c>
       <c r="E7" t="n">
         <v>453190.8828687236</v>
       </c>
       <c r="F7" t="n">
-        <v>459384.819399558</v>
+        <v>445623.2270671106</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>467166.400541842</v>
+        <v>418618.0993375182</v>
       </c>
       <c r="C8" t="n">
-        <v>423428.1915257573</v>
+        <v>458130.3125030994</v>
       </c>
       <c r="D8" t="n">
-        <v>443179.7656568821</v>
+        <v>443179.5875215636</v>
       </c>
       <c r="E8" t="n">
         <v>423028.2202574082</v>
       </c>
       <c r="F8" t="n">
-        <v>446685.7424093431</v>
+        <v>434803.1979740066</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>455793.9271521568</v>
+        <v>406266.9525686502</v>
       </c>
       <c r="C9" t="n">
-        <v>431547.0843960643</v>
+        <v>445998.5174300671</v>
       </c>
       <c r="D9" t="n">
-        <v>469632.4549534565</v>
+        <v>469632.2251447989</v>
       </c>
       <c r="E9" t="n">
         <v>449130.3793805084</v>
       </c>
       <c r="F9" t="n">
-        <v>456336.8745919958</v>
+        <v>440809.0310292782</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>459762.9163472056</v>
+        <v>420700.0737006664</v>
       </c>
       <c r="C10" t="n">
-        <v>433244.7577171326</v>
+        <v>452070.708571732</v>
       </c>
       <c r="D10" t="n">
-        <v>505506.354734558</v>
+        <v>505506.0651705859</v>
       </c>
       <c r="E10" t="n">
         <v>477175.0438679613</v>
       </c>
       <c r="F10" t="n">
-        <v>473949.514651445</v>
+        <v>463931.7040136857</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>466774.9880815148</v>
+        <v>411921.8812446594</v>
       </c>
       <c r="C11" t="n">
-        <v>441710.5811266303</v>
+        <v>447482.9548749924</v>
       </c>
       <c r="D11" t="n">
-        <v>513475.8912195447</v>
+        <v>513475.5858133886</v>
       </c>
       <c r="E11" t="n">
         <v>482983.8480840219</v>
       </c>
       <c r="F11" t="n">
-        <v>481608.1606666592</v>
+        <v>463553.8391750766</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>470191.9178780317</v>
+        <v>408483.9016501307</v>
       </c>
       <c r="C12" t="n">
-        <v>431650.0221751928</v>
+        <v>462804.7543882728</v>
       </c>
       <c r="D12" t="n">
-        <v>470612.5799763676</v>
+        <v>470612.3468794461</v>
       </c>
       <c r="E12" t="n">
         <v>436656.1487096669</v>
       </c>
       <c r="F12" t="n">
-        <v>461265.0813598318</v>
+        <v>443894.0843880285</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>474471.9249501228</v>
+        <v>417738.7724712491</v>
       </c>
       <c r="C13" t="n">
-        <v>438974.4985131025</v>
+        <v>464189.4541922808</v>
       </c>
       <c r="D13" t="n">
-        <v>441618.6175856119</v>
+        <v>441618.4522888935</v>
       </c>
       <c r="E13" t="n">
         <v>384382.7385923929</v>
       </c>
       <c r="F13" t="n">
-        <v>450270.7195153263</v>
+        <v>433083.8388976704</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>461161.981216073</v>
+        <v>414081.3345096111</v>
       </c>
       <c r="C14" t="n">
-        <v>436044.4164097905</v>
+        <v>454683.0525077581</v>
       </c>
       <c r="D14" t="n">
-        <v>487586.1452833026</v>
+        <v>487585.86625049</v>
       </c>
       <c r="E14" t="n">
         <v>439071.3945341054</v>
       </c>
       <c r="F14" t="n">
-        <v>466154.6685956455</v>
+        <v>452430.7117868712</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>474179.5745459795</v>
+        <v>419943.9165984392</v>
       </c>
       <c r="C15" t="n">
-        <v>448291.132001698</v>
+        <v>457147.1944875121</v>
       </c>
       <c r="D15" t="n">
-        <v>484075.3707996707</v>
+        <v>484075.099318068</v>
       </c>
       <c r="E15" t="n">
         <v>427232.6438331051</v>
       </c>
       <c r="F15" t="n">
-        <v>471242.2374153287</v>
+        <v>453073.0277227507</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>486768.7760406733</v>
+        <v>423026.0408238769</v>
       </c>
       <c r="C16" t="n">
-        <v>453935.8557925224</v>
+        <v>458185.7815654278</v>
       </c>
       <c r="D16" t="n">
-        <v>500777.1295877778</v>
+        <v>500776.8286870691</v>
       </c>
       <c r="E16" t="n">
         <v>438701.0358348383</v>
       </c>
       <c r="F16" t="n">
-        <v>484078.2566075087</v>
+        <v>462108.743392584</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>471513.7527447343</v>
+        <v>432451.0167694688</v>
       </c>
       <c r="C17" t="n">
-        <v>453874.5553672314</v>
+        <v>460793.2897370458</v>
       </c>
       <c r="D17" t="n">
-        <v>454234.8171247311</v>
+        <v>454234.5955684311</v>
       </c>
       <c r="E17" t="n">
         <v>389365.2311649311</v>
       </c>
       <c r="F17" t="n">
-        <v>457687.2533591205</v>
+        <v>444043.7791392765</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>483317.8892220259</v>
+        <v>429276.3729926348</v>
       </c>
       <c r="C18" t="n">
-        <v>447907.3998730779</v>
+        <v>462387.349694252</v>
       </c>
       <c r="D18" t="n">
-        <v>434338.3227471138</v>
+        <v>434338.1314260365</v>
       </c>
       <c r="E18" t="n">
         <v>371642.7573115207</v>
       </c>
       <c r="F18" t="n">
-        <v>451650.5131928119</v>
+        <v>433699.0932034573</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>481967.6442394257</v>
+        <v>415458.5317673683</v>
       </c>
       <c r="C19" t="n">
-        <v>451463.1445537806</v>
+        <v>470552.8223540783</v>
       </c>
       <c r="D19" t="n">
-        <v>483738.0123170394</v>
+        <v>483737.6906074809</v>
       </c>
       <c r="E19" t="n">
         <v>441334.4561095333</v>
       </c>
       <c r="F19" t="n">
-        <v>474967.1053436971</v>
+        <v>453548.3012956394</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>464951.0159723759</v>
+        <v>425816.4902299047</v>
       </c>
       <c r="C20" t="n">
-        <v>448409.0037591457</v>
+        <v>470796.6373286843</v>
       </c>
       <c r="D20" t="n">
-        <v>447628.4681139401</v>
+        <v>447628.2018755316</v>
       </c>
       <c r="E20" t="n">
         <v>414458.0070360376</v>
       </c>
       <c r="F20" t="n">
-        <v>452520.2726220423</v>
+        <v>440932.169700293</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>480326.7200359702</v>
+        <v>418350.7455685139</v>
       </c>
       <c r="C21" t="n">
-        <v>446532.0871411562</v>
+        <v>468479.9861633778</v>
       </c>
       <c r="D21" t="n">
-        <v>473140.9351429828</v>
+        <v>473140.6158192882</v>
       </c>
       <c r="E21" t="n">
         <v>440104.6986493482</v>
       </c>
       <c r="F21" t="n">
-        <v>468966.9698242272</v>
+        <v>449758.9006167861</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>479370.5542955399</v>
+        <v>440807.3598950505</v>
       </c>
       <c r="C22" t="n">
-        <v>453538.9319830537</v>
+        <v>457012.0775408149</v>
       </c>
       <c r="D22" t="n">
-        <v>507723.778138442</v>
+        <v>507723.3940432699</v>
       </c>
       <c r="E22" t="n">
         <v>465650.7135399835</v>
       </c>
       <c r="F22" t="n">
-        <v>485330.9567072619</v>
+        <v>472980.8637337016</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>491194.6383010149</v>
+        <v>426857.5307471156</v>
       </c>
       <c r="C23" t="n">
-        <v>455242.8633521795</v>
+        <v>471442.3185484409</v>
       </c>
       <c r="D23" t="n">
-        <v>515426.1416536451</v>
+        <v>515425.7440322334</v>
       </c>
       <c r="E23" t="n">
         <v>471677.2423470335</v>
       </c>
       <c r="F23" t="n">
-        <v>493173.224725248</v>
+        <v>473055.911632936</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>486088.8888991475</v>
+        <v>432176.6226963997</v>
       </c>
       <c r="C24" t="n">
-        <v>458204.0579103231</v>
+        <v>464258.7549631</v>
       </c>
       <c r="D24" t="n">
-        <v>474164.1330657103</v>
+        <v>474163.8236882363</v>
       </c>
       <c r="E24" t="n">
         <v>425373.3255308414</v>
       </c>
       <c r="F24" t="n">
-        <v>473199.7367229689</v>
+        <v>454460.3741057229</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>473763.4854643345</v>
+        <v>428282.6234067678</v>
       </c>
       <c r="C25" t="n">
-        <v>460158.4889872074</v>
+        <v>469441.7343671322</v>
       </c>
       <c r="D25" t="n">
-        <v>446258.108050049</v>
+        <v>446257.8773632196</v>
       </c>
       <c r="E25" t="n">
         <v>374720.4685252238</v>
       </c>
       <c r="F25" t="n">
-        <v>455891.1027727953</v>
+        <v>439554.477186254</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>492608.8504907489</v>
+        <v>424203.3361147046</v>
       </c>
       <c r="C26" t="n">
-        <v>453159.9645046592</v>
+        <v>476705.9058783054</v>
       </c>
       <c r="D26" t="n">
-        <v>490551.2391763288</v>
+        <v>490550.8862705639</v>
       </c>
       <c r="E26" t="n">
         <v>429511.1333435799</v>
       </c>
       <c r="F26" t="n">
-        <v>481360.3006822725</v>
+        <v>460293.8438879285</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>488814.4821707606</v>
+        <v>429857.3047492504</v>
       </c>
       <c r="C27" t="n">
-        <v>454293.6668016315</v>
+        <v>471853.7852082253</v>
       </c>
       <c r="D27" t="n">
-        <v>487185.6381555236</v>
+        <v>487185.296419327</v>
       </c>
       <c r="E27" t="n">
         <v>417282.9820707724</v>
       </c>
       <c r="F27" t="n">
-        <v>478428.4986497134</v>
+        <v>459907.801658133</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>501379.0426012278</v>
+        <v>441454.1078275442</v>
       </c>
       <c r="C28" t="n">
-        <v>458218.0674042702</v>
+        <v>458538.7568101287</v>
       </c>
       <c r="D28" t="n">
-        <v>503286.5143406903</v>
+        <v>503286.140930686</v>
       </c>
       <c r="E28" t="n">
         <v>428537.6857905939</v>
       </c>
       <c r="F28" t="n">
-        <v>490649.4498668301</v>
+        <v>470057.1481329399</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>480643.3559334278</v>
+        <v>442904.0548939705</v>
       </c>
       <c r="C29" t="n">
-        <v>460239.3813697696</v>
+        <v>473565.1480094194</v>
       </c>
       <c r="D29" t="n">
-        <v>458470.186582376</v>
+        <v>458469.9076146295</v>
       </c>
       <c r="E29" t="n">
         <v>378264.880861424</v>
       </c>
       <c r="F29" t="n">
-        <v>463468.6979309929</v>
+        <v>451269.0264563189</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>489028.4647458196</v>
+        <v>446492.6543269753</v>
       </c>
       <c r="C30" t="n">
-        <v>459645.8268457651</v>
+        <v>464329.0157753825</v>
       </c>
       <c r="D30" t="n">
-        <v>439317.1746154704</v>
+        <v>439316.9334245569</v>
       </c>
       <c r="E30" t="n">
         <v>360676.7430742009</v>
       </c>
       <c r="F30" t="n">
-        <v>457657.1913243477</v>
+        <v>442427.3948171696</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>482094.6897264123</v>
+        <v>438872.2007616162</v>
       </c>
       <c r="C31" t="n">
-        <v>464808.9298357964</v>
+        <v>481185.8860315084</v>
       </c>
       <c r="D31" t="n">
-        <v>486907.7155140258</v>
+        <v>486907.3334628313</v>
       </c>
       <c r="E31" t="n">
         <v>435347.2692835885</v>
       </c>
       <c r="F31" t="n">
-        <v>478811.7574381991</v>
+        <v>465295.9172221851</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>477509.6739256978</v>
+        <v>434046.6767957807</v>
       </c>
       <c r="C32" t="n">
-        <v>471440.3984655142</v>
+        <v>477201.5717301369</v>
       </c>
       <c r="D32" t="n">
-        <v>452136.1649643568</v>
+        <v>452135.850132654</v>
       </c>
       <c r="E32" t="n">
         <v>398687.2500553382</v>
       </c>
       <c r="F32" t="n">
-        <v>462812.6399777362</v>
+        <v>446356.084695762</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>497507.0531510711</v>
+        <v>446127.9807992578</v>
       </c>
       <c r="C33" t="n">
-        <v>470689.823826611</v>
+        <v>474498.6638827324</v>
       </c>
       <c r="D33" t="n">
-        <v>476716.8267213682</v>
+        <v>476716.4532965361</v>
       </c>
       <c r="E33" t="n">
         <v>425420.4798361226</v>
       </c>
       <c r="F33" t="n">
-        <v>480739.4312452644</v>
+        <v>462420.9528311667</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>487250.5390698314</v>
+        <v>455435.8672434092</v>
       </c>
       <c r="C34" t="n">
-        <v>472052.2648915052</v>
+        <v>471692.6760278344</v>
       </c>
       <c r="D34" t="n">
-        <v>510033.0281183593</v>
+        <v>510032.5815913674</v>
       </c>
       <c r="E34" t="n">
         <v>458424.9555405931</v>
       </c>
       <c r="F34" t="n">
-        <v>492500.8402464762</v>
+        <v>481418.042082738</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>487541.6094186902</v>
+        <v>448327.0446638465</v>
       </c>
       <c r="C35" t="n">
-        <v>465809.4708260894</v>
+        <v>480429.8356005549</v>
       </c>
       <c r="D35" t="n">
-        <v>517457.6553442726</v>
+        <v>517457.1941383206</v>
       </c>
       <c r="E35" t="n">
         <v>463919.1844587934</v>
       </c>
       <c r="F35" t="n">
-        <v>494609.9922093107</v>
+        <v>483255.9781872396</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>490880.7047424912</v>
+        <v>442581.7654190063</v>
       </c>
       <c r="C36" t="n">
-        <v>465297.697611928</v>
+        <v>480172.8645021915</v>
       </c>
       <c r="D36" t="n">
-        <v>477719.9916859749</v>
+        <v>477719.6304602945</v>
       </c>
       <c r="E36" t="n">
         <v>417689.7864063014</v>
       </c>
       <c r="F36" t="n">
-        <v>477479.1700103752</v>
+        <v>461934.0691778677</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>488275.4722247124</v>
+        <v>443523.4594233036</v>
       </c>
       <c r="C37" t="n">
-        <v>477884.2678818703</v>
+        <v>478487.3872634172</v>
       </c>
       <c r="D37" t="n">
-        <v>450845.9643390631</v>
+        <v>450845.6892198427</v>
       </c>
       <c r="E37" t="n">
         <v>362256.818111221</v>
       </c>
       <c r="F37" t="n">
-        <v>465936.2363008126</v>
+        <v>448246.5235246449</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>494584.3669227362</v>
+        <v>452098.6920025349</v>
       </c>
       <c r="C38" t="n">
-        <v>473973.6278735399</v>
+        <v>475766.8430987597</v>
       </c>
       <c r="D38" t="n">
-        <v>493512.3307250073</v>
+        <v>493511.9234072923</v>
       </c>
       <c r="E38" t="n">
         <v>416534.2175314415</v>
       </c>
       <c r="F38" t="n">
-        <v>487012.9212701161</v>
+        <v>471857.4672598452</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>504049.8068381548</v>
+        <v>451338.4813919067</v>
       </c>
       <c r="C39" t="n">
-        <v>474938.0428591371</v>
+        <v>466845.1777796149</v>
       </c>
       <c r="D39" t="n">
-        <v>490274.1904246107</v>
+        <v>490273.7956117464</v>
       </c>
       <c r="E39" t="n">
         <v>405453.6658581941</v>
       </c>
       <c r="F39" t="n">
-        <v>488720.5645072295</v>
+        <v>468508.0255584176</v>
       </c>
     </row>
   </sheetData>
@@ -1387,19 +1454,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>155644.7420312889</v>
+        <v>155643.0345118228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5744324364176883</v>
+        <v>0.5744270787698624</v>
       </c>
       <c r="M2" t="n">
-        <v>86989.95122707258</v>
+        <v>86988.98687859741</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.434683529846184</v>
+        <v>-0.4346520512805068</v>
       </c>
       <c r="O2" t="n">
-        <v>568901.9433142123</v>
+        <v>568897.7504331857</v>
       </c>
       <c r="P2" t="n">
         <v>438059</v>
@@ -1408,19 +1475,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>91311.31890305088</v>
+        <v>79800.43665893401</v>
       </c>
       <c r="S2" t="n">
-        <v>45176.65603657423</v>
+        <v>45176.65628268386</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09586269772498809</v>
+        <v>0.09586268789387317</v>
       </c>
       <c r="U2" t="n">
-        <v>25398.08682029735</v>
+        <v>25398.09442944677</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7931423084701734</v>
+        <v>0.7931423062163692</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1431,16 +1498,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>155644.7420312889</v>
+        <v>155643.0345118228</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5744324364176883</v>
+        <v>0.5744270787698624</v>
       </c>
       <c r="AE2" t="n">
-        <v>86989.95122707258</v>
+        <v>86988.98687859741</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.434683529846184</v>
+        <v>-0.4346520512805068</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1478,19 +1545,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>156243.8480563299</v>
+        <v>154159.3078663517</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5870943854917088</v>
+        <v>0.5804343382696457</v>
       </c>
       <c r="M3" t="n">
-        <v>101689.216286469</v>
+        <v>101651.0083887513</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4457495225356529</v>
+        <v>-0.4074296897270786</v>
       </c>
       <c r="O3" t="n">
-        <v>585390.7036467666</v>
+        <v>583956.6013503204</v>
       </c>
       <c r="P3" t="n">
         <v>438059</v>
@@ -1499,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>149026.5078951009</v>
+        <v>102434.6463644773</v>
       </c>
       <c r="S3" t="n">
-        <v>63634.48229220051</v>
+        <v>59422.93479499395</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1779352160022627</v>
+        <v>0.1659904017425735</v>
       </c>
       <c r="U3" t="n">
-        <v>36801.86963070844</v>
+        <v>36358.4896671053</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5994382312751839</v>
+        <v>0.6507047661000358</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1524,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.41373276406985954, 0.34525239168250094, 0.20340277478674307, 0.037612069460896326)</t>
+          <t>(0.43327115914387865, 0.39144315280368436, 0.13589740085753893, 0.03938828719489806)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>156243.8480563299</v>
+        <v>154159.3078663517</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5870943854917088</v>
+        <v>0.5804343382696457</v>
       </c>
       <c r="AE3" t="n">
-        <v>101689.216286469</v>
+        <v>101651.0083887513</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.4457495225356529</v>
+        <v>-0.4074296897270786</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1581,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>161499.0763414059</v>
+        <v>159004.3530046466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.598417733337934</v>
+        <v>0.5884172795305684</v>
       </c>
       <c r="M4" t="n">
-        <v>128647.9810030452</v>
+        <v>131377.9694381018</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5446400468099766</v>
+        <v>-0.4972876163372337</v>
       </c>
       <c r="O4" t="n">
-        <v>591639.2190847397</v>
+        <v>560117.4333398342</v>
       </c>
       <c r="P4" t="n">
         <v>438059</v>
@@ -1602,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>267111.1289404412</v>
+        <v>208015.7936498802</v>
       </c>
       <c r="S4" t="n">
-        <v>98030.79830714762</v>
+        <v>92306.3727721047</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2721878450263005</v>
+        <v>0.2501740719295275</v>
       </c>
       <c r="U4" t="n">
-        <v>58947.10836740007</v>
+        <v>61146.93219313306</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04937431512228208</v>
+        <v>0.157154763567227</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1625,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>161499.0763414059</v>
+        <v>159004.3530046466</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.598417733337934</v>
+        <v>0.5884172795305684</v>
       </c>
       <c r="AE4" t="n">
-        <v>128647.9810030452</v>
+        <v>131377.9694381018</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.5446400468099766</v>
+        <v>-0.4972876163372337</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1678,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>173949.9987023424</v>
+        <v>185038.5729634235</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6481006579578931</v>
+        <v>0.6738895906944083</v>
       </c>
       <c r="M5" t="n">
-        <v>120883.6062186683</v>
+        <v>124770.6267939806</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.7919919910714563</v>
+        <v>-1.027737559243699</v>
       </c>
       <c r="O5" t="n">
-        <v>600834.7880570889</v>
+        <v>688480.7999551296</v>
       </c>
       <c r="P5" t="n">
         <v>438059</v>
@@ -1699,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>234344.7825684335</v>
+        <v>229813.1210748001</v>
       </c>
       <c r="S5" t="n">
-        <v>101513.9766034971</v>
+        <v>106230.0574621937</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2674317980221051</v>
+        <v>0.2856281858161655</v>
       </c>
       <c r="U5" t="n">
-        <v>55508.43971986197</v>
+        <v>59371.21068654532</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01938009043336364</v>
+        <v>-0.1162958199033541</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1722,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>173949.9987023424</v>
+        <v>185038.5729634235</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6481006579578931</v>
+        <v>0.6738895906944083</v>
       </c>
       <c r="AE5" t="n">
-        <v>120883.6062186683</v>
+        <v>124770.6267939806</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.7919919910714563</v>
+        <v>-1.027737559243699</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1792,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>140885.8094799508</v>
+        <v>157688.6254069238</v>
       </c>
       <c r="S6" t="n">
         <v>70443.24900339045</v>
@@ -5108,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>484997.7058758903</v>
+        <v>484997.5861146463</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5121,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>481278.5842271234</v>
+        <v>481278.4583109817</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5134,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>498553.3469020093</v>
+        <v>498553.1854037594</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5147,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>450174.2054580956</v>
+        <v>450174.0992992357</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5160,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>429466.2174350689</v>
+        <v>429466.1266237666</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5173,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>480709.275685577</v>
+        <v>480709.0600438222</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5186,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>443179.7656568821</v>
+        <v>443179.5875215636</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5199,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>469632.4549534565</v>
+        <v>469632.2251447989</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5212,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>505506.354734558</v>
+        <v>505506.0651705859</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5225,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>513475.8912195447</v>
+        <v>513475.5858133886</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5238,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>470612.5799763676</v>
+        <v>470612.3468794461</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5251,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>441618.6175856119</v>
+        <v>441618.4522888935</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5264,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>487586.1452833026</v>
+        <v>487585.86625049</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5277,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>484075.3707996707</v>
+        <v>484075.099318068</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5290,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>500777.1295877778</v>
+        <v>500776.8286870691</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5303,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>454234.8171247311</v>
+        <v>454234.5955684311</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5316,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>434338.3227471138</v>
+        <v>434338.1314260365</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5329,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>483738.0123170394</v>
+        <v>483737.6906074809</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5342,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>447628.4681139401</v>
+        <v>447628.2018755316</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5355,7 +5422,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>473140.9351429828</v>
+        <v>473140.6158192882</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5368,7 +5435,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>507723.778138442</v>
+        <v>507723.3940432699</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5381,7 +5448,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>515426.1416536451</v>
+        <v>515425.7440322334</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5394,7 +5461,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>474164.1330657103</v>
+        <v>474163.8236882363</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5407,7 +5474,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>446258.108050049</v>
+        <v>446257.8773632196</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5420,7 +5487,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>490551.2391763288</v>
+        <v>490550.8862705639</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5433,7 +5500,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>487185.6381555236</v>
+        <v>487185.296419327</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5446,7 +5513,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>503286.5143406903</v>
+        <v>503286.140930686</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5459,7 +5526,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>458470.186582376</v>
+        <v>458469.9076146295</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5472,7 +5539,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>439317.1746154704</v>
+        <v>439316.9334245569</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5485,7 +5552,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>486907.7155140258</v>
+        <v>486907.3334628313</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5498,7 +5565,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>452136.1649643568</v>
+        <v>452135.850132654</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5511,7 +5578,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>476716.8267213682</v>
+        <v>476716.4532965361</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5524,7 +5591,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>510033.0281183593</v>
+        <v>510032.5815913674</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5537,7 +5604,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>517457.6553442726</v>
+        <v>517457.1941383206</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5550,7 +5617,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>477719.9916859749</v>
+        <v>477719.6304602945</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5563,7 +5630,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>450845.9643390631</v>
+        <v>450845.6892198427</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5576,7 +5643,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>493512.3307250073</v>
+        <v>493511.9234072923</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5589,7 +5656,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>490274.1904246107</v>
+        <v>490273.7956117464</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5661,16 +5728,16 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>542861.7215044864</v>
+        <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>481761.9010880138</v>
+        <v>477060.1017590714</v>
       </c>
       <c r="E2" t="n">
-        <v>409809.6999910474</v>
+        <v>410999.7550657988</v>
       </c>
       <c r="F2" t="n">
-        <v>470560.6627801657</v>
+        <v>442003.1485631466</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -5684,16 +5751,16 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>500376.5200095911</v>
+        <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>459114.1138436477</v>
+        <v>466011.1650067765</v>
       </c>
       <c r="E3" t="n">
-        <v>420842.1960018873</v>
+        <v>407634.0962594151</v>
       </c>
       <c r="F3" t="n">
-        <v>434994.9181499481</v>
+        <v>518524.3359093666</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -5707,16 +5774,16 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>534234.3550797545</v>
+        <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>483663.5634024219</v>
+        <v>482225.5528100593</v>
       </c>
       <c r="E4" t="n">
-        <v>397855.0421177149</v>
+        <v>423094.9915953875</v>
       </c>
       <c r="F4" t="n">
-        <v>519368.1407498121</v>
+        <v>475217.267048955</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -5730,19 +5797,19 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>516567.8241890836</v>
+        <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>462282.9588008477</v>
+        <v>469840.9866840938</v>
       </c>
       <c r="E5" t="n">
-        <v>388975.3980053663</v>
+        <v>417100.9706988335</v>
       </c>
       <c r="F5" t="n">
-        <v>467313.5070059299</v>
+        <v>460894.2650632858</v>
       </c>
       <c r="G5" t="n">
-        <v>510856.6175063987</v>
+        <v>510856.6175063986</v>
       </c>
     </row>
     <row r="6">
@@ -5753,16 +5820,16 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>528274.9796268891</v>
+        <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>472056.0906903706</v>
+        <v>475093.7801094857</v>
       </c>
       <c r="E6" t="n">
-        <v>422674.3063514233</v>
+        <v>414437.5809807777</v>
       </c>
       <c r="F6" t="n">
-        <v>432051.3906345367</v>
+        <v>466293.8045912981</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -5776,16 +5843,16 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>483793.2212732398</v>
+        <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>457577.9011329961</v>
+        <v>444172.3743958988</v>
       </c>
       <c r="E7" t="n">
-        <v>408389.276103735</v>
+        <v>388890.8926827312</v>
       </c>
       <c r="F7" t="n">
-        <v>482740.3734227419</v>
+        <v>465358.2433867455</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -5799,16 +5866,16 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>468989.4995939414</v>
+        <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>447134.8844603015</v>
+        <v>446787.9542943519</v>
       </c>
       <c r="E8" t="n">
-        <v>420744.2185146809</v>
+        <v>418203.3786797523</v>
       </c>
       <c r="F8" t="n">
-        <v>440676.05192554</v>
+        <v>447584.4738855362</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -5822,16 +5889,16 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>534325.0745417667</v>
+        <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>472744.6707567801</v>
+        <v>470353.2317524981</v>
       </c>
       <c r="E9" t="n">
-        <v>412187.0740947723</v>
+        <v>390466.6261799932</v>
       </c>
       <c r="F9" t="n">
-        <v>434212.8667989969</v>
+        <v>470638.3956092596</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -5845,16 +5912,16 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>519324.5291662772</v>
+        <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>475624.3185416613</v>
+        <v>465633.5996192737</v>
       </c>
       <c r="E10" t="n">
-        <v>420483.4931181669</v>
+        <v>400763.625230968</v>
       </c>
       <c r="F10" t="n">
-        <v>469233.5869489908</v>
+        <v>461023.9515525103</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -5868,16 +5935,16 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>537356.8041551439</v>
+        <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>473461.6667662636</v>
+        <v>475744.2660663655</v>
       </c>
       <c r="E11" t="n">
-        <v>400307.0072793365</v>
+        <v>404710.2516284585</v>
       </c>
       <c r="F11" t="n">
-        <v>451435.2658582926</v>
+        <v>459143.6535069942</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -5891,16 +5958,16 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>561330.6608657151</v>
+        <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>485822.5868387213</v>
+        <v>486436.7094280681</v>
       </c>
       <c r="E12" t="n">
-        <v>406283.311499238</v>
+        <v>401306.8395516276</v>
       </c>
       <c r="F12" t="n">
-        <v>448303.2112646103</v>
+        <v>463365.3409324884</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -5914,16 +5981,16 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>570902.7745995891</v>
+        <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>487825.3932783078</v>
+        <v>498318.0225823108</v>
       </c>
       <c r="E13" t="n">
-        <v>417214.4489777088</v>
+        <v>419675.1840503216</v>
       </c>
       <c r="F13" t="n">
-        <v>418972.9461716413</v>
+        <v>465561.6678701639</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -5937,16 +6004,16 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>539234.4578740627</v>
+        <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>484915.6220470729</v>
+        <v>487834.8060654635</v>
       </c>
       <c r="E14" t="n">
-        <v>436001.3460611105</v>
+        <v>432958.4886404276</v>
       </c>
       <c r="F14" t="n">
-        <v>443049.3583718538</v>
+        <v>460302.7590144873</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -5960,16 +6027,16 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>503585.8553554489</v>
+        <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>461796.49528641</v>
+        <v>453277.6190914157</v>
       </c>
       <c r="E15" t="n">
-        <v>413842.4129999876</v>
+        <v>381249.5329539776</v>
       </c>
       <c r="F15" t="n">
-        <v>453787.1624863148</v>
+        <v>490990.8934576511</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -5983,16 +6050,16 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>537671.8801323503</v>
+        <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>473245.6977401049</v>
+        <v>477559.5084286674</v>
       </c>
       <c r="E16" t="n">
-        <v>415824.5377225876</v>
+        <v>411202.8986623883</v>
       </c>
       <c r="F16" t="n">
-        <v>423175.4084541798</v>
+        <v>452454.9890793562</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -6006,16 +6073,16 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>523507.0390045036</v>
+        <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>465129.5572159028</v>
+        <v>476425.3463259205</v>
       </c>
       <c r="E17" t="n">
-        <v>404610.2975302339</v>
+        <v>420163.4901975393</v>
       </c>
       <c r="F17" t="n">
-        <v>434743.0146805048</v>
+        <v>469137.5652663708</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -6029,19 +6096,19 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>535998.4627034897</v>
+        <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>489333.6996347764</v>
+        <v>476888.4051216358</v>
       </c>
       <c r="E18" t="n">
-        <v>431366.0059655905</v>
+        <v>398175.180280149</v>
       </c>
       <c r="F18" t="n">
-        <v>480760.5790205002</v>
+        <v>492677.1715269089</v>
       </c>
       <c r="G18" t="n">
-        <v>554486.7217144086</v>
+        <v>554486.7217144087</v>
       </c>
     </row>
     <row r="19">
@@ -6052,16 +6119,16 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>496182.8443308</v>
+        <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>460738.6259100834</v>
+        <v>456019.0525675584</v>
       </c>
       <c r="E19" t="n">
-        <v>409810.4282161593</v>
+        <v>400184.7798959017</v>
       </c>
       <c r="F19" t="n">
-        <v>465665.4295454025</v>
+        <v>472665.233353734</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -6075,16 +6142,16 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>483501.7037745333</v>
+        <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>462505.6474515582</v>
+        <v>455534.2195880726</v>
       </c>
       <c r="E20" t="n">
-        <v>430741.6257545948</v>
+        <v>413510.7792840004</v>
       </c>
       <c r="F20" t="n">
-        <v>467944.7741458416</v>
+        <v>476356.7312848568</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -6098,16 +6165,16 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>544656.2291738451</v>
+        <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>485835.5594800424</v>
+        <v>484828.0358585927</v>
       </c>
       <c r="E21" t="n">
-        <v>411388.7000980973</v>
+        <v>409971.6052398682</v>
       </c>
       <c r="F21" t="n">
-        <v>474553.7915526628</v>
+        <v>481200.0732787848</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -6121,16 +6188,16 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>531391.269235666</v>
+        <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>485877.1574369692</v>
+        <v>480045.2134063584</v>
       </c>
       <c r="E22" t="n">
-        <v>419347.5451692343</v>
+        <v>418703.1283644438</v>
       </c>
       <c r="F22" t="n">
-        <v>492310.0420383215</v>
+        <v>469540.8771398067</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -6144,16 +6211,16 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>548518.6890995279</v>
+        <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>484625.2059051195</v>
+        <v>491887.562253686</v>
       </c>
       <c r="E23" t="n">
-        <v>409502.9195578098</v>
+        <v>425066.192941308</v>
       </c>
       <c r="F23" t="n">
-        <v>463220.0496194363</v>
+        <v>476213.8951307535</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -6167,16 +6234,16 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>571032.3085288655</v>
+        <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>501120.231508537</v>
+        <v>506780.7871346781</v>
       </c>
       <c r="E24" t="n">
-        <v>419810.5506954193</v>
+        <v>437655.4573868513</v>
       </c>
       <c r="F24" t="n">
-        <v>476240.5481698513</v>
+        <v>470264.9201589823</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -6190,19 +6257,19 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>580155.2020914829</v>
+        <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>511908.2751934659</v>
+        <v>504455.2993214444</v>
       </c>
       <c r="E25" t="n">
-        <v>435481.5389761925</v>
+        <v>416928.2357022762</v>
       </c>
       <c r="F25" t="n">
-        <v>482648.5338329077</v>
+        <v>481460.8194817305</v>
       </c>
       <c r="G25" t="n">
-        <v>620969.978093269</v>
+        <v>620969.9780932692</v>
       </c>
     </row>
     <row r="26">
@@ -6213,19 +6280,19 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>551102.2421183037</v>
+        <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>492789.4784030566</v>
+        <v>491130.1030099225</v>
       </c>
       <c r="E26" t="n">
-        <v>422130.1765477657</v>
+        <v>424796.4375534058</v>
       </c>
       <c r="F26" t="n">
-        <v>476701.0777306557</v>
+        <v>463229.4125137329</v>
       </c>
       <c r="G26" t="n">
-        <v>586956.5220437353</v>
+        <v>586956.5220437354</v>
       </c>
     </row>
     <row r="27">
@@ -6236,16 +6303,16 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>518322.3351843405</v>
+        <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>471394.446185052</v>
+        <v>477086.8638745873</v>
       </c>
       <c r="E27" t="n">
-        <v>417677.5585360527</v>
+        <v>416309.7645179033</v>
       </c>
       <c r="F27" t="n">
-        <v>457939.6477197409</v>
+        <v>507954.7517957687</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -6259,16 +6326,16 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>549951.5597935497</v>
+        <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>495727.5627965066</v>
+        <v>492049.100104167</v>
       </c>
       <c r="E28" t="n">
-        <v>431667.5535812378</v>
+        <v>423187.4761846066</v>
       </c>
       <c r="F28" t="n">
-        <v>477834.4872949123</v>
+        <v>479136.6994401217</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -6282,16 +6349,16 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>536959.7965312758</v>
+        <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>489576.4463879004</v>
+        <v>488388.706067663</v>
       </c>
       <c r="E29" t="n">
-        <v>425285.6383771896</v>
+        <v>426084.7718086243</v>
       </c>
       <c r="F29" t="n">
-        <v>487983.4485838413</v>
+        <v>490185.2892259359</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -6305,16 +6372,16 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>548580.5185564432</v>
+        <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>494435.3736933372</v>
+        <v>494628.1168542355</v>
       </c>
       <c r="E30" t="n">
-        <v>437846.0026890039</v>
+        <v>432160.6868206263</v>
       </c>
       <c r="F30" t="n">
-        <v>464720.5678658485</v>
+        <v>478108.5496141911</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -6328,16 +6395,16 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>511843.3129830634</v>
+        <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>479336.7967865546</v>
+        <v>486753.6632122635</v>
       </c>
       <c r="E31" t="n">
-        <v>431581.2068893909</v>
+        <v>444854.6700372696</v>
       </c>
       <c r="F31" t="n">
-        <v>483519.8239697218</v>
+        <v>512748.1583534479</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -6351,16 +6418,16 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>500169.5564485946</v>
+        <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>474876.4461086985</v>
+        <v>488727.0395420139</v>
       </c>
       <c r="E32" t="n">
-        <v>436001.7413833141</v>
+        <v>462856.1035149097</v>
       </c>
       <c r="F32" t="n">
-        <v>480076.3178988695</v>
+        <v>516152.2570425272</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -6374,16 +6441,16 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>556722.1120594315</v>
+        <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>511920.2127550949</v>
+        <v>498396.7912086076</v>
       </c>
       <c r="E33" t="n">
-        <v>449417.3124601841</v>
+        <v>433345.9668192863</v>
       </c>
       <c r="F33" t="n">
-        <v>509363.4928716421</v>
+        <v>468447.7280210257</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -6397,16 +6464,16 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>544490.4118760367</v>
+        <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>498439.8169225717</v>
+        <v>491433.4028565852</v>
       </c>
       <c r="E34" t="n">
-        <v>469041.6892287731</v>
+        <v>416853.8110958338</v>
       </c>
       <c r="F34" t="n">
-        <v>438363.7083243132</v>
+        <v>509516.6074030399</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -6420,16 +6487,16 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>560340.2242089449</v>
+        <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>502841.7583486104</v>
+        <v>502148.6465086279</v>
       </c>
       <c r="E35" t="n">
-        <v>442260.8986399174</v>
+        <v>422980.5146077871</v>
       </c>
       <c r="F35" t="n">
-        <v>468345.3811831474</v>
+        <v>512538.9704884291</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -6443,16 +6510,16 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>581163.001025803</v>
+        <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>518531.6930092192</v>
+        <v>511807.2931805516</v>
       </c>
       <c r="E36" t="n">
-        <v>446125.4020512104</v>
+        <v>429338.1070930958</v>
       </c>
       <c r="F36" t="n">
-        <v>491989.935085535</v>
+        <v>491735.5556507111</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -6466,16 +6533,16 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>589606.7641685351</v>
+        <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>536899.176601027</v>
+        <v>529607.7171666584</v>
       </c>
       <c r="E37" t="n">
-        <v>461679.4581854343</v>
+        <v>459823.3996329308</v>
       </c>
       <c r="F37" t="n">
-        <v>536917.1591750383</v>
+        <v>505171.2465471029</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -6489,16 +6556,16 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>562766.6905561481</v>
+        <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>503084.2786986413</v>
+        <v>512056.4503503714</v>
       </c>
       <c r="E38" t="n">
-        <v>433919.7874010801</v>
+        <v>439330.1670800447</v>
       </c>
       <c r="F38" t="n">
-        <v>479092.1528697014</v>
+        <v>531136.2169462442</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -6512,16 +6579,16 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>532480.0662680281</v>
+        <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>500980.4150460187</v>
+        <v>498936.7380955105</v>
       </c>
       <c r="E39" t="n">
-        <v>450733.5481404066</v>
+        <v>458222.4071274996</v>
       </c>
       <c r="F39" t="n">
-        <v>511940.9312200546</v>
+        <v>492611.0486867428</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -6535,16 +6602,16 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>561716.6936161297</v>
+        <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>508575.4926913995</v>
+        <v>514923.597793694</v>
       </c>
       <c r="E40" t="n">
-        <v>459985.6481878757</v>
+        <v>452625.955529213</v>
       </c>
       <c r="F40" t="n">
-        <v>465032.789180994</v>
+        <v>518933.1822936535</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -6558,19 +6625,19 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>549714.6286383088</v>
+        <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>503841.4536138764</v>
+        <v>504002.6092316241</v>
       </c>
       <c r="E41" t="n">
-        <v>471956.3166104555</v>
+        <v>440987.773886323</v>
       </c>
       <c r="F41" t="n">
-        <v>448461.04885602</v>
+        <v>514447.9397969246</v>
       </c>
       <c r="G41" t="n">
-        <v>591412.075326722</v>
+        <v>591412.0753267221</v>
       </c>
     </row>
     <row r="42">
@@ -6581,16 +6648,16 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>560457.65038694</v>
+        <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>520200.4543571983</v>
+        <v>510390.4694486305</v>
       </c>
       <c r="E42" t="n">
-        <v>463634.7426110506</v>
+        <v>445342.9345716238</v>
       </c>
       <c r="F42" t="n">
-        <v>518919.2211779356</v>
+        <v>511144.14891541</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -6604,16 +6671,16 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>526508.9467909186</v>
+        <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>515263.2927326547</v>
+        <v>505590.5542081529</v>
       </c>
       <c r="E43" t="n">
-        <v>492237.6356557608</v>
+        <v>466306.6005468369</v>
       </c>
       <c r="F43" t="n">
-        <v>522563.009961009</v>
+        <v>535294.7568513155</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -6627,16 +6694,16 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>515722.5095082598</v>
+        <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>497675.0059027342</v>
+        <v>499202.8493229906</v>
       </c>
       <c r="E44" t="n">
-        <v>468105.441411972</v>
+        <v>464788.2719948292</v>
       </c>
       <c r="F44" t="n">
-        <v>500174.4571188688</v>
+        <v>528903.3123015165</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -6650,16 +6717,16 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>567988.2879974848</v>
+        <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>516382.6644455218</v>
+        <v>523719.7025535325</v>
       </c>
       <c r="E45" t="n">
-        <v>459450.8188592196</v>
+        <v>461715.3284738064</v>
       </c>
       <c r="F45" t="n">
-        <v>487035.174649477</v>
+        <v>530380.1528285742</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -6673,16 +6740,16 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>556685.3741595865</v>
+        <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>519998.0074233785</v>
+        <v>507144.7232269749</v>
       </c>
       <c r="E46" t="n">
-        <v>464331.7580753565</v>
+        <v>437864.0626717806</v>
       </c>
       <c r="F46" t="n">
-        <v>522825.3998720646</v>
+        <v>518339.7412467003</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -6696,16 +6763,16 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>571334.2594142738</v>
+        <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>528120.8849269417</v>
+        <v>521963.0942535827</v>
       </c>
       <c r="E47" t="n">
-        <v>472873.235252142</v>
+        <v>446718.4269695282</v>
       </c>
       <c r="F47" t="n">
-        <v>513518.8701990843</v>
+        <v>547418.7478696108</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -6719,16 +6786,16 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>590578.7881753487</v>
+        <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>540224.4671345949</v>
+        <v>537458.0677316793</v>
       </c>
       <c r="E48" t="n">
-        <v>484417.101339817</v>
+        <v>464408.0968735218</v>
       </c>
       <c r="F48" t="n">
-        <v>509910.2650921345</v>
+        <v>542270.8413274288</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -6742,16 +6809,16 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>598382.8377344901</v>
+        <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>537761.6944938642</v>
+        <v>530767.2163634476</v>
       </c>
       <c r="E49" t="n">
-        <v>465661.4555169344</v>
+        <v>454654.1664981842</v>
       </c>
       <c r="F49" t="n">
-        <v>511640.5279581547</v>
+        <v>492922.5625832081</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -6765,16 +6832,16 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>573578.5030674819</v>
+        <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>536629.7454704554</v>
+        <v>527574.0450385318</v>
       </c>
       <c r="E50" t="n">
-        <v>493089.2221016884</v>
+        <v>452026.8551328182</v>
       </c>
       <c r="F50" t="n">
-        <v>517084.0314764977</v>
+        <v>567220.6243076324</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -6788,16 +6855,16 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>545588.8691196492</v>
+        <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>525043.8129768644</v>
+        <v>515969.9680503457</v>
       </c>
       <c r="E51" t="n">
-        <v>494366.404109478</v>
+        <v>465057.9025441408</v>
       </c>
       <c r="F51" t="n">
-        <v>522975.9760187864</v>
+        <v>546211.8707947731</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -6811,16 +6878,16 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>572608.7423296863</v>
+        <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>534946.0955848696</v>
+        <v>535708.4424297935</v>
       </c>
       <c r="E52" t="n">
-        <v>465196.5149925947</v>
+        <v>476114.024258256</v>
       </c>
       <c r="F52" t="n">
-        <v>559741.8148270845</v>
+        <v>563324.3702814579</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -6834,16 +6901,16 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>561517.0048066465</v>
+        <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>542336.0246518722</v>
+        <v>535054.8316477169</v>
       </c>
       <c r="E53" t="n">
-        <v>505576.1605157852</v>
+        <v>483530.6641206741</v>
       </c>
       <c r="F53" t="n">
-        <v>552147.924972415</v>
+        <v>575732.7644156218</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -6857,16 +6924,16 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>571445.5403187446</v>
+        <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>547260.1982759328</v>
+        <v>540991.5572290987</v>
       </c>
       <c r="E54" t="n">
-        <v>509742.0034784079</v>
+        <v>491767.1398141384</v>
       </c>
       <c r="F54" t="n">
-        <v>546793.3481434584</v>
+        <v>560438.5598077774</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -6880,16 +6947,16 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>540071.3010184903</v>
+        <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>531513.085877416</v>
+        <v>530745.9458655599</v>
       </c>
       <c r="E55" t="n">
-        <v>509667.7661298513</v>
+        <v>495299.6766065359</v>
       </c>
       <c r="F55" t="n">
-        <v>540461.2643435001</v>
+        <v>586095.5117909908</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -6903,16 +6970,16 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>530102.8983697671</v>
+        <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>532581.118548951</v>
+        <v>525295.1334894713</v>
       </c>
       <c r="E56" t="n">
-        <v>504767.1648356915</v>
+        <v>491792.2947901487</v>
       </c>
       <c r="F56" t="n">
-        <v>574443.2858066559</v>
+        <v>588084.3569910526</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -6926,16 +6993,16 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>578405.4214324768</v>
+        <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>556311.0707558828</v>
+        <v>559022.8924557406</v>
       </c>
       <c r="E57" t="n">
-        <v>513833.6923182011</v>
+        <v>518741.1805412769</v>
       </c>
       <c r="F57" t="n">
-        <v>563470.2441745996</v>
+        <v>582704.5835732222</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -6949,16 +7016,16 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>567959.6682651383</v>
+        <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>554144.2978585906</v>
+        <v>547345.5867874526</v>
       </c>
       <c r="E58" t="n">
-        <v>504165.6092803478</v>
+        <v>498343.6159616709</v>
       </c>
       <c r="F58" t="n">
-        <v>594908.9082245827</v>
+        <v>595783.9019062519</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -6972,16 +7039,16 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>581497.7685274726</v>
+        <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>568820.1730358222</v>
+        <v>556905.3819625739</v>
       </c>
       <c r="E59" t="n">
-        <v>538004.0663642883</v>
+        <v>500978.6257067919</v>
       </c>
       <c r="F59" t="n">
-        <v>577352.1081938744</v>
+        <v>607956.0390076637</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -6995,16 +7062,16 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>599283.0132274868</v>
+        <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>566970.6310447507</v>
+        <v>560577.1971119988</v>
       </c>
       <c r="E60" t="n">
-        <v>511191.3170962334</v>
+        <v>480342.7650641203</v>
       </c>
       <c r="F60" t="n">
-        <v>572599.9607903957</v>
+        <v>629883.5213217735</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -7018,16 +7085,16 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>606495.3059033806</v>
+        <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>574312.1714057053</v>
+        <v>571645.5065164841</v>
       </c>
       <c r="E61" t="n">
-        <v>522953.1305567026</v>
+        <v>510548.3775480986</v>
       </c>
       <c r="F61" t="n">
-        <v>572906.8348525763</v>
+        <v>599524.1909198761</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -7041,16 +7108,16 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>583571.9118450353</v>
+        <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>569888.4479468648</v>
+        <v>553345.4570605471</v>
       </c>
       <c r="E62" t="n">
-        <v>530186.0912394524</v>
+        <v>488253.0583267212</v>
       </c>
       <c r="F62" t="n">
-        <v>591363.9083795547</v>
+        <v>611346.4054517746</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -7064,16 +7131,16 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>557704.7560517298</v>
+        <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>561127.0292510032</v>
+        <v>548854.2352636761</v>
       </c>
       <c r="E63" t="n">
-        <v>545577.024948597</v>
+        <v>506854.6533287764</v>
       </c>
       <c r="F63" t="n">
-        <v>589056.7663862705</v>
+        <v>629564.7251741886</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -7087,16 +7154,16 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>582675.7164837809</v>
+        <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>568956.2488741322</v>
+        <v>567081.0701818005</v>
       </c>
       <c r="E64" t="n">
-        <v>529063.8339226246</v>
+        <v>515216.1964836121</v>
       </c>
       <c r="F64" t="n">
-        <v>590582.085899353</v>
+        <v>637726.9219062328</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -7110,16 +7177,16 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>572425.0782131255</v>
+        <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>566204.9145934695</v>
+        <v>569405.8502064369</v>
       </c>
       <c r="E65" t="n">
-        <v>536818.5158820152</v>
+        <v>531926.4244184494</v>
       </c>
       <c r="F65" t="n">
-        <v>588365.7431743145</v>
+        <v>645060.5232994556</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -7133,16 +7200,16 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>581600.7372527063</v>
+        <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>584240.226637032</v>
+        <v>569323.2106391609</v>
       </c>
       <c r="E66" t="n">
-        <v>535396.0425611734</v>
+        <v>524475.3082985878</v>
       </c>
       <c r="F66" t="n">
-        <v>658628.7719726562</v>
+        <v>633282.2935643196</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -7156,16 +7223,16 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>552605.6215518473</v>
+        <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>563287.6798812544</v>
+        <v>558289.7911674586</v>
       </c>
       <c r="E67" t="n">
-        <v>541570.6008661985</v>
+        <v>523266.7042899132</v>
       </c>
       <c r="F67" t="n">
-        <v>612028.8148009777</v>
+        <v>660420.1641352177</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -7179,16 +7246,16 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>543393.1302377796</v>
+        <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>558180.6896956346</v>
+        <v>554913.1515954585</v>
       </c>
       <c r="E68" t="n">
-        <v>548212.2011451721</v>
+        <v>535613.0328381062</v>
       </c>
       <c r="F68" t="n">
-        <v>597712.5749056339</v>
+        <v>634595.4706990719</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -7202,16 +7269,16 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>588032.8619614544</v>
+        <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>589567.3006404425</v>
+        <v>591619.1631629877</v>
       </c>
       <c r="E69" t="n">
-        <v>559133.455568552</v>
+        <v>556306.7977803946</v>
       </c>
       <c r="F69" t="n">
-        <v>626136.3245728016</v>
+        <v>676832.1526770592</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -7225,16 +7292,16 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>578379.2159973071</v>
+        <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>575609.7828903619</v>
+        <v>570320.7372047794</v>
       </c>
       <c r="E70" t="n">
-        <v>522345.9364583492</v>
+        <v>537373.4234173298</v>
       </c>
       <c r="F70" t="n">
-        <v>643674.0659120083</v>
+        <v>611816.2562940121</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -7248,16 +7315,16 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>590890.7201079614</v>
+        <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>573871.4057688338</v>
+        <v>589815.4339513057</v>
       </c>
       <c r="E71" t="n">
-        <v>530245.4727957249</v>
+        <v>557228.4810949564</v>
       </c>
       <c r="F71" t="n">
-        <v>591463.0302205086</v>
+        <v>650652.6263535023</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -7271,16 +7338,16 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>607327.3059666363</v>
+        <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>593398.6245373221</v>
+        <v>599117.6740825492</v>
       </c>
       <c r="E72" t="n">
-        <v>543415.798461318</v>
+        <v>556220.4302821159</v>
       </c>
       <c r="F72" t="n">
-        <v>626892.8048191071</v>
+        <v>662103.1964011192</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -7294,16 +7361,16 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>613992.6895513805</v>
+        <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>610573.20232948</v>
+        <v>597495.7229033951</v>
       </c>
       <c r="E73" t="n">
-        <v>562180.3286305666</v>
+        <v>547762.9070575237</v>
       </c>
       <c r="F73" t="n">
-        <v>664447.0409400463</v>
+        <v>650968.9257292747</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -7317,16 +7384,16 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>592807.5842414125</v>
+        <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>599818.7778372868</v>
+        <v>582456.8426771775</v>
       </c>
       <c r="E74" t="n">
-        <v>568796.2121598721</v>
+        <v>527306.4394695759</v>
       </c>
       <c r="F74" t="n">
-        <v>649726.0743339062</v>
+        <v>676630.4551274776</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -7340,16 +7407,16 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>568901.9433142123</v>
+        <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>585390.7036467666</v>
+        <v>583956.6013503204</v>
       </c>
       <c r="E75" t="n">
-        <v>591639.2190847397</v>
+        <v>560117.4333398342</v>
       </c>
       <c r="F75" t="n">
-        <v>600834.7880570889</v>
+        <v>688480.7999551296</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -7419,16 +7486,16 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>542861.7215044864</v>
+        <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>481761.9010880138</v>
+        <v>477060.1017590714</v>
       </c>
       <c r="E2" t="n">
-        <v>409809.6999910474</v>
+        <v>410999.7550657988</v>
       </c>
       <c r="F2" t="n">
-        <v>470560.6627801657</v>
+        <v>442003.1485631466</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -7442,16 +7509,16 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>500376.5200095911</v>
+        <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>459114.1138436477</v>
+        <v>466011.1650067765</v>
       </c>
       <c r="E3" t="n">
-        <v>420842.1960018873</v>
+        <v>407634.0962594151</v>
       </c>
       <c r="F3" t="n">
-        <v>434994.9181499481</v>
+        <v>518524.3359093666</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -7465,16 +7532,16 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>534234.3550797545</v>
+        <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>483663.5634024219</v>
+        <v>482225.5528100593</v>
       </c>
       <c r="E4" t="n">
-        <v>397855.0421177149</v>
+        <v>423094.9915953875</v>
       </c>
       <c r="F4" t="n">
-        <v>519368.1407498121</v>
+        <v>475217.267048955</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -7488,19 +7555,19 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>516567.8241890836</v>
+        <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>462282.9588008477</v>
+        <v>469840.9866840938</v>
       </c>
       <c r="E5" t="n">
-        <v>388975.3980053663</v>
+        <v>417100.9706988335</v>
       </c>
       <c r="F5" t="n">
-        <v>467313.5070059299</v>
+        <v>460894.2650632858</v>
       </c>
       <c r="G5" t="n">
-        <v>510856.6175063987</v>
+        <v>510856.6175063986</v>
       </c>
     </row>
     <row r="6">
@@ -7511,16 +7578,16 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>528274.9796268891</v>
+        <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>472056.0906903706</v>
+        <v>475093.7801094857</v>
       </c>
       <c r="E6" t="n">
-        <v>422674.3063514233</v>
+        <v>414437.5809807777</v>
       </c>
       <c r="F6" t="n">
-        <v>432051.3906345367</v>
+        <v>466293.8045912981</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -7534,16 +7601,16 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>483793.2212732398</v>
+        <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>457577.9011329961</v>
+        <v>444172.3743958988</v>
       </c>
       <c r="E7" t="n">
-        <v>408389.276103735</v>
+        <v>388890.8926827312</v>
       </c>
       <c r="F7" t="n">
-        <v>482740.3734227419</v>
+        <v>465358.2433867455</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -7557,16 +7624,16 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>468989.4995939414</v>
+        <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>447134.8844603015</v>
+        <v>446787.9542943519</v>
       </c>
       <c r="E8" t="n">
-        <v>420744.2185146809</v>
+        <v>418203.3786797523</v>
       </c>
       <c r="F8" t="n">
-        <v>440676.05192554</v>
+        <v>447584.4738855362</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -7580,16 +7647,16 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>534325.0745417667</v>
+        <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>472744.6707567801</v>
+        <v>470353.2317524981</v>
       </c>
       <c r="E9" t="n">
-        <v>412187.0740947723</v>
+        <v>390466.6261799932</v>
       </c>
       <c r="F9" t="n">
-        <v>434212.8667989969</v>
+        <v>470638.3956092596</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -7603,16 +7670,16 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>519324.5291662772</v>
+        <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>475624.3185416613</v>
+        <v>465633.5996192737</v>
       </c>
       <c r="E10" t="n">
-        <v>420483.4931181669</v>
+        <v>400763.625230968</v>
       </c>
       <c r="F10" t="n">
-        <v>469233.5869489908</v>
+        <v>461023.9515525103</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -7626,16 +7693,16 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>537356.8041551439</v>
+        <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>473461.6667662636</v>
+        <v>475744.2660663655</v>
       </c>
       <c r="E11" t="n">
-        <v>400307.0072793365</v>
+        <v>404710.2516284585</v>
       </c>
       <c r="F11" t="n">
-        <v>451435.2658582926</v>
+        <v>459143.6535069942</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -7649,16 +7716,16 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>561330.6608657151</v>
+        <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>485822.5868387213</v>
+        <v>486436.7094280681</v>
       </c>
       <c r="E12" t="n">
-        <v>406283.311499238</v>
+        <v>401306.8395516276</v>
       </c>
       <c r="F12" t="n">
-        <v>448303.2112646103</v>
+        <v>463365.3409324884</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -7672,16 +7739,16 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>570902.7745995891</v>
+        <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>487825.3932783078</v>
+        <v>498318.0225823108</v>
       </c>
       <c r="E13" t="n">
-        <v>417214.4489777088</v>
+        <v>419675.1840503216</v>
       </c>
       <c r="F13" t="n">
-        <v>418972.9461716413</v>
+        <v>465561.6678701639</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -7695,16 +7762,16 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>539234.4578740627</v>
+        <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>484915.6220470729</v>
+        <v>487834.8060654635</v>
       </c>
       <c r="E14" t="n">
-        <v>436001.3460611105</v>
+        <v>432958.4886404276</v>
       </c>
       <c r="F14" t="n">
-        <v>443049.3583718538</v>
+        <v>460302.7590144873</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -7718,16 +7785,16 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>503585.8553554489</v>
+        <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>461796.49528641</v>
+        <v>453277.6190914157</v>
       </c>
       <c r="E15" t="n">
-        <v>413842.4129999876</v>
+        <v>381249.5329539776</v>
       </c>
       <c r="F15" t="n">
-        <v>453787.1624863148</v>
+        <v>490990.8934576511</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -7741,16 +7808,16 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>537671.8801323503</v>
+        <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>473245.6977401049</v>
+        <v>477559.5084286674</v>
       </c>
       <c r="E16" t="n">
-        <v>415824.5377225876</v>
+        <v>411202.8986623883</v>
       </c>
       <c r="F16" t="n">
-        <v>423175.4084541798</v>
+        <v>452454.9890793562</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -7764,16 +7831,16 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>523507.0390045036</v>
+        <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>465129.5572159028</v>
+        <v>476425.3463259205</v>
       </c>
       <c r="E17" t="n">
-        <v>404610.2975302339</v>
+        <v>420163.4901975393</v>
       </c>
       <c r="F17" t="n">
-        <v>434743.0146805048</v>
+        <v>469137.5652663708</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -7787,19 +7854,19 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>535998.4627034897</v>
+        <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>489333.6996347764</v>
+        <v>476888.4051216358</v>
       </c>
       <c r="E18" t="n">
-        <v>431366.0059655905</v>
+        <v>398175.180280149</v>
       </c>
       <c r="F18" t="n">
-        <v>480760.5790205002</v>
+        <v>492677.1715269089</v>
       </c>
       <c r="G18" t="n">
-        <v>554486.7217144086</v>
+        <v>554486.7217144087</v>
       </c>
     </row>
     <row r="19">
@@ -7810,16 +7877,16 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>496182.8443308</v>
+        <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>460738.6259100834</v>
+        <v>456019.0525675584</v>
       </c>
       <c r="E19" t="n">
-        <v>409810.4282161593</v>
+        <v>400184.7798959017</v>
       </c>
       <c r="F19" t="n">
-        <v>465665.4295454025</v>
+        <v>472665.233353734</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -7833,16 +7900,16 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>483501.7037745333</v>
+        <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>462505.6474515582</v>
+        <v>455534.2195880726</v>
       </c>
       <c r="E20" t="n">
-        <v>430741.6257545948</v>
+        <v>413510.7792840004</v>
       </c>
       <c r="F20" t="n">
-        <v>467944.7741458416</v>
+        <v>476356.7312848568</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -7856,16 +7923,16 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>544656.2291738451</v>
+        <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>485835.5594800424</v>
+        <v>484828.0358585927</v>
       </c>
       <c r="E21" t="n">
-        <v>411388.7000980973</v>
+        <v>409971.6052398682</v>
       </c>
       <c r="F21" t="n">
-        <v>474553.7915526628</v>
+        <v>481200.0732787848</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -7879,16 +7946,16 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>531391.269235666</v>
+        <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>485877.1574369692</v>
+        <v>480045.2134063584</v>
       </c>
       <c r="E22" t="n">
-        <v>419347.5451692343</v>
+        <v>418703.1283644438</v>
       </c>
       <c r="F22" t="n">
-        <v>492310.0420383215</v>
+        <v>469540.8771398067</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -7902,16 +7969,16 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>548518.6890995279</v>
+        <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>484625.2059051195</v>
+        <v>491887.562253686</v>
       </c>
       <c r="E23" t="n">
-        <v>409502.9195578098</v>
+        <v>425066.192941308</v>
       </c>
       <c r="F23" t="n">
-        <v>463220.0496194363</v>
+        <v>476213.8951307535</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -7925,16 +7992,16 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>571032.3085288655</v>
+        <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>501120.231508537</v>
+        <v>506780.7871346781</v>
       </c>
       <c r="E24" t="n">
-        <v>419810.5506954193</v>
+        <v>437655.4573868513</v>
       </c>
       <c r="F24" t="n">
-        <v>476240.5481698513</v>
+        <v>470264.9201589823</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -7948,19 +8015,19 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>580155.2020914829</v>
+        <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>511908.2751934659</v>
+        <v>504455.2993214444</v>
       </c>
       <c r="E25" t="n">
-        <v>435481.5389761925</v>
+        <v>416928.2357022762</v>
       </c>
       <c r="F25" t="n">
-        <v>482648.5338329077</v>
+        <v>481460.8194817305</v>
       </c>
       <c r="G25" t="n">
-        <v>620969.978093269</v>
+        <v>620969.9780932692</v>
       </c>
     </row>
     <row r="26">
@@ -7971,19 +8038,19 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>551102.2421183037</v>
+        <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>492789.4784030566</v>
+        <v>491130.1030099225</v>
       </c>
       <c r="E26" t="n">
-        <v>422130.1765477657</v>
+        <v>424796.4375534058</v>
       </c>
       <c r="F26" t="n">
-        <v>476701.0777306557</v>
+        <v>463229.4125137329</v>
       </c>
       <c r="G26" t="n">
-        <v>586956.5220437353</v>
+        <v>586956.5220437354</v>
       </c>
     </row>
     <row r="27">
@@ -7994,16 +8061,16 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>518322.3351843405</v>
+        <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>471394.446185052</v>
+        <v>477086.8638745873</v>
       </c>
       <c r="E27" t="n">
-        <v>417677.5585360527</v>
+        <v>416309.7645179033</v>
       </c>
       <c r="F27" t="n">
-        <v>457939.6477197409</v>
+        <v>507954.7517957687</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -8017,16 +8084,16 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>549951.5597935497</v>
+        <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>495727.5627965066</v>
+        <v>492049.100104167</v>
       </c>
       <c r="E28" t="n">
-        <v>431667.5535812378</v>
+        <v>423187.4761846066</v>
       </c>
       <c r="F28" t="n">
-        <v>477834.4872949123</v>
+        <v>479136.6994401217</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -8040,16 +8107,16 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>536959.7965312758</v>
+        <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>489576.4463879004</v>
+        <v>488388.706067663</v>
       </c>
       <c r="E29" t="n">
-        <v>425285.6383771896</v>
+        <v>426084.7718086243</v>
       </c>
       <c r="F29" t="n">
-        <v>487983.4485838413</v>
+        <v>490185.2892259359</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -8063,16 +8130,16 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>548580.5185564432</v>
+        <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>494435.3736933372</v>
+        <v>494628.1168542355</v>
       </c>
       <c r="E30" t="n">
-        <v>437846.0026890039</v>
+        <v>432160.6868206263</v>
       </c>
       <c r="F30" t="n">
-        <v>464720.5678658485</v>
+        <v>478108.5496141911</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -8086,16 +8153,16 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>511843.3129830634</v>
+        <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>479336.7967865546</v>
+        <v>486753.6632122635</v>
       </c>
       <c r="E31" t="n">
-        <v>431581.2068893909</v>
+        <v>444854.6700372696</v>
       </c>
       <c r="F31" t="n">
-        <v>483519.8239697218</v>
+        <v>512748.1583534479</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -8109,16 +8176,16 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>500169.5564485946</v>
+        <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>474876.4461086985</v>
+        <v>488727.0395420139</v>
       </c>
       <c r="E32" t="n">
-        <v>436001.7413833141</v>
+        <v>462856.1035149097</v>
       </c>
       <c r="F32" t="n">
-        <v>480076.3178988695</v>
+        <v>516152.2570425272</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -8132,16 +8199,16 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>556722.1120594315</v>
+        <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>511920.2127550949</v>
+        <v>498396.7912086076</v>
       </c>
       <c r="E33" t="n">
-        <v>449417.3124601841</v>
+        <v>433345.9668192863</v>
       </c>
       <c r="F33" t="n">
-        <v>509363.4928716421</v>
+        <v>468447.7280210257</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -8155,16 +8222,16 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>544490.4118760367</v>
+        <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>498439.8169225717</v>
+        <v>491433.4028565852</v>
       </c>
       <c r="E34" t="n">
-        <v>469041.6892287731</v>
+        <v>416853.8110958338</v>
       </c>
       <c r="F34" t="n">
-        <v>438363.7083243132</v>
+        <v>509516.6074030399</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -8178,16 +8245,16 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>560340.2242089449</v>
+        <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>502841.7583486104</v>
+        <v>502148.6465086279</v>
       </c>
       <c r="E35" t="n">
-        <v>442260.8986399174</v>
+        <v>422980.5146077871</v>
       </c>
       <c r="F35" t="n">
-        <v>468345.3811831474</v>
+        <v>512538.9704884291</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -8201,16 +8268,16 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>581163.001025803</v>
+        <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>518531.6930092192</v>
+        <v>511807.2931805516</v>
       </c>
       <c r="E36" t="n">
-        <v>446125.4020512104</v>
+        <v>429338.1070930958</v>
       </c>
       <c r="F36" t="n">
-        <v>491989.935085535</v>
+        <v>491735.5556507111</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -8224,16 +8291,16 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>589606.7641685351</v>
+        <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>536899.176601027</v>
+        <v>529607.7171666584</v>
       </c>
       <c r="E37" t="n">
-        <v>461679.4581854343</v>
+        <v>459823.3996329308</v>
       </c>
       <c r="F37" t="n">
-        <v>536917.1591750383</v>
+        <v>505171.2465471029</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -8247,16 +8314,16 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>562766.6905561481</v>
+        <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>503084.2786986413</v>
+        <v>512056.4503503714</v>
       </c>
       <c r="E38" t="n">
-        <v>433919.7874010801</v>
+        <v>439330.1670800447</v>
       </c>
       <c r="F38" t="n">
-        <v>479092.1528697014</v>
+        <v>531136.2169462442</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -8270,16 +8337,16 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>532480.0662680281</v>
+        <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>500980.4150460187</v>
+        <v>498936.7380955105</v>
       </c>
       <c r="E39" t="n">
-        <v>450733.5481404066</v>
+        <v>458222.4071274996</v>
       </c>
       <c r="F39" t="n">
-        <v>511940.9312200546</v>
+        <v>492611.0486867428</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -8293,16 +8360,16 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>561716.6936161297</v>
+        <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>508575.4926913995</v>
+        <v>514923.597793694</v>
       </c>
       <c r="E40" t="n">
-        <v>459985.6481878757</v>
+        <v>452625.955529213</v>
       </c>
       <c r="F40" t="n">
-        <v>465032.789180994</v>
+        <v>518933.1822936535</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -8316,19 +8383,19 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>549714.6286383088</v>
+        <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>503841.4536138764</v>
+        <v>504002.6092316241</v>
       </c>
       <c r="E41" t="n">
-        <v>471956.3166104555</v>
+        <v>440987.773886323</v>
       </c>
       <c r="F41" t="n">
-        <v>448461.04885602</v>
+        <v>514447.9397969246</v>
       </c>
       <c r="G41" t="n">
-        <v>591412.075326722</v>
+        <v>591412.0753267221</v>
       </c>
     </row>
     <row r="42">
@@ -8339,16 +8406,16 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>560457.65038694</v>
+        <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>520200.4543571983</v>
+        <v>510390.4694486305</v>
       </c>
       <c r="E42" t="n">
-        <v>463634.7426110506</v>
+        <v>445342.9345716238</v>
       </c>
       <c r="F42" t="n">
-        <v>518919.2211779356</v>
+        <v>511144.14891541</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -8362,16 +8429,16 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>526508.9467909186</v>
+        <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>515263.2927326547</v>
+        <v>505590.5542081529</v>
       </c>
       <c r="E43" t="n">
-        <v>492237.6356557608</v>
+        <v>466306.6005468369</v>
       </c>
       <c r="F43" t="n">
-        <v>522563.009961009</v>
+        <v>535294.7568513155</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -8385,16 +8452,16 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>515722.5095082598</v>
+        <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>497675.0059027342</v>
+        <v>499202.8493229906</v>
       </c>
       <c r="E44" t="n">
-        <v>468105.441411972</v>
+        <v>464788.2719948292</v>
       </c>
       <c r="F44" t="n">
-        <v>500174.4571188688</v>
+        <v>528903.3123015165</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -8408,16 +8475,16 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>567988.2879974848</v>
+        <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>516382.6644455218</v>
+        <v>523719.7025535325</v>
       </c>
       <c r="E45" t="n">
-        <v>459450.8188592196</v>
+        <v>461715.3284738064</v>
       </c>
       <c r="F45" t="n">
-        <v>487035.174649477</v>
+        <v>530380.1528285742</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -8431,16 +8498,16 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>556685.3741595865</v>
+        <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>519998.0074233785</v>
+        <v>507144.7232269749</v>
       </c>
       <c r="E46" t="n">
-        <v>464331.7580753565</v>
+        <v>437864.0626717806</v>
       </c>
       <c r="F46" t="n">
-        <v>522825.3998720646</v>
+        <v>518339.7412467003</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -8454,16 +8521,16 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>571334.2594142738</v>
+        <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>528120.8849269417</v>
+        <v>521963.0942535827</v>
       </c>
       <c r="E47" t="n">
-        <v>472873.235252142</v>
+        <v>446718.4269695282</v>
       </c>
       <c r="F47" t="n">
-        <v>513518.8701990843</v>
+        <v>547418.7478696108</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -8477,16 +8544,16 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>590578.7881753487</v>
+        <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>540224.4671345949</v>
+        <v>537458.0677316793</v>
       </c>
       <c r="E48" t="n">
-        <v>484417.101339817</v>
+        <v>464408.0968735218</v>
       </c>
       <c r="F48" t="n">
-        <v>509910.2650921345</v>
+        <v>542270.8413274288</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -8500,16 +8567,16 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>598382.8377344901</v>
+        <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>537761.6944938642</v>
+        <v>530767.2163634476</v>
       </c>
       <c r="E49" t="n">
-        <v>465661.4555169344</v>
+        <v>454654.1664981842</v>
       </c>
       <c r="F49" t="n">
-        <v>511640.5279581547</v>
+        <v>492922.5625832081</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -8523,16 +8590,16 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>573578.5030674819</v>
+        <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>536629.7454704554</v>
+        <v>527574.0450385318</v>
       </c>
       <c r="E50" t="n">
-        <v>493089.2221016884</v>
+        <v>452026.8551328182</v>
       </c>
       <c r="F50" t="n">
-        <v>517084.0314764977</v>
+        <v>567220.6243076324</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -8546,16 +8613,16 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>545588.8691196492</v>
+        <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>525043.8129768644</v>
+        <v>515969.9680503457</v>
       </c>
       <c r="E51" t="n">
-        <v>494366.404109478</v>
+        <v>465057.9025441408</v>
       </c>
       <c r="F51" t="n">
-        <v>522975.9760187864</v>
+        <v>546211.8707947731</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -8569,16 +8636,16 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>572608.7423296863</v>
+        <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>534946.0955848696</v>
+        <v>535708.4424297935</v>
       </c>
       <c r="E52" t="n">
-        <v>465196.5149925947</v>
+        <v>476114.024258256</v>
       </c>
       <c r="F52" t="n">
-        <v>559741.8148270845</v>
+        <v>563324.3702814579</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -8592,16 +8659,16 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>561517.0048066465</v>
+        <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>542336.0246518722</v>
+        <v>535054.8316477169</v>
       </c>
       <c r="E53" t="n">
-        <v>505576.1605157852</v>
+        <v>483530.6641206741</v>
       </c>
       <c r="F53" t="n">
-        <v>552147.924972415</v>
+        <v>575732.7644156218</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -8615,16 +8682,16 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>571445.5403187446</v>
+        <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>547260.1982759328</v>
+        <v>540991.5572290987</v>
       </c>
       <c r="E54" t="n">
-        <v>509742.0034784079</v>
+        <v>491767.1398141384</v>
       </c>
       <c r="F54" t="n">
-        <v>546793.3481434584</v>
+        <v>560438.5598077774</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -8638,16 +8705,16 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>540071.3010184903</v>
+        <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>531513.085877416</v>
+        <v>530745.9458655599</v>
       </c>
       <c r="E55" t="n">
-        <v>509667.7661298513</v>
+        <v>495299.6766065359</v>
       </c>
       <c r="F55" t="n">
-        <v>540461.2643435001</v>
+        <v>586095.5117909908</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -8661,16 +8728,16 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>530102.8983697671</v>
+        <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>532581.118548951</v>
+        <v>525295.1334894713</v>
       </c>
       <c r="E56" t="n">
-        <v>504767.1648356915</v>
+        <v>491792.2947901487</v>
       </c>
       <c r="F56" t="n">
-        <v>574443.2858066559</v>
+        <v>588084.3569910526</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -8684,16 +8751,16 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>578405.4214324768</v>
+        <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>556311.0707558828</v>
+        <v>559022.8924557406</v>
       </c>
       <c r="E57" t="n">
-        <v>513833.6923182011</v>
+        <v>518741.1805412769</v>
       </c>
       <c r="F57" t="n">
-        <v>563470.2441745996</v>
+        <v>582704.5835732222</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -8707,16 +8774,16 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>567959.6682651383</v>
+        <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>554144.2978585906</v>
+        <v>547345.5867874526</v>
       </c>
       <c r="E58" t="n">
-        <v>504165.6092803478</v>
+        <v>498343.6159616709</v>
       </c>
       <c r="F58" t="n">
-        <v>594908.9082245827</v>
+        <v>595783.9019062519</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -8730,16 +8797,16 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>581497.7685274726</v>
+        <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>568820.1730358222</v>
+        <v>556905.3819625739</v>
       </c>
       <c r="E59" t="n">
-        <v>538004.0663642883</v>
+        <v>500978.6257067919</v>
       </c>
       <c r="F59" t="n">
-        <v>577352.1081938744</v>
+        <v>607956.0390076637</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -8753,16 +8820,16 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>599283.0132274868</v>
+        <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>566970.6310447507</v>
+        <v>560577.1971119988</v>
       </c>
       <c r="E60" t="n">
-        <v>511191.3170962334</v>
+        <v>480342.7650641203</v>
       </c>
       <c r="F60" t="n">
-        <v>572599.9607903957</v>
+        <v>629883.5213217735</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -8776,16 +8843,16 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>606495.3059033806</v>
+        <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>574312.1714057053</v>
+        <v>571645.5065164841</v>
       </c>
       <c r="E61" t="n">
-        <v>522953.1305567026</v>
+        <v>510548.3775480986</v>
       </c>
       <c r="F61" t="n">
-        <v>572906.8348525763</v>
+        <v>599524.1909198761</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -8799,16 +8866,16 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>583571.9118450353</v>
+        <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>569888.4479468648</v>
+        <v>553345.4570605471</v>
       </c>
       <c r="E62" t="n">
-        <v>530186.0912394524</v>
+        <v>488253.0583267212</v>
       </c>
       <c r="F62" t="n">
-        <v>591363.9083795547</v>
+        <v>611346.4054517746</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -8822,16 +8889,16 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>557704.7560517298</v>
+        <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>561127.0292510032</v>
+        <v>548854.2352636761</v>
       </c>
       <c r="E63" t="n">
-        <v>545577.024948597</v>
+        <v>506854.6533287764</v>
       </c>
       <c r="F63" t="n">
-        <v>589056.7663862705</v>
+        <v>629564.7251741886</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -8845,16 +8912,16 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>582675.7164837809</v>
+        <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>568956.2488741322</v>
+        <v>567081.0701818005</v>
       </c>
       <c r="E64" t="n">
-        <v>529063.8339226246</v>
+        <v>515216.1964836121</v>
       </c>
       <c r="F64" t="n">
-        <v>590582.085899353</v>
+        <v>637726.9219062328</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -8868,16 +8935,16 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>572425.0782131255</v>
+        <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>566204.9145934695</v>
+        <v>569405.8502064369</v>
       </c>
       <c r="E65" t="n">
-        <v>536818.5158820152</v>
+        <v>531926.4244184494</v>
       </c>
       <c r="F65" t="n">
-        <v>588365.7431743145</v>
+        <v>645060.5232994556</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -8891,16 +8958,16 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>581600.7372527063</v>
+        <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>584240.226637032</v>
+        <v>569323.2106391609</v>
       </c>
       <c r="E66" t="n">
-        <v>535396.0425611734</v>
+        <v>524475.3082985878</v>
       </c>
       <c r="F66" t="n">
-        <v>658628.7719726562</v>
+        <v>633282.2935643196</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -8914,16 +8981,16 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>552605.6215518473</v>
+        <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>563287.6798812544</v>
+        <v>558289.7911674586</v>
       </c>
       <c r="E67" t="n">
-        <v>541570.6008661985</v>
+        <v>523266.7042899132</v>
       </c>
       <c r="F67" t="n">
-        <v>612028.8148009777</v>
+        <v>660420.1641352177</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -8937,16 +9004,16 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>543393.1302377796</v>
+        <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>558180.6896956346</v>
+        <v>554913.1515954585</v>
       </c>
       <c r="E68" t="n">
-        <v>548212.2011451721</v>
+        <v>535613.0328381062</v>
       </c>
       <c r="F68" t="n">
-        <v>597712.5749056339</v>
+        <v>634595.4706990719</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -8960,16 +9027,16 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>588032.8619614544</v>
+        <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>589567.3006404425</v>
+        <v>591619.1631629877</v>
       </c>
       <c r="E69" t="n">
-        <v>559133.455568552</v>
+        <v>556306.7977803946</v>
       </c>
       <c r="F69" t="n">
-        <v>626136.3245728016</v>
+        <v>676832.1526770592</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -8983,16 +9050,16 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>578379.2159973071</v>
+        <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>575609.7828903619</v>
+        <v>570320.7372047794</v>
       </c>
       <c r="E70" t="n">
-        <v>522345.9364583492</v>
+        <v>537373.4234173298</v>
       </c>
       <c r="F70" t="n">
-        <v>643674.0659120083</v>
+        <v>611816.2562940121</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -9006,16 +9073,16 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>590890.7201079614</v>
+        <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>573871.4057688338</v>
+        <v>589815.4339513057</v>
       </c>
       <c r="E71" t="n">
-        <v>530245.4727957249</v>
+        <v>557228.4810949564</v>
       </c>
       <c r="F71" t="n">
-        <v>591463.0302205086</v>
+        <v>650652.6263535023</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -9029,16 +9096,16 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>607327.3059666363</v>
+        <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>593398.6245373221</v>
+        <v>599117.6740825492</v>
       </c>
       <c r="E72" t="n">
-        <v>543415.798461318</v>
+        <v>556220.4302821159</v>
       </c>
       <c r="F72" t="n">
-        <v>626892.8048191071</v>
+        <v>662103.1964011192</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -9052,16 +9119,16 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>613992.6895513805</v>
+        <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>610573.20232948</v>
+        <v>597495.7229033951</v>
       </c>
       <c r="E73" t="n">
-        <v>562180.3286305666</v>
+        <v>547762.9070575237</v>
       </c>
       <c r="F73" t="n">
-        <v>664447.0409400463</v>
+        <v>650968.9257292747</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -9075,16 +9142,16 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>592807.5842414125</v>
+        <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>599818.7778372868</v>
+        <v>582456.8426771775</v>
       </c>
       <c r="E74" t="n">
-        <v>568796.2121598721</v>
+        <v>527306.4394695759</v>
       </c>
       <c r="F74" t="n">
-        <v>649726.0743339062</v>
+        <v>676630.4551274776</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -9098,16 +9165,16 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>568901.9433142123</v>
+        <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>585390.7036467666</v>
+        <v>583956.6013503204</v>
       </c>
       <c r="E75" t="n">
-        <v>591639.2190847397</v>
+        <v>560117.4333398342</v>
       </c>
       <c r="F75" t="n">
-        <v>600834.7880570889</v>
+        <v>688480.7999551296</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -9169,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>484997.7058758903</v>
+        <v>484997.5861146463</v>
       </c>
       <c r="C2" t="n">
-        <v>461631.6306903377</v>
+        <v>441255.728386006</v>
       </c>
       <c r="D2" t="n">
-        <v>452861.0715957284</v>
+        <v>392312.1454279423</v>
       </c>
       <c r="E2" t="n">
-        <v>431396.2156579494</v>
+        <v>440640.3126804233</v>
       </c>
       <c r="F2" t="n">
         <v>448622.8529024446</v>
@@ -9189,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>481278.5842271234</v>
+        <v>481278.4583109817</v>
       </c>
       <c r="C3" t="n">
-        <v>462104.78596527</v>
+        <v>442491.1864500008</v>
       </c>
       <c r="D3" t="n">
-        <v>459322.3284296989</v>
+        <v>404159.9104561806</v>
       </c>
       <c r="E3" t="n">
-        <v>432438.4651162624</v>
+        <v>430782.5358203053</v>
       </c>
       <c r="F3" t="n">
         <v>437166.8745786949</v>
@@ -9209,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>498553.3469020093</v>
+        <v>498553.1854037594</v>
       </c>
       <c r="C4" t="n">
-        <v>471303.639486758</v>
+        <v>452597.1842219308</v>
       </c>
       <c r="D4" t="n">
-        <v>464335.7360656261</v>
+        <v>406302.758559525</v>
       </c>
       <c r="E4" t="n">
-        <v>431860.271255672</v>
+        <v>440520.8764109612</v>
       </c>
       <c r="F4" t="n">
         <v>448823.5974462835</v>
@@ -9229,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>450174.2054580956</v>
+        <v>450174.0992992357</v>
       </c>
       <c r="C5" t="n">
-        <v>446617.5924589942</v>
+        <v>430127.6972118648</v>
       </c>
       <c r="D5" t="n">
-        <v>459693.9000331163</v>
+        <v>407962.3146787882</v>
       </c>
       <c r="E5" t="n">
-        <v>425724.2195781469</v>
+        <v>438662.0227953196</v>
       </c>
       <c r="F5" t="n">
         <v>400453.0554511767</v>
@@ -9249,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>429466.2174350689</v>
+        <v>429466.1266237666</v>
       </c>
       <c r="C6" t="n">
-        <v>437772.2199945255</v>
+        <v>421039.2791489892</v>
       </c>
       <c r="D6" t="n">
-        <v>463406.8070570827</v>
+        <v>407450.5059075356</v>
       </c>
       <c r="E6" t="n">
-        <v>421353.1507954001</v>
+        <v>444448.4771518111</v>
       </c>
       <c r="F6" t="n">
         <v>382623.6229867304</v>
@@ -9269,16 +9336,16 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>480709.275685577</v>
+        <v>480709.0600438222</v>
       </c>
       <c r="C7" t="n">
-        <v>459384.819399558</v>
+        <v>445623.2270671106</v>
       </c>
       <c r="D7" t="n">
-        <v>454949.6595778465</v>
+        <v>407213.3045518994</v>
       </c>
       <c r="E7" t="n">
-        <v>424683.179060936</v>
+        <v>442205.535836637</v>
       </c>
       <c r="F7" t="n">
         <v>453190.8828687236</v>
@@ -9289,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>443179.7656568821</v>
+        <v>443179.5875215636</v>
       </c>
       <c r="C8" t="n">
-        <v>446685.7424093431</v>
+        <v>434803.1979740066</v>
       </c>
       <c r="D8" t="n">
-        <v>467166.400541842</v>
+        <v>418618.0993375182</v>
       </c>
       <c r="E8" t="n">
-        <v>423428.1915257573</v>
+        <v>458130.3125030994</v>
       </c>
       <c r="F8" t="n">
         <v>423028.2202574082</v>
@@ -9309,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>469632.4549534565</v>
+        <v>469632.2251447989</v>
       </c>
       <c r="C9" t="n">
-        <v>456336.8745919958</v>
+        <v>440809.0310292782</v>
       </c>
       <c r="D9" t="n">
-        <v>455793.9271521568</v>
+        <v>406266.9525686502</v>
       </c>
       <c r="E9" t="n">
-        <v>431547.0843960643</v>
+        <v>445998.5174300671</v>
       </c>
       <c r="F9" t="n">
         <v>449130.3793805084</v>
@@ -9329,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>505506.354734558</v>
+        <v>505506.0651705859</v>
       </c>
       <c r="C10" t="n">
-        <v>473949.514651445</v>
+        <v>463931.7040136857</v>
       </c>
       <c r="D10" t="n">
-        <v>459762.9163472056</v>
+        <v>420700.0737006664</v>
       </c>
       <c r="E10" t="n">
-        <v>433244.7577171326</v>
+        <v>452070.708571732</v>
       </c>
       <c r="F10" t="n">
         <v>477175.0438679613</v>
@@ -9349,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>513475.8912195447</v>
+        <v>513475.5858133886</v>
       </c>
       <c r="C11" t="n">
-        <v>481608.1606666592</v>
+        <v>463553.8391750766</v>
       </c>
       <c r="D11" t="n">
-        <v>466774.9880815148</v>
+        <v>411921.8812446594</v>
       </c>
       <c r="E11" t="n">
-        <v>441710.5811266303</v>
+        <v>447482.9548749924</v>
       </c>
       <c r="F11" t="n">
         <v>482983.8480840219</v>
@@ -9369,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>470612.5799763676</v>
+        <v>470612.3468794461</v>
       </c>
       <c r="C12" t="n">
-        <v>461265.0813598318</v>
+        <v>443894.0843880285</v>
       </c>
       <c r="D12" t="n">
-        <v>470191.9178780317</v>
+        <v>408483.9016501307</v>
       </c>
       <c r="E12" t="n">
-        <v>431650.0221751928</v>
+        <v>462804.7543882728</v>
       </c>
       <c r="F12" t="n">
         <v>436656.1487096669</v>
@@ -9389,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>441618.6175856119</v>
+        <v>441618.4522888935</v>
       </c>
       <c r="C13" t="n">
-        <v>450270.7195153263</v>
+        <v>433083.8388976704</v>
       </c>
       <c r="D13" t="n">
-        <v>474471.9249501228</v>
+        <v>417738.7724712491</v>
       </c>
       <c r="E13" t="n">
-        <v>438974.4985131025</v>
+        <v>464189.4541922808</v>
       </c>
       <c r="F13" t="n">
         <v>384382.7385923929</v>
@@ -9409,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>487586.1452833026</v>
+        <v>487585.86625049</v>
       </c>
       <c r="C14" t="n">
-        <v>466154.6685956455</v>
+        <v>452430.7117868712</v>
       </c>
       <c r="D14" t="n">
-        <v>461161.981216073</v>
+        <v>414081.3345096111</v>
       </c>
       <c r="E14" t="n">
-        <v>436044.4164097905</v>
+        <v>454683.0525077581</v>
       </c>
       <c r="F14" t="n">
         <v>439071.3945341054</v>
@@ -9429,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>484075.3707996707</v>
+        <v>484075.099318068</v>
       </c>
       <c r="C15" t="n">
-        <v>471242.2374153287</v>
+        <v>453073.0277227507</v>
       </c>
       <c r="D15" t="n">
-        <v>474179.5745459795</v>
+        <v>419943.9165984392</v>
       </c>
       <c r="E15" t="n">
-        <v>448291.132001698</v>
+        <v>457147.1944875121</v>
       </c>
       <c r="F15" t="n">
         <v>427232.6438331051</v>
@@ -9449,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>500777.1295877778</v>
+        <v>500776.8286870691</v>
       </c>
       <c r="C16" t="n">
-        <v>484078.2566075087</v>
+        <v>462108.743392584</v>
       </c>
       <c r="D16" t="n">
-        <v>486768.7760406733</v>
+        <v>423026.0408238769</v>
       </c>
       <c r="E16" t="n">
-        <v>453935.8557925224</v>
+        <v>458185.7815654278</v>
       </c>
       <c r="F16" t="n">
         <v>438701.0358348383</v>
@@ -9469,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>454234.8171247311</v>
+        <v>454234.5955684311</v>
       </c>
       <c r="C17" t="n">
-        <v>457687.2533591205</v>
+        <v>444043.7791392765</v>
       </c>
       <c r="D17" t="n">
-        <v>471513.7527447343</v>
+        <v>432451.0167694688</v>
       </c>
       <c r="E17" t="n">
-        <v>453874.5553672314</v>
+        <v>460793.2897370458</v>
       </c>
       <c r="F17" t="n">
         <v>389365.2311649311</v>
@@ -9489,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>434338.3227471138</v>
+        <v>434338.1314260365</v>
       </c>
       <c r="C18" t="n">
-        <v>451650.5131928119</v>
+        <v>433699.0932034573</v>
       </c>
       <c r="D18" t="n">
-        <v>483317.8892220259</v>
+        <v>429276.3729926348</v>
       </c>
       <c r="E18" t="n">
-        <v>447907.3998730779</v>
+        <v>462387.349694252</v>
       </c>
       <c r="F18" t="n">
         <v>371642.7573115207</v>
@@ -9509,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>483738.0123170394</v>
+        <v>483737.6906074809</v>
       </c>
       <c r="C19" t="n">
-        <v>474967.1053436971</v>
+        <v>453548.3012956394</v>
       </c>
       <c r="D19" t="n">
-        <v>481967.6442394257</v>
+        <v>415458.5317673683</v>
       </c>
       <c r="E19" t="n">
-        <v>451463.1445537806</v>
+        <v>470552.8223540783</v>
       </c>
       <c r="F19" t="n">
         <v>441334.4561095333</v>
@@ -9529,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>447628.4681139401</v>
+        <v>447628.2018755316</v>
       </c>
       <c r="C20" t="n">
-        <v>452520.2726220423</v>
+        <v>440932.169700293</v>
       </c>
       <c r="D20" t="n">
-        <v>464951.0159723759</v>
+        <v>425816.4902299047</v>
       </c>
       <c r="E20" t="n">
-        <v>448409.0037591457</v>
+        <v>470796.6373286843</v>
       </c>
       <c r="F20" t="n">
         <v>414458.0070360376</v>
@@ -9549,16 +9616,16 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>473140.9351429828</v>
+        <v>473140.6158192882</v>
       </c>
       <c r="C21" t="n">
-        <v>468966.9698242272</v>
+        <v>449758.9006167861</v>
       </c>
       <c r="D21" t="n">
-        <v>480326.7200359702</v>
+        <v>418350.7455685139</v>
       </c>
       <c r="E21" t="n">
-        <v>446532.0871411562</v>
+        <v>468479.9861633778</v>
       </c>
       <c r="F21" t="n">
         <v>440104.6986493482</v>
@@ -9569,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>507723.778138442</v>
+        <v>507723.3940432699</v>
       </c>
       <c r="C22" t="n">
-        <v>485330.9567072619</v>
+        <v>472980.8637337016</v>
       </c>
       <c r="D22" t="n">
-        <v>479370.5542955399</v>
+        <v>440807.3598950505</v>
       </c>
       <c r="E22" t="n">
-        <v>453538.9319830537</v>
+        <v>457012.0775408149</v>
       </c>
       <c r="F22" t="n">
         <v>465650.7135399835</v>
@@ -9589,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>515426.1416536451</v>
+        <v>515425.7440322334</v>
       </c>
       <c r="C23" t="n">
-        <v>493173.224725248</v>
+        <v>473055.911632936</v>
       </c>
       <c r="D23" t="n">
-        <v>491194.6383010149</v>
+        <v>426857.5307471156</v>
       </c>
       <c r="E23" t="n">
-        <v>455242.8633521795</v>
+        <v>471442.3185484409</v>
       </c>
       <c r="F23" t="n">
         <v>471677.2423470335</v>
@@ -9609,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>474164.1330657103</v>
+        <v>474163.8236882363</v>
       </c>
       <c r="C24" t="n">
-        <v>473199.7367229689</v>
+        <v>454460.3741057229</v>
       </c>
       <c r="D24" t="n">
-        <v>486088.8888991475</v>
+        <v>432176.6226963997</v>
       </c>
       <c r="E24" t="n">
-        <v>458204.0579103231</v>
+        <v>464258.7549631</v>
       </c>
       <c r="F24" t="n">
         <v>425373.3255308414</v>
@@ -9629,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>446258.108050049</v>
+        <v>446257.8773632196</v>
       </c>
       <c r="C25" t="n">
-        <v>455891.1027727953</v>
+        <v>439554.477186254</v>
       </c>
       <c r="D25" t="n">
-        <v>473763.4854643345</v>
+        <v>428282.6234067678</v>
       </c>
       <c r="E25" t="n">
-        <v>460158.4889872074</v>
+        <v>469441.7343671322</v>
       </c>
       <c r="F25" t="n">
         <v>374720.4685252238</v>
@@ -9649,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>490551.2391763288</v>
+        <v>490550.8862705639</v>
       </c>
       <c r="C26" t="n">
-        <v>481360.3006822725</v>
+        <v>460293.8438879285</v>
       </c>
       <c r="D26" t="n">
-        <v>492608.8504907489</v>
+        <v>424203.3361147046</v>
       </c>
       <c r="E26" t="n">
-        <v>453159.9645046592</v>
+        <v>476705.9058783054</v>
       </c>
       <c r="F26" t="n">
         <v>429511.1333435799</v>
@@ -9669,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>487185.6381555236</v>
+        <v>487185.296419327</v>
       </c>
       <c r="C27" t="n">
-        <v>478428.4986497134</v>
+        <v>459907.801658133</v>
       </c>
       <c r="D27" t="n">
-        <v>488814.4821707606</v>
+        <v>429857.3047492504</v>
       </c>
       <c r="E27" t="n">
-        <v>454293.6668016315</v>
+        <v>471853.7852082253</v>
       </c>
       <c r="F27" t="n">
         <v>417282.9820707724</v>
@@ -9689,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>503286.5143406903</v>
+        <v>503286.140930686</v>
       </c>
       <c r="C28" t="n">
-        <v>490649.4498668301</v>
+        <v>470057.1481329399</v>
       </c>
       <c r="D28" t="n">
-        <v>501379.0426012278</v>
+        <v>441454.1078275442</v>
       </c>
       <c r="E28" t="n">
-        <v>458218.0674042702</v>
+        <v>458538.7568101287</v>
       </c>
       <c r="F28" t="n">
         <v>428537.6857905939</v>
@@ -9709,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>458470.186582376</v>
+        <v>458469.9076146295</v>
       </c>
       <c r="C29" t="n">
-        <v>463468.6979309929</v>
+        <v>451269.0264563189</v>
       </c>
       <c r="D29" t="n">
-        <v>480643.3559334278</v>
+        <v>442904.0548939705</v>
       </c>
       <c r="E29" t="n">
-        <v>460239.3813697696</v>
+        <v>473565.1480094194</v>
       </c>
       <c r="F29" t="n">
         <v>378264.880861424</v>
@@ -9729,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>439317.1746154704</v>
+        <v>439316.9334245569</v>
       </c>
       <c r="C30" t="n">
-        <v>457657.1913243477</v>
+        <v>442427.3948171696</v>
       </c>
       <c r="D30" t="n">
-        <v>489028.4647458196</v>
+        <v>446492.6543269753</v>
       </c>
       <c r="E30" t="n">
-        <v>459645.8268457651</v>
+        <v>464329.0157753825</v>
       </c>
       <c r="F30" t="n">
         <v>360676.7430742009</v>
@@ -9749,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>486907.7155140258</v>
+        <v>486907.3334628313</v>
       </c>
       <c r="C31" t="n">
-        <v>478811.7574381991</v>
+        <v>465295.9172221851</v>
       </c>
       <c r="D31" t="n">
-        <v>482094.6897264123</v>
+        <v>438872.2007616162</v>
       </c>
       <c r="E31" t="n">
-        <v>464808.9298357964</v>
+        <v>481185.8860315084</v>
       </c>
       <c r="F31" t="n">
         <v>435347.2692835885</v>
@@ -9769,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>452136.1649643568</v>
+        <v>452135.850132654</v>
       </c>
       <c r="C32" t="n">
-        <v>462812.6399777362</v>
+        <v>446356.084695762</v>
       </c>
       <c r="D32" t="n">
-        <v>477509.6739256978</v>
+        <v>434046.6767957807</v>
       </c>
       <c r="E32" t="n">
-        <v>471440.3984655142</v>
+        <v>477201.5717301369</v>
       </c>
       <c r="F32" t="n">
         <v>398687.2500553382</v>
@@ -9789,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>476716.8267213682</v>
+        <v>476716.4532965361</v>
       </c>
       <c r="C33" t="n">
-        <v>480739.4312452644</v>
+        <v>462420.9528311667</v>
       </c>
       <c r="D33" t="n">
-        <v>497507.0531510711</v>
+        <v>446127.9807992578</v>
       </c>
       <c r="E33" t="n">
-        <v>470689.823826611</v>
+        <v>474498.6638827324</v>
       </c>
       <c r="F33" t="n">
         <v>425420.4798361226</v>
@@ -9809,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>510033.0281183593</v>
+        <v>510032.5815913674</v>
       </c>
       <c r="C34" t="n">
-        <v>492500.8402464762</v>
+        <v>481418.042082738</v>
       </c>
       <c r="D34" t="n">
-        <v>487250.5390698314</v>
+        <v>455435.8672434092</v>
       </c>
       <c r="E34" t="n">
-        <v>472052.2648915052</v>
+        <v>471692.6760278344</v>
       </c>
       <c r="F34" t="n">
         <v>458424.9555405931</v>
@@ -9829,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>517457.6553442726</v>
+        <v>517457.1941383206</v>
       </c>
       <c r="C35" t="n">
-        <v>494609.9922093107</v>
+        <v>483255.9781872396</v>
       </c>
       <c r="D35" t="n">
-        <v>487541.6094186902</v>
+        <v>448327.0446638465</v>
       </c>
       <c r="E35" t="n">
-        <v>465809.4708260894</v>
+        <v>480429.8356005549</v>
       </c>
       <c r="F35" t="n">
         <v>463919.1844587934</v>
@@ -9849,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>477719.9916859749</v>
+        <v>477719.6304602945</v>
       </c>
       <c r="C36" t="n">
-        <v>477479.1700103752</v>
+        <v>461934.0691778677</v>
       </c>
       <c r="D36" t="n">
-        <v>490880.7047424912</v>
+        <v>442581.7654190063</v>
       </c>
       <c r="E36" t="n">
-        <v>465297.697611928</v>
+        <v>480172.8645021915</v>
       </c>
       <c r="F36" t="n">
         <v>417689.7864063014</v>
@@ -9869,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>450845.9643390631</v>
+        <v>450845.6892198427</v>
       </c>
       <c r="C37" t="n">
-        <v>465936.2363008126</v>
+        <v>448246.5235246449</v>
       </c>
       <c r="D37" t="n">
-        <v>488275.4722247124</v>
+        <v>443523.4594233036</v>
       </c>
       <c r="E37" t="n">
-        <v>477884.2678818703</v>
+        <v>478487.3872634172</v>
       </c>
       <c r="F37" t="n">
         <v>362256.818111221</v>
@@ -9889,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>493512.3307250073</v>
+        <v>493511.9234072923</v>
       </c>
       <c r="C38" t="n">
-        <v>487012.9212701161</v>
+        <v>471857.4672598452</v>
       </c>
       <c r="D38" t="n">
-        <v>494584.3669227362</v>
+        <v>452098.6920025349</v>
       </c>
       <c r="E38" t="n">
-        <v>473973.6278735399</v>
+        <v>475766.8430987597</v>
       </c>
       <c r="F38" t="n">
         <v>416534.2175314415</v>
@@ -9909,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>490274.1904246107</v>
+        <v>490273.7956117464</v>
       </c>
       <c r="C39" t="n">
-        <v>488720.5645072295</v>
+        <v>468508.0255584176</v>
       </c>
       <c r="D39" t="n">
-        <v>504049.8068381548</v>
+        <v>451338.4813919067</v>
       </c>
       <c r="E39" t="n">
-        <v>474938.0428591371</v>
+        <v>466845.1777796149</v>
       </c>
       <c r="F39" t="n">
         <v>405453.6658581941</v>

--- a/fcst_results/orig_series_HOU-Dom_results.xlsx
+++ b/fcst_results/orig_series_HOU-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>392312.1454279423</v>
+        <v>454476.0035654902</v>
       </c>
       <c r="C2" t="n">
-        <v>440640.3126804233</v>
+        <v>411331.7046443224</v>
       </c>
       <c r="D2" t="n">
         <v>484997.5861146463</v>
@@ -491,7 +491,7 @@
         <v>448622.8529024446</v>
       </c>
       <c r="F2" t="n">
-        <v>441255.728386006</v>
+        <v>455532.2010083966</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>404159.9104561806</v>
+        <v>459391.8425430655</v>
       </c>
       <c r="C3" t="n">
-        <v>430782.5358203053</v>
+        <v>402758.0721341968</v>
       </c>
       <c r="D3" t="n">
         <v>481278.4583109817</v>
@@ -511,7 +511,7 @@
         <v>437166.8745786949</v>
       </c>
       <c r="F3" t="n">
-        <v>442491.1864500008</v>
+        <v>453345.2223194674</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>406302.758559525</v>
+        <v>460078.912217021</v>
       </c>
       <c r="C4" t="n">
-        <v>440520.8764109612</v>
+        <v>392082.8733036518</v>
       </c>
       <c r="D4" t="n">
         <v>498553.1854037594</v>
@@ -531,7 +531,7 @@
         <v>448823.5974462835</v>
       </c>
       <c r="F4" t="n">
-        <v>452597.1842219308</v>
+        <v>458002.9999979204</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>407962.3146787882</v>
+        <v>450278.8800730705</v>
       </c>
       <c r="C5" t="n">
-        <v>438662.0227953196</v>
+        <v>396314.6649600267</v>
       </c>
       <c r="D5" t="n">
         <v>450174.0992992357</v>
@@ -551,7 +551,7 @@
         <v>400453.0554511767</v>
       </c>
       <c r="F5" t="n">
-        <v>430127.6972118648</v>
+        <v>435534.97033308</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>407450.5059075356</v>
+        <v>455963.214463532</v>
       </c>
       <c r="C6" t="n">
-        <v>444448.4771518111</v>
+        <v>413379.4375286102</v>
       </c>
       <c r="D6" t="n">
         <v>429466.1266237666</v>
@@ -571,7 +571,7 @@
         <v>382623.6229867304</v>
       </c>
       <c r="F6" t="n">
-        <v>421039.2791489892</v>
+        <v>433080.8795034536</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>407213.3045518994</v>
+        <v>458612.7866740823</v>
       </c>
       <c r="C7" t="n">
-        <v>442205.535836637</v>
+        <v>405648.0813956857</v>
       </c>
       <c r="D7" t="n">
         <v>480709.0600438222</v>
@@ -591,7 +591,7 @@
         <v>453190.8828687236</v>
       </c>
       <c r="F7" t="n">
-        <v>445623.2270671106</v>
+        <v>454110.7043347008</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>418618.0993375182</v>
+        <v>459381.9221146107</v>
       </c>
       <c r="C8" t="n">
-        <v>458130.3125030994</v>
+        <v>412199.653241396</v>
       </c>
       <c r="D8" t="n">
         <v>443179.5875215636</v>
@@ -611,7 +611,7 @@
         <v>423028.2202574082</v>
       </c>
       <c r="F8" t="n">
-        <v>434803.1979740066</v>
+        <v>440599.6335062976</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>406266.9525686502</v>
+        <v>464256.0881812572</v>
       </c>
       <c r="C9" t="n">
-        <v>445998.5174300671</v>
+        <v>406288.144595027</v>
       </c>
       <c r="D9" t="n">
         <v>469632.2251447989</v>
@@ -631,7 +631,7 @@
         <v>449130.3793805084</v>
       </c>
       <c r="F9" t="n">
-        <v>440809.0310292782</v>
+        <v>451841.0789958818</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>420700.0737006664</v>
+        <v>463621.3941026926</v>
       </c>
       <c r="C10" t="n">
-        <v>452070.708571732</v>
+        <v>412542.3524867296</v>
       </c>
       <c r="D10" t="n">
         <v>505506.0651705859</v>
@@ -651,7 +651,7 @@
         <v>477175.0438679613</v>
       </c>
       <c r="F10" t="n">
-        <v>463931.7040136857</v>
+        <v>467773.3962270193</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>411921.8812446594</v>
+        <v>471884.470977962</v>
       </c>
       <c r="C11" t="n">
-        <v>447482.9548749924</v>
+        <v>400258.5508486629</v>
       </c>
       <c r="D11" t="n">
         <v>513475.5858133886</v>
@@ -671,7 +671,7 @@
         <v>482983.8480840219</v>
       </c>
       <c r="F11" t="n">
-        <v>463553.8391750766</v>
+        <v>470898.4012321163</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>408483.9016501307</v>
+        <v>475158.3190393448</v>
       </c>
       <c r="C12" t="n">
-        <v>462804.7543882728</v>
+        <v>432083.5697886348</v>
       </c>
       <c r="D12" t="n">
         <v>470612.3468794461</v>
@@ -691,7 +691,7 @@
         <v>436656.1487096669</v>
       </c>
       <c r="F12" t="n">
-        <v>443894.0843880285</v>
+        <v>461732.5963180998</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>417738.7724712491</v>
+        <v>476611.7507007122</v>
       </c>
       <c r="C13" t="n">
-        <v>464189.4541922808</v>
+        <v>404268.857383728</v>
       </c>
       <c r="D13" t="n">
         <v>441618.4522888935</v>
@@ -711,7 +711,7 @@
         <v>384382.7385923929</v>
       </c>
       <c r="F13" t="n">
-        <v>433083.8388976704</v>
+        <v>442679.7142585574</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>414081.3345096111</v>
+        <v>471002.1217589378</v>
       </c>
       <c r="C14" t="n">
-        <v>454683.0525077581</v>
+        <v>421358.4843590856</v>
       </c>
       <c r="D14" t="n">
         <v>487585.86625049</v>
@@ -731,7 +731,7 @@
         <v>439071.3945341054</v>
       </c>
       <c r="F14" t="n">
-        <v>452430.7117868712</v>
+        <v>464278.7774571229</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>419943.9165984392</v>
+        <v>481147.0576878786</v>
       </c>
       <c r="C15" t="n">
-        <v>457147.1944875121</v>
+        <v>420781.8194534183</v>
       </c>
       <c r="D15" t="n">
         <v>484075.099318068</v>
@@ -751,7 +751,7 @@
         <v>427232.6438331051</v>
       </c>
       <c r="F15" t="n">
-        <v>453073.0277227507</v>
+        <v>465878.2123044098</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>423026.0408238769</v>
+        <v>477453.4581644535</v>
       </c>
       <c r="C16" t="n">
-        <v>458185.7815654278</v>
+        <v>410381.4413810372</v>
       </c>
       <c r="D16" t="n">
         <v>500776.8286870691</v>
@@ -771,7 +771,7 @@
         <v>438701.0358348383</v>
       </c>
       <c r="F16" t="n">
-        <v>462108.743392584</v>
+        <v>468871.5835179252</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>432451.0167694688</v>
+        <v>479887.1277170181</v>
       </c>
       <c r="C17" t="n">
-        <v>460793.2897370458</v>
+        <v>421967.399546504</v>
       </c>
       <c r="D17" t="n">
         <v>454234.5955684311</v>
@@ -791,7 +791,7 @@
         <v>389365.2311649311</v>
       </c>
       <c r="F17" t="n">
-        <v>444043.7791392765</v>
+        <v>453043.3052228018</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>429276.3729926348</v>
+        <v>483900.847732842</v>
       </c>
       <c r="C18" t="n">
-        <v>462387.349694252</v>
+        <v>428378.4497676492</v>
       </c>
       <c r="D18" t="n">
         <v>434338.1314260365</v>
@@ -811,7 +811,7 @@
         <v>371642.7573115207</v>
       </c>
       <c r="F18" t="n">
-        <v>433699.0932034573</v>
+        <v>447766.0860681516</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>415458.5317673683</v>
+        <v>481170.8453819156</v>
       </c>
       <c r="C19" t="n">
-        <v>470552.8223540783</v>
+        <v>417055.8274198771</v>
       </c>
       <c r="D19" t="n">
         <v>483737.6906074809</v>
@@ -831,7 +831,7 @@
         <v>441334.4561095333</v>
       </c>
       <c r="F19" t="n">
-        <v>453548.3012956394</v>
+        <v>465350.4173933667</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>425816.4902299047</v>
+        <v>486595.8263489008</v>
       </c>
       <c r="C20" t="n">
-        <v>470796.6373286843</v>
+        <v>415080.7732300758</v>
       </c>
       <c r="D20" t="n">
         <v>447628.2018755316</v>
@@ -851,7 +851,7 @@
         <v>414458.0070360376</v>
       </c>
       <c r="F20" t="n">
-        <v>440932.169700293</v>
+        <v>452044.1380817267</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>418350.7455685139</v>
+        <v>481452.1019735932</v>
       </c>
       <c r="C21" t="n">
-        <v>468479.9861633778</v>
+        <v>427774.6548013687</v>
       </c>
       <c r="D21" t="n">
         <v>473140.6158192882</v>
@@ -871,7 +871,7 @@
         <v>440104.6986493482</v>
       </c>
       <c r="F21" t="n">
-        <v>449758.9006167861</v>
+        <v>463942.6802927791</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>440807.3598950505</v>
+        <v>477589.961837709</v>
       </c>
       <c r="C22" t="n">
-        <v>457012.0775408149</v>
+        <v>430267.455796659</v>
       </c>
       <c r="D22" t="n">
         <v>507723.3940432699</v>
@@ -891,7 +891,7 @@
         <v>465650.7135399835</v>
       </c>
       <c r="F22" t="n">
-        <v>472980.8637337016</v>
+        <v>477282.5214727836</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>426857.5307471156</v>
+        <v>480797.3892526627</v>
       </c>
       <c r="C23" t="n">
-        <v>471442.3185484409</v>
+        <v>419350.3265173435</v>
       </c>
       <c r="D23" t="n">
         <v>515425.7440322334</v>
@@ -911,7 +911,7 @@
         <v>471677.2423470335</v>
       </c>
       <c r="F23" t="n">
-        <v>473055.911632936</v>
+        <v>478904.3595286905</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>432176.6226963997</v>
+        <v>491067.1305718422</v>
       </c>
       <c r="C24" t="n">
-        <v>464258.7549631</v>
+        <v>435722.0558206439</v>
       </c>
       <c r="D24" t="n">
         <v>474163.8236882363</v>
@@ -931,7 +931,7 @@
         <v>425373.3255308414</v>
       </c>
       <c r="F24" t="n">
-        <v>454460.3741057229</v>
+        <v>469037.9157426278</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>428282.6234067678</v>
+        <v>477456.3738459349</v>
       </c>
       <c r="C25" t="n">
-        <v>469441.7343671322</v>
+        <v>435439.0924885869</v>
       </c>
       <c r="D25" t="n">
         <v>446257.8773632196</v>
@@ -951,7 +951,7 @@
         <v>374720.4685252238</v>
       </c>
       <c r="F25" t="n">
-        <v>439554.477186254</v>
+        <v>451899.4824891974</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>424203.3361147046</v>
+        <v>490185.7413942814</v>
       </c>
       <c r="C26" t="n">
-        <v>476705.9058783054</v>
+        <v>433685.310077548</v>
       </c>
       <c r="D26" t="n">
         <v>490550.8862705639</v>
@@ -971,7 +971,7 @@
         <v>429511.1333435799</v>
       </c>
       <c r="F26" t="n">
-        <v>460293.8438879285</v>
+        <v>474635.1044517946</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>429857.3047492504</v>
+        <v>490657.4062095284</v>
       </c>
       <c r="C27" t="n">
-        <v>471853.7852082253</v>
+        <v>449062.9697811604</v>
       </c>
       <c r="D27" t="n">
         <v>487185.296419327</v>
@@ -991,7 +991,7 @@
         <v>417282.9820707724</v>
       </c>
       <c r="F27" t="n">
-        <v>459907.801658133</v>
+        <v>476788.5740509802</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>441454.1078275442</v>
+        <v>488175.4145699739</v>
       </c>
       <c r="C28" t="n">
-        <v>458538.7568101287</v>
+        <v>435416.1581647396</v>
       </c>
       <c r="D28" t="n">
         <v>503286.140930686</v>
@@ -1011,7 +1011,7 @@
         <v>428537.6857905939</v>
       </c>
       <c r="F28" t="n">
-        <v>470057.1481329399</v>
+        <v>479181.1935691689</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>442904.0548939705</v>
+        <v>485222.9314991832</v>
       </c>
       <c r="C29" t="n">
-        <v>473565.1480094194</v>
+        <v>443612.9921790361</v>
       </c>
       <c r="D29" t="n">
         <v>458469.9076146295</v>
@@ -1031,7 +1031,7 @@
         <v>378264.880861424</v>
       </c>
       <c r="F29" t="n">
-        <v>451269.0264563189</v>
+        <v>461312.2375777212</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>446492.6543269753</v>
+        <v>480343.0407408476</v>
       </c>
       <c r="C30" t="n">
-        <v>464329.0157753825</v>
+        <v>433429.2634635568</v>
       </c>
       <c r="D30" t="n">
         <v>439316.9334245569</v>
@@ -1051,7 +1051,7 @@
         <v>360676.7430742009</v>
       </c>
       <c r="F30" t="n">
-        <v>442427.3948171696</v>
+        <v>449275.7995845338</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>438872.2007616162</v>
+        <v>487614.6081269979</v>
       </c>
       <c r="C31" t="n">
-        <v>481185.8860315084</v>
+        <v>437624.6091014147</v>
       </c>
       <c r="D31" t="n">
         <v>486907.3334628313</v>
@@ -1071,7 +1071,7 @@
         <v>435347.2692835885</v>
       </c>
       <c r="F31" t="n">
-        <v>465295.9172221851</v>
+        <v>473512.1514549725</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>434046.6767957807</v>
+        <v>481221.6209082007</v>
       </c>
       <c r="C32" t="n">
-        <v>477201.5717301369</v>
+        <v>447548.2021374106</v>
       </c>
       <c r="D32" t="n">
         <v>452135.850132654</v>
@@ -1091,7 +1091,7 @@
         <v>398687.2500553382</v>
       </c>
       <c r="F32" t="n">
-        <v>446356.084695762</v>
+        <v>459176.6555417894</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>446127.9807992578</v>
+        <v>486581.5323982239</v>
       </c>
       <c r="C33" t="n">
-        <v>474498.6638827324</v>
+        <v>437082.7901451588</v>
       </c>
       <c r="D33" t="n">
         <v>476716.4532965361</v>
@@ -1111,7 +1111,7 @@
         <v>425420.4798361226</v>
       </c>
       <c r="F33" t="n">
-        <v>462420.9528311667</v>
+        <v>468798.1931046927</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>455435.8672434092</v>
+        <v>487994.1445188522</v>
       </c>
       <c r="C34" t="n">
-        <v>471692.6760278344</v>
+        <v>454917.9782095551</v>
       </c>
       <c r="D34" t="n">
         <v>510032.5815913674</v>
@@ -1131,7 +1131,7 @@
         <v>458424.9555405931</v>
       </c>
       <c r="F34" t="n">
-        <v>481418.042082738</v>
+        <v>487416.0400516829</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>448327.0446638465</v>
+        <v>484070.8461860418</v>
       </c>
       <c r="C35" t="n">
-        <v>480429.8356005549</v>
+        <v>457588.1379759312</v>
       </c>
       <c r="D35" t="n">
         <v>517457.1941383206</v>
@@ -1151,7 +1151,7 @@
         <v>463919.1844587934</v>
       </c>
       <c r="F35" t="n">
-        <v>483255.9781872396</v>
+        <v>489730.3493487909</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>442581.7654190063</v>
+        <v>490275.131921649</v>
       </c>
       <c r="C36" t="n">
-        <v>480172.8645021915</v>
+        <v>465353.4511309862</v>
       </c>
       <c r="D36" t="n">
         <v>477719.6304602945</v>
@@ -1171,7 +1171,7 @@
         <v>417689.7864063014</v>
       </c>
       <c r="F36" t="n">
-        <v>461934.0691778677</v>
+        <v>476980.6575876327</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>443523.4594233036</v>
+        <v>489302.8588188887</v>
       </c>
       <c r="C37" t="n">
-        <v>478487.3872634172</v>
+        <v>458227.7033759952</v>
       </c>
       <c r="D37" t="n">
         <v>450845.6892198427</v>
@@ -1191,7 +1191,7 @@
         <v>362256.818111221</v>
       </c>
       <c r="F37" t="n">
-        <v>448246.5235246449</v>
+        <v>462768.0078922451</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>452098.6920025349</v>
+        <v>493729.0766501427</v>
       </c>
       <c r="C38" t="n">
-        <v>475766.8430987597</v>
+        <v>451432.0676560402</v>
       </c>
       <c r="D38" t="n">
         <v>493511.9234072923</v>
@@ -1211,7 +1211,7 @@
         <v>416534.2175314415</v>
       </c>
       <c r="F38" t="n">
-        <v>471857.4672598452</v>
+        <v>480799.6419462101</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>451338.4813919067</v>
+        <v>500829.258856535</v>
       </c>
       <c r="C39" t="n">
-        <v>466845.1777796149</v>
+        <v>456600.824223578</v>
       </c>
       <c r="D39" t="n">
         <v>490273.7956117464</v>
@@ -1231,7 +1231,7 @@
         <v>405453.6658581941</v>
       </c>
       <c r="F39" t="n">
-        <v>468508.0255584176</v>
+        <v>482864.5163566919</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>79800.43665893401</v>
+        <v>99460.84013560547</v>
       </c>
       <c r="S2" t="n">
         <v>45176.65628268386</v>
@@ -1545,19 +1545,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>154159.3078663517</v>
+        <v>153775.965079765</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5804343382696457</v>
+        <v>0.5813268560337228</v>
       </c>
       <c r="M3" t="n">
-        <v>101651.0083887513</v>
+        <v>103266.7008761863</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4074296897270786</v>
+        <v>-0.4004387760609842</v>
       </c>
       <c r="O3" t="n">
-        <v>583956.6013503204</v>
+        <v>581299.6718622127</v>
       </c>
       <c r="P3" t="n">
         <v>438059</v>
@@ -1566,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>102434.6463644773</v>
+        <v>130338.0545116771</v>
       </c>
       <c r="S3" t="n">
-        <v>59422.93479499395</v>
+        <v>66113.42145731594</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1659904017425735</v>
+        <v>0.1837376460510624</v>
       </c>
       <c r="U3" t="n">
-        <v>36358.4896671053</v>
+        <v>37965.61639800289</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6507047661000358</v>
+        <v>0.5676218571618807</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1591,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.43327115914387865, 0.39144315280368436, 0.13589740085753893, 0.03938828719489806)</t>
+          <t>(0.38118571638596094, 0.3436805224318947, 0.24048051423796601, 0.03465324694417827)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>154159.3078663517</v>
+        <v>153775.965079765</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5804343382696457</v>
+        <v>0.5813268560337228</v>
       </c>
       <c r="AE3" t="n">
-        <v>101651.0083887513</v>
+        <v>103266.7008761863</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.4074296897270786</v>
+        <v>-0.4004387760609842</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>159004.3530046466</v>
+        <v>158429.6283583001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5884172795305684</v>
+        <v>0.5886854973386253</v>
       </c>
       <c r="M4" t="n">
-        <v>131377.9694381018</v>
+        <v>127664.8657145935</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4972876163372337</v>
+        <v>-0.4864832216032327</v>
       </c>
       <c r="O4" t="n">
-        <v>560117.4333398342</v>
+        <v>575817.5922379494</v>
       </c>
       <c r="P4" t="n">
         <v>438059</v>
@@ -1669,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>208015.7936498802</v>
+        <v>255051.1262512491</v>
       </c>
       <c r="S4" t="n">
-        <v>92306.3727721047</v>
+        <v>98616.40865730117</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2501740719295275</v>
+        <v>0.2680301089496299</v>
       </c>
       <c r="U4" t="n">
-        <v>61146.93219313306</v>
+        <v>56765.87319924275</v>
       </c>
       <c r="V4" t="n">
-        <v>0.157154763567227</v>
+        <v>0.03798281309029516</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1692,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>159004.3530046466</v>
+        <v>158429.6283583001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5884172795305684</v>
+        <v>0.5886854973386253</v>
       </c>
       <c r="AE4" t="n">
-        <v>131377.9694381018</v>
+        <v>127664.8657145935</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4972876163372337</v>
+        <v>-0.4864832216032327</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>185038.5729634235</v>
+        <v>166212.2780406569</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6738895906944083</v>
+        <v>0.6279192342693274</v>
       </c>
       <c r="M5" t="n">
-        <v>124770.6267939806</v>
+        <v>124089.0158180578</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.027737559243699</v>
+        <v>-0.6361134251808471</v>
       </c>
       <c r="O5" t="n">
-        <v>688480.7999551296</v>
+        <v>602367.1817569733</v>
       </c>
       <c r="P5" t="n">
         <v>438059</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>229813.1210748001</v>
+        <v>170186.4137301759</v>
       </c>
       <c r="S5" t="n">
-        <v>106230.0574621937</v>
+        <v>97758.54794381728</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2856281858161655</v>
+        <v>0.2615456276488157</v>
       </c>
       <c r="U5" t="n">
-        <v>59371.21068654532</v>
+        <v>54232.5297330795</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1162958199033541</v>
+        <v>0.05464712351573053</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>185038.5729634235</v>
+        <v>166212.2780406569</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6738895906944083</v>
+        <v>0.6279192342693274</v>
       </c>
       <c r="AE5" t="n">
-        <v>124770.6267939806</v>
+        <v>124089.0158180578</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.027737559243699</v>
+        <v>-0.6361134251808471</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>157688.6254069238</v>
+        <v>131694.9603173206</v>
       </c>
       <c r="S6" t="n">
         <v>70443.24900339045</v>
@@ -5731,13 +5731,13 @@
         <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>477060.1017590714</v>
+        <v>475998.2319823609</v>
       </c>
       <c r="E2" t="n">
-        <v>410999.7550657988</v>
+        <v>430164.8922723532</v>
       </c>
       <c r="F2" t="n">
-        <v>442003.1485631466</v>
+        <v>427631.6051721573</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -5754,13 +5754,13 @@
         <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>466011.1650067765</v>
+        <v>444341.5152423562</v>
       </c>
       <c r="E3" t="n">
-        <v>407634.0962594151</v>
+        <v>387754.5286051631</v>
       </c>
       <c r="F3" t="n">
-        <v>518524.3359093666</v>
+        <v>430248.9710631371</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -5777,13 +5777,13 @@
         <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>482225.5528100593</v>
+        <v>470909.167077813</v>
       </c>
       <c r="E4" t="n">
-        <v>423094.9915953875</v>
+        <v>422261.5275515318</v>
       </c>
       <c r="F4" t="n">
-        <v>475217.267048955</v>
+        <v>432701.4875952005</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -5800,13 +5800,13 @@
         <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>469840.9866840938</v>
+        <v>462122.0611445564</v>
       </c>
       <c r="E5" t="n">
-        <v>417100.9706988335</v>
+        <v>409145.7667532563</v>
       </c>
       <c r="F5" t="n">
-        <v>460894.2650632858</v>
+        <v>444509.3664956093</v>
       </c>
       <c r="G5" t="n">
         <v>510856.6175063986</v>
@@ -5823,13 +5823,13 @@
         <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>475093.7801094857</v>
+        <v>468709.9342783455</v>
       </c>
       <c r="E6" t="n">
-        <v>414437.5809807777</v>
+        <v>414586.2637422085</v>
       </c>
       <c r="F6" t="n">
-        <v>466293.8045912981</v>
+        <v>443782.0152537823</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -5846,13 +5846,13 @@
         <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>444172.3743958988</v>
+        <v>449128.0554013457</v>
       </c>
       <c r="E7" t="n">
-        <v>388890.8926827312</v>
+        <v>416685.1333534718</v>
       </c>
       <c r="F7" t="n">
-        <v>465358.2433867455</v>
+        <v>435428.7738652229</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -5869,13 +5869,13 @@
         <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>446787.9542943519</v>
+        <v>449540.7793706873</v>
       </c>
       <c r="E8" t="n">
-        <v>418203.3786797523</v>
+        <v>419977.9592454433</v>
       </c>
       <c r="F8" t="n">
-        <v>447584.4738855362</v>
+        <v>456011.1619782448</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -5892,13 +5892,13 @@
         <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>470353.2317524981</v>
+        <v>470510.7883005622</v>
       </c>
       <c r="E9" t="n">
-        <v>390466.6261799932</v>
+        <v>414517.3528401852</v>
       </c>
       <c r="F9" t="n">
-        <v>470638.3956092596</v>
+        <v>436543.936188817</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -5915,13 +5915,13 @@
         <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>465633.5996192737</v>
+        <v>465956.2052931979</v>
       </c>
       <c r="E10" t="n">
-        <v>400763.625230968</v>
+        <v>413011.9658887386</v>
       </c>
       <c r="F10" t="n">
-        <v>461023.9515525103</v>
+        <v>446988.3904217482</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -5938,13 +5938,13 @@
         <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>475744.2660663655</v>
+        <v>471049.861504557</v>
       </c>
       <c r="E11" t="n">
-        <v>404710.2516284585</v>
+        <v>410817.646771729</v>
       </c>
       <c r="F11" t="n">
-        <v>459143.6535069942</v>
+        <v>439033.2176858187</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -5961,13 +5961,13 @@
         <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>486436.7094280681</v>
+        <v>479313.0275852224</v>
       </c>
       <c r="E12" t="n">
-        <v>401306.8395516276</v>
+        <v>416812.9056509733</v>
       </c>
       <c r="F12" t="n">
-        <v>463365.3409324884</v>
+        <v>422933.4296526909</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -5984,13 +5984,13 @@
         <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>498318.0225823108</v>
+        <v>489616.3423922543</v>
       </c>
       <c r="E13" t="n">
-        <v>419675.1840503216</v>
+        <v>426153.1417434216</v>
       </c>
       <c r="F13" t="n">
-        <v>465561.6678701639</v>
+        <v>436359.2374939919</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -6007,13 +6007,13 @@
         <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>487834.8060654635</v>
+        <v>471721.0923426352</v>
       </c>
       <c r="E14" t="n">
-        <v>432958.4886404276</v>
+        <v>427735.8453953266</v>
       </c>
       <c r="F14" t="n">
-        <v>460302.7590144873</v>
+        <v>414443.177910924</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -6030,13 +6030,13 @@
         <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>453277.6190914157</v>
+        <v>457573.2632669304</v>
       </c>
       <c r="E15" t="n">
-        <v>381249.5329539776</v>
+        <v>417993.1088802814</v>
       </c>
       <c r="F15" t="n">
-        <v>490990.8934576511</v>
+        <v>437167.3593039513</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -6053,13 +6053,13 @@
         <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>477559.5084286674</v>
+        <v>468150.6444004682</v>
       </c>
       <c r="E16" t="n">
-        <v>411202.8986623883</v>
+        <v>406811.2851086259</v>
       </c>
       <c r="F16" t="n">
-        <v>452454.9890793562</v>
+        <v>432034.4958119392</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -6076,13 +6076,13 @@
         <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>476425.3463259205</v>
+        <v>471903.1283181355</v>
       </c>
       <c r="E17" t="n">
-        <v>420163.4901975393</v>
+        <v>433464.4386417866</v>
       </c>
       <c r="F17" t="n">
-        <v>469137.5652663708</v>
+        <v>434823.1402492523</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -6099,13 +6099,13 @@
         <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>476888.4051216358</v>
+        <v>476561.0900224572</v>
       </c>
       <c r="E18" t="n">
-        <v>398175.180280149</v>
+        <v>404562.8588657975</v>
       </c>
       <c r="F18" t="n">
-        <v>492677.1715269089</v>
+        <v>474017.2560966015</v>
       </c>
       <c r="G18" t="n">
         <v>554486.7217144087</v>
@@ -6122,13 +6122,13 @@
         <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>456019.0525675584</v>
+        <v>457713.0207300737</v>
       </c>
       <c r="E19" t="n">
-        <v>400184.7798959017</v>
+        <v>429001.2925755978</v>
       </c>
       <c r="F19" t="n">
-        <v>472665.233353734</v>
+        <v>429992.5317915678</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -6145,13 +6145,13 @@
         <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>455534.2195880726</v>
+        <v>455837.2010427075</v>
       </c>
       <c r="E20" t="n">
-        <v>413510.7792840004</v>
+        <v>436854.576215148</v>
       </c>
       <c r="F20" t="n">
-        <v>476356.7312848568</v>
+        <v>433661.6628085375</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -6168,13 +6168,13 @@
         <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>484828.0358585927</v>
+        <v>479973.7940349779</v>
       </c>
       <c r="E21" t="n">
-        <v>409971.6052398682</v>
+        <v>429781.0344126225</v>
       </c>
       <c r="F21" t="n">
-        <v>481200.0732787848</v>
+        <v>434308.6388044357</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -6191,13 +6191,13 @@
         <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>480045.2134063584</v>
+        <v>478629.9458365957</v>
       </c>
       <c r="E22" t="n">
-        <v>418703.1283644438</v>
+        <v>419440.1962099075</v>
       </c>
       <c r="F22" t="n">
-        <v>469540.8771398067</v>
+        <v>467704.2309881449</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -6214,13 +6214,13 @@
         <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>491887.562253686</v>
+        <v>483306.2208643181</v>
       </c>
       <c r="E23" t="n">
-        <v>425066.192941308</v>
+        <v>415510.0068935156</v>
       </c>
       <c r="F23" t="n">
-        <v>476213.8951307535</v>
+        <v>461871.9800986052</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -6237,13 +6237,13 @@
         <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>506780.7871346781</v>
+        <v>485574.8160768364</v>
       </c>
       <c r="E24" t="n">
-        <v>437655.4573868513</v>
+        <v>409465.5199967027</v>
       </c>
       <c r="F24" t="n">
-        <v>470264.9201589823</v>
+        <v>440528.9920657873</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -6260,13 +6260,13 @@
         <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>504455.2993214444</v>
+        <v>499823.610380417</v>
       </c>
       <c r="E25" t="n">
-        <v>416928.2357022762</v>
+        <v>433528.2519680262</v>
       </c>
       <c r="F25" t="n">
-        <v>481460.8194817305</v>
+        <v>449782.3613055944</v>
       </c>
       <c r="G25" t="n">
         <v>620969.9780932692</v>
@@ -6283,13 +6283,13 @@
         <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>491130.1030099225</v>
+        <v>487575.4532326862</v>
       </c>
       <c r="E26" t="n">
-        <v>424796.4375534058</v>
+        <v>431793.2660419941</v>
       </c>
       <c r="F26" t="n">
-        <v>463229.4125137329</v>
+        <v>452283.1071465015</v>
       </c>
       <c r="G26" t="n">
         <v>586956.5220437354</v>
@@ -6306,13 +6306,13 @@
         <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>477086.8638745873</v>
+        <v>469175.7394148478</v>
       </c>
       <c r="E27" t="n">
-        <v>416309.7645179033</v>
+        <v>426976.5146678686</v>
       </c>
       <c r="F27" t="n">
-        <v>507954.7517957687</v>
+        <v>444113.8154212236</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -6329,13 +6329,13 @@
         <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>492049.100104167</v>
+        <v>483380.0163237794</v>
       </c>
       <c r="E28" t="n">
-        <v>423187.4761846066</v>
+        <v>432708.7490398884</v>
       </c>
       <c r="F28" t="n">
-        <v>479136.6994401217</v>
+        <v>435771.1228935719</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -6352,13 +6352,13 @@
         <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>488388.706067663</v>
+        <v>488838.8692930249</v>
       </c>
       <c r="E29" t="n">
-        <v>426084.7718086243</v>
+        <v>442545.5514329672</v>
       </c>
       <c r="F29" t="n">
-        <v>490185.2892259359</v>
+        <v>467446.2936534882</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -6375,13 +6375,13 @@
         <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>494628.1168542355</v>
+        <v>489108.5147942555</v>
       </c>
       <c r="E30" t="n">
-        <v>432160.6868206263</v>
+        <v>436134.8193209171</v>
       </c>
       <c r="F30" t="n">
-        <v>478108.5496141911</v>
+        <v>457599.7746567726</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -6398,13 +6398,13 @@
         <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>486753.6632122635</v>
+        <v>472944.5394355824</v>
       </c>
       <c r="E31" t="n">
-        <v>444854.6700372696</v>
+        <v>448359.4510496855</v>
       </c>
       <c r="F31" t="n">
-        <v>512748.1583534479</v>
+        <v>437122.6462820768</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -6421,13 +6421,13 @@
         <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>488727.0395420139</v>
+        <v>467679.9783160079</v>
       </c>
       <c r="E32" t="n">
-        <v>462856.1035149097</v>
+        <v>422282.9373698235</v>
       </c>
       <c r="F32" t="n">
-        <v>516152.2570425272</v>
+        <v>472750.1444017887</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -6444,13 +6444,13 @@
         <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>498396.7912086076</v>
+        <v>502637.27125942</v>
       </c>
       <c r="E33" t="n">
-        <v>433345.9668192863</v>
+        <v>450935.0376256704</v>
       </c>
       <c r="F33" t="n">
-        <v>468447.7280210257</v>
+        <v>475812.1645461321</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -6467,13 +6467,13 @@
         <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>491433.4028565852</v>
+        <v>491220.2939245505</v>
       </c>
       <c r="E34" t="n">
-        <v>416853.8110958338</v>
+        <v>447544.8584394455</v>
       </c>
       <c r="F34" t="n">
-        <v>509516.6074030399</v>
+        <v>455457.086700201</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -6490,13 +6490,13 @@
         <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>502148.6465086279</v>
+        <v>506672.1588886554</v>
       </c>
       <c r="E35" t="n">
-        <v>422980.5146077871</v>
+        <v>459848.6378346682</v>
       </c>
       <c r="F35" t="n">
-        <v>512538.9704884291</v>
+        <v>473202.7467120886</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -6513,13 +6513,13 @@
         <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>511807.2931805516</v>
+        <v>509573.2257731808</v>
       </c>
       <c r="E36" t="n">
-        <v>429338.1070930958</v>
+        <v>435471.0525345802</v>
       </c>
       <c r="F36" t="n">
-        <v>491735.5556507111</v>
+        <v>483531.3507329226</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -6536,13 +6536,13 @@
         <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>529607.7171666584</v>
+        <v>529269.1043250441</v>
       </c>
       <c r="E37" t="n">
-        <v>459823.3996329308</v>
+        <v>459499.5059095621</v>
       </c>
       <c r="F37" t="n">
-        <v>505171.2465471029</v>
+        <v>516308.638183713</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -6559,13 +6559,13 @@
         <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>512056.4503503714</v>
+        <v>511692.8206329391</v>
       </c>
       <c r="E38" t="n">
-        <v>439330.1670800447</v>
+        <v>471293.9022421837</v>
       </c>
       <c r="F38" t="n">
-        <v>531136.2169462442</v>
+        <v>474136.2688863277</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -6582,13 +6582,13 @@
         <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>498936.7380955105</v>
+        <v>488522.7156963513</v>
       </c>
       <c r="E39" t="n">
-        <v>458222.4071274996</v>
+        <v>444632.4573459625</v>
       </c>
       <c r="F39" t="n">
-        <v>492611.0486867428</v>
+        <v>471789.220156908</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -6605,13 +6605,13 @@
         <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>514923.597793694</v>
+        <v>508483.6861823249</v>
       </c>
       <c r="E40" t="n">
-        <v>452625.955529213</v>
+        <v>452494.8542026281</v>
       </c>
       <c r="F40" t="n">
-        <v>518933.1822936535</v>
+        <v>490142.3031378984</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -6628,13 +6628,13 @@
         <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>504002.6092316241</v>
+        <v>501732.3813584068</v>
       </c>
       <c r="E41" t="n">
-        <v>440987.773886323</v>
+        <v>438772.3258378506</v>
       </c>
       <c r="F41" t="n">
-        <v>514447.9397969246</v>
+        <v>502736.6859656572</v>
       </c>
       <c r="G41" t="n">
         <v>591412.0753267221</v>
@@ -6651,13 +6651,13 @@
         <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>510390.4694486305</v>
+        <v>506311.2783271279</v>
       </c>
       <c r="E42" t="n">
-        <v>445342.9345716238</v>
+        <v>459668.9742963314</v>
       </c>
       <c r="F42" t="n">
-        <v>511144.14891541</v>
+        <v>473137.7474192381</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -6674,13 +6674,13 @@
         <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>505590.5542081529</v>
+        <v>497784.2951572911</v>
       </c>
       <c r="E43" t="n">
-        <v>466306.6005468369</v>
+        <v>470878.1689289808</v>
       </c>
       <c r="F43" t="n">
-        <v>535294.7568513155</v>
+        <v>481248.9475870132</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -6697,13 +6697,13 @@
         <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>499202.8493229906</v>
+        <v>480010.0572871923</v>
       </c>
       <c r="E44" t="n">
-        <v>464788.2719948292</v>
+        <v>438589.9158505201</v>
       </c>
       <c r="F44" t="n">
-        <v>528903.3123015165</v>
+        <v>471499.1368851662</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -6720,13 +6720,13 @@
         <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>523719.7025535325</v>
+        <v>514773.5745240562</v>
       </c>
       <c r="E45" t="n">
-        <v>461715.3284738064</v>
+        <v>461296.8487116098</v>
       </c>
       <c r="F45" t="n">
-        <v>530380.1528285742</v>
+        <v>490246.2104581594</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -6743,13 +6743,13 @@
         <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>507144.7232269749</v>
+        <v>510996.0336832314</v>
       </c>
       <c r="E46" t="n">
-        <v>437864.0626717806</v>
+        <v>471882.0584554672</v>
       </c>
       <c r="F46" t="n">
-        <v>518339.7412467003</v>
+        <v>479905.8924162388</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -6766,13 +6766,13 @@
         <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>521963.0942535827</v>
+        <v>520111.8293310885</v>
       </c>
       <c r="E47" t="n">
-        <v>446718.4269695282</v>
+        <v>476627.5686072111</v>
       </c>
       <c r="F47" t="n">
-        <v>547418.7478696108</v>
+        <v>483955.6562960148</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -6789,13 +6789,13 @@
         <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>537458.0677316793</v>
+        <v>534958.5939792731</v>
       </c>
       <c r="E48" t="n">
-        <v>464408.0968735218</v>
+        <v>469490.0886398554</v>
       </c>
       <c r="F48" t="n">
-        <v>542270.8413274288</v>
+        <v>521979.9929363728</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -6812,13 +6812,13 @@
         <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>530767.2163634476</v>
+        <v>520907.6689295049</v>
       </c>
       <c r="E49" t="n">
-        <v>454654.1664981842</v>
+        <v>463831.0512948036</v>
       </c>
       <c r="F49" t="n">
-        <v>492922.5625832081</v>
+        <v>457614.1310946941</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -6835,13 +6835,13 @@
         <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>527574.0450385318</v>
+        <v>524612.7575202355</v>
       </c>
       <c r="E50" t="n">
-        <v>452026.8551328182</v>
+        <v>470403.5950267315</v>
       </c>
       <c r="F50" t="n">
-        <v>567220.6243076324</v>
+        <v>508486.6474175453</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -6858,13 +6858,13 @@
         <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>515969.9680503457</v>
+        <v>515959.8902121088</v>
       </c>
       <c r="E51" t="n">
-        <v>465057.9025441408</v>
+        <v>489343.5442222357</v>
       </c>
       <c r="F51" t="n">
-        <v>546211.8707947731</v>
+        <v>496106.5708370209</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -6881,13 +6881,13 @@
         <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>535708.4424297935</v>
+        <v>532120.458319109</v>
       </c>
       <c r="E52" t="n">
-        <v>476114.024258256</v>
+        <v>487198.151429534</v>
       </c>
       <c r="F52" t="n">
-        <v>563324.3702814579</v>
+        <v>518502.6764138937</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -6904,13 +6904,13 @@
         <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>535054.8316477169</v>
+        <v>528378.2551319457</v>
       </c>
       <c r="E53" t="n">
-        <v>483530.6641206741</v>
+        <v>492140.9897801876</v>
       </c>
       <c r="F53" t="n">
-        <v>575732.7644156218</v>
+        <v>515058.8166337013</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -6927,13 +6927,13 @@
         <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>540991.5572290987</v>
+        <v>531971.3525916678</v>
       </c>
       <c r="E54" t="n">
-        <v>491767.1398141384</v>
+        <v>481918.7898514271</v>
       </c>
       <c r="F54" t="n">
-        <v>560438.5598077774</v>
+        <v>527081.2722649574</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -6950,13 +6950,13 @@
         <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>530745.9458655599</v>
+        <v>522172.9561986087</v>
       </c>
       <c r="E55" t="n">
-        <v>495299.6766065359</v>
+        <v>474033.9844677448</v>
       </c>
       <c r="F55" t="n">
-        <v>586095.5117909908</v>
+        <v>552902.5534462929</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -6973,13 +6973,13 @@
         <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>525295.1334894713</v>
+        <v>522017.4630734085</v>
       </c>
       <c r="E56" t="n">
-        <v>491792.2947901487</v>
+        <v>496263.4721390009</v>
       </c>
       <c r="F56" t="n">
-        <v>588084.3569910526</v>
+        <v>536394.3767703772</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -6996,13 +6996,13 @@
         <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>559022.8924557406</v>
+        <v>536869.3405127082</v>
       </c>
       <c r="E57" t="n">
-        <v>518741.1805412769</v>
+        <v>484139.0441856384</v>
       </c>
       <c r="F57" t="n">
-        <v>582704.5835732222</v>
+        <v>528007.9283167124</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -7019,13 +7019,13 @@
         <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>547345.5867874526</v>
+        <v>543270.2800505367</v>
       </c>
       <c r="E58" t="n">
-        <v>498343.6159616709</v>
+        <v>496004.5360956192</v>
       </c>
       <c r="F58" t="n">
-        <v>595783.9019062519</v>
+        <v>557680.4384058714</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -7042,13 +7042,13 @@
         <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>556905.3819625739</v>
+        <v>561947.3770776564</v>
       </c>
       <c r="E59" t="n">
-        <v>500978.6257067919</v>
+        <v>530468.9130665064</v>
       </c>
       <c r="F59" t="n">
-        <v>607956.0390076637</v>
+        <v>560942.9077138901</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -7065,13 +7065,13 @@
         <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>560577.1971119988</v>
+        <v>563636.9393626436</v>
       </c>
       <c r="E60" t="n">
-        <v>480342.7650641203</v>
+        <v>507433.8835828304</v>
       </c>
       <c r="F60" t="n">
-        <v>629883.5213217735</v>
+        <v>568805.5126348734</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -7088,13 +7088,13 @@
         <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>571645.5065164841</v>
+        <v>561919.9034060525</v>
       </c>
       <c r="E61" t="n">
-        <v>510548.3775480986</v>
+        <v>499989.3839082718</v>
       </c>
       <c r="F61" t="n">
-        <v>599524.1909198761</v>
+        <v>559974.7220243216</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -7111,13 +7111,13 @@
         <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>553345.4570605471</v>
+        <v>552789.8220191493</v>
       </c>
       <c r="E62" t="n">
-        <v>488253.0583267212</v>
+        <v>512346.5109945536</v>
       </c>
       <c r="F62" t="n">
-        <v>611346.4054517746</v>
+        <v>545247.5759079456</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -7134,13 +7134,13 @@
         <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>548854.2352636761</v>
+        <v>544869.9068852256</v>
       </c>
       <c r="E63" t="n">
-        <v>506854.6533287764</v>
+        <v>508627.090831995</v>
       </c>
       <c r="F63" t="n">
-        <v>629564.7251741886</v>
+        <v>569756.8867275715</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -7157,13 +7157,13 @@
         <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>567081.0701818005</v>
+        <v>565594.6277940561</v>
       </c>
       <c r="E64" t="n">
-        <v>515216.1964836121</v>
+        <v>528752.9858319759</v>
       </c>
       <c r="F64" t="n">
-        <v>637726.9219062328</v>
+        <v>576525.052531004</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -7180,13 +7180,13 @@
         <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>569405.8502064369</v>
+        <v>567861.4522273984</v>
       </c>
       <c r="E65" t="n">
-        <v>531926.4244184494</v>
+        <v>552790.1987147331</v>
       </c>
       <c r="F65" t="n">
-        <v>645060.5232994556</v>
+        <v>570669.997792244</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -7203,13 +7203,13 @@
         <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>569323.2106391609</v>
+        <v>577627.3262229334</v>
       </c>
       <c r="E66" t="n">
-        <v>524475.3082985878</v>
+        <v>554234.3523374796</v>
       </c>
       <c r="F66" t="n">
-        <v>633282.2935643196</v>
+        <v>592991.886826992</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -7226,13 +7226,13 @@
         <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>558289.7911674586</v>
+        <v>550669.2614778103</v>
       </c>
       <c r="E67" t="n">
-        <v>523266.7042899132</v>
+        <v>531889.6594535112</v>
       </c>
       <c r="F67" t="n">
-        <v>660420.1641352177</v>
+        <v>564951.3916330338</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -7249,13 +7249,13 @@
         <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>554913.1515954585</v>
+        <v>557633.2605844801</v>
       </c>
       <c r="E68" t="n">
-        <v>535613.0328381062</v>
+        <v>551869.0147545338</v>
       </c>
       <c r="F68" t="n">
-        <v>634595.4706990719</v>
+        <v>582551.5314611197</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -7272,13 +7272,13 @@
         <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>591619.1631629877</v>
+        <v>574359.7116461428</v>
       </c>
       <c r="E69" t="n">
-        <v>556306.7977803946</v>
+        <v>527578.1506620646</v>
       </c>
       <c r="F69" t="n">
-        <v>676832.1526770592</v>
+        <v>603167.8132514954</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -7295,13 +7295,13 @@
         <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>570320.7372047794</v>
+        <v>560698.2182358134</v>
       </c>
       <c r="E70" t="n">
-        <v>537373.4234173298</v>
+        <v>514156.6913650036</v>
       </c>
       <c r="F70" t="n">
-        <v>611816.2562940121</v>
+        <v>584020.8192534447</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -7318,13 +7318,13 @@
         <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>589815.4339513057</v>
+        <v>577914.3867589575</v>
       </c>
       <c r="E71" t="n">
-        <v>557228.4810949564</v>
+        <v>542509.2830355167</v>
       </c>
       <c r="F71" t="n">
-        <v>650652.6263535023</v>
+        <v>591513.6730754375</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -7341,13 +7341,13 @@
         <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>599117.6740825492</v>
+        <v>585612.5781532641</v>
       </c>
       <c r="E72" t="n">
-        <v>556220.4302821159</v>
+        <v>540435.3187230825</v>
       </c>
       <c r="F72" t="n">
-        <v>662103.1964011192</v>
+        <v>596706.9168324471</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -7364,13 +7364,13 @@
         <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>597495.7229033951</v>
+        <v>594605.6331540095</v>
       </c>
       <c r="E73" t="n">
-        <v>547762.9070575237</v>
+        <v>557548.1094998121</v>
       </c>
       <c r="F73" t="n">
-        <v>650968.9257292747</v>
+        <v>597932.8734052181</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -7387,13 +7387,13 @@
         <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>582456.8426771775</v>
+        <v>594246.232323341</v>
       </c>
       <c r="E74" t="n">
-        <v>527306.4394695759</v>
+        <v>581510.2111638784</v>
       </c>
       <c r="F74" t="n">
-        <v>676630.4551274776</v>
+        <v>600675.1611125469</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -7410,13 +7410,13 @@
         <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>583956.6013503204</v>
+        <v>581299.6718622127</v>
       </c>
       <c r="E75" t="n">
-        <v>560117.4333398342</v>
+        <v>575817.5922379494</v>
       </c>
       <c r="F75" t="n">
-        <v>688480.7999551296</v>
+        <v>602367.1817569733</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -7489,13 +7489,13 @@
         <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>477060.1017590714</v>
+        <v>475998.2319823609</v>
       </c>
       <c r="E2" t="n">
-        <v>410999.7550657988</v>
+        <v>430164.8922723532</v>
       </c>
       <c r="F2" t="n">
-        <v>442003.1485631466</v>
+        <v>427631.6051721573</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -7512,13 +7512,13 @@
         <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>466011.1650067765</v>
+        <v>444341.5152423562</v>
       </c>
       <c r="E3" t="n">
-        <v>407634.0962594151</v>
+        <v>387754.5286051631</v>
       </c>
       <c r="F3" t="n">
-        <v>518524.3359093666</v>
+        <v>430248.9710631371</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -7535,13 +7535,13 @@
         <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>482225.5528100593</v>
+        <v>470909.167077813</v>
       </c>
       <c r="E4" t="n">
-        <v>423094.9915953875</v>
+        <v>422261.5275515318</v>
       </c>
       <c r="F4" t="n">
-        <v>475217.267048955</v>
+        <v>432701.4875952005</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -7558,13 +7558,13 @@
         <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>469840.9866840938</v>
+        <v>462122.0611445564</v>
       </c>
       <c r="E5" t="n">
-        <v>417100.9706988335</v>
+        <v>409145.7667532563</v>
       </c>
       <c r="F5" t="n">
-        <v>460894.2650632858</v>
+        <v>444509.3664956093</v>
       </c>
       <c r="G5" t="n">
         <v>510856.6175063986</v>
@@ -7581,13 +7581,13 @@
         <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>475093.7801094857</v>
+        <v>468709.9342783455</v>
       </c>
       <c r="E6" t="n">
-        <v>414437.5809807777</v>
+        <v>414586.2637422085</v>
       </c>
       <c r="F6" t="n">
-        <v>466293.8045912981</v>
+        <v>443782.0152537823</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -7604,13 +7604,13 @@
         <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>444172.3743958988</v>
+        <v>449128.0554013457</v>
       </c>
       <c r="E7" t="n">
-        <v>388890.8926827312</v>
+        <v>416685.1333534718</v>
       </c>
       <c r="F7" t="n">
-        <v>465358.2433867455</v>
+        <v>435428.7738652229</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -7627,13 +7627,13 @@
         <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>446787.9542943519</v>
+        <v>449540.7793706873</v>
       </c>
       <c r="E8" t="n">
-        <v>418203.3786797523</v>
+        <v>419977.9592454433</v>
       </c>
       <c r="F8" t="n">
-        <v>447584.4738855362</v>
+        <v>456011.1619782448</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -7650,13 +7650,13 @@
         <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>470353.2317524981</v>
+        <v>470510.7883005622</v>
       </c>
       <c r="E9" t="n">
-        <v>390466.6261799932</v>
+        <v>414517.3528401852</v>
       </c>
       <c r="F9" t="n">
-        <v>470638.3956092596</v>
+        <v>436543.936188817</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -7673,13 +7673,13 @@
         <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>465633.5996192737</v>
+        <v>465956.2052931979</v>
       </c>
       <c r="E10" t="n">
-        <v>400763.625230968</v>
+        <v>413011.9658887386</v>
       </c>
       <c r="F10" t="n">
-        <v>461023.9515525103</v>
+        <v>446988.3904217482</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -7696,13 +7696,13 @@
         <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>475744.2660663655</v>
+        <v>471049.861504557</v>
       </c>
       <c r="E11" t="n">
-        <v>404710.2516284585</v>
+        <v>410817.646771729</v>
       </c>
       <c r="F11" t="n">
-        <v>459143.6535069942</v>
+        <v>439033.2176858187</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -7719,13 +7719,13 @@
         <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>486436.7094280681</v>
+        <v>479313.0275852224</v>
       </c>
       <c r="E12" t="n">
-        <v>401306.8395516276</v>
+        <v>416812.9056509733</v>
       </c>
       <c r="F12" t="n">
-        <v>463365.3409324884</v>
+        <v>422933.4296526909</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -7742,13 +7742,13 @@
         <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>498318.0225823108</v>
+        <v>489616.3423922543</v>
       </c>
       <c r="E13" t="n">
-        <v>419675.1840503216</v>
+        <v>426153.1417434216</v>
       </c>
       <c r="F13" t="n">
-        <v>465561.6678701639</v>
+        <v>436359.2374939919</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -7765,13 +7765,13 @@
         <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>487834.8060654635</v>
+        <v>471721.0923426352</v>
       </c>
       <c r="E14" t="n">
-        <v>432958.4886404276</v>
+        <v>427735.8453953266</v>
       </c>
       <c r="F14" t="n">
-        <v>460302.7590144873</v>
+        <v>414443.177910924</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -7788,13 +7788,13 @@
         <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>453277.6190914157</v>
+        <v>457573.2632669304</v>
       </c>
       <c r="E15" t="n">
-        <v>381249.5329539776</v>
+        <v>417993.1088802814</v>
       </c>
       <c r="F15" t="n">
-        <v>490990.8934576511</v>
+        <v>437167.3593039513</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -7811,13 +7811,13 @@
         <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>477559.5084286674</v>
+        <v>468150.6444004682</v>
       </c>
       <c r="E16" t="n">
-        <v>411202.8986623883</v>
+        <v>406811.2851086259</v>
       </c>
       <c r="F16" t="n">
-        <v>452454.9890793562</v>
+        <v>432034.4958119392</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -7834,13 +7834,13 @@
         <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>476425.3463259205</v>
+        <v>471903.1283181355</v>
       </c>
       <c r="E17" t="n">
-        <v>420163.4901975393</v>
+        <v>433464.4386417866</v>
       </c>
       <c r="F17" t="n">
-        <v>469137.5652663708</v>
+        <v>434823.1402492523</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -7857,13 +7857,13 @@
         <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>476888.4051216358</v>
+        <v>476561.0900224572</v>
       </c>
       <c r="E18" t="n">
-        <v>398175.180280149</v>
+        <v>404562.8588657975</v>
       </c>
       <c r="F18" t="n">
-        <v>492677.1715269089</v>
+        <v>474017.2560966015</v>
       </c>
       <c r="G18" t="n">
         <v>554486.7217144087</v>
@@ -7880,13 +7880,13 @@
         <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>456019.0525675584</v>
+        <v>457713.0207300737</v>
       </c>
       <c r="E19" t="n">
-        <v>400184.7798959017</v>
+        <v>429001.2925755978</v>
       </c>
       <c r="F19" t="n">
-        <v>472665.233353734</v>
+        <v>429992.5317915678</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -7903,13 +7903,13 @@
         <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>455534.2195880726</v>
+        <v>455837.2010427075</v>
       </c>
       <c r="E20" t="n">
-        <v>413510.7792840004</v>
+        <v>436854.576215148</v>
       </c>
       <c r="F20" t="n">
-        <v>476356.7312848568</v>
+        <v>433661.6628085375</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -7926,13 +7926,13 @@
         <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>484828.0358585927</v>
+        <v>479973.7940349779</v>
       </c>
       <c r="E21" t="n">
-        <v>409971.6052398682</v>
+        <v>429781.0344126225</v>
       </c>
       <c r="F21" t="n">
-        <v>481200.0732787848</v>
+        <v>434308.6388044357</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -7949,13 +7949,13 @@
         <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>480045.2134063584</v>
+        <v>478629.9458365957</v>
       </c>
       <c r="E22" t="n">
-        <v>418703.1283644438</v>
+        <v>419440.1962099075</v>
       </c>
       <c r="F22" t="n">
-        <v>469540.8771398067</v>
+        <v>467704.2309881449</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -7972,13 +7972,13 @@
         <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>491887.562253686</v>
+        <v>483306.2208643181</v>
       </c>
       <c r="E23" t="n">
-        <v>425066.192941308</v>
+        <v>415510.0068935156</v>
       </c>
       <c r="F23" t="n">
-        <v>476213.8951307535</v>
+        <v>461871.9800986052</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -7995,13 +7995,13 @@
         <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>506780.7871346781</v>
+        <v>485574.8160768364</v>
       </c>
       <c r="E24" t="n">
-        <v>437655.4573868513</v>
+        <v>409465.5199967027</v>
       </c>
       <c r="F24" t="n">
-        <v>470264.9201589823</v>
+        <v>440528.9920657873</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -8018,13 +8018,13 @@
         <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>504455.2993214444</v>
+        <v>499823.610380417</v>
       </c>
       <c r="E25" t="n">
-        <v>416928.2357022762</v>
+        <v>433528.2519680262</v>
       </c>
       <c r="F25" t="n">
-        <v>481460.8194817305</v>
+        <v>449782.3613055944</v>
       </c>
       <c r="G25" t="n">
         <v>620969.9780932692</v>
@@ -8041,13 +8041,13 @@
         <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>491130.1030099225</v>
+        <v>487575.4532326862</v>
       </c>
       <c r="E26" t="n">
-        <v>424796.4375534058</v>
+        <v>431793.2660419941</v>
       </c>
       <c r="F26" t="n">
-        <v>463229.4125137329</v>
+        <v>452283.1071465015</v>
       </c>
       <c r="G26" t="n">
         <v>586956.5220437354</v>
@@ -8064,13 +8064,13 @@
         <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>477086.8638745873</v>
+        <v>469175.7394148478</v>
       </c>
       <c r="E27" t="n">
-        <v>416309.7645179033</v>
+        <v>426976.5146678686</v>
       </c>
       <c r="F27" t="n">
-        <v>507954.7517957687</v>
+        <v>444113.8154212236</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -8087,13 +8087,13 @@
         <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>492049.100104167</v>
+        <v>483380.0163237794</v>
       </c>
       <c r="E28" t="n">
-        <v>423187.4761846066</v>
+        <v>432708.7490398884</v>
       </c>
       <c r="F28" t="n">
-        <v>479136.6994401217</v>
+        <v>435771.1228935719</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -8110,13 +8110,13 @@
         <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>488388.706067663</v>
+        <v>488838.8692930249</v>
       </c>
       <c r="E29" t="n">
-        <v>426084.7718086243</v>
+        <v>442545.5514329672</v>
       </c>
       <c r="F29" t="n">
-        <v>490185.2892259359</v>
+        <v>467446.2936534882</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -8133,13 +8133,13 @@
         <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>494628.1168542355</v>
+        <v>489108.5147942555</v>
       </c>
       <c r="E30" t="n">
-        <v>432160.6868206263</v>
+        <v>436134.8193209171</v>
       </c>
       <c r="F30" t="n">
-        <v>478108.5496141911</v>
+        <v>457599.7746567726</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -8156,13 +8156,13 @@
         <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>486753.6632122635</v>
+        <v>472944.5394355824</v>
       </c>
       <c r="E31" t="n">
-        <v>444854.6700372696</v>
+        <v>448359.4510496855</v>
       </c>
       <c r="F31" t="n">
-        <v>512748.1583534479</v>
+        <v>437122.6462820768</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -8179,13 +8179,13 @@
         <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>488727.0395420139</v>
+        <v>467679.9783160079</v>
       </c>
       <c r="E32" t="n">
-        <v>462856.1035149097</v>
+        <v>422282.9373698235</v>
       </c>
       <c r="F32" t="n">
-        <v>516152.2570425272</v>
+        <v>472750.1444017887</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -8202,13 +8202,13 @@
         <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>498396.7912086076</v>
+        <v>502637.27125942</v>
       </c>
       <c r="E33" t="n">
-        <v>433345.9668192863</v>
+        <v>450935.0376256704</v>
       </c>
       <c r="F33" t="n">
-        <v>468447.7280210257</v>
+        <v>475812.1645461321</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -8225,13 +8225,13 @@
         <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>491433.4028565852</v>
+        <v>491220.2939245505</v>
       </c>
       <c r="E34" t="n">
-        <v>416853.8110958338</v>
+        <v>447544.8584394455</v>
       </c>
       <c r="F34" t="n">
-        <v>509516.6074030399</v>
+        <v>455457.086700201</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -8248,13 +8248,13 @@
         <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>502148.6465086279</v>
+        <v>506672.1588886554</v>
       </c>
       <c r="E35" t="n">
-        <v>422980.5146077871</v>
+        <v>459848.6378346682</v>
       </c>
       <c r="F35" t="n">
-        <v>512538.9704884291</v>
+        <v>473202.7467120886</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -8271,13 +8271,13 @@
         <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>511807.2931805516</v>
+        <v>509573.2257731808</v>
       </c>
       <c r="E36" t="n">
-        <v>429338.1070930958</v>
+        <v>435471.0525345802</v>
       </c>
       <c r="F36" t="n">
-        <v>491735.5556507111</v>
+        <v>483531.3507329226</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -8294,13 +8294,13 @@
         <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>529607.7171666584</v>
+        <v>529269.1043250441</v>
       </c>
       <c r="E37" t="n">
-        <v>459823.3996329308</v>
+        <v>459499.5059095621</v>
       </c>
       <c r="F37" t="n">
-        <v>505171.2465471029</v>
+        <v>516308.638183713</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -8317,13 +8317,13 @@
         <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>512056.4503503714</v>
+        <v>511692.8206329391</v>
       </c>
       <c r="E38" t="n">
-        <v>439330.1670800447</v>
+        <v>471293.9022421837</v>
       </c>
       <c r="F38" t="n">
-        <v>531136.2169462442</v>
+        <v>474136.2688863277</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -8340,13 +8340,13 @@
         <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>498936.7380955105</v>
+        <v>488522.7156963513</v>
       </c>
       <c r="E39" t="n">
-        <v>458222.4071274996</v>
+        <v>444632.4573459625</v>
       </c>
       <c r="F39" t="n">
-        <v>492611.0486867428</v>
+        <v>471789.220156908</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -8363,13 +8363,13 @@
         <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>514923.597793694</v>
+        <v>508483.6861823249</v>
       </c>
       <c r="E40" t="n">
-        <v>452625.955529213</v>
+        <v>452494.8542026281</v>
       </c>
       <c r="F40" t="n">
-        <v>518933.1822936535</v>
+        <v>490142.3031378984</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -8386,13 +8386,13 @@
         <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>504002.6092316241</v>
+        <v>501732.3813584068</v>
       </c>
       <c r="E41" t="n">
-        <v>440987.773886323</v>
+        <v>438772.3258378506</v>
       </c>
       <c r="F41" t="n">
-        <v>514447.9397969246</v>
+        <v>502736.6859656572</v>
       </c>
       <c r="G41" t="n">
         <v>591412.0753267221</v>
@@ -8409,13 +8409,13 @@
         <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>510390.4694486305</v>
+        <v>506311.2783271279</v>
       </c>
       <c r="E42" t="n">
-        <v>445342.9345716238</v>
+        <v>459668.9742963314</v>
       </c>
       <c r="F42" t="n">
-        <v>511144.14891541</v>
+        <v>473137.7474192381</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -8432,13 +8432,13 @@
         <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>505590.5542081529</v>
+        <v>497784.2951572911</v>
       </c>
       <c r="E43" t="n">
-        <v>466306.6005468369</v>
+        <v>470878.1689289808</v>
       </c>
       <c r="F43" t="n">
-        <v>535294.7568513155</v>
+        <v>481248.9475870132</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -8455,13 +8455,13 @@
         <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>499202.8493229906</v>
+        <v>480010.0572871923</v>
       </c>
       <c r="E44" t="n">
-        <v>464788.2719948292</v>
+        <v>438589.9158505201</v>
       </c>
       <c r="F44" t="n">
-        <v>528903.3123015165</v>
+        <v>471499.1368851662</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -8478,13 +8478,13 @@
         <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>523719.7025535325</v>
+        <v>514773.5745240562</v>
       </c>
       <c r="E45" t="n">
-        <v>461715.3284738064</v>
+        <v>461296.8487116098</v>
       </c>
       <c r="F45" t="n">
-        <v>530380.1528285742</v>
+        <v>490246.2104581594</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -8501,13 +8501,13 @@
         <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>507144.7232269749</v>
+        <v>510996.0336832314</v>
       </c>
       <c r="E46" t="n">
-        <v>437864.0626717806</v>
+        <v>471882.0584554672</v>
       </c>
       <c r="F46" t="n">
-        <v>518339.7412467003</v>
+        <v>479905.8924162388</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -8524,13 +8524,13 @@
         <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>521963.0942535827</v>
+        <v>520111.8293310885</v>
       </c>
       <c r="E47" t="n">
-        <v>446718.4269695282</v>
+        <v>476627.5686072111</v>
       </c>
       <c r="F47" t="n">
-        <v>547418.7478696108</v>
+        <v>483955.6562960148</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -8547,13 +8547,13 @@
         <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>537458.0677316793</v>
+        <v>534958.5939792731</v>
       </c>
       <c r="E48" t="n">
-        <v>464408.0968735218</v>
+        <v>469490.0886398554</v>
       </c>
       <c r="F48" t="n">
-        <v>542270.8413274288</v>
+        <v>521979.9929363728</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -8570,13 +8570,13 @@
         <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>530767.2163634476</v>
+        <v>520907.6689295049</v>
       </c>
       <c r="E49" t="n">
-        <v>454654.1664981842</v>
+        <v>463831.0512948036</v>
       </c>
       <c r="F49" t="n">
-        <v>492922.5625832081</v>
+        <v>457614.1310946941</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -8593,13 +8593,13 @@
         <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>527574.0450385318</v>
+        <v>524612.7575202355</v>
       </c>
       <c r="E50" t="n">
-        <v>452026.8551328182</v>
+        <v>470403.5950267315</v>
       </c>
       <c r="F50" t="n">
-        <v>567220.6243076324</v>
+        <v>508486.6474175453</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -8616,13 +8616,13 @@
         <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>515969.9680503457</v>
+        <v>515959.8902121088</v>
       </c>
       <c r="E51" t="n">
-        <v>465057.9025441408</v>
+        <v>489343.5442222357</v>
       </c>
       <c r="F51" t="n">
-        <v>546211.8707947731</v>
+        <v>496106.5708370209</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -8639,13 +8639,13 @@
         <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>535708.4424297935</v>
+        <v>532120.458319109</v>
       </c>
       <c r="E52" t="n">
-        <v>476114.024258256</v>
+        <v>487198.151429534</v>
       </c>
       <c r="F52" t="n">
-        <v>563324.3702814579</v>
+        <v>518502.6764138937</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -8662,13 +8662,13 @@
         <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>535054.8316477169</v>
+        <v>528378.2551319457</v>
       </c>
       <c r="E53" t="n">
-        <v>483530.6641206741</v>
+        <v>492140.9897801876</v>
       </c>
       <c r="F53" t="n">
-        <v>575732.7644156218</v>
+        <v>515058.8166337013</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -8685,13 +8685,13 @@
         <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>540991.5572290987</v>
+        <v>531971.3525916678</v>
       </c>
       <c r="E54" t="n">
-        <v>491767.1398141384</v>
+        <v>481918.7898514271</v>
       </c>
       <c r="F54" t="n">
-        <v>560438.5598077774</v>
+        <v>527081.2722649574</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -8708,13 +8708,13 @@
         <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>530745.9458655599</v>
+        <v>522172.9561986087</v>
       </c>
       <c r="E55" t="n">
-        <v>495299.6766065359</v>
+        <v>474033.9844677448</v>
       </c>
       <c r="F55" t="n">
-        <v>586095.5117909908</v>
+        <v>552902.5534462929</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -8731,13 +8731,13 @@
         <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>525295.1334894713</v>
+        <v>522017.4630734085</v>
       </c>
       <c r="E56" t="n">
-        <v>491792.2947901487</v>
+        <v>496263.4721390009</v>
       </c>
       <c r="F56" t="n">
-        <v>588084.3569910526</v>
+        <v>536394.3767703772</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -8754,13 +8754,13 @@
         <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>559022.8924557406</v>
+        <v>536869.3405127082</v>
       </c>
       <c r="E57" t="n">
-        <v>518741.1805412769</v>
+        <v>484139.0441856384</v>
       </c>
       <c r="F57" t="n">
-        <v>582704.5835732222</v>
+        <v>528007.9283167124</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -8777,13 +8777,13 @@
         <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>547345.5867874526</v>
+        <v>543270.2800505367</v>
       </c>
       <c r="E58" t="n">
-        <v>498343.6159616709</v>
+        <v>496004.5360956192</v>
       </c>
       <c r="F58" t="n">
-        <v>595783.9019062519</v>
+        <v>557680.4384058714</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -8800,13 +8800,13 @@
         <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>556905.3819625739</v>
+        <v>561947.3770776564</v>
       </c>
       <c r="E59" t="n">
-        <v>500978.6257067919</v>
+        <v>530468.9130665064</v>
       </c>
       <c r="F59" t="n">
-        <v>607956.0390076637</v>
+        <v>560942.9077138901</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -8823,13 +8823,13 @@
         <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>560577.1971119988</v>
+        <v>563636.9393626436</v>
       </c>
       <c r="E60" t="n">
-        <v>480342.7650641203</v>
+        <v>507433.8835828304</v>
       </c>
       <c r="F60" t="n">
-        <v>629883.5213217735</v>
+        <v>568805.5126348734</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -8846,13 +8846,13 @@
         <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>571645.5065164841</v>
+        <v>561919.9034060525</v>
       </c>
       <c r="E61" t="n">
-        <v>510548.3775480986</v>
+        <v>499989.3839082718</v>
       </c>
       <c r="F61" t="n">
-        <v>599524.1909198761</v>
+        <v>559974.7220243216</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -8869,13 +8869,13 @@
         <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>553345.4570605471</v>
+        <v>552789.8220191493</v>
       </c>
       <c r="E62" t="n">
-        <v>488253.0583267212</v>
+        <v>512346.5109945536</v>
       </c>
       <c r="F62" t="n">
-        <v>611346.4054517746</v>
+        <v>545247.5759079456</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -8892,13 +8892,13 @@
         <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>548854.2352636761</v>
+        <v>544869.9068852256</v>
       </c>
       <c r="E63" t="n">
-        <v>506854.6533287764</v>
+        <v>508627.090831995</v>
       </c>
       <c r="F63" t="n">
-        <v>629564.7251741886</v>
+        <v>569756.8867275715</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -8915,13 +8915,13 @@
         <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>567081.0701818005</v>
+        <v>565594.6277940561</v>
       </c>
       <c r="E64" t="n">
-        <v>515216.1964836121</v>
+        <v>528752.9858319759</v>
       </c>
       <c r="F64" t="n">
-        <v>637726.9219062328</v>
+        <v>576525.052531004</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -8938,13 +8938,13 @@
         <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>569405.8502064369</v>
+        <v>567861.4522273984</v>
       </c>
       <c r="E65" t="n">
-        <v>531926.4244184494</v>
+        <v>552790.1987147331</v>
       </c>
       <c r="F65" t="n">
-        <v>645060.5232994556</v>
+        <v>570669.997792244</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -8961,13 +8961,13 @@
         <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>569323.2106391609</v>
+        <v>577627.3262229334</v>
       </c>
       <c r="E66" t="n">
-        <v>524475.3082985878</v>
+        <v>554234.3523374796</v>
       </c>
       <c r="F66" t="n">
-        <v>633282.2935643196</v>
+        <v>592991.886826992</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -8984,13 +8984,13 @@
         <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>558289.7911674586</v>
+        <v>550669.2614778103</v>
       </c>
       <c r="E67" t="n">
-        <v>523266.7042899132</v>
+        <v>531889.6594535112</v>
       </c>
       <c r="F67" t="n">
-        <v>660420.1641352177</v>
+        <v>564951.3916330338</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -9007,13 +9007,13 @@
         <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>554913.1515954585</v>
+        <v>557633.2605844801</v>
       </c>
       <c r="E68" t="n">
-        <v>535613.0328381062</v>
+        <v>551869.0147545338</v>
       </c>
       <c r="F68" t="n">
-        <v>634595.4706990719</v>
+        <v>582551.5314611197</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -9030,13 +9030,13 @@
         <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>591619.1631629877</v>
+        <v>574359.7116461428</v>
       </c>
       <c r="E69" t="n">
-        <v>556306.7977803946</v>
+        <v>527578.1506620646</v>
       </c>
       <c r="F69" t="n">
-        <v>676832.1526770592</v>
+        <v>603167.8132514954</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -9053,13 +9053,13 @@
         <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>570320.7372047794</v>
+        <v>560698.2182358134</v>
       </c>
       <c r="E70" t="n">
-        <v>537373.4234173298</v>
+        <v>514156.6913650036</v>
       </c>
       <c r="F70" t="n">
-        <v>611816.2562940121</v>
+        <v>584020.8192534447</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -9076,13 +9076,13 @@
         <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>589815.4339513057</v>
+        <v>577914.3867589575</v>
       </c>
       <c r="E71" t="n">
-        <v>557228.4810949564</v>
+        <v>542509.2830355167</v>
       </c>
       <c r="F71" t="n">
-        <v>650652.6263535023</v>
+        <v>591513.6730754375</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -9099,13 +9099,13 @@
         <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>599117.6740825492</v>
+        <v>585612.5781532641</v>
       </c>
       <c r="E72" t="n">
-        <v>556220.4302821159</v>
+        <v>540435.3187230825</v>
       </c>
       <c r="F72" t="n">
-        <v>662103.1964011192</v>
+        <v>596706.9168324471</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -9122,13 +9122,13 @@
         <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>597495.7229033951</v>
+        <v>594605.6331540095</v>
       </c>
       <c r="E73" t="n">
-        <v>547762.9070575237</v>
+        <v>557548.1094998121</v>
       </c>
       <c r="F73" t="n">
-        <v>650968.9257292747</v>
+        <v>597932.8734052181</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -9145,13 +9145,13 @@
         <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>582456.8426771775</v>
+        <v>594246.232323341</v>
       </c>
       <c r="E74" t="n">
-        <v>527306.4394695759</v>
+        <v>581510.2111638784</v>
       </c>
       <c r="F74" t="n">
-        <v>676630.4551274776</v>
+        <v>600675.1611125469</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -9168,13 +9168,13 @@
         <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>583956.6013503204</v>
+        <v>581299.6718622127</v>
       </c>
       <c r="E75" t="n">
-        <v>560117.4333398342</v>
+        <v>575817.5922379494</v>
       </c>
       <c r="F75" t="n">
-        <v>688480.7999551296</v>
+        <v>602367.1817569733</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -9239,13 +9239,13 @@
         <v>484997.5861146463</v>
       </c>
       <c r="C2" t="n">
-        <v>441255.728386006</v>
+        <v>455532.2010083966</v>
       </c>
       <c r="D2" t="n">
-        <v>392312.1454279423</v>
+        <v>454476.0035654902</v>
       </c>
       <c r="E2" t="n">
-        <v>440640.3126804233</v>
+        <v>411331.7046443224</v>
       </c>
       <c r="F2" t="n">
         <v>448622.8529024446</v>
@@ -9259,13 +9259,13 @@
         <v>481278.4583109817</v>
       </c>
       <c r="C3" t="n">
-        <v>442491.1864500008</v>
+        <v>453345.2223194674</v>
       </c>
       <c r="D3" t="n">
-        <v>404159.9104561806</v>
+        <v>459391.8425430655</v>
       </c>
       <c r="E3" t="n">
-        <v>430782.5358203053</v>
+        <v>402758.0721341968</v>
       </c>
       <c r="F3" t="n">
         <v>437166.8745786949</v>
@@ -9279,13 +9279,13 @@
         <v>498553.1854037594</v>
       </c>
       <c r="C4" t="n">
-        <v>452597.1842219308</v>
+        <v>458002.9999979204</v>
       </c>
       <c r="D4" t="n">
-        <v>406302.758559525</v>
+        <v>460078.912217021</v>
       </c>
       <c r="E4" t="n">
-        <v>440520.8764109612</v>
+        <v>392082.8733036518</v>
       </c>
       <c r="F4" t="n">
         <v>448823.5974462835</v>
@@ -9299,13 +9299,13 @@
         <v>450174.0992992357</v>
       </c>
       <c r="C5" t="n">
-        <v>430127.6972118648</v>
+        <v>435534.97033308</v>
       </c>
       <c r="D5" t="n">
-        <v>407962.3146787882</v>
+        <v>450278.8800730705</v>
       </c>
       <c r="E5" t="n">
-        <v>438662.0227953196</v>
+        <v>396314.6649600267</v>
       </c>
       <c r="F5" t="n">
         <v>400453.0554511767</v>
@@ -9319,13 +9319,13 @@
         <v>429466.1266237666</v>
       </c>
       <c r="C6" t="n">
-        <v>421039.2791489892</v>
+        <v>433080.8795034536</v>
       </c>
       <c r="D6" t="n">
-        <v>407450.5059075356</v>
+        <v>455963.214463532</v>
       </c>
       <c r="E6" t="n">
-        <v>444448.4771518111</v>
+        <v>413379.4375286102</v>
       </c>
       <c r="F6" t="n">
         <v>382623.6229867304</v>
@@ -9339,13 +9339,13 @@
         <v>480709.0600438222</v>
       </c>
       <c r="C7" t="n">
-        <v>445623.2270671106</v>
+        <v>454110.7043347008</v>
       </c>
       <c r="D7" t="n">
-        <v>407213.3045518994</v>
+        <v>458612.7866740823</v>
       </c>
       <c r="E7" t="n">
-        <v>442205.535836637</v>
+        <v>405648.0813956857</v>
       </c>
       <c r="F7" t="n">
         <v>453190.8828687236</v>
@@ -9359,13 +9359,13 @@
         <v>443179.5875215636</v>
       </c>
       <c r="C8" t="n">
-        <v>434803.1979740066</v>
+        <v>440599.6335062976</v>
       </c>
       <c r="D8" t="n">
-        <v>418618.0993375182</v>
+        <v>459381.9221146107</v>
       </c>
       <c r="E8" t="n">
-        <v>458130.3125030994</v>
+        <v>412199.653241396</v>
       </c>
       <c r="F8" t="n">
         <v>423028.2202574082</v>
@@ -9379,13 +9379,13 @@
         <v>469632.2251447989</v>
       </c>
       <c r="C9" t="n">
-        <v>440809.0310292782</v>
+        <v>451841.0789958818</v>
       </c>
       <c r="D9" t="n">
-        <v>406266.9525686502</v>
+        <v>464256.0881812572</v>
       </c>
       <c r="E9" t="n">
-        <v>445998.5174300671</v>
+        <v>406288.144595027</v>
       </c>
       <c r="F9" t="n">
         <v>449130.3793805084</v>
@@ -9399,13 +9399,13 @@
         <v>505506.0651705859</v>
       </c>
       <c r="C10" t="n">
-        <v>463931.7040136857</v>
+        <v>467773.3962270193</v>
       </c>
       <c r="D10" t="n">
-        <v>420700.0737006664</v>
+        <v>463621.3941026926</v>
       </c>
       <c r="E10" t="n">
-        <v>452070.708571732</v>
+        <v>412542.3524867296</v>
       </c>
       <c r="F10" t="n">
         <v>477175.0438679613</v>
@@ -9419,13 +9419,13 @@
         <v>513475.5858133886</v>
       </c>
       <c r="C11" t="n">
-        <v>463553.8391750766</v>
+        <v>470898.4012321163</v>
       </c>
       <c r="D11" t="n">
-        <v>411921.8812446594</v>
+        <v>471884.470977962</v>
       </c>
       <c r="E11" t="n">
-        <v>447482.9548749924</v>
+        <v>400258.5508486629</v>
       </c>
       <c r="F11" t="n">
         <v>482983.8480840219</v>
@@ -9439,13 +9439,13 @@
         <v>470612.3468794461</v>
       </c>
       <c r="C12" t="n">
-        <v>443894.0843880285</v>
+        <v>461732.5963180998</v>
       </c>
       <c r="D12" t="n">
-        <v>408483.9016501307</v>
+        <v>475158.3190393448</v>
       </c>
       <c r="E12" t="n">
-        <v>462804.7543882728</v>
+        <v>432083.5697886348</v>
       </c>
       <c r="F12" t="n">
         <v>436656.1487096669</v>
@@ -9459,13 +9459,13 @@
         <v>441618.4522888935</v>
       </c>
       <c r="C13" t="n">
-        <v>433083.8388976704</v>
+        <v>442679.7142585574</v>
       </c>
       <c r="D13" t="n">
-        <v>417738.7724712491</v>
+        <v>476611.7507007122</v>
       </c>
       <c r="E13" t="n">
-        <v>464189.4541922808</v>
+        <v>404268.857383728</v>
       </c>
       <c r="F13" t="n">
         <v>384382.7385923929</v>
@@ -9479,13 +9479,13 @@
         <v>487585.86625049</v>
       </c>
       <c r="C14" t="n">
-        <v>452430.7117868712</v>
+        <v>464278.7774571229</v>
       </c>
       <c r="D14" t="n">
-        <v>414081.3345096111</v>
+        <v>471002.1217589378</v>
       </c>
       <c r="E14" t="n">
-        <v>454683.0525077581</v>
+        <v>421358.4843590856</v>
       </c>
       <c r="F14" t="n">
         <v>439071.3945341054</v>
@@ -9499,13 +9499,13 @@
         <v>484075.099318068</v>
       </c>
       <c r="C15" t="n">
-        <v>453073.0277227507</v>
+        <v>465878.2123044098</v>
       </c>
       <c r="D15" t="n">
-        <v>419943.9165984392</v>
+        <v>481147.0576878786</v>
       </c>
       <c r="E15" t="n">
-        <v>457147.1944875121</v>
+        <v>420781.8194534183</v>
       </c>
       <c r="F15" t="n">
         <v>427232.6438331051</v>
@@ -9519,13 +9519,13 @@
         <v>500776.8286870691</v>
       </c>
       <c r="C16" t="n">
-        <v>462108.743392584</v>
+        <v>468871.5835179252</v>
       </c>
       <c r="D16" t="n">
-        <v>423026.0408238769</v>
+        <v>477453.4581644535</v>
       </c>
       <c r="E16" t="n">
-        <v>458185.7815654278</v>
+        <v>410381.4413810372</v>
       </c>
       <c r="F16" t="n">
         <v>438701.0358348383</v>
@@ -9539,13 +9539,13 @@
         <v>454234.5955684311</v>
       </c>
       <c r="C17" t="n">
-        <v>444043.7791392765</v>
+        <v>453043.3052228018</v>
       </c>
       <c r="D17" t="n">
-        <v>432451.0167694688</v>
+        <v>479887.1277170181</v>
       </c>
       <c r="E17" t="n">
-        <v>460793.2897370458</v>
+        <v>421967.399546504</v>
       </c>
       <c r="F17" t="n">
         <v>389365.2311649311</v>
@@ -9559,13 +9559,13 @@
         <v>434338.1314260365</v>
       </c>
       <c r="C18" t="n">
-        <v>433699.0932034573</v>
+        <v>447766.0860681516</v>
       </c>
       <c r="D18" t="n">
-        <v>429276.3729926348</v>
+        <v>483900.847732842</v>
       </c>
       <c r="E18" t="n">
-        <v>462387.349694252</v>
+        <v>428378.4497676492</v>
       </c>
       <c r="F18" t="n">
         <v>371642.7573115207</v>
@@ -9579,13 +9579,13 @@
         <v>483737.6906074809</v>
       </c>
       <c r="C19" t="n">
-        <v>453548.3012956394</v>
+        <v>465350.4173933667</v>
       </c>
       <c r="D19" t="n">
-        <v>415458.5317673683</v>
+        <v>481170.8453819156</v>
       </c>
       <c r="E19" t="n">
-        <v>470552.8223540783</v>
+        <v>417055.8274198771</v>
       </c>
       <c r="F19" t="n">
         <v>441334.4561095333</v>
@@ -9599,13 +9599,13 @@
         <v>447628.2018755316</v>
       </c>
       <c r="C20" t="n">
-        <v>440932.169700293</v>
+        <v>452044.1380817267</v>
       </c>
       <c r="D20" t="n">
-        <v>425816.4902299047</v>
+        <v>486595.8263489008</v>
       </c>
       <c r="E20" t="n">
-        <v>470796.6373286843</v>
+        <v>415080.7732300758</v>
       </c>
       <c r="F20" t="n">
         <v>414458.0070360376</v>
@@ -9619,13 +9619,13 @@
         <v>473140.6158192882</v>
       </c>
       <c r="C21" t="n">
-        <v>449758.9006167861</v>
+        <v>463942.6802927791</v>
       </c>
       <c r="D21" t="n">
-        <v>418350.7455685139</v>
+        <v>481452.1019735932</v>
       </c>
       <c r="E21" t="n">
-        <v>468479.9861633778</v>
+        <v>427774.6548013687</v>
       </c>
       <c r="F21" t="n">
         <v>440104.6986493482</v>
@@ -9639,13 +9639,13 @@
         <v>507723.3940432699</v>
       </c>
       <c r="C22" t="n">
-        <v>472980.8637337016</v>
+        <v>477282.5214727836</v>
       </c>
       <c r="D22" t="n">
-        <v>440807.3598950505</v>
+        <v>477589.961837709</v>
       </c>
       <c r="E22" t="n">
-        <v>457012.0775408149</v>
+        <v>430267.455796659</v>
       </c>
       <c r="F22" t="n">
         <v>465650.7135399835</v>
@@ -9659,13 +9659,13 @@
         <v>515425.7440322334</v>
       </c>
       <c r="C23" t="n">
-        <v>473055.911632936</v>
+        <v>478904.3595286905</v>
       </c>
       <c r="D23" t="n">
-        <v>426857.5307471156</v>
+        <v>480797.3892526627</v>
       </c>
       <c r="E23" t="n">
-        <v>471442.3185484409</v>
+        <v>419350.3265173435</v>
       </c>
       <c r="F23" t="n">
         <v>471677.2423470335</v>
@@ -9679,13 +9679,13 @@
         <v>474163.8236882363</v>
       </c>
       <c r="C24" t="n">
-        <v>454460.3741057229</v>
+        <v>469037.9157426278</v>
       </c>
       <c r="D24" t="n">
-        <v>432176.6226963997</v>
+        <v>491067.1305718422</v>
       </c>
       <c r="E24" t="n">
-        <v>464258.7549631</v>
+        <v>435722.0558206439</v>
       </c>
       <c r="F24" t="n">
         <v>425373.3255308414</v>
@@ -9699,13 +9699,13 @@
         <v>446257.8773632196</v>
       </c>
       <c r="C25" t="n">
-        <v>439554.477186254</v>
+        <v>451899.4824891974</v>
       </c>
       <c r="D25" t="n">
-        <v>428282.6234067678</v>
+        <v>477456.3738459349</v>
       </c>
       <c r="E25" t="n">
-        <v>469441.7343671322</v>
+        <v>435439.0924885869</v>
       </c>
       <c r="F25" t="n">
         <v>374720.4685252238</v>
@@ -9719,13 +9719,13 @@
         <v>490550.8862705639</v>
       </c>
       <c r="C26" t="n">
-        <v>460293.8438879285</v>
+        <v>474635.1044517946</v>
       </c>
       <c r="D26" t="n">
-        <v>424203.3361147046</v>
+        <v>490185.7413942814</v>
       </c>
       <c r="E26" t="n">
-        <v>476705.9058783054</v>
+        <v>433685.310077548</v>
       </c>
       <c r="F26" t="n">
         <v>429511.1333435799</v>
@@ -9739,13 +9739,13 @@
         <v>487185.296419327</v>
       </c>
       <c r="C27" t="n">
-        <v>459907.801658133</v>
+        <v>476788.5740509802</v>
       </c>
       <c r="D27" t="n">
-        <v>429857.3047492504</v>
+        <v>490657.4062095284</v>
       </c>
       <c r="E27" t="n">
-        <v>471853.7852082253</v>
+        <v>449062.9697811604</v>
       </c>
       <c r="F27" t="n">
         <v>417282.9820707724</v>
@@ -9759,13 +9759,13 @@
         <v>503286.140930686</v>
       </c>
       <c r="C28" t="n">
-        <v>470057.1481329399</v>
+        <v>479181.1935691689</v>
       </c>
       <c r="D28" t="n">
-        <v>441454.1078275442</v>
+        <v>488175.4145699739</v>
       </c>
       <c r="E28" t="n">
-        <v>458538.7568101287</v>
+        <v>435416.1581647396</v>
       </c>
       <c r="F28" t="n">
         <v>428537.6857905939</v>
@@ -9779,13 +9779,13 @@
         <v>458469.9076146295</v>
       </c>
       <c r="C29" t="n">
-        <v>451269.0264563189</v>
+        <v>461312.2375777212</v>
       </c>
       <c r="D29" t="n">
-        <v>442904.0548939705</v>
+        <v>485222.9314991832</v>
       </c>
       <c r="E29" t="n">
-        <v>473565.1480094194</v>
+        <v>443612.9921790361</v>
       </c>
       <c r="F29" t="n">
         <v>378264.880861424</v>
@@ -9799,13 +9799,13 @@
         <v>439316.9334245569</v>
       </c>
       <c r="C30" t="n">
-        <v>442427.3948171696</v>
+        <v>449275.7995845338</v>
       </c>
       <c r="D30" t="n">
-        <v>446492.6543269753</v>
+        <v>480343.0407408476</v>
       </c>
       <c r="E30" t="n">
-        <v>464329.0157753825</v>
+        <v>433429.2634635568</v>
       </c>
       <c r="F30" t="n">
         <v>360676.7430742009</v>
@@ -9819,13 +9819,13 @@
         <v>486907.3334628313</v>
       </c>
       <c r="C31" t="n">
-        <v>465295.9172221851</v>
+        <v>473512.1514549725</v>
       </c>
       <c r="D31" t="n">
-        <v>438872.2007616162</v>
+        <v>487614.6081269979</v>
       </c>
       <c r="E31" t="n">
-        <v>481185.8860315084</v>
+        <v>437624.6091014147</v>
       </c>
       <c r="F31" t="n">
         <v>435347.2692835885</v>
@@ -9839,13 +9839,13 @@
         <v>452135.850132654</v>
       </c>
       <c r="C32" t="n">
-        <v>446356.084695762</v>
+        <v>459176.6555417894</v>
       </c>
       <c r="D32" t="n">
-        <v>434046.6767957807</v>
+        <v>481221.6209082007</v>
       </c>
       <c r="E32" t="n">
-        <v>477201.5717301369</v>
+        <v>447548.2021374106</v>
       </c>
       <c r="F32" t="n">
         <v>398687.2500553382</v>
@@ -9859,13 +9859,13 @@
         <v>476716.4532965361</v>
       </c>
       <c r="C33" t="n">
-        <v>462420.9528311667</v>
+        <v>468798.1931046927</v>
       </c>
       <c r="D33" t="n">
-        <v>446127.9807992578</v>
+        <v>486581.5323982239</v>
       </c>
       <c r="E33" t="n">
-        <v>474498.6638827324</v>
+        <v>437082.7901451588</v>
       </c>
       <c r="F33" t="n">
         <v>425420.4798361226</v>
@@ -9879,13 +9879,13 @@
         <v>510032.5815913674</v>
       </c>
       <c r="C34" t="n">
-        <v>481418.042082738</v>
+        <v>487416.0400516829</v>
       </c>
       <c r="D34" t="n">
-        <v>455435.8672434092</v>
+        <v>487994.1445188522</v>
       </c>
       <c r="E34" t="n">
-        <v>471692.6760278344</v>
+        <v>454917.9782095551</v>
       </c>
       <c r="F34" t="n">
         <v>458424.9555405931</v>
@@ -9899,13 +9899,13 @@
         <v>517457.1941383206</v>
       </c>
       <c r="C35" t="n">
-        <v>483255.9781872396</v>
+        <v>489730.3493487909</v>
       </c>
       <c r="D35" t="n">
-        <v>448327.0446638465</v>
+        <v>484070.8461860418</v>
       </c>
       <c r="E35" t="n">
-        <v>480429.8356005549</v>
+        <v>457588.1379759312</v>
       </c>
       <c r="F35" t="n">
         <v>463919.1844587934</v>
@@ -9919,13 +9919,13 @@
         <v>477719.6304602945</v>
       </c>
       <c r="C36" t="n">
-        <v>461934.0691778677</v>
+        <v>476980.6575876327</v>
       </c>
       <c r="D36" t="n">
-        <v>442581.7654190063</v>
+        <v>490275.131921649</v>
       </c>
       <c r="E36" t="n">
-        <v>480172.8645021915</v>
+        <v>465353.4511309862</v>
       </c>
       <c r="F36" t="n">
         <v>417689.7864063014</v>
@@ -9939,13 +9939,13 @@
         <v>450845.6892198427</v>
       </c>
       <c r="C37" t="n">
-        <v>448246.5235246449</v>
+        <v>462768.0078922451</v>
       </c>
       <c r="D37" t="n">
-        <v>443523.4594233036</v>
+        <v>489302.8588188887</v>
       </c>
       <c r="E37" t="n">
-        <v>478487.3872634172</v>
+        <v>458227.7033759952</v>
       </c>
       <c r="F37" t="n">
         <v>362256.818111221</v>
@@ -9959,13 +9959,13 @@
         <v>493511.9234072923</v>
       </c>
       <c r="C38" t="n">
-        <v>471857.4672598452</v>
+        <v>480799.6419462101</v>
       </c>
       <c r="D38" t="n">
-        <v>452098.6920025349</v>
+        <v>493729.0766501427</v>
       </c>
       <c r="E38" t="n">
-        <v>475766.8430987597</v>
+        <v>451432.0676560402</v>
       </c>
       <c r="F38" t="n">
         <v>416534.2175314415</v>
@@ -9979,13 +9979,13 @@
         <v>490273.7956117464</v>
       </c>
       <c r="C39" t="n">
-        <v>468508.0255584176</v>
+        <v>482864.5163566919</v>
       </c>
       <c r="D39" t="n">
-        <v>451338.4813919067</v>
+        <v>500829.258856535</v>
       </c>
       <c r="E39" t="n">
-        <v>466845.1777796149</v>
+        <v>456600.824223578</v>
       </c>
       <c r="F39" t="n">
         <v>405453.6658581941</v>

--- a/fcst_results/orig_series_HOU-Dom_results.xlsx
+++ b/fcst_results/orig_series_HOU-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>454476.0035654902</v>
+        <v>456822.94937253</v>
       </c>
       <c r="C2" t="n">
-        <v>411331.7046443224</v>
+        <v>404717.765660584</v>
       </c>
       <c r="D2" t="n">
         <v>484997.5861146463</v>
@@ -491,7 +491,7 @@
         <v>448622.8529024446</v>
       </c>
       <c r="F2" t="n">
-        <v>455532.2010083966</v>
+        <v>454949.8952984813</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>459391.8425430655</v>
+        <v>455225.5114916563</v>
       </c>
       <c r="C3" t="n">
-        <v>402758.0721341968</v>
+        <v>406659.6450842619</v>
       </c>
       <c r="D3" t="n">
         <v>481278.4583109817</v>
@@ -511,7 +511,7 @@
         <v>437166.8745786949</v>
       </c>
       <c r="F3" t="n">
-        <v>453345.2223194674</v>
+        <v>453044.1717580241</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>460078.912217021</v>
+        <v>466095.3498396277</v>
       </c>
       <c r="C4" t="n">
-        <v>392082.8733036518</v>
+        <v>423481.2427058816</v>
       </c>
       <c r="D4" t="n">
         <v>498553.1854037594</v>
@@ -531,7 +531,7 @@
         <v>448823.5974462835</v>
       </c>
       <c r="F4" t="n">
-        <v>458002.9999979204</v>
+        <v>467752.1947740034</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>450278.8800730705</v>
+        <v>451968.6241627932</v>
       </c>
       <c r="C5" t="n">
-        <v>396314.6649600267</v>
+        <v>418014.6243850589</v>
       </c>
       <c r="D5" t="n">
         <v>450174.0992992357</v>
@@ -551,7 +551,7 @@
         <v>400453.0554511767</v>
       </c>
       <c r="F5" t="n">
-        <v>435534.97033308</v>
+        <v>441563.7958530285</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>455963.214463532</v>
+        <v>463788.6546598673</v>
       </c>
       <c r="C6" t="n">
-        <v>413379.4375286102</v>
+        <v>419789.2788086534</v>
       </c>
       <c r="D6" t="n">
         <v>429466.1266237666</v>
@@ -571,7 +571,7 @@
         <v>382623.6229867304</v>
       </c>
       <c r="F6" t="n">
-        <v>433080.8795034536</v>
+        <v>437743.8381209657</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>458612.7866740823</v>
+        <v>470463.7162834406</v>
       </c>
       <c r="C7" t="n">
-        <v>405648.0813956857</v>
+        <v>401120.0636122227</v>
       </c>
       <c r="D7" t="n">
         <v>480709.0600438222</v>
@@ -591,7 +591,7 @@
         <v>453190.8828687236</v>
       </c>
       <c r="F7" t="n">
-        <v>454110.7043347008</v>
+        <v>457475.3865504166</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>459381.9221146107</v>
+        <v>464163.5330727696</v>
       </c>
       <c r="C8" t="n">
-        <v>412199.653241396</v>
+        <v>412609.2353753448</v>
       </c>
       <c r="D8" t="n">
         <v>443179.5875215636</v>
@@ -611,7 +611,7 @@
         <v>423028.2202574082</v>
       </c>
       <c r="F8" t="n">
-        <v>440599.6335062976</v>
+        <v>442750.3000798969</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>464256.0881812572</v>
+        <v>453561.2262792587</v>
       </c>
       <c r="C9" t="n">
-        <v>406288.144595027</v>
+        <v>407424.0869887471</v>
       </c>
       <c r="D9" t="n">
         <v>469632.2251447989</v>
@@ -631,7 +631,7 @@
         <v>449130.3793805084</v>
       </c>
       <c r="F9" t="n">
-        <v>451841.0789958818</v>
+        <v>448651.9510445329</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>463621.3941026926</v>
+        <v>462108.4398705959</v>
       </c>
       <c r="C10" t="n">
-        <v>412542.3524867296</v>
+        <v>415039.2781046033</v>
       </c>
       <c r="D10" t="n">
         <v>505506.0651705859</v>
@@ -651,7 +651,7 @@
         <v>477175.0438679613</v>
       </c>
       <c r="F10" t="n">
-        <v>467773.3962270193</v>
+        <v>467955.3330626228</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>471884.470977962</v>
+        <v>456502.3666379452</v>
       </c>
       <c r="C11" t="n">
-        <v>400258.5508486629</v>
+        <v>413386.8334035873</v>
       </c>
       <c r="D11" t="n">
         <v>513475.5858133886</v>
@@ -671,7 +671,7 @@
         <v>482983.8480840219</v>
       </c>
       <c r="F11" t="n">
-        <v>470898.4012321163</v>
+        <v>468787.7316854975</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>475158.3190393448</v>
+        <v>470617.0029037595</v>
       </c>
       <c r="C12" t="n">
-        <v>432083.5697886348</v>
+        <v>414809.0103817582</v>
       </c>
       <c r="D12" t="n">
         <v>470612.3468794461</v>
@@ -691,7 +691,7 @@
         <v>436656.1487096669</v>
       </c>
       <c r="F12" t="n">
-        <v>461732.5963180998</v>
+        <v>456364.6480165795</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>476611.7507007122</v>
+        <v>476477.3804529309</v>
       </c>
       <c r="C13" t="n">
-        <v>404268.857383728</v>
+        <v>418397.5742576718</v>
       </c>
       <c r="D13" t="n">
         <v>441618.4522888935</v>
@@ -711,7 +711,7 @@
         <v>384382.7385923929</v>
       </c>
       <c r="F13" t="n">
-        <v>442679.7142585574</v>
+        <v>446553.8577545481</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>471002.1217589378</v>
+        <v>480005.781730473</v>
       </c>
       <c r="C14" t="n">
-        <v>421358.4843590856</v>
+        <v>431339.7154399753</v>
       </c>
       <c r="D14" t="n">
         <v>487585.86625049</v>
@@ -731,7 +731,7 @@
         <v>439071.3945341054</v>
       </c>
       <c r="F14" t="n">
-        <v>464278.7774571229</v>
+        <v>470049.5935936577</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>481147.0576878786</v>
+        <v>470941.461361289</v>
       </c>
       <c r="C15" t="n">
-        <v>420781.8194534183</v>
+        <v>424810.7934613824</v>
       </c>
       <c r="D15" t="n">
         <v>484075.099318068</v>
@@ -751,7 +751,7 @@
         <v>427232.6438331051</v>
       </c>
       <c r="F15" t="n">
-        <v>465878.2123044098</v>
+        <v>463579.1833712696</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>477453.4581644535</v>
+        <v>467747.8656548262</v>
       </c>
       <c r="C16" t="n">
-        <v>410381.4413810372</v>
+        <v>427683.735319078</v>
       </c>
       <c r="D16" t="n">
         <v>500776.8286870691</v>
@@ -771,7 +771,7 @@
         <v>438701.0358348383</v>
       </c>
       <c r="F16" t="n">
-        <v>468871.5835179252</v>
+        <v>469814.3215407147</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>479887.1277170181</v>
+        <v>472599.9507678151</v>
       </c>
       <c r="C17" t="n">
-        <v>421967.399546504</v>
+        <v>428349.364067018</v>
       </c>
       <c r="D17" t="n">
         <v>454234.5955684311</v>
@@ -791,7 +791,7 @@
         <v>389365.2311649311</v>
       </c>
       <c r="F17" t="n">
-        <v>453043.3052228018</v>
+        <v>452443.5041207724</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>483900.847732842</v>
+        <v>479982.4918357134</v>
       </c>
       <c r="C18" t="n">
-        <v>428378.4497676492</v>
+        <v>436000.0056028366</v>
       </c>
       <c r="D18" t="n">
         <v>434338.1314260365</v>
@@ -811,7 +811,7 @@
         <v>371642.7573115207</v>
       </c>
       <c r="F18" t="n">
-        <v>447766.0860681516</v>
+        <v>448739.8938491767</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>481170.8453819156</v>
+        <v>478635.1625345945</v>
       </c>
       <c r="C19" t="n">
-        <v>417055.8274198771</v>
+        <v>421198.5485627055</v>
       </c>
       <c r="D19" t="n">
         <v>483737.6906074809</v>
@@ -831,7 +831,7 @@
         <v>441334.4561095333</v>
       </c>
       <c r="F19" t="n">
-        <v>465350.4173933667</v>
+        <v>465812.578279043</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>486595.8263489008</v>
+        <v>479672.5762284994</v>
       </c>
       <c r="C20" t="n">
-        <v>415080.7732300758</v>
+        <v>431370.401209712</v>
       </c>
       <c r="D20" t="n">
         <v>447628.2018755316</v>
@@ -851,7 +851,7 @@
         <v>414458.0070360376</v>
       </c>
       <c r="F20" t="n">
-        <v>452044.1380817267</v>
+        <v>454024.899051252</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>481452.1019735932</v>
+        <v>471112.384298861</v>
       </c>
       <c r="C21" t="n">
-        <v>427774.6548013687</v>
+        <v>422324.4994137883</v>
       </c>
       <c r="D21" t="n">
         <v>473140.6158192882</v>
@@ -871,7 +871,7 @@
         <v>440104.6986493482</v>
       </c>
       <c r="F21" t="n">
-        <v>463942.6802927791</v>
+        <v>459374.1035486201</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>477589.961837709</v>
+        <v>478819.0282533765</v>
       </c>
       <c r="C22" t="n">
-        <v>430267.455796659</v>
+        <v>425158.2217998505</v>
       </c>
       <c r="D22" t="n">
         <v>507723.3940432699</v>
@@ -891,7 +891,7 @@
         <v>465650.7135399835</v>
       </c>
       <c r="F22" t="n">
-        <v>477282.5214727836</v>
+        <v>476686.0770335448</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>480797.3892526627</v>
+        <v>470024.7639921308</v>
       </c>
       <c r="C23" t="n">
-        <v>419350.3265173435</v>
+        <v>424580.3123959899</v>
       </c>
       <c r="D23" t="n">
         <v>515425.7440322334</v>
@@ -911,7 +911,7 @@
         <v>471677.2423470335</v>
       </c>
       <c r="F23" t="n">
-        <v>478904.3595286905</v>
+        <v>476548.2725129221</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>491067.1305718422</v>
+        <v>486579.1145160198</v>
       </c>
       <c r="C24" t="n">
-        <v>435722.0558206439</v>
+        <v>439129.9541159868</v>
       </c>
       <c r="D24" t="n">
         <v>474163.8236882363</v>
@@ -931,7 +931,7 @@
         <v>425373.3255308414</v>
       </c>
       <c r="F24" t="n">
-        <v>469037.9157426278</v>
+        <v>468671.9998466074</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>477456.3738459349</v>
+        <v>486135.2553461194</v>
       </c>
       <c r="C25" t="n">
-        <v>435439.0924885869</v>
+        <v>443233.5980155468</v>
       </c>
       <c r="D25" t="n">
         <v>446257.8773632196</v>
@@ -951,7 +951,7 @@
         <v>374720.4685252238</v>
       </c>
       <c r="F25" t="n">
-        <v>451899.4824891974</v>
+        <v>457215.6783551409</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>490185.7413942814</v>
+        <v>476198.6839718223</v>
       </c>
       <c r="C26" t="n">
-        <v>433685.310077548</v>
+        <v>437078.0254949331</v>
       </c>
       <c r="D26" t="n">
         <v>490550.8862705639</v>
@@ -971,7 +971,7 @@
         <v>429511.1333435799</v>
       </c>
       <c r="F26" t="n">
-        <v>474635.1044517946</v>
+        <v>470837.60777623</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>490657.4062095284</v>
+        <v>474540.6923645735</v>
       </c>
       <c r="C27" t="n">
-        <v>449062.9697811604</v>
+        <v>433970.0512641668</v>
       </c>
       <c r="D27" t="n">
         <v>487185.296419327</v>
@@ -991,7 +991,7 @@
         <v>417282.9820707724</v>
       </c>
       <c r="F27" t="n">
-        <v>476788.5740509802</v>
+        <v>467833.1839103642</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>488175.4145699739</v>
+        <v>476229.3341844678</v>
       </c>
       <c r="C28" t="n">
-        <v>435416.1581647396</v>
+        <v>445534.8174032569</v>
       </c>
       <c r="D28" t="n">
         <v>503286.140930686</v>
@@ -1011,7 +1011,7 @@
         <v>428537.6857905939</v>
       </c>
       <c r="F28" t="n">
-        <v>479181.1935691689</v>
+        <v>477601.1788093816</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>485222.9314991832</v>
+        <v>486305.1115709543</v>
       </c>
       <c r="C29" t="n">
-        <v>443612.9921790361</v>
+        <v>448966.1478217244</v>
       </c>
       <c r="D29" t="n">
         <v>458469.9076146295</v>
@@ -1031,7 +1031,7 @@
         <v>378264.880861424</v>
       </c>
       <c r="F29" t="n">
-        <v>461312.2375777212</v>
+        <v>463347.3088584942</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>480343.0407408476</v>
+        <v>503922.9391366243</v>
       </c>
       <c r="C30" t="n">
-        <v>433429.2634635568</v>
+        <v>451263.669271946</v>
       </c>
       <c r="D30" t="n">
         <v>439316.9334245569</v>
@@ -1051,7 +1051,7 @@
         <v>360676.7430742009</v>
       </c>
       <c r="F30" t="n">
-        <v>449275.7995845338</v>
+        <v>462297.5689977534</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>487614.6081269979</v>
+        <v>485185.0631970167</v>
       </c>
       <c r="C31" t="n">
-        <v>437624.6091014147</v>
+        <v>441426.6933102012</v>
       </c>
       <c r="D31" t="n">
         <v>486907.3334628313</v>
@@ -1071,7 +1071,7 @@
         <v>435347.2692835885</v>
       </c>
       <c r="F31" t="n">
-        <v>473512.1514549725</v>
+        <v>473865.1266292483</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>481221.6209082007</v>
+        <v>488241.977444768</v>
       </c>
       <c r="C32" t="n">
-        <v>447548.2021374106</v>
+        <v>436588.3332344294</v>
       </c>
       <c r="D32" t="n">
         <v>452135.850132654</v>
@@ -1091,7 +1091,7 @@
         <v>398687.2500553382</v>
       </c>
       <c r="F32" t="n">
-        <v>459176.6555417894</v>
+        <v>459442.0052842695</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>486581.5323982239</v>
+        <v>485961.3100557923</v>
       </c>
       <c r="C33" t="n">
-        <v>437082.7901451588</v>
+        <v>457101.1480543613</v>
       </c>
       <c r="D33" t="n">
         <v>476716.4532965361</v>
@@ -1111,7 +1111,7 @@
         <v>425420.4798361226</v>
       </c>
       <c r="F33" t="n">
-        <v>468798.1931046927</v>
+        <v>473631.5859662201</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>487994.1445188522</v>
+        <v>495388.2771984935</v>
       </c>
       <c r="C34" t="n">
-        <v>454917.9782095551</v>
+        <v>437909.0302742124</v>
       </c>
       <c r="D34" t="n">
         <v>510032.5815913674</v>
@@ -1131,7 +1131,7 @@
         <v>458424.9555405931</v>
       </c>
       <c r="F34" t="n">
-        <v>487416.0400516829</v>
+        <v>486165.938496649</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>484070.8461860418</v>
+        <v>488902.7704282999</v>
       </c>
       <c r="C35" t="n">
-        <v>457588.1379759312</v>
+        <v>448180.4783337712</v>
       </c>
       <c r="D35" t="n">
         <v>517457.1941383206</v>
@@ -1151,7 +1151,7 @@
         <v>463919.1844587934</v>
       </c>
       <c r="F35" t="n">
-        <v>489730.3493487909</v>
+        <v>489266.6404612009</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>490275.131921649</v>
+        <v>485207.997520864</v>
       </c>
       <c r="C36" t="n">
-        <v>465353.4511309862</v>
+        <v>455651.4143304825</v>
       </c>
       <c r="D36" t="n">
         <v>477719.6304602945</v>
@@ -1171,7 +1171,7 @@
         <v>417689.7864063014</v>
       </c>
       <c r="F36" t="n">
-        <v>476980.6575876327</v>
+        <v>473138.2025803688</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>489302.8588188887</v>
+        <v>491565.6054338813</v>
       </c>
       <c r="C37" t="n">
-        <v>458227.7033759952</v>
+        <v>447579.0656926036</v>
       </c>
       <c r="D37" t="n">
         <v>450845.6892198427</v>
@@ -1191,7 +1191,7 @@
         <v>362256.818111221</v>
       </c>
       <c r="F37" t="n">
-        <v>462768.0078922451</v>
+        <v>461460.3565465655</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>493729.0766501427</v>
+        <v>481356.9156403542</v>
       </c>
       <c r="C38" t="n">
-        <v>451432.0676560402</v>
+        <v>466886.7795763612</v>
       </c>
       <c r="D38" t="n">
         <v>493511.9234072923</v>
@@ -1211,7 +1211,7 @@
         <v>416534.2175314415</v>
       </c>
       <c r="F38" t="n">
-        <v>480799.6419462101</v>
+        <v>480325.5902465938</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>500829.258856535</v>
+        <v>494255.0371437073</v>
       </c>
       <c r="C39" t="n">
-        <v>456600.824223578</v>
+        <v>454829.9032945633</v>
       </c>
       <c r="D39" t="n">
         <v>490273.7956117464</v>
@@ -1231,7 +1231,7 @@
         <v>405453.6658581941</v>
       </c>
       <c r="F39" t="n">
-        <v>482864.5163566919</v>
+        <v>480464.1920005648</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>99460.84013560547</v>
+        <v>86363.21857531964</v>
       </c>
       <c r="S2" t="n">
         <v>45176.65628268386</v>
@@ -1545,19 +1545,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>153775.965079765</v>
+        <v>154127.4625958574</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5813268560337228</v>
+        <v>0.5794296544356303</v>
       </c>
       <c r="M3" t="n">
-        <v>103266.7008761863</v>
+        <v>103979.2094399535</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4004387760609842</v>
+        <v>-0.4068482736520442</v>
       </c>
       <c r="O3" t="n">
-        <v>581299.6718622127</v>
+        <v>577345.0417354563</v>
       </c>
       <c r="P3" t="n">
         <v>438059</v>
@@ -1566,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>130338.0545116771</v>
+        <v>128399.9753120798</v>
       </c>
       <c r="S3" t="n">
-        <v>66113.42145731594</v>
+        <v>64780.47135482344</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1837376460510624</v>
+        <v>0.1817073501520724</v>
       </c>
       <c r="U3" t="n">
-        <v>37965.61639800289</v>
+        <v>37737.96381950917</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5676218571618807</v>
+        <v>0.5848809411426781</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1591,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.38118571638596094, 0.3436805224318947, 0.24048051423796601, 0.03465324694417827)</t>
+          <t>(0.3771493480029289, 0.3540781012029631, 0.23448624643020533, 0.03428630436390263)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>153775.965079765</v>
+        <v>154127.4625958574</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5813268560337228</v>
+        <v>0.5794296544356303</v>
       </c>
       <c r="AE3" t="n">
-        <v>103266.7008761863</v>
+        <v>103979.2094399535</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.4004387760609842</v>
+        <v>-0.4068482736520442</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>158429.6283583001</v>
+        <v>157631.9626535255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5886854973386253</v>
+        <v>0.583291987452055</v>
       </c>
       <c r="M4" t="n">
-        <v>127664.8657145935</v>
+        <v>128010.4125540216</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4864832216032327</v>
+        <v>-0.4715525326922827</v>
       </c>
       <c r="O4" t="n">
-        <v>575817.5922379494</v>
+        <v>565745.1570050716</v>
       </c>
       <c r="P4" t="n">
         <v>438059</v>
@@ -1669,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>255051.1262512491</v>
+        <v>252192.1197596571</v>
       </c>
       <c r="S4" t="n">
-        <v>98616.40865730117</v>
+        <v>98130.05262740217</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2680301089496299</v>
+        <v>0.2743936057244812</v>
       </c>
       <c r="U4" t="n">
-        <v>56765.87319924275</v>
+        <v>59586.1475393505</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03798281309029516</v>
+        <v>0.0474483597395573</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1692,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>158429.6283583001</v>
+        <v>157631.9626535255</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5886854973386253</v>
+        <v>0.583291987452055</v>
       </c>
       <c r="AE4" t="n">
-        <v>127664.8657145935</v>
+        <v>128010.4125540216</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4864832216032327</v>
+        <v>-0.4715525326922827</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>166212.2780406569</v>
+        <v>169103.088745081</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6279192342693274</v>
+        <v>0.6292440281409053</v>
       </c>
       <c r="M5" t="n">
-        <v>124089.0158180578</v>
+        <v>126041.580892757</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.6361134251808471</v>
+        <v>-0.693519825544979</v>
       </c>
       <c r="O5" t="n">
-        <v>602367.1817569733</v>
+        <v>601349.5807919502</v>
       </c>
       <c r="P5" t="n">
         <v>438059</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>170186.4137301759</v>
+        <v>192839.5254892594</v>
       </c>
       <c r="S5" t="n">
-        <v>97758.54794381728</v>
+        <v>93315.33141739812</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2615456276488157</v>
+        <v>0.2515045713735213</v>
       </c>
       <c r="U5" t="n">
-        <v>54232.5297330795</v>
+        <v>52877.71394312747</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05464712351573053</v>
+        <v>0.1386285533692536</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>166212.2780406569</v>
+        <v>169103.088745081</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6279192342693274</v>
+        <v>0.6292440281409053</v>
       </c>
       <c r="AE5" t="n">
-        <v>124089.0158180578</v>
+        <v>126041.580892757</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.6361134251808471</v>
+        <v>-0.693519825544979</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>131694.9603173206</v>
+        <v>79052.86496846381</v>
       </c>
       <c r="S6" t="n">
         <v>70443.24900339045</v>
@@ -5731,13 +5731,13 @@
         <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>475998.2319823609</v>
+        <v>480448.600571541</v>
       </c>
       <c r="E2" t="n">
-        <v>430164.8922723532</v>
+        <v>442985.9819806814</v>
       </c>
       <c r="F2" t="n">
-        <v>427631.6051721573</v>
+        <v>429283.282145381</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -5754,13 +5754,13 @@
         <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>444341.5152423562</v>
+        <v>458493.0189906925</v>
       </c>
       <c r="E3" t="n">
-        <v>387754.5286051631</v>
+        <v>425063.1968151331</v>
       </c>
       <c r="F3" t="n">
-        <v>430248.9710631371</v>
+        <v>437443.5646857023</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -5777,13 +5777,13 @@
         <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>470909.167077813</v>
+        <v>467802.9982501887</v>
       </c>
       <c r="E4" t="n">
-        <v>422261.5275515318</v>
+        <v>423912.6011382341</v>
       </c>
       <c r="F4" t="n">
-        <v>432701.4875952005</v>
+        <v>419311.9869773388</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -5800,13 +5800,13 @@
         <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>462122.0611445564</v>
+        <v>471175.0524020974</v>
       </c>
       <c r="E5" t="n">
-        <v>409145.7667532563</v>
+        <v>427339.1915800571</v>
       </c>
       <c r="F5" t="n">
-        <v>444509.3664956093</v>
+        <v>458557.0577760935</v>
       </c>
       <c r="G5" t="n">
         <v>510856.6175063986</v>
@@ -5823,13 +5823,13 @@
         <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>468709.9342783455</v>
+        <v>466483.2857762414</v>
       </c>
       <c r="E6" t="n">
-        <v>414586.2637422085</v>
+        <v>410861.1218109131</v>
       </c>
       <c r="F6" t="n">
-        <v>443782.0152537823</v>
+        <v>442784.5965275764</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -5846,13 +5846,13 @@
         <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>449128.0554013457</v>
+        <v>454007.5443312273</v>
       </c>
       <c r="E7" t="n">
-        <v>416685.1333534718</v>
+        <v>413562.4208476543</v>
       </c>
       <c r="F7" t="n">
-        <v>435428.7738652229</v>
+        <v>462694.0630242825</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -5869,13 +5869,13 @@
         <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>449540.7793706873</v>
+        <v>454298.5639430482</v>
       </c>
       <c r="E8" t="n">
-        <v>419977.9592454433</v>
+        <v>442831.8479341269</v>
       </c>
       <c r="F8" t="n">
-        <v>456011.1619782448</v>
+        <v>443656.4900509119</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -5892,13 +5892,13 @@
         <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>470510.7883005622</v>
+        <v>456928.6064354986</v>
       </c>
       <c r="E9" t="n">
-        <v>414517.3528401852</v>
+        <v>401644.9336646795</v>
       </c>
       <c r="F9" t="n">
-        <v>436543.936188817</v>
+        <v>400910.7891228795</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -5915,13 +5915,13 @@
         <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>465956.2052931979</v>
+        <v>453429.8230436859</v>
       </c>
       <c r="E10" t="n">
-        <v>413011.9658887386</v>
+        <v>405858.1320660114</v>
       </c>
       <c r="F10" t="n">
-        <v>446988.3904217482</v>
+        <v>407260.7040348649</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -5938,13 +5938,13 @@
         <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>471049.861504557</v>
+        <v>469652.8454224649</v>
       </c>
       <c r="E11" t="n">
-        <v>410817.646771729</v>
+        <v>415408.055377841</v>
       </c>
       <c r="F11" t="n">
-        <v>439033.2176858187</v>
+        <v>429278.7047303915</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -5961,13 +5961,13 @@
         <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>479313.0275852224</v>
+        <v>494449.5140561609</v>
       </c>
       <c r="E12" t="n">
-        <v>416812.9056509733</v>
+        <v>443977.2836159468</v>
       </c>
       <c r="F12" t="n">
-        <v>422933.4296526909</v>
+        <v>449378.8621742725</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -5984,13 +5984,13 @@
         <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>489616.3423922543</v>
+        <v>475575.9207962919</v>
       </c>
       <c r="E13" t="n">
-        <v>426153.1417434216</v>
+        <v>410819.550560236</v>
       </c>
       <c r="F13" t="n">
-        <v>436359.2374939919</v>
+        <v>402651.7881076932</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -6007,13 +6007,13 @@
         <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>471721.0923426352</v>
+        <v>475817.049326431</v>
       </c>
       <c r="E14" t="n">
-        <v>427735.8453953266</v>
+        <v>413867.7760403156</v>
       </c>
       <c r="F14" t="n">
-        <v>414443.177910924</v>
+        <v>454642.8269928694</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -6030,13 +6030,13 @@
         <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>457573.2632669304</v>
+        <v>450525.4937430429</v>
       </c>
       <c r="E15" t="n">
-        <v>417993.1088802814</v>
+        <v>413403.8966439962</v>
       </c>
       <c r="F15" t="n">
-        <v>437167.3593039513</v>
+        <v>416110.2308372259</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -6053,13 +6053,13 @@
         <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>468150.6444004682</v>
+        <v>471415.3078124738</v>
       </c>
       <c r="E16" t="n">
-        <v>406811.2851086259</v>
+        <v>401882.0021482706</v>
       </c>
       <c r="F16" t="n">
-        <v>432034.4958119392</v>
+        <v>456541.2682468891</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -6076,13 +6076,13 @@
         <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>471903.1283181355</v>
+        <v>467852.8137215092</v>
       </c>
       <c r="E17" t="n">
-        <v>433464.4386417866</v>
+        <v>415972.2425817251</v>
       </c>
       <c r="F17" t="n">
-        <v>434823.1402492523</v>
+        <v>445719.3021159172</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -6099,13 +6099,13 @@
         <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>476561.0900224572</v>
+        <v>470384.9865468481</v>
       </c>
       <c r="E18" t="n">
-        <v>404562.8588657975</v>
+        <v>422412.0204725266</v>
       </c>
       <c r="F18" t="n">
-        <v>474017.2560966015</v>
+        <v>424998.4055866003</v>
       </c>
       <c r="G18" t="n">
         <v>554486.7217144087</v>
@@ -6122,13 +6122,13 @@
         <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>457713.0207300737</v>
+        <v>459541.5624798327</v>
       </c>
       <c r="E19" t="n">
-        <v>429001.2925755978</v>
+        <v>425742.1314902306</v>
       </c>
       <c r="F19" t="n">
-        <v>429992.5317915678</v>
+        <v>444023.1409915686</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -6145,13 +6145,13 @@
         <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>455837.2010427075</v>
+        <v>438429.7870175461</v>
       </c>
       <c r="E20" t="n">
-        <v>436854.576215148</v>
+        <v>397395.6257010102</v>
       </c>
       <c r="F20" t="n">
-        <v>433661.6628085375</v>
+        <v>419819.2061710358</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -6168,13 +6168,13 @@
         <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>479973.7940349779</v>
+        <v>483559.4223139263</v>
       </c>
       <c r="E21" t="n">
-        <v>429781.0344126225</v>
+        <v>423349.2045787573</v>
       </c>
       <c r="F21" t="n">
-        <v>434308.6388044357</v>
+        <v>461645.4188630581</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -6191,13 +6191,13 @@
         <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>478629.9458365957</v>
+        <v>479539.9721461707</v>
       </c>
       <c r="E22" t="n">
-        <v>419440.1962099075</v>
+        <v>442007.8716231585</v>
       </c>
       <c r="F22" t="n">
-        <v>467704.2309881449</v>
+        <v>440890.1709148884</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -6214,13 +6214,13 @@
         <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>483306.2208643181</v>
+        <v>479732.8213516089</v>
       </c>
       <c r="E23" t="n">
-        <v>415510.0068935156</v>
+        <v>430928.2386411428</v>
       </c>
       <c r="F23" t="n">
-        <v>461871.9800986052</v>
+        <v>427094.1750395298</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -6237,13 +6237,13 @@
         <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>485574.8160768364</v>
+        <v>492089.9787225399</v>
       </c>
       <c r="E24" t="n">
-        <v>409465.5199967027</v>
+        <v>428630.1058328152</v>
       </c>
       <c r="F24" t="n">
-        <v>440528.9920657873</v>
+        <v>443268.6997755766</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -6260,13 +6260,13 @@
         <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>499823.610380417</v>
+        <v>497265.9513234288</v>
       </c>
       <c r="E25" t="n">
-        <v>433528.2519680262</v>
+        <v>429996.7763036489</v>
       </c>
       <c r="F25" t="n">
-        <v>449782.3613055944</v>
+        <v>447440.2228940725</v>
       </c>
       <c r="G25" t="n">
         <v>620969.9780932692</v>
@@ -6283,13 +6283,13 @@
         <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>487575.4532326862</v>
+        <v>487487.1933087152</v>
       </c>
       <c r="E26" t="n">
-        <v>431793.2660419941</v>
+        <v>422455.3186570406</v>
       </c>
       <c r="F26" t="n">
-        <v>452283.1071465015</v>
+        <v>468827.4662072659</v>
       </c>
       <c r="G26" t="n">
         <v>586956.5220437354</v>
@@ -6306,13 +6306,13 @@
         <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>469175.7394148478</v>
+        <v>471834.236333592</v>
       </c>
       <c r="E27" t="n">
-        <v>426976.5146678686</v>
+        <v>440723.2201063633</v>
       </c>
       <c r="F27" t="n">
-        <v>444113.8154212236</v>
+        <v>436851.2263796329</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -6329,13 +6329,13 @@
         <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>483380.0163237794</v>
+        <v>481800.0184972311</v>
       </c>
       <c r="E28" t="n">
-        <v>432708.7490398884</v>
+        <v>412734.6785725355</v>
       </c>
       <c r="F28" t="n">
-        <v>435771.1228935719</v>
+        <v>461527.4255884886</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -6352,13 +6352,13 @@
         <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>488838.8692930249</v>
+        <v>484010.1160618582</v>
       </c>
       <c r="E29" t="n">
-        <v>442545.5514329672</v>
+        <v>441604.6221690178</v>
       </c>
       <c r="F29" t="n">
-        <v>467446.2936534882</v>
+        <v>450730.8641107082</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -6375,13 +6375,13 @@
         <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>489108.5147942555</v>
+        <v>493811.4097264322</v>
       </c>
       <c r="E30" t="n">
-        <v>436134.8193209171</v>
+        <v>430919.3751012087</v>
       </c>
       <c r="F30" t="n">
-        <v>457599.7746567726</v>
+        <v>488239.1596302986</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -6398,13 +6398,13 @@
         <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>472944.5394355824</v>
+        <v>485990.705334157</v>
       </c>
       <c r="E31" t="n">
-        <v>448359.4510496855</v>
+        <v>460104.120010376</v>
       </c>
       <c r="F31" t="n">
-        <v>437122.6462820768</v>
+        <v>475970.2310082912</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -6421,13 +6421,13 @@
         <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>467679.9783160079</v>
+        <v>473727.6458126254</v>
       </c>
       <c r="E32" t="n">
-        <v>422282.9373698235</v>
+        <v>441326.2321119308</v>
       </c>
       <c r="F32" t="n">
-        <v>472750.1444017887</v>
+        <v>472577.7006952763</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -6444,13 +6444,13 @@
         <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>502637.27125942</v>
+        <v>496719.4455180438</v>
       </c>
       <c r="E33" t="n">
-        <v>450935.0376256704</v>
+        <v>441846.9130669832</v>
       </c>
       <c r="F33" t="n">
-        <v>475812.1645461321</v>
+        <v>466998.5392417908</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -6467,13 +6467,13 @@
         <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>491220.2939245505</v>
+        <v>491478.8041209102</v>
       </c>
       <c r="E34" t="n">
-        <v>447544.8584394455</v>
+        <v>445358.0400410891</v>
       </c>
       <c r="F34" t="n">
-        <v>455457.086700201</v>
+        <v>461950.3163142204</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -6490,13 +6490,13 @@
         <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>506672.1588886554</v>
+        <v>499322.2776104017</v>
       </c>
       <c r="E35" t="n">
-        <v>459848.6378346682</v>
+        <v>434745.5530651808</v>
       </c>
       <c r="F35" t="n">
-        <v>473202.7467120886</v>
+        <v>482075.0253475904</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -6513,13 +6513,13 @@
         <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>509573.2257731808</v>
+        <v>501618.6130954314</v>
       </c>
       <c r="E36" t="n">
-        <v>435471.0525345802</v>
+        <v>436449.0796663761</v>
       </c>
       <c r="F36" t="n">
-        <v>483531.3507329226</v>
+        <v>452183.9228862524</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -6536,13 +6536,13 @@
         <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>529269.1043250441</v>
+        <v>511843.5941046998</v>
       </c>
       <c r="E37" t="n">
-        <v>459499.5059095621</v>
+        <v>440636.1035765409</v>
       </c>
       <c r="F37" t="n">
-        <v>516308.638183713</v>
+        <v>474465.093734026</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -6559,13 +6559,13 @@
         <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>511692.8206329391</v>
+        <v>502476.9645913373</v>
       </c>
       <c r="E38" t="n">
-        <v>471293.9022421837</v>
+        <v>438275.1769571304</v>
       </c>
       <c r="F38" t="n">
-        <v>474136.2688863277</v>
+        <v>486558.8946198225</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -6582,13 +6582,13 @@
         <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>488522.7156963513</v>
+        <v>489912.3293864204</v>
       </c>
       <c r="E39" t="n">
-        <v>444632.4573459625</v>
+        <v>467654.0458747149</v>
       </c>
       <c r="F39" t="n">
-        <v>471789.220156908</v>
+        <v>445333.7589352131</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -6605,13 +6605,13 @@
         <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>508483.6861823249</v>
+        <v>503171.3403490225</v>
       </c>
       <c r="E40" t="n">
-        <v>452494.8542026281</v>
+        <v>446321.0865420103</v>
       </c>
       <c r="F40" t="n">
-        <v>490142.3031378984</v>
+        <v>479891.4527525902</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -6628,13 +6628,13 @@
         <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>501732.3813584068</v>
+        <v>508645.6402792214</v>
       </c>
       <c r="E41" t="n">
-        <v>438772.3258378506</v>
+        <v>477702.1791952848</v>
       </c>
       <c r="F41" t="n">
-        <v>502736.6859656572</v>
+        <v>477218.2215923071</v>
       </c>
       <c r="G41" t="n">
         <v>591412.0753267221</v>
@@ -6651,13 +6651,13 @@
         <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>506311.2783271279</v>
+        <v>510656.6446309515</v>
       </c>
       <c r="E42" t="n">
-        <v>459668.9742963314</v>
+        <v>466127.0202342272</v>
       </c>
       <c r="F42" t="n">
-        <v>473137.7474192381</v>
+        <v>484221.7497519255</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -6674,13 +6674,13 @@
         <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>497784.2951572911</v>
+        <v>489304.8488586937</v>
       </c>
       <c r="E43" t="n">
-        <v>470878.1689289808</v>
+        <v>438553.4837884903</v>
       </c>
       <c r="F43" t="n">
-        <v>481248.9475870132</v>
+        <v>495265.4708327055</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -6697,13 +6697,13 @@
         <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>480010.0572871923</v>
+        <v>480790.8490971841</v>
       </c>
       <c r="E44" t="n">
-        <v>438589.9158505201</v>
+        <v>444598.8549586535</v>
       </c>
       <c r="F44" t="n">
-        <v>471499.1368851662</v>
+        <v>468109.6859240532</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -6720,13 +6720,13 @@
         <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>514773.5745240562</v>
+        <v>516094.6460161829</v>
       </c>
       <c r="E45" t="n">
-        <v>461296.8487116098</v>
+        <v>450906.0750726461</v>
       </c>
       <c r="F45" t="n">
-        <v>490246.2104581594</v>
+        <v>514410.9251548052</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -6743,13 +6743,13 @@
         <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>510996.0336832314</v>
+        <v>520264.8165069623</v>
       </c>
       <c r="E46" t="n">
-        <v>471882.0584554672</v>
+        <v>487762.4634720087</v>
       </c>
       <c r="F46" t="n">
-        <v>479905.8924162388</v>
+        <v>497338.5612750053</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -6766,13 +6766,13 @@
         <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>520111.8293310885</v>
+        <v>510848.3679636142</v>
       </c>
       <c r="E47" t="n">
-        <v>476627.5686072111</v>
+        <v>455393.7103090286</v>
       </c>
       <c r="F47" t="n">
-        <v>483955.6562960148</v>
+        <v>478585.2041596174</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -6789,13 +6789,13 @@
         <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>534958.5939792731</v>
+        <v>526844.7689238525</v>
       </c>
       <c r="E48" t="n">
-        <v>469490.0886398554</v>
+        <v>481722.5019741058</v>
       </c>
       <c r="F48" t="n">
-        <v>521979.9929363728</v>
+        <v>472634.523060441</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -6812,13 +6812,13 @@
         <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>520907.6689295049</v>
+        <v>538960.3483071578</v>
       </c>
       <c r="E49" t="n">
-        <v>463831.0512948036</v>
+        <v>490906.8562797308</v>
       </c>
       <c r="F49" t="n">
-        <v>457614.1310946941</v>
+        <v>496203.5080026388</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -6835,13 +6835,13 @@
         <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>524612.7575202355</v>
+        <v>530183.6768743625</v>
       </c>
       <c r="E50" t="n">
-        <v>470403.5950267315</v>
+        <v>477836.5887445211</v>
       </c>
       <c r="F50" t="n">
-        <v>508486.6474175453</v>
+        <v>524028.6358213425</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -6858,13 +6858,13 @@
         <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>515959.8902121088</v>
+        <v>523140.9579090874</v>
       </c>
       <c r="E51" t="n">
-        <v>489343.5442222357</v>
+        <v>473731.1052404642</v>
       </c>
       <c r="F51" t="n">
-        <v>496106.5708370209</v>
+        <v>551607.6859714985</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -6881,13 +6881,13 @@
         <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>532120.458319109</v>
+        <v>523859.4830365136</v>
       </c>
       <c r="E52" t="n">
-        <v>487198.151429534</v>
+        <v>477602.2250970602</v>
       </c>
       <c r="F52" t="n">
-        <v>518502.6764138937</v>
+        <v>500251.4825292826</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -6904,13 +6904,13 @@
         <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>528378.2551319457</v>
+        <v>537078.0036030116</v>
       </c>
       <c r="E53" t="n">
-        <v>492140.9897801876</v>
+        <v>497882.1084985733</v>
       </c>
       <c r="F53" t="n">
-        <v>515058.8166337013</v>
+        <v>545464.3373141289</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -6927,13 +6927,13 @@
         <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>531971.3525916678</v>
+        <v>539241.4525052827</v>
       </c>
       <c r="E54" t="n">
-        <v>481918.7898514271</v>
+        <v>505362.5616872311</v>
       </c>
       <c r="F54" t="n">
-        <v>527081.2722649574</v>
+        <v>525609.5085072517</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -6950,13 +6950,13 @@
         <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>522172.9561986087</v>
+        <v>521352.1664333731</v>
       </c>
       <c r="E55" t="n">
-        <v>474033.9844677448</v>
+        <v>489029.887263298</v>
       </c>
       <c r="F55" t="n">
-        <v>552902.5534462929</v>
+        <v>530091.6508456469</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -6973,13 +6973,13 @@
         <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>522017.4630734085</v>
+        <v>527415.006427285</v>
       </c>
       <c r="E56" t="n">
-        <v>496263.4721390009</v>
+        <v>503422.7572468519</v>
       </c>
       <c r="F56" t="n">
-        <v>536394.3767703772</v>
+        <v>550355.409262538</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -6996,13 +6996,13 @@
         <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>536869.3405127082</v>
+        <v>554367.9743465505</v>
       </c>
       <c r="E57" t="n">
-        <v>484139.0441856384</v>
+        <v>514123.2762355804</v>
       </c>
       <c r="F57" t="n">
-        <v>528007.9283167124</v>
+        <v>560382.9026027918</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -7019,13 +7019,13 @@
         <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>543270.2800505367</v>
+        <v>540516.1948691179</v>
       </c>
       <c r="E58" t="n">
-        <v>496004.5360956192</v>
+        <v>494341.3531656265</v>
       </c>
       <c r="F58" t="n">
-        <v>557680.4384058714</v>
+        <v>551487.9865695238</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -7042,13 +7042,13 @@
         <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>561947.3770776564</v>
+        <v>544219.39517197</v>
       </c>
       <c r="E59" t="n">
-        <v>530468.9130665064</v>
+        <v>488501.3414770365</v>
       </c>
       <c r="F59" t="n">
-        <v>560942.9077138901</v>
+        <v>550580.7221121788</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -7065,13 +7065,13 @@
         <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>563636.9393626436</v>
+        <v>561971.7044631911</v>
       </c>
       <c r="E60" t="n">
-        <v>507433.8835828304</v>
+        <v>517126.663855195</v>
       </c>
       <c r="F60" t="n">
-        <v>568805.5126348734</v>
+        <v>550508.0452460051</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -7088,13 +7088,13 @@
         <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>561919.9034060525</v>
+        <v>574710.293123797</v>
       </c>
       <c r="E61" t="n">
-        <v>499989.3839082718</v>
+        <v>514560.5650120974</v>
       </c>
       <c r="F61" t="n">
-        <v>559974.7220243216</v>
+        <v>596197.1176412106</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -7111,13 +7111,13 @@
         <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>552789.8220191493</v>
+        <v>551006.9889294994</v>
       </c>
       <c r="E62" t="n">
-        <v>512346.5109945536</v>
+        <v>502469.5729945898</v>
       </c>
       <c r="F62" t="n">
-        <v>545247.5759079456</v>
+        <v>554868.8860871792</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -7134,13 +7134,13 @@
         <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>544869.9068852256</v>
+        <v>550216.7479936703</v>
       </c>
       <c r="E63" t="n">
-        <v>508627.090831995</v>
+        <v>528256.6275956631</v>
       </c>
       <c r="F63" t="n">
-        <v>569756.8867275715</v>
+        <v>565453.8253474236</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -7157,13 +7157,13 @@
         <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>565594.6277940561</v>
+        <v>564423.0475844445</v>
       </c>
       <c r="E64" t="n">
-        <v>528752.9858319759</v>
+        <v>522789.8208737373</v>
       </c>
       <c r="F64" t="n">
-        <v>576525.052531004</v>
+        <v>582899.2901617289</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -7180,13 +7180,13 @@
         <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>567861.4522273984</v>
+        <v>562860.550696067</v>
       </c>
       <c r="E65" t="n">
-        <v>552790.1987147331</v>
+        <v>529153.1351277828</v>
       </c>
       <c r="F65" t="n">
-        <v>570669.997792244</v>
+        <v>585978.7877087593</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -7203,13 +7203,13 @@
         <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>577627.3262229334</v>
+        <v>569604.4937811656</v>
       </c>
       <c r="E66" t="n">
-        <v>554234.3523374796</v>
+        <v>537317.9534702301</v>
       </c>
       <c r="F66" t="n">
-        <v>592991.886826992</v>
+        <v>585947.6820932627</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -7226,13 +7226,13 @@
         <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>550669.2614778103</v>
+        <v>569283.5227227317</v>
       </c>
       <c r="E67" t="n">
-        <v>531889.6594535112</v>
+        <v>568650.9208468199</v>
       </c>
       <c r="F67" t="n">
-        <v>564951.3916330338</v>
+        <v>590158.6333999634</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -7249,13 +7249,13 @@
         <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>557633.2605844801</v>
+        <v>550448.6897581221</v>
       </c>
       <c r="E68" t="n">
-        <v>551869.0147545338</v>
+        <v>535978.7682957649</v>
       </c>
       <c r="F68" t="n">
-        <v>582551.5314611197</v>
+        <v>576617.8908295631</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -7272,13 +7272,13 @@
         <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>574359.7116461428</v>
+        <v>569751.1176360009</v>
       </c>
       <c r="E69" t="n">
-        <v>527578.1506620646</v>
+        <v>544591.8820171356</v>
       </c>
       <c r="F69" t="n">
-        <v>603167.8132514954</v>
+        <v>561046.8150341511</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -7295,13 +7295,13 @@
         <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>560698.2182358134</v>
+        <v>575734.6676994198</v>
       </c>
       <c r="E70" t="n">
-        <v>514156.6913650036</v>
+        <v>551908.1516526937</v>
       </c>
       <c r="F70" t="n">
-        <v>584020.8192534447</v>
+        <v>594269.5681891441</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -7318,13 +7318,13 @@
         <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>577914.3867589575</v>
+        <v>587767.9539030382</v>
       </c>
       <c r="E71" t="n">
-        <v>542509.2830355167</v>
+        <v>548135.9039598703</v>
       </c>
       <c r="F71" t="n">
-        <v>591513.6730754375</v>
+        <v>627358.7024393082</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -7341,13 +7341,13 @@
         <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>585612.5781532641</v>
+        <v>595337.9489002508</v>
       </c>
       <c r="E72" t="n">
-        <v>540435.3187230825</v>
+        <v>560877.7627760172</v>
       </c>
       <c r="F72" t="n">
-        <v>596706.9168324471</v>
+        <v>610181.2452726364</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -7364,13 +7364,13 @@
         <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>594605.6331540095</v>
+        <v>588736.2455747955</v>
       </c>
       <c r="E73" t="n">
-        <v>557548.1094998121</v>
+        <v>536437.1339876652</v>
       </c>
       <c r="F73" t="n">
-        <v>597932.8734052181</v>
+        <v>607047.2140679359</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -7387,13 +7387,13 @@
         <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>594246.232323341</v>
+        <v>582250.6710799271</v>
       </c>
       <c r="E74" t="n">
-        <v>581510.2111638784</v>
+        <v>552881.3100794554</v>
       </c>
       <c r="F74" t="n">
-        <v>600675.1611125469</v>
+        <v>593605.4268870354</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -7410,13 +7410,13 @@
         <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>581299.6718622127</v>
+        <v>577345.0417354563</v>
       </c>
       <c r="E75" t="n">
-        <v>575817.5922379494</v>
+        <v>565745.1570050716</v>
       </c>
       <c r="F75" t="n">
-        <v>602367.1817569733</v>
+        <v>601349.5807919502</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -7489,13 +7489,13 @@
         <v>542861.4957036758</v>
       </c>
       <c r="D2" t="n">
-        <v>475998.2319823609</v>
+        <v>480448.600571541</v>
       </c>
       <c r="E2" t="n">
-        <v>430164.8922723532</v>
+        <v>442985.9819806814</v>
       </c>
       <c r="F2" t="n">
-        <v>427631.6051721573</v>
+        <v>429283.282145381</v>
       </c>
       <c r="G2" t="n">
         <v>530709.8826726653</v>
@@ -7512,13 +7512,13 @@
         <v>500376.0407526458</v>
       </c>
       <c r="D3" t="n">
-        <v>444341.5152423562</v>
+        <v>458493.0189906925</v>
       </c>
       <c r="E3" t="n">
-        <v>387754.5286051631</v>
+        <v>425063.1968151331</v>
       </c>
       <c r="F3" t="n">
-        <v>430248.9710631371</v>
+        <v>437443.5646857023</v>
       </c>
       <c r="G3" t="n">
         <v>486971.4787447553</v>
@@ -7535,13 +7535,13 @@
         <v>534233.640777497</v>
       </c>
       <c r="D4" t="n">
-        <v>470909.167077813</v>
+        <v>467802.9982501887</v>
       </c>
       <c r="E4" t="n">
-        <v>422261.5275515318</v>
+        <v>423912.6011382341</v>
       </c>
       <c r="F4" t="n">
-        <v>432701.4875952005</v>
+        <v>419311.9869773388</v>
       </c>
       <c r="G4" t="n">
         <v>521959.6128891574</v>
@@ -7558,13 +7558,13 @@
         <v>516566.9652706793</v>
       </c>
       <c r="D5" t="n">
-        <v>462122.0611445564</v>
+        <v>471175.0524020974</v>
       </c>
       <c r="E5" t="n">
-        <v>409145.7667532563</v>
+        <v>427339.1915800571</v>
       </c>
       <c r="F5" t="n">
-        <v>444509.3664956093</v>
+        <v>458557.0577760935</v>
       </c>
       <c r="G5" t="n">
         <v>510856.6175063986</v>
@@ -7581,13 +7581,13 @@
         <v>528273.7836217022</v>
       </c>
       <c r="D6" t="n">
-        <v>468709.9342783455</v>
+        <v>466483.2857762414</v>
       </c>
       <c r="E6" t="n">
-        <v>414586.2637422085</v>
+        <v>410861.1218109131</v>
       </c>
       <c r="F6" t="n">
-        <v>443782.0152537823</v>
+        <v>442784.5965275764</v>
       </c>
       <c r="G6" t="n">
         <v>523280.3349133584</v>
@@ -7604,13 +7604,13 @@
         <v>483792.1576879389</v>
       </c>
       <c r="D7" t="n">
-        <v>449128.0554013457</v>
+        <v>454007.5443312273</v>
       </c>
       <c r="E7" t="n">
-        <v>416685.1333534718</v>
+        <v>413562.4208476543</v>
       </c>
       <c r="F7" t="n">
-        <v>435428.7738652229</v>
+        <v>462694.0630242825</v>
       </c>
       <c r="G7" t="n">
         <v>484649.9793965104</v>
@@ -7627,13 +7627,13 @@
         <v>468988.3471413137</v>
       </c>
       <c r="D8" t="n">
-        <v>449540.7793706873</v>
+        <v>454298.5639430482</v>
       </c>
       <c r="E8" t="n">
-        <v>419977.9592454433</v>
+        <v>442831.8479341269</v>
       </c>
       <c r="F8" t="n">
-        <v>456011.1619782448</v>
+        <v>443656.4900509119</v>
       </c>
       <c r="G8" t="n">
         <v>483910.7037165954</v>
@@ -7650,13 +7650,13 @@
         <v>534323.6092148456</v>
       </c>
       <c r="D9" t="n">
-        <v>470510.7883005622</v>
+        <v>456928.6064354986</v>
       </c>
       <c r="E9" t="n">
-        <v>414517.3528401852</v>
+        <v>401644.9336646795</v>
       </c>
       <c r="F9" t="n">
-        <v>436543.936188817</v>
+        <v>400910.7891228795</v>
       </c>
       <c r="G9" t="n">
         <v>559613.0696772594</v>
@@ -7673,13 +7673,13 @@
         <v>519322.9541464823</v>
       </c>
       <c r="D10" t="n">
-        <v>465956.2052931979</v>
+        <v>453429.8230436859</v>
       </c>
       <c r="E10" t="n">
-        <v>413011.9658887386</v>
+        <v>405858.1320660114</v>
       </c>
       <c r="F10" t="n">
-        <v>446988.3904217482</v>
+        <v>407260.7040348649</v>
       </c>
       <c r="G10" t="n">
         <v>535636.5831118036</v>
@@ -7696,13 +7696,13 @@
         <v>537355.1330684662</v>
       </c>
       <c r="D11" t="n">
-        <v>471049.861504557</v>
+        <v>469652.8454224649</v>
       </c>
       <c r="E11" t="n">
-        <v>410817.646771729</v>
+        <v>415408.055377841</v>
       </c>
       <c r="F11" t="n">
-        <v>439033.2176858187</v>
+        <v>429278.7047303915</v>
       </c>
       <c r="G11" t="n">
         <v>561240.4159450283</v>
@@ -7719,13 +7719,13 @@
         <v>561328.8247241192</v>
       </c>
       <c r="D12" t="n">
-        <v>479313.0275852224</v>
+        <v>494449.5140561609</v>
       </c>
       <c r="E12" t="n">
-        <v>416812.9056509733</v>
+        <v>443977.2836159468</v>
       </c>
       <c r="F12" t="n">
-        <v>422933.4296526909</v>
+        <v>449378.8621742725</v>
       </c>
       <c r="G12" t="n">
         <v>588249.9731040626</v>
@@ -7742,13 +7742,13 @@
         <v>570900.7570420632</v>
       </c>
       <c r="D13" t="n">
-        <v>489616.3423922543</v>
+        <v>475575.9207962919</v>
       </c>
       <c r="E13" t="n">
-        <v>426153.1417434216</v>
+        <v>410819.550560236</v>
       </c>
       <c r="F13" t="n">
-        <v>436359.2374939919</v>
+        <v>402651.7881076932</v>
       </c>
       <c r="G13" t="n">
         <v>594481.0929740228</v>
@@ -7765,13 +7765,13 @@
         <v>539232.4174978707</v>
       </c>
       <c r="D14" t="n">
-        <v>471721.0923426352</v>
+        <v>475817.049326431</v>
       </c>
       <c r="E14" t="n">
-        <v>427735.8453953266</v>
+        <v>413867.7760403156</v>
       </c>
       <c r="F14" t="n">
-        <v>414443.177910924</v>
+        <v>454642.8269928694</v>
       </c>
       <c r="G14" t="n">
         <v>562816.2248935394</v>
@@ -7788,13 +7788,13 @@
         <v>503583.6788724237</v>
       </c>
       <c r="D15" t="n">
-        <v>457573.2632669304</v>
+        <v>450525.4937430429</v>
       </c>
       <c r="E15" t="n">
-        <v>417993.1088802814</v>
+        <v>413403.8966439962</v>
       </c>
       <c r="F15" t="n">
-        <v>437167.3593039513</v>
+        <v>416110.2308372259</v>
       </c>
       <c r="G15" t="n">
         <v>485612.1129544015</v>
@@ -7811,13 +7811,13 @@
         <v>537669.6602359915</v>
       </c>
       <c r="D16" t="n">
-        <v>468150.6444004682</v>
+        <v>471415.3078124738</v>
       </c>
       <c r="E16" t="n">
-        <v>406811.2851086259</v>
+        <v>401882.0021482706</v>
       </c>
       <c r="F16" t="n">
-        <v>432034.4958119392</v>
+        <v>456541.2682468891</v>
       </c>
       <c r="G16" t="n">
         <v>562419.3628115796</v>
@@ -7834,13 +7834,13 @@
         <v>523504.8003115177</v>
       </c>
       <c r="D17" t="n">
-        <v>471903.1283181355</v>
+        <v>467852.8137215092</v>
       </c>
       <c r="E17" t="n">
-        <v>433464.4386417866</v>
+        <v>415972.2425817251</v>
       </c>
       <c r="F17" t="n">
-        <v>434823.1402492523</v>
+        <v>445719.3021159172</v>
       </c>
       <c r="G17" t="n">
         <v>542829.3317632616</v>
@@ -7857,13 +7857,13 @@
         <v>535996.0453644805</v>
       </c>
       <c r="D18" t="n">
-        <v>476561.0900224572</v>
+        <v>470384.9865468481</v>
       </c>
       <c r="E18" t="n">
-        <v>404562.8588657975</v>
+        <v>422412.0204725266</v>
       </c>
       <c r="F18" t="n">
-        <v>474017.2560966015</v>
+        <v>424998.4055866003</v>
       </c>
       <c r="G18" t="n">
         <v>554486.7217144087</v>
@@ -7880,13 +7880,13 @@
         <v>496180.6131691696</v>
       </c>
       <c r="D19" t="n">
-        <v>457713.0207300737</v>
+        <v>459541.5624798327</v>
       </c>
       <c r="E19" t="n">
-        <v>429001.2925755978</v>
+        <v>425742.1314902306</v>
       </c>
       <c r="F19" t="n">
-        <v>429992.5317915678</v>
+        <v>444023.1409915686</v>
       </c>
       <c r="G19" t="n">
         <v>511693.6012045653</v>
@@ -7903,13 +7903,13 @@
         <v>483499.4705898375</v>
       </c>
       <c r="D20" t="n">
-        <v>455837.2010427075</v>
+        <v>438429.7870175461</v>
       </c>
       <c r="E20" t="n">
-        <v>436854.576215148</v>
+        <v>397395.6257010102</v>
       </c>
       <c r="F20" t="n">
-        <v>433661.6628085375</v>
+        <v>419819.2061710358</v>
       </c>
       <c r="G20" t="n">
         <v>493706.126394808</v>
@@ -7926,13 +7926,13 @@
         <v>544653.8541124881</v>
       </c>
       <c r="D21" t="n">
-        <v>479973.7940349779</v>
+        <v>483559.4223139263</v>
       </c>
       <c r="E21" t="n">
-        <v>429781.0344126225</v>
+        <v>423349.2045787573</v>
       </c>
       <c r="F21" t="n">
-        <v>434308.6388044357</v>
+        <v>461645.4188630581</v>
       </c>
       <c r="G21" t="n">
         <v>583188.9077914443</v>
@@ -7949,13 +7949,13 @@
         <v>531388.8479713337</v>
       </c>
       <c r="D22" t="n">
-        <v>478629.9458365957</v>
+        <v>479539.9721461707</v>
       </c>
       <c r="E22" t="n">
-        <v>419440.1962099075</v>
+        <v>442007.8716231585</v>
       </c>
       <c r="F22" t="n">
-        <v>467704.2309881449</v>
+        <v>440890.1709148884</v>
       </c>
       <c r="G22" t="n">
         <v>561128.5843660365</v>
@@ -7972,13 +7972,13 @@
         <v>548516.2564868571</v>
       </c>
       <c r="D23" t="n">
-        <v>483306.2208643181</v>
+        <v>479732.8213516089</v>
       </c>
       <c r="E23" t="n">
-        <v>415510.0068935156</v>
+        <v>430928.2386411428</v>
       </c>
       <c r="F23" t="n">
-        <v>461871.9800986052</v>
+        <v>427094.1750395298</v>
       </c>
       <c r="G23" t="n">
         <v>587123.9479446317</v>
@@ -7995,13 +7995,13 @@
         <v>571029.7972805207</v>
       </c>
       <c r="D24" t="n">
-        <v>485574.8160768364</v>
+        <v>492089.9787225399</v>
       </c>
       <c r="E24" t="n">
-        <v>409465.5199967027</v>
+        <v>428630.1058328152</v>
       </c>
       <c r="F24" t="n">
-        <v>440528.9920657873</v>
+        <v>443268.6997755766</v>
       </c>
       <c r="G24" t="n">
         <v>613000.3164760353</v>
@@ -8018,13 +8018,13 @@
         <v>580152.5744826716</v>
       </c>
       <c r="D25" t="n">
-        <v>499823.610380417</v>
+        <v>497265.9513234288</v>
       </c>
       <c r="E25" t="n">
-        <v>433528.2519680262</v>
+        <v>429996.7763036489</v>
       </c>
       <c r="F25" t="n">
-        <v>449782.3613055944</v>
+        <v>447440.2228940725</v>
       </c>
       <c r="G25" t="n">
         <v>620969.9780932692</v>
@@ -8041,13 +8041,13 @@
         <v>551099.5964824751</v>
       </c>
       <c r="D26" t="n">
-        <v>487575.4532326862</v>
+        <v>487487.1933087152</v>
       </c>
       <c r="E26" t="n">
-        <v>431793.2660419941</v>
+        <v>422455.3186570406</v>
       </c>
       <c r="F26" t="n">
-        <v>452283.1071465015</v>
+        <v>468827.4662072659</v>
       </c>
       <c r="G26" t="n">
         <v>586956.5220437354</v>
@@ -8064,13 +8064,13 @@
         <v>518319.5568439353</v>
       </c>
       <c r="D27" t="n">
-        <v>469175.7394148478</v>
+        <v>471834.236333592</v>
       </c>
       <c r="E27" t="n">
-        <v>426976.5146678686</v>
+        <v>440723.2201063633</v>
       </c>
       <c r="F27" t="n">
-        <v>444113.8154212236</v>
+        <v>436851.2263796329</v>
       </c>
       <c r="G27" t="n">
         <v>521033.3540069112</v>
@@ -8087,13 +8087,13 @@
         <v>549948.7989697212</v>
       </c>
       <c r="D28" t="n">
-        <v>483380.0163237794</v>
+        <v>481800.0184972311</v>
       </c>
       <c r="E28" t="n">
-        <v>432708.7490398884</v>
+        <v>412734.6785725355</v>
       </c>
       <c r="F28" t="n">
-        <v>435771.1228935719</v>
+        <v>461527.4255884886</v>
       </c>
       <c r="G28" t="n">
         <v>584053.6902971244</v>
@@ -8110,13 +8110,13 @@
         <v>536957.0235596384</v>
       </c>
       <c r="D29" t="n">
-        <v>488838.8692930249</v>
+        <v>484010.1160618582</v>
       </c>
       <c r="E29" t="n">
-        <v>442545.5514329672</v>
+        <v>441604.6221690178</v>
       </c>
       <c r="F29" t="n">
-        <v>467446.2936534882</v>
+        <v>450730.8641107082</v>
       </c>
       <c r="G29" t="n">
         <v>567118.8687690131</v>
@@ -8133,13 +8133,13 @@
         <v>548577.6087901777</v>
       </c>
       <c r="D30" t="n">
-        <v>489108.5147942555</v>
+        <v>493811.4097264322</v>
       </c>
       <c r="E30" t="n">
-        <v>436134.8193209171</v>
+        <v>430919.3751012087</v>
       </c>
       <c r="F30" t="n">
-        <v>457599.7746567726</v>
+        <v>488239.1596302986</v>
       </c>
       <c r="G30" t="n">
         <v>578984.542112411</v>
@@ -8156,13 +8156,13 @@
         <v>511840.5484335448</v>
       </c>
       <c r="D31" t="n">
-        <v>472944.5394355824</v>
+        <v>485990.705334157</v>
       </c>
       <c r="E31" t="n">
-        <v>448359.4510496855</v>
+        <v>460104.120010376</v>
       </c>
       <c r="F31" t="n">
-        <v>437122.6462820768</v>
+        <v>475970.2310082912</v>
       </c>
       <c r="G31" t="n">
         <v>537506.4621954538</v>
@@ -8179,13 +8179,13 @@
         <v>500166.7878641687</v>
       </c>
       <c r="D32" t="n">
-        <v>467679.9783160079</v>
+        <v>473727.6458126254</v>
       </c>
       <c r="E32" t="n">
-        <v>422282.9373698235</v>
+        <v>441326.2321119308</v>
       </c>
       <c r="F32" t="n">
-        <v>472750.1444017887</v>
+        <v>472577.7006952763</v>
       </c>
       <c r="G32" t="n">
         <v>525374.278482943</v>
@@ -8202,13 +8202,13 @@
         <v>556719.2819252196</v>
       </c>
       <c r="D33" t="n">
-        <v>502637.27125942</v>
+        <v>496719.4455180438</v>
       </c>
       <c r="E33" t="n">
-        <v>450935.0376256704</v>
+        <v>441846.9130669832</v>
       </c>
       <c r="F33" t="n">
-        <v>475812.1645461321</v>
+        <v>466998.5392417908</v>
       </c>
       <c r="G33" t="n">
         <v>606658.581285962</v>
@@ -8225,13 +8225,13 @@
         <v>544487.532689361</v>
       </c>
       <c r="D34" t="n">
-        <v>491220.2939245505</v>
+        <v>491478.8041209102</v>
       </c>
       <c r="E34" t="n">
-        <v>447544.8584394455</v>
+        <v>445358.0400410891</v>
       </c>
       <c r="F34" t="n">
-        <v>455457.086700201</v>
+        <v>461950.3163142204</v>
       </c>
       <c r="G34" t="n">
         <v>586623.7747565547</v>
@@ -8248,13 +8248,13 @@
         <v>560337.3572000172</v>
       </c>
       <c r="D35" t="n">
-        <v>506672.1588886554</v>
+        <v>499322.2776104017</v>
       </c>
       <c r="E35" t="n">
-        <v>459848.6378346682</v>
+        <v>434745.5530651808</v>
       </c>
       <c r="F35" t="n">
-        <v>473202.7467120886</v>
+        <v>482075.0253475904</v>
       </c>
       <c r="G35" t="n">
         <v>613001.7785061987</v>
@@ -8271,13 +8271,13 @@
         <v>581160.0883090474</v>
       </c>
       <c r="D36" t="n">
-        <v>509573.2257731808</v>
+        <v>501618.6130954314</v>
       </c>
       <c r="E36" t="n">
-        <v>435471.0525345802</v>
+        <v>436449.0796663761</v>
       </c>
       <c r="F36" t="n">
-        <v>483531.3507329226</v>
+        <v>452183.9228862524</v>
       </c>
       <c r="G36" t="n">
         <v>637761.7225389021</v>
@@ -8294,13 +8294,13 @@
         <v>589603.7566355182</v>
       </c>
       <c r="D37" t="n">
-        <v>529269.1043250441</v>
+        <v>511843.5941046998</v>
       </c>
       <c r="E37" t="n">
-        <v>459499.5059095621</v>
+        <v>440636.1035765409</v>
       </c>
       <c r="F37" t="n">
-        <v>516308.638183713</v>
+        <v>474465.093734026</v>
       </c>
       <c r="G37" t="n">
         <v>647482.6713959862</v>
@@ -8317,13 +8317,13 @@
         <v>562763.6402607975</v>
       </c>
       <c r="D38" t="n">
-        <v>511692.8206329391</v>
+        <v>502476.9645913373</v>
       </c>
       <c r="E38" t="n">
-        <v>471293.9022421837</v>
+        <v>438275.1769571304</v>
       </c>
       <c r="F38" t="n">
-        <v>474136.2688863277</v>
+        <v>486558.8946198225</v>
       </c>
       <c r="G38" t="n">
         <v>611206.5341542105</v>
@@ -8340,13 +8340,13 @@
         <v>532476.862934585</v>
       </c>
       <c r="D39" t="n">
-        <v>488522.7156963513</v>
+        <v>489912.3293864204</v>
       </c>
       <c r="E39" t="n">
-        <v>444632.4573459625</v>
+        <v>467654.0458747149</v>
       </c>
       <c r="F39" t="n">
-        <v>471789.220156908</v>
+        <v>445333.7589352131</v>
       </c>
       <c r="G39" t="n">
         <v>556441.7026965519</v>
@@ -8363,13 +8363,13 @@
         <v>561713.5399166656</v>
       </c>
       <c r="D40" t="n">
-        <v>508483.6861823249</v>
+        <v>503171.3403490225</v>
       </c>
       <c r="E40" t="n">
-        <v>452494.8542026281</v>
+        <v>446321.0865420103</v>
       </c>
       <c r="F40" t="n">
-        <v>490142.3031378984</v>
+        <v>479891.4527525902</v>
       </c>
       <c r="G40" t="n">
         <v>605518.0659062505</v>
@@ -8386,13 +8386,13 @@
         <v>549711.4522367143</v>
       </c>
       <c r="D41" t="n">
-        <v>501732.3813584068</v>
+        <v>508645.6402792214</v>
       </c>
       <c r="E41" t="n">
-        <v>438772.3258378506</v>
+        <v>477702.1791952848</v>
       </c>
       <c r="F41" t="n">
-        <v>502736.6859656572</v>
+        <v>477218.2215923071</v>
       </c>
       <c r="G41" t="n">
         <v>591412.0753267221</v>
@@ -8409,13 +8409,13 @@
         <v>560454.3603611912</v>
       </c>
       <c r="D42" t="n">
-        <v>506311.2783271279</v>
+        <v>510656.6446309515</v>
       </c>
       <c r="E42" t="n">
-        <v>459668.9742963314</v>
+        <v>466127.0202342272</v>
       </c>
       <c r="F42" t="n">
-        <v>473137.7474192381</v>
+        <v>484221.7497519255</v>
       </c>
       <c r="G42" t="n">
         <v>603533.6160052898</v>
@@ -8432,13 +8432,13 @@
         <v>526505.7552475918</v>
       </c>
       <c r="D43" t="n">
-        <v>497784.2951572911</v>
+        <v>489304.8488586937</v>
       </c>
       <c r="E43" t="n">
-        <v>470878.1689289808</v>
+        <v>438553.4837884903</v>
       </c>
       <c r="F43" t="n">
-        <v>481248.9475870132</v>
+        <v>495265.4708327055</v>
       </c>
       <c r="G43" t="n">
         <v>563444.2337212379</v>
@@ -8455,13 +8455,13 @@
         <v>515719.303343167</v>
       </c>
       <c r="D44" t="n">
-        <v>480010.0572871923</v>
+        <v>480790.8490971841</v>
       </c>
       <c r="E44" t="n">
-        <v>438589.9158505201</v>
+        <v>444598.8549586535</v>
       </c>
       <c r="F44" t="n">
-        <v>471499.1368851662</v>
+        <v>468109.6859240532</v>
       </c>
       <c r="G44" t="n">
         <v>557063.4955386829</v>
@@ -8478,13 +8478,13 @@
         <v>567985.0820181142</v>
       </c>
       <c r="D45" t="n">
-        <v>514773.5745240562</v>
+        <v>516094.6460161829</v>
       </c>
       <c r="E45" t="n">
-        <v>461296.8487116098</v>
+        <v>450906.0750726461</v>
       </c>
       <c r="F45" t="n">
-        <v>490246.2104581594</v>
+        <v>514410.9251548052</v>
       </c>
       <c r="G45" t="n">
         <v>630023.8306103472</v>
@@ -8501,13 +8501,13 @@
         <v>556682.1111193236</v>
       </c>
       <c r="D46" t="n">
-        <v>510996.0336832314</v>
+        <v>520264.8165069623</v>
       </c>
       <c r="E46" t="n">
-        <v>471882.0584554672</v>
+        <v>487762.4634720087</v>
       </c>
       <c r="F46" t="n">
-        <v>479905.8924162388</v>
+        <v>497338.5612750053</v>
       </c>
       <c r="G46" t="n">
         <v>612123.7707056084</v>
@@ -8524,13 +8524,13 @@
         <v>571331.023837436</v>
       </c>
       <c r="D47" t="n">
-        <v>520111.8293310885</v>
+        <v>510848.3679636142</v>
       </c>
       <c r="E47" t="n">
-        <v>476627.5686072111</v>
+        <v>455393.7103090286</v>
       </c>
       <c r="F47" t="n">
-        <v>483955.6562960148</v>
+        <v>478585.2041596174</v>
       </c>
       <c r="G47" t="n">
         <v>638874.8180782608</v>
@@ -8547,13 +8547,13 @@
         <v>590575.5314518133</v>
       </c>
       <c r="D48" t="n">
-        <v>534958.5939792731</v>
+        <v>526844.7689238525</v>
       </c>
       <c r="E48" t="n">
-        <v>469490.0886398554</v>
+        <v>481722.5019741058</v>
       </c>
       <c r="F48" t="n">
-        <v>521979.9929363728</v>
+        <v>472634.523060441</v>
       </c>
       <c r="G48" t="n">
         <v>662535.9209821537</v>
@@ -8570,13 +8570,13 @@
         <v>598379.5020578624</v>
       </c>
       <c r="D49" t="n">
-        <v>520907.6689295049</v>
+        <v>538960.3483071578</v>
       </c>
       <c r="E49" t="n">
-        <v>463831.0512948036</v>
+        <v>490906.8562797308</v>
       </c>
       <c r="F49" t="n">
-        <v>457614.1310946941</v>
+        <v>496203.5080026388</v>
       </c>
       <c r="G49" t="n">
         <v>674019.6728804054</v>
@@ -8593,13 +8593,13 @@
         <v>573575.1012677845</v>
       </c>
       <c r="D50" t="n">
-        <v>524612.7575202355</v>
+        <v>530183.6768743625</v>
       </c>
       <c r="E50" t="n">
-        <v>470403.5950267315</v>
+        <v>477836.5887445211</v>
       </c>
       <c r="F50" t="n">
-        <v>508486.6474175453</v>
+        <v>524028.6358213425</v>
       </c>
       <c r="G50" t="n">
         <v>635566.3563378147</v>
@@ -8616,13 +8616,13 @@
         <v>545585.2958024074</v>
       </c>
       <c r="D51" t="n">
-        <v>515959.8902121088</v>
+        <v>523140.9579090874</v>
       </c>
       <c r="E51" t="n">
-        <v>489343.5442222357</v>
+        <v>473731.1052404642</v>
       </c>
       <c r="F51" t="n">
-        <v>496106.5708370209</v>
+        <v>551607.6859714985</v>
       </c>
       <c r="G51" t="n">
         <v>591827.9524099133</v>
@@ -8639,13 +8639,13 @@
         <v>572605.2441934232</v>
       </c>
       <c r="D52" t="n">
-        <v>532120.458319109</v>
+        <v>523859.4830365136</v>
       </c>
       <c r="E52" t="n">
-        <v>487198.151429534</v>
+        <v>477602.2250970602</v>
       </c>
       <c r="F52" t="n">
-        <v>518502.6764138937</v>
+        <v>500251.4825292826</v>
       </c>
       <c r="G52" t="n">
         <v>626816.0865543261</v>
@@ -8662,13 +8662,13 @@
         <v>561513.473803455</v>
       </c>
       <c r="D53" t="n">
-        <v>528378.2551319457</v>
+        <v>537078.0036030116</v>
       </c>
       <c r="E53" t="n">
-        <v>492140.9897801876</v>
+        <v>497882.1084985733</v>
       </c>
       <c r="F53" t="n">
-        <v>515058.8166337013</v>
+        <v>545464.3373141289</v>
       </c>
       <c r="G53" t="n">
         <v>615713.0911715446</v>
@@ -8685,13 +8685,13 @@
         <v>571441.9151093024</v>
       </c>
       <c r="D54" t="n">
-        <v>531971.3525916678</v>
+        <v>539241.4525052827</v>
       </c>
       <c r="E54" t="n">
-        <v>481918.7898514271</v>
+        <v>505362.5616872311</v>
       </c>
       <c r="F54" t="n">
-        <v>527081.2722649574</v>
+        <v>525609.5085072517</v>
       </c>
       <c r="G54" t="n">
         <v>628136.8085785229</v>
@@ -8708,13 +8708,13 @@
         <v>540067.7329903786</v>
       </c>
       <c r="D55" t="n">
-        <v>522172.9561986087</v>
+        <v>521352.1664333731</v>
       </c>
       <c r="E55" t="n">
-        <v>474033.9844677448</v>
+        <v>489029.887263298</v>
       </c>
       <c r="F55" t="n">
-        <v>552902.5534462929</v>
+        <v>530091.6508456469</v>
       </c>
       <c r="G55" t="n">
         <v>589506.453061684</v>
@@ -8731,13 +8731,13 @@
         <v>530099.3061074807</v>
       </c>
       <c r="D56" t="n">
-        <v>522017.4630734085</v>
+        <v>527415.006427285</v>
       </c>
       <c r="E56" t="n">
-        <v>496263.4721390009</v>
+        <v>503422.7572468519</v>
       </c>
       <c r="F56" t="n">
-        <v>536394.3767703772</v>
+        <v>550355.409262538</v>
       </c>
       <c r="G56" t="n">
         <v>588767.1773817409</v>
@@ -8754,13 +8754,13 @@
         <v>578401.8815605683</v>
       </c>
       <c r="D57" t="n">
-        <v>536869.3405127082</v>
+        <v>554367.9743465505</v>
       </c>
       <c r="E57" t="n">
-        <v>484139.0441856384</v>
+        <v>514123.2762355804</v>
       </c>
       <c r="F57" t="n">
-        <v>528007.9283167124</v>
+        <v>560382.9026027918</v>
       </c>
       <c r="G57" t="n">
         <v>664469.5433424336</v>
@@ -8777,13 +8777,13 @@
         <v>567956.0644045062</v>
       </c>
       <c r="D58" t="n">
-        <v>543270.2800505367</v>
+        <v>540516.1948691179</v>
       </c>
       <c r="E58" t="n">
-        <v>496004.5360956192</v>
+        <v>494341.3531656265</v>
       </c>
       <c r="F58" t="n">
-        <v>557680.4384058714</v>
+        <v>551487.9865695238</v>
       </c>
       <c r="G58" t="n">
         <v>640493.0567769657</v>
@@ -8800,13 +8800,13 @@
         <v>581494.2046964326</v>
       </c>
       <c r="D59" t="n">
-        <v>561947.3770776564</v>
+        <v>544219.39517197</v>
       </c>
       <c r="E59" t="n">
-        <v>530468.9130665064</v>
+        <v>488501.3414770365</v>
       </c>
       <c r="F59" t="n">
-        <v>560942.9077138901</v>
+        <v>550580.7221121788</v>
       </c>
       <c r="G59" t="n">
         <v>666096.8896101541</v>
@@ -8823,13 +8823,13 @@
         <v>599279.4490852128</v>
       </c>
       <c r="D60" t="n">
-        <v>563636.9393626436</v>
+        <v>561971.7044631911</v>
       </c>
       <c r="E60" t="n">
-        <v>507433.8835828304</v>
+        <v>517126.663855195</v>
       </c>
       <c r="F60" t="n">
-        <v>568805.5126348734</v>
+        <v>550508.0452460051</v>
       </c>
       <c r="G60" t="n">
         <v>693106.4467692302</v>
@@ -8846,13 +8846,13 @@
         <v>606491.6766010581</v>
       </c>
       <c r="D61" t="n">
-        <v>561919.9034060525</v>
+        <v>574710.293123797</v>
       </c>
       <c r="E61" t="n">
-        <v>499989.3839082718</v>
+        <v>514560.5650120974</v>
       </c>
       <c r="F61" t="n">
-        <v>559974.7220243216</v>
+        <v>596197.1176412106</v>
       </c>
       <c r="G61" t="n">
         <v>699337.5666391928</v>
@@ -8869,13 +8869,13 @@
         <v>583568.1966812228</v>
       </c>
       <c r="D62" t="n">
-        <v>552789.8220191493</v>
+        <v>551006.9889294994</v>
       </c>
       <c r="E62" t="n">
-        <v>512346.5109945536</v>
+        <v>502469.5729945898</v>
       </c>
       <c r="F62" t="n">
-        <v>545247.5759079456</v>
+        <v>554868.8860871792</v>
       </c>
       <c r="G62" t="n">
         <v>667672.6985586925</v>
@@ -8892,13 +8892,13 @@
         <v>557700.8544413606</v>
       </c>
       <c r="D63" t="n">
-        <v>544869.9068852256</v>
+        <v>550216.7479936703</v>
       </c>
       <c r="E63" t="n">
-        <v>508627.090831995</v>
+        <v>528256.6275956631</v>
       </c>
       <c r="F63" t="n">
-        <v>569756.8867275715</v>
+        <v>565453.8253474236</v>
       </c>
       <c r="G63" t="n">
         <v>590468.5866196097</v>
@@ -8915,13 +8915,13 @@
         <v>582671.9113367092</v>
       </c>
       <c r="D64" t="n">
-        <v>565594.6277940561</v>
+        <v>564423.0475844445</v>
       </c>
       <c r="E64" t="n">
-        <v>528752.9858319759</v>
+        <v>522789.8208737373</v>
       </c>
       <c r="F64" t="n">
-        <v>576525.052531004</v>
+        <v>582899.2901617289</v>
       </c>
       <c r="G64" t="n">
         <v>667275.8364767432</v>
@@ -8938,13 +8938,13 @@
         <v>572421.2316233461</v>
       </c>
       <c r="D65" t="n">
-        <v>567861.4522273984</v>
+        <v>562860.550696067</v>
       </c>
       <c r="E65" t="n">
-        <v>552790.1987147331</v>
+        <v>529153.1351277828</v>
       </c>
       <c r="F65" t="n">
-        <v>570669.997792244</v>
+        <v>585978.7877087593</v>
       </c>
       <c r="G65" t="n">
         <v>647685.8054284464</v>
@@ -8961,13 +8961,13 @@
         <v>581596.8135171725</v>
       </c>
       <c r="D66" t="n">
-        <v>577627.3262229334</v>
+        <v>569604.4937811656</v>
       </c>
       <c r="E66" t="n">
-        <v>554234.3523374796</v>
+        <v>537317.9534702301</v>
       </c>
       <c r="F66" t="n">
-        <v>592991.886826992</v>
+        <v>585947.6820932627</v>
       </c>
       <c r="G66" t="n">
         <v>659343.1953796106</v>
@@ -8984,13 +8984,13 @@
         <v>552601.7193418219</v>
       </c>
       <c r="D67" t="n">
-        <v>550669.2614778103</v>
+        <v>569283.5227227317</v>
       </c>
       <c r="E67" t="n">
-        <v>531889.6594535112</v>
+        <v>568650.9208468199</v>
       </c>
       <c r="F67" t="n">
-        <v>564951.3916330338</v>
+        <v>590158.6333999634</v>
       </c>
       <c r="G67" t="n">
         <v>616550.0748697331</v>
@@ -9007,13 +9007,13 @@
         <v>543389.1956817894</v>
       </c>
       <c r="D68" t="n">
-        <v>557633.2605844801</v>
+        <v>550448.6897581221</v>
       </c>
       <c r="E68" t="n">
-        <v>551869.0147545338</v>
+        <v>535978.7682957649</v>
       </c>
       <c r="F68" t="n">
-        <v>582551.5314611197</v>
+        <v>576617.8908295631</v>
       </c>
       <c r="G68" t="n">
         <v>598562.6000599889</v>
@@ -9030,13 +9030,13 @@
         <v>588029.0240494441</v>
       </c>
       <c r="D69" t="n">
-        <v>574359.7116461428</v>
+        <v>569751.1176360009</v>
       </c>
       <c r="E69" t="n">
-        <v>527578.1506620646</v>
+        <v>544591.8820171356</v>
       </c>
       <c r="F69" t="n">
-        <v>603167.8132514954</v>
+        <v>561046.8150341511</v>
       </c>
       <c r="G69" t="n">
         <v>688045.3814566222</v>
@@ -9053,13 +9053,13 @@
         <v>578375.30852171</v>
       </c>
       <c r="D70" t="n">
-        <v>560698.2182358134</v>
+        <v>575734.6676994198</v>
       </c>
       <c r="E70" t="n">
-        <v>514156.6913650036</v>
+        <v>551908.1516526937</v>
       </c>
       <c r="F70" t="n">
-        <v>584020.8192534447</v>
+        <v>594269.5681891441</v>
       </c>
       <c r="G70" t="n">
         <v>665985.0580312232</v>
@@ -9076,13 +9076,13 @@
         <v>590886.8631440247</v>
       </c>
       <c r="D71" t="n">
-        <v>577914.3867589575</v>
+        <v>587767.9539030382</v>
       </c>
       <c r="E71" t="n">
-        <v>542509.2830355167</v>
+        <v>548135.9039598703</v>
       </c>
       <c r="F71" t="n">
-        <v>591513.6730754375</v>
+        <v>627358.7024393082</v>
       </c>
       <c r="G71" t="n">
         <v>691980.4216097981</v>
@@ -9099,13 +9099,13 @@
         <v>607323.4664725144</v>
       </c>
       <c r="D72" t="n">
-        <v>585612.5781532641</v>
+        <v>595337.9489002508</v>
       </c>
       <c r="E72" t="n">
-        <v>540435.3187230825</v>
+        <v>560877.7627760172</v>
       </c>
       <c r="F72" t="n">
-        <v>596706.9168324471</v>
+        <v>610181.2452726364</v>
       </c>
       <c r="G72" t="n">
         <v>717856.7901412257</v>
@@ -9122,13 +9122,13 @@
         <v>613988.7970396762</v>
       </c>
       <c r="D73" t="n">
-        <v>594605.6331540095</v>
+        <v>588736.2455747955</v>
       </c>
       <c r="E73" t="n">
-        <v>557548.1094998121</v>
+        <v>536437.1339876652</v>
       </c>
       <c r="F73" t="n">
-        <v>597932.8734052181</v>
+        <v>607047.2140679359</v>
       </c>
       <c r="G73" t="n">
         <v>725826.4517584977</v>
@@ -9145,13 +9145,13 @@
         <v>592803.5894934956</v>
       </c>
       <c r="D74" t="n">
-        <v>594246.232323341</v>
+        <v>582250.6710799271</v>
       </c>
       <c r="E74" t="n">
-        <v>581510.2111638784</v>
+        <v>552881.3100794554</v>
       </c>
       <c r="F74" t="n">
-        <v>600675.1611125469</v>
+        <v>593605.4268870354</v>
       </c>
       <c r="G74" t="n">
         <v>691812.9957088986</v>
@@ -9168,13 +9168,13 @@
         <v>568897.7504331857</v>
       </c>
       <c r="D75" t="n">
-        <v>581299.6718622127</v>
+        <v>577345.0417354563</v>
       </c>
       <c r="E75" t="n">
-        <v>575817.5922379494</v>
+        <v>565745.1570050716</v>
       </c>
       <c r="F75" t="n">
-        <v>602367.1817569733</v>
+        <v>601349.5807919502</v>
       </c>
       <c r="G75" t="n">
         <v>625889.8276721379</v>
@@ -9239,13 +9239,13 @@
         <v>484997.5861146463</v>
       </c>
       <c r="C2" t="n">
-        <v>455532.2010083966</v>
+        <v>454949.8952984813</v>
       </c>
       <c r="D2" t="n">
-        <v>454476.0035654902</v>
+        <v>456822.94937253</v>
       </c>
       <c r="E2" t="n">
-        <v>411331.7046443224</v>
+        <v>404717.765660584</v>
       </c>
       <c r="F2" t="n">
         <v>448622.8529024446</v>
@@ -9259,13 +9259,13 @@
         <v>481278.4583109817</v>
       </c>
       <c r="C3" t="n">
-        <v>453345.2223194674</v>
+        <v>453044.1717580241</v>
       </c>
       <c r="D3" t="n">
-        <v>459391.8425430655</v>
+        <v>455225.5114916563</v>
       </c>
       <c r="E3" t="n">
-        <v>402758.0721341968</v>
+        <v>406659.6450842619</v>
       </c>
       <c r="F3" t="n">
         <v>437166.8745786949</v>
@@ -9279,13 +9279,13 @@
         <v>498553.1854037594</v>
       </c>
       <c r="C4" t="n">
-        <v>458002.9999979204</v>
+        <v>467752.1947740034</v>
       </c>
       <c r="D4" t="n">
-        <v>460078.912217021</v>
+        <v>466095.3498396277</v>
       </c>
       <c r="E4" t="n">
-        <v>392082.8733036518</v>
+        <v>423481.2427058816</v>
       </c>
       <c r="F4" t="n">
         <v>448823.5974462835</v>
@@ -9299,13 +9299,13 @@
         <v>450174.0992992357</v>
       </c>
       <c r="C5" t="n">
-        <v>435534.97033308</v>
+        <v>441563.7958530285</v>
       </c>
       <c r="D5" t="n">
-        <v>450278.8800730705</v>
+        <v>451968.6241627932</v>
       </c>
       <c r="E5" t="n">
-        <v>396314.6649600267</v>
+        <v>418014.6243850589</v>
       </c>
       <c r="F5" t="n">
         <v>400453.0554511767</v>
@@ -9319,13 +9319,13 @@
         <v>429466.1266237666</v>
       </c>
       <c r="C6" t="n">
-        <v>433080.8795034536</v>
+        <v>437743.8381209657</v>
       </c>
       <c r="D6" t="n">
-        <v>455963.214463532</v>
+        <v>463788.6546598673</v>
       </c>
       <c r="E6" t="n">
-        <v>413379.4375286102</v>
+        <v>419789.2788086534</v>
       </c>
       <c r="F6" t="n">
         <v>382623.6229867304</v>
@@ -9339,13 +9339,13 @@
         <v>480709.0600438222</v>
       </c>
       <c r="C7" t="n">
-        <v>454110.7043347008</v>
+        <v>457475.3865504166</v>
       </c>
       <c r="D7" t="n">
-        <v>458612.7866740823</v>
+        <v>470463.7162834406</v>
       </c>
       <c r="E7" t="n">
-        <v>405648.0813956857</v>
+        <v>401120.0636122227</v>
       </c>
       <c r="F7" t="n">
         <v>453190.8828687236</v>
@@ -9359,13 +9359,13 @@
         <v>443179.5875215636</v>
       </c>
       <c r="C8" t="n">
-        <v>440599.6335062976</v>
+        <v>442750.3000798969</v>
       </c>
       <c r="D8" t="n">
-        <v>459381.9221146107</v>
+        <v>464163.5330727696</v>
       </c>
       <c r="E8" t="n">
-        <v>412199.653241396</v>
+        <v>412609.2353753448</v>
       </c>
       <c r="F8" t="n">
         <v>423028.2202574082</v>
@@ -9379,13 +9379,13 @@
         <v>469632.2251447989</v>
       </c>
       <c r="C9" t="n">
-        <v>451841.0789958818</v>
+        <v>448651.9510445329</v>
       </c>
       <c r="D9" t="n">
-        <v>464256.0881812572</v>
+        <v>453561.2262792587</v>
       </c>
       <c r="E9" t="n">
-        <v>406288.144595027</v>
+        <v>407424.0869887471</v>
       </c>
       <c r="F9" t="n">
         <v>449130.3793805084</v>
@@ -9399,13 +9399,13 @@
         <v>505506.0651705859</v>
       </c>
       <c r="C10" t="n">
-        <v>467773.3962270193</v>
+        <v>467955.3330626228</v>
       </c>
       <c r="D10" t="n">
-        <v>463621.3941026926</v>
+        <v>462108.4398705959</v>
       </c>
       <c r="E10" t="n">
-        <v>412542.3524867296</v>
+        <v>415039.2781046033</v>
       </c>
       <c r="F10" t="n">
         <v>477175.0438679613</v>
@@ -9419,13 +9419,13 @@
         <v>513475.5858133886</v>
       </c>
       <c r="C11" t="n">
-        <v>470898.4012321163</v>
+        <v>468787.7316854975</v>
       </c>
       <c r="D11" t="n">
-        <v>471884.470977962</v>
+        <v>456502.3666379452</v>
       </c>
       <c r="E11" t="n">
-        <v>400258.5508486629</v>
+        <v>413386.8334035873</v>
       </c>
       <c r="F11" t="n">
         <v>482983.8480840219</v>
@@ -9439,13 +9439,13 @@
         <v>470612.3468794461</v>
       </c>
       <c r="C12" t="n">
-        <v>461732.5963180998</v>
+        <v>456364.6480165795</v>
       </c>
       <c r="D12" t="n">
-        <v>475158.3190393448</v>
+        <v>470617.0029037595</v>
       </c>
       <c r="E12" t="n">
-        <v>432083.5697886348</v>
+        <v>414809.0103817582</v>
       </c>
       <c r="F12" t="n">
         <v>436656.1487096669</v>
@@ -9459,13 +9459,13 @@
         <v>441618.4522888935</v>
       </c>
       <c r="C13" t="n">
-        <v>442679.7142585574</v>
+        <v>446553.8577545481</v>
       </c>
       <c r="D13" t="n">
-        <v>476611.7507007122</v>
+        <v>476477.3804529309</v>
       </c>
       <c r="E13" t="n">
-        <v>404268.857383728</v>
+        <v>418397.5742576718</v>
       </c>
       <c r="F13" t="n">
         <v>384382.7385923929</v>
@@ -9479,13 +9479,13 @@
         <v>487585.86625049</v>
       </c>
       <c r="C14" t="n">
-        <v>464278.7774571229</v>
+        <v>470049.5935936577</v>
       </c>
       <c r="D14" t="n">
-        <v>471002.1217589378</v>
+        <v>480005.781730473</v>
       </c>
       <c r="E14" t="n">
-        <v>421358.4843590856</v>
+        <v>431339.7154399753</v>
       </c>
       <c r="F14" t="n">
         <v>439071.3945341054</v>
@@ -9499,13 +9499,13 @@
         <v>484075.099318068</v>
       </c>
       <c r="C15" t="n">
-        <v>465878.2123044098</v>
+        <v>463579.1833712696</v>
       </c>
       <c r="D15" t="n">
-        <v>481147.0576878786</v>
+        <v>470941.461361289</v>
       </c>
       <c r="E15" t="n">
-        <v>420781.8194534183</v>
+        <v>424810.7934613824</v>
       </c>
       <c r="F15" t="n">
         <v>427232.6438331051</v>
@@ -9519,13 +9519,13 @@
         <v>500776.8286870691</v>
       </c>
       <c r="C16" t="n">
-        <v>468871.5835179252</v>
+        <v>469814.3215407147</v>
       </c>
       <c r="D16" t="n">
-        <v>477453.4581644535</v>
+        <v>467747.8656548262</v>
       </c>
       <c r="E16" t="n">
-        <v>410381.4413810372</v>
+        <v>427683.735319078</v>
       </c>
       <c r="F16" t="n">
         <v>438701.0358348383</v>
@@ -9539,13 +9539,13 @@
         <v>454234.5955684311</v>
       </c>
       <c r="C17" t="n">
-        <v>453043.3052228018</v>
+        <v>452443.5041207724</v>
       </c>
       <c r="D17" t="n">
-        <v>479887.1277170181</v>
+        <v>472599.9507678151</v>
       </c>
       <c r="E17" t="n">
-        <v>421967.399546504</v>
+        <v>428349.364067018</v>
       </c>
       <c r="F17" t="n">
         <v>389365.2311649311</v>
@@ -9559,13 +9559,13 @@
         <v>434338.1314260365</v>
       </c>
       <c r="C18" t="n">
-        <v>447766.0860681516</v>
+        <v>448739.8938491767</v>
       </c>
       <c r="D18" t="n">
-        <v>483900.847732842</v>
+        <v>479982.4918357134</v>
       </c>
       <c r="E18" t="n">
-        <v>428378.4497676492</v>
+        <v>436000.0056028366</v>
       </c>
       <c r="F18" t="n">
         <v>371642.7573115207</v>
@@ -9579,13 +9579,13 @@
         <v>483737.6906074809</v>
       </c>
       <c r="C19" t="n">
-        <v>465350.4173933667</v>
+        <v>465812.578279043</v>
       </c>
       <c r="D19" t="n">
-        <v>481170.8453819156</v>
+        <v>478635.1625345945</v>
       </c>
       <c r="E19" t="n">
-        <v>417055.8274198771</v>
+        <v>421198.5485627055</v>
       </c>
       <c r="F19" t="n">
         <v>441334.4561095333</v>
@@ -9599,13 +9599,13 @@
         <v>447628.2018755316</v>
       </c>
       <c r="C20" t="n">
-        <v>452044.1380817267</v>
+        <v>454024.899051252</v>
       </c>
       <c r="D20" t="n">
-        <v>486595.8263489008</v>
+        <v>479672.5762284994</v>
       </c>
       <c r="E20" t="n">
-        <v>415080.7732300758</v>
+        <v>431370.401209712</v>
       </c>
       <c r="F20" t="n">
         <v>414458.0070360376</v>
@@ -9619,13 +9619,13 @@
         <v>473140.6158192882</v>
       </c>
       <c r="C21" t="n">
-        <v>463942.6802927791</v>
+        <v>459374.1035486201</v>
       </c>
       <c r="D21" t="n">
-        <v>481452.1019735932</v>
+        <v>471112.384298861</v>
       </c>
       <c r="E21" t="n">
-        <v>427774.6548013687</v>
+        <v>422324.4994137883</v>
       </c>
       <c r="F21" t="n">
         <v>440104.6986493482</v>
@@ -9639,13 +9639,13 @@
         <v>507723.3940432699</v>
       </c>
       <c r="C22" t="n">
-        <v>477282.5214727836</v>
+        <v>476686.0770335448</v>
       </c>
       <c r="D22" t="n">
-        <v>477589.961837709</v>
+        <v>478819.0282533765</v>
       </c>
       <c r="E22" t="n">
-        <v>430267.455796659</v>
+        <v>425158.2217998505</v>
       </c>
       <c r="F22" t="n">
         <v>465650.7135399835</v>
@@ -9659,13 +9659,13 @@
         <v>515425.7440322334</v>
       </c>
       <c r="C23" t="n">
-        <v>478904.3595286905</v>
+        <v>476548.2725129221</v>
       </c>
       <c r="D23" t="n">
-        <v>480797.3892526627</v>
+        <v>470024.7639921308</v>
       </c>
       <c r="E23" t="n">
-        <v>419350.3265173435</v>
+        <v>424580.3123959899</v>
       </c>
       <c r="F23" t="n">
         <v>471677.2423470335</v>
@@ -9679,13 +9679,13 @@
         <v>474163.8236882363</v>
       </c>
       <c r="C24" t="n">
-        <v>469037.9157426278</v>
+        <v>468671.9998466074</v>
       </c>
       <c r="D24" t="n">
-        <v>491067.1305718422</v>
+        <v>486579.1145160198</v>
       </c>
       <c r="E24" t="n">
-        <v>435722.0558206439</v>
+        <v>439129.9541159868</v>
       </c>
       <c r="F24" t="n">
         <v>425373.3255308414</v>
@@ -9699,13 +9699,13 @@
         <v>446257.8773632196</v>
       </c>
       <c r="C25" t="n">
-        <v>451899.4824891974</v>
+        <v>457215.6783551409</v>
       </c>
       <c r="D25" t="n">
-        <v>477456.3738459349</v>
+        <v>486135.2553461194</v>
       </c>
       <c r="E25" t="n">
-        <v>435439.0924885869</v>
+        <v>443233.5980155468</v>
       </c>
       <c r="F25" t="n">
         <v>374720.4685252238</v>
@@ -9719,13 +9719,13 @@
         <v>490550.8862705639</v>
       </c>
       <c r="C26" t="n">
-        <v>474635.1044517946</v>
+        <v>470837.60777623</v>
       </c>
       <c r="D26" t="n">
-        <v>490185.7413942814</v>
+        <v>476198.6839718223</v>
       </c>
       <c r="E26" t="n">
-        <v>433685.310077548</v>
+        <v>437078.0254949331</v>
       </c>
       <c r="F26" t="n">
         <v>429511.1333435799</v>
@@ -9739,13 +9739,13 @@
         <v>487185.296419327</v>
       </c>
       <c r="C27" t="n">
-        <v>476788.5740509802</v>
+        <v>467833.1839103642</v>
       </c>
       <c r="D27" t="n">
-        <v>490657.4062095284</v>
+        <v>474540.6923645735</v>
       </c>
       <c r="E27" t="n">
-        <v>449062.9697811604</v>
+        <v>433970.0512641668</v>
       </c>
       <c r="F27" t="n">
         <v>417282.9820707724</v>
@@ -9759,13 +9759,13 @@
         <v>503286.140930686</v>
       </c>
       <c r="C28" t="n">
-        <v>479181.1935691689</v>
+        <v>477601.1788093816</v>
       </c>
       <c r="D28" t="n">
-        <v>488175.4145699739</v>
+        <v>476229.3341844678</v>
       </c>
       <c r="E28" t="n">
-        <v>435416.1581647396</v>
+        <v>445534.8174032569</v>
       </c>
       <c r="F28" t="n">
         <v>428537.6857905939</v>
@@ -9779,13 +9779,13 @@
         <v>458469.9076146295</v>
       </c>
       <c r="C29" t="n">
-        <v>461312.2375777212</v>
+        <v>463347.3088584942</v>
       </c>
       <c r="D29" t="n">
-        <v>485222.9314991832</v>
+        <v>486305.1115709543</v>
       </c>
       <c r="E29" t="n">
-        <v>443612.9921790361</v>
+        <v>448966.1478217244</v>
       </c>
       <c r="F29" t="n">
         <v>378264.880861424</v>
@@ -9799,13 +9799,13 @@
         <v>439316.9334245569</v>
       </c>
       <c r="C30" t="n">
-        <v>449275.7995845338</v>
+        <v>462297.5689977534</v>
       </c>
       <c r="D30" t="n">
-        <v>480343.0407408476</v>
+        <v>503922.9391366243</v>
       </c>
       <c r="E30" t="n">
-        <v>433429.2634635568</v>
+        <v>451263.669271946</v>
       </c>
       <c r="F30" t="n">
         <v>360676.7430742009</v>
@@ -9819,13 +9819,13 @@
         <v>486907.3334628313</v>
       </c>
       <c r="C31" t="n">
-        <v>473512.1514549725</v>
+        <v>473865.1266292483</v>
       </c>
       <c r="D31" t="n">
-        <v>487614.6081269979</v>
+        <v>485185.0631970167</v>
       </c>
       <c r="E31" t="n">
-        <v>437624.6091014147</v>
+        <v>441426.6933102012</v>
       </c>
       <c r="F31" t="n">
         <v>435347.2692835885</v>
@@ -9839,13 +9839,13 @@
         <v>452135.850132654</v>
       </c>
       <c r="C32" t="n">
-        <v>459176.6555417894</v>
+        <v>459442.0052842695</v>
       </c>
       <c r="D32" t="n">
-        <v>481221.6209082007</v>
+        <v>488241.977444768</v>
       </c>
       <c r="E32" t="n">
-        <v>447548.2021374106</v>
+        <v>436588.3332344294</v>
       </c>
       <c r="F32" t="n">
         <v>398687.2500553382</v>
@@ -9859,13 +9859,13 @@
         <v>476716.4532965361</v>
       </c>
       <c r="C33" t="n">
-        <v>468798.1931046927</v>
+        <v>473631.5859662201</v>
       </c>
       <c r="D33" t="n">
-        <v>486581.5323982239</v>
+        <v>485961.3100557923</v>
       </c>
       <c r="E33" t="n">
-        <v>437082.7901451588</v>
+        <v>457101.1480543613</v>
       </c>
       <c r="F33" t="n">
         <v>425420.4798361226</v>
@@ -9879,13 +9879,13 @@
         <v>510032.5815913674</v>
       </c>
       <c r="C34" t="n">
-        <v>487416.0400516829</v>
+        <v>486165.938496649</v>
       </c>
       <c r="D34" t="n">
-        <v>487994.1445188522</v>
+        <v>495388.2771984935</v>
       </c>
       <c r="E34" t="n">
-        <v>454917.9782095551</v>
+        <v>437909.0302742124</v>
       </c>
       <c r="F34" t="n">
         <v>458424.9555405931</v>
@@ -9899,13 +9899,13 @@
         <v>517457.1941383206</v>
       </c>
       <c r="C35" t="n">
-        <v>489730.3493487909</v>
+        <v>489266.6404612009</v>
       </c>
       <c r="D35" t="n">
-        <v>484070.8461860418</v>
+        <v>488902.7704282999</v>
       </c>
       <c r="E35" t="n">
-        <v>457588.1379759312</v>
+        <v>448180.4783337712</v>
       </c>
       <c r="F35" t="n">
         <v>463919.1844587934</v>
@@ -9919,13 +9919,13 @@
         <v>477719.6304602945</v>
       </c>
       <c r="C36" t="n">
-        <v>476980.6575876327</v>
+        <v>473138.2025803688</v>
       </c>
       <c r="D36" t="n">
-        <v>490275.131921649</v>
+        <v>485207.997520864</v>
       </c>
       <c r="E36" t="n">
-        <v>465353.4511309862</v>
+        <v>455651.4143304825</v>
       </c>
       <c r="F36" t="n">
         <v>417689.7864063014</v>
@@ -9939,13 +9939,13 @@
         <v>450845.6892198427</v>
       </c>
       <c r="C37" t="n">
-        <v>462768.0078922451</v>
+        <v>461460.3565465655</v>
       </c>
       <c r="D37" t="n">
-        <v>489302.8588188887</v>
+        <v>491565.6054338813</v>
       </c>
       <c r="E37" t="n">
-        <v>458227.7033759952</v>
+        <v>447579.0656926036</v>
       </c>
       <c r="F37" t="n">
         <v>362256.818111221</v>
@@ -9959,13 +9959,13 @@
         <v>493511.9234072923</v>
       </c>
       <c r="C38" t="n">
-        <v>480799.6419462101</v>
+        <v>480325.5902465938</v>
       </c>
       <c r="D38" t="n">
-        <v>493729.0766501427</v>
+        <v>481356.9156403542</v>
       </c>
       <c r="E38" t="n">
-        <v>451432.0676560402</v>
+        <v>466886.7795763612</v>
       </c>
       <c r="F38" t="n">
         <v>416534.2175314415</v>
@@ -9979,13 +9979,13 @@
         <v>490273.7956117464</v>
       </c>
       <c r="C39" t="n">
-        <v>482864.5163566919</v>
+        <v>480464.1920005648</v>
       </c>
       <c r="D39" t="n">
-        <v>500829.258856535</v>
+        <v>494255.0371437073</v>
       </c>
       <c r="E39" t="n">
-        <v>456600.824223578</v>
+        <v>454829.9032945633</v>
       </c>
       <c r="F39" t="n">
         <v>405453.6658581941</v>
